--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,34 @@
   </si>
   <si>
     <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔잔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +594,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F74" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F75" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F75"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -855,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -871,7 +899,7 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,48 +919,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -941,182 +986,195 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,43 +1182,43 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="B24">
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>4</v>
+      <c r="C25" t="s">
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
+      <c r="B26">
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1168,43 +1226,43 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,10 +1281,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1234,10 +1292,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1245,10 +1303,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1259,48 +1317,48 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="C36" t="s">
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
-        <v>15</v>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1308,21 +1366,21 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,10 +1388,10 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,95 +1399,95 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="3" t="s">
+    <row r="45" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="3" t="s">
+    <row r="48" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B51">
-        <v>3</v>
+      <c r="C51" t="s">
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,43 +1495,43 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
-        <v>12</v>
+      <c r="B53">
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B54">
-        <v>2</v>
+      <c r="C54" t="s">
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>15</v>
+      <c r="B55">
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,10 +1539,10 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,10 +1550,10 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,59 +1564,59 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B59">
-        <v>4</v>
+      <c r="C59" t="s">
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
       <c r="D60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="3" t="s">
+    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" t="s">
-        <v>57</v>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,10 +1624,10 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,10 +1635,10 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1588,10 +1646,10 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,77 +1657,88 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
         <v>4</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
         <v>69</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>70</v>
       </c>
     </row>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,14 @@
   </si>
   <si>
     <t>잔잔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,8 +602,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F75" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F76" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F76"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -883,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,13 +929,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>82</v>
@@ -936,22 +944,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -964,11 +965,18 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -977,16 +985,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1004,7 +1011,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1015,13 +1022,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1029,10 +1037,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1040,59 +1048,59 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1100,92 +1108,92 @@
         <v>6</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,43 +1201,43 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
-        <v>4</v>
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,43 +1245,43 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1303,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,10 +1322,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,48 +1336,48 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37">
-        <v>4</v>
+      <c r="C37" t="s">
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
+      <c r="B38">
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
       <c r="D39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1377,21 +1385,21 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1399,10 +1407,10 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,95 +1418,95 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    <row r="46" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="3" t="s">
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="3" t="s">
+    <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B52">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,43 +1514,43 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
-        <v>12</v>
+      <c r="B54">
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55">
-        <v>2</v>
+      <c r="C55" t="s">
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C56" t="s">
-        <v>15</v>
+      <c r="B56">
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,10 +1558,10 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1575,59 +1583,59 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B60">
-        <v>4</v>
+      <c r="C60" t="s">
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
       <c r="D61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="3" t="s">
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" t="s">
-        <v>57</v>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,10 +1643,10 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,10 +1654,10 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,77 +1676,88 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
         <v>4</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>67</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
         <v>69</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>70</v>
       </c>
     </row>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>아야야…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후배</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +464,18 @@
   </si>
   <si>
     <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고연서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F76" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F77" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F77"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -891,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,100 +937,99 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1034,13 +1041,14 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1048,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1059,59 +1067,59 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1119,92 +1127,92 @@
         <v>6</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,43 +1220,43 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
+      <c r="B26">
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27">
-        <v>4</v>
+      <c r="C27" t="s">
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
+      <c r="B28">
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,43 +1264,43 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,10 +1308,10 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,10 +1319,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1322,10 +1330,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,48 +1355,48 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
-        <v>4</v>
+      <c r="C38" t="s">
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
+      <c r="B39">
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
       <c r="D40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>40</v>
+      <c r="D41" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1396,21 +1404,21 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,10 +1426,10 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,95 +1437,95 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,43 +1533,43 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>12</v>
+      <c r="B55">
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B56">
-        <v>2</v>
+      <c r="C56" t="s">
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C57" t="s">
-        <v>15</v>
+      <c r="B57">
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1569,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,62 +1599,62 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B61">
-        <v>4</v>
+      <c r="C61" t="s">
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
       <c r="D62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B64">
-        <v>2</v>
+      <c r="C64" t="s">
+        <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C65" t="s">
-        <v>15</v>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1665,10 +1673,10 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,64 +1695,64 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>71</v>
@@ -1752,13 +1760,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
         <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,40 @@
   </si>
   <si>
     <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후 드디어 수업이 끝났네.
+집에 가서 훈련해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐을 챙겨 집에 가려던 순간 어디선가 소란스러운 소리가 들려왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨일이지?
+이 몸은 궁금한 것은 못 참는다구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 소리가 나는 쪽으로 조심스럽게 다가갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 그 곳에서 기다리고 있는 장면은 내가 이성의 끊을 놓게 하기에 충분했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F77" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F121" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F121"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -899,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1780,6 +1814,144 @@
         <v>69</v>
       </c>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="180">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,16 +303,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아뇨, 그게…
 혹시 중간고사까지 저에게 공부를 가르쳐주실 수 있나해서.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,6 +502,335 @@
   </si>
   <si>
     <t>연소고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러브레터 사건 이후 많은 것이 바꼈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 먼저 바뀐것은 주변의 시선.
+이전까진 무관심에 가깝던 시선들이 어딘가 꺼림칙한 시선으로 바뀐 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전교생들 앞에서 그런 창피한 꼴을 당했으니 엮이고 싶어하지 않는 것도 당연하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 하나, 날 괴롭히는 무리들이 늘었다.
+전에는 서민결 패거리들만 괴롭혔는데 이제는 공식 동네북 느낌이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금도 뒤에서 무수한 지우개가루가 날아와 내 뒤통수에 꽂히고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 하지말라고!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해지맬래궈~~ ㅋㅋㅋ 개웃겨!! ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 순수한 마음을 짖밟지 말라고!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짖밟지 말라궈~~ ㅋㅋㅋㅋ 아 이 새x 왜이렇게 웃기냐 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야! 조심해 ㅋㅋ 저 새x 화나면 또 누구 한 명 잡고 고백해서 혼내준다고! ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 뭐 그럼 네 돼지같은 몸뚱아리는 짖밟아도 되냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 그 녀석은 내 복부를 걷어차 넘어트리고는 무차별적으로 밟기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으으…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더러운 변태 돼지새x야! 더 개겨봐! 어?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지두루치기 요리중ㅋㅋㅋ 엌!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기적흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 내가 이런꼴을 당해야 하는거지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 뭘 잘못했다고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네 뭐해!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 뭔데?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 녀석은 내 소꿉친구 최우정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우정이는 다른 반 이지만 지나가다 내가 맞고있는 것을 본 모양이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우정이에게만은 내가 왕따당하는 중이라는 걸 들키고 싶지 않았는데…
+좋은 녀석이라 말려들게 하고 싶지 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고연서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 돼지 친구다! 어쩔건데?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누군가가 큰소리로 왜치며 나를 패던 무리들을 밀쳐냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네 우리 돼지가 좀 약하고 만만하다고 해서 이래도 되는 거야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 야 너 저 변태돼지랑 어울리면 어떻게 되는지 몰라?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 되는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨…
+돼지. 정말이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 좀 해봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가라고 좀!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예예 퇴장하시랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 잠깐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼴에 여자 앞이라고 가오는 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무리 중 한명이 우정이를 끌고 나갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 그럼 방해꾼도 없어졌으니 다시 시작해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억울하다…
+나는 공개적으로 고백 할 생각 없었는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서연결이 시켜서… 맞기 싫어서 어쩔 수 없이 한 것 뿐인데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 일로 내가 왜 이런 꼴을 당해야 하는 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화난다…
+이유를 만들어서 나를 괴롭히는 이 녀석들에게 화난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우정이에게 내 비참한 모습을 드러내버린 이 녀석들이게 화가 난다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우오오오오오오오!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우왓! 뭐야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 돼지멱은 왜 따는 거냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 못참아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 참으면 어쩔건데?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 판 뜨자! 이 씨X!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1</t>
+  </si>
+  <si>
+    <t>연소고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 못 봤구나? 저 돼지가 우리 반 아리를 전교생 앞에서 공개적으로 고백해서 혼내준거! ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F121" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F202" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F202"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -933,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,53 +1292,53 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -1041,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -1058,31 +1379,31 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1104,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1115,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1123,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -1131,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1197,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1290,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,10 +2072,10 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,191 +2086,1243 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
         <v>66</v>
       </c>
-      <c r="C77" t="s">
-        <v>68</v>
-      </c>
       <c r="D77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="D103" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" t="s">
-        <v>94</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D109" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="D119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>98</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" t="s">
+        <v>111</v>
+      </c>
+      <c r="D132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" t="s">
+        <v>103</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>98</v>
+      </c>
+      <c r="C147" t="s">
+        <v>133</v>
+      </c>
+      <c r="D147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>98</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>98</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156" t="s">
+        <v>133</v>
+      </c>
+      <c r="D156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>98</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>98</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D161" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>98</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+      <c r="C174" t="s">
+        <v>103</v>
+      </c>
+      <c r="D174" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" t="s">
+        <v>103</v>
+      </c>
+      <c r="D178" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C179" t="s">
+        <v>112</v>
+      </c>
+      <c r="D179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" t="s">
+        <v>103</v>
+      </c>
+      <c r="D180" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>98</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>97</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>97</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="s">
+        <v>92</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>97</v>
+      </c>
+      <c r="D188" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>97</v>
+      </c>
+      <c r="D189" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,14 @@
   </si>
   <si>
     <t>피격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움세팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F202" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F202"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F213" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F213"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -1254,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="E175" sqref="E175"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3183,145 +3191,156 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>4</v>
       </c>
       <c r="D181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>98</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>97</v>
-      </c>
-      <c r="B183">
-        <v>4</v>
-      </c>
-      <c r="D183" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>97</v>
-      </c>
-      <c r="B184">
-        <v>4</v>
-      </c>
-      <c r="D184" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>97</v>
-      </c>
-      <c r="C185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="C187" t="s">
-        <v>92</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>97</v>
-      </c>
-      <c r="D188" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>97</v>
-      </c>
-      <c r="D189" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D197" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>92</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>97</v>
       </c>
     </row>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="188">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배경음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,6 +835,34 @@
   </si>
   <si>
     <t>싸움세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭐야..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +997,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F213" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F213"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F214" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F214"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -1262,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,13 +1324,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>79</v>
@@ -1317,13 +1341,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1334,19 +1358,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -1387,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,6 +1425,12 @@
       <c r="D7" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1419,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1430,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
@@ -1444,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1490,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1583,7 +1613,7 @@
         <v>6</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1616,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>74</v>
@@ -1896,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -1932,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2017,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>70</v>
@@ -2094,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,18 +2175,18 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -2167,1181 +2197,1208 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
         <v>98</v>
-      </c>
-      <c r="D83" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" t="s">
         <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C137" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B143">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C166" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D172" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C175" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C178" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D180" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
         <v>180</v>
-      </c>
-      <c r="B181">
-        <v>4</v>
-      </c>
-      <c r="D181" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B182">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>97</v>
-      </c>
-      <c r="B194">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
-        <v>46</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>183</v>
+      </c>
+      <c r="D185" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B195">
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>97</v>
-      </c>
-      <c r="C196" t="s">
-        <v>92</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C197" t="s">
+        <v>91</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>97</v>
-      </c>
-      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C199" t="s">
+        <v>91</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D201" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="222">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학생1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해지맬래궈~~ ㅋㅋㅋ 개웃겨!! ㅋㅋㅋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,14 +544,6 @@
   </si>
   <si>
     <t>파칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,10 +746,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서연결이 시켜서… 맞기 싫어서 어쩔 수 없이 한 것 뿐인데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그런 일로 내가 왜 이런 꼴을 당해야 하는 거지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -846,14 +830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학생2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐, 뭐야..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>흔들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,6 +839,166 @@
   </si>
   <si>
     <t>캐릭터애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐냐 너 저 찐따한테 발리고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 몰라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쯧쯧 형이 하는 거 잘 봐둬라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벼 돼지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고1엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아악!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후욱… 후욱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘들아 나왔…
+뭐하냐 너네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 실화..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결이 시켜서… 맞기 싫어서 어쩔 수 없이 한 것 뿐인데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 돼지한테 발린 거 아니다…
+돼지 괴롭히다 넘어진거야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜? 너도 나랑 한 판 하게?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 있나보네? ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최진혁</t>
+  </si>
+  <si>
+    <t>곽종훈</t>
+  </si>
+  <si>
+    <t>정원호</t>
+  </si>
+  <si>
+    <t>학교종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당장이라도 한 판 붙을 것 같은 분위기에 수업종이 찬 물을 끼얹었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정원호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽네 ㅋㅋ 다음 라운드는 다음에 하자고 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 진정하고 내 자리로 가서 태연한 척 앉았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 다음으로 상대할 저 녀석은 앞의 두 녀석과는 차원이 다르다는 걸 나 자신이 잘 알기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 웃고 개그를 치는 걸 좋아하지만 정원호 그 녀석도 파이터다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교짱 서민결 급은 아니지만 분명히 싸움의 고수…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀석은 아쉽다고 했지만 내 마음은 다르다.
+그 순간 학교종이 울려 다행이라 생각하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 과연 이길 수 있을까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 걱정을 하고있자 순식간에 시간이 흘러 방과후가 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후배1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F214" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F214"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F245" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F245"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -1286,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:J245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1370,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -1429,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2110,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>70</v>
@@ -2124,126 +2260,126 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>64</v>
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>64</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>64</v>
       </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
       <c r="D76" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>64</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
         <v>66</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>97</v>
       </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
       <c r="D83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="3" t="s">
+    <row r="85" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="3" t="s">
+    <row r="87" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2251,10 +2387,10 @@
         <v>97</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2265,51 +2401,51 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="C91" t="s">
-        <v>102</v>
+      <c r="B91">
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B92">
-        <v>2</v>
+      <c r="C92" t="s">
+        <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
         <v>172</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
-      </c>
-      <c r="D93" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2317,10 +2453,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2328,10 +2464,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2339,10 +2475,10 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,21 +2486,21 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>6</v>
+      <c r="C99" t="s">
+        <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,10 +2508,10 @@
         <v>97</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,29 +2530,29 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>97</v>
       </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
       <c r="D103" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>97</v>
       </c>
-      <c r="B104">
-        <v>6</v>
-      </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2424,21 +2560,21 @@
         <v>97</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>97</v>
       </c>
-      <c r="C106" t="s">
-        <v>111</v>
+      <c r="B106">
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,7 +2582,7 @@
         <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
         <v>120</v>
@@ -2457,18 +2593,21 @@
         <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>97</v>
       </c>
+      <c r="C109" t="s">
+        <v>205</v>
+      </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2476,18 +2615,15 @@
         <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>97</v>
       </c>
-      <c r="B111">
-        <v>5</v>
-      </c>
       <c r="D111" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,10 +2631,10 @@
         <v>97</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,32 +2653,32 @@
         <v>97</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>97</v>
       </c>
-      <c r="C115" t="s">
-        <v>128</v>
+      <c r="B115">
+        <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>97</v>
       </c>
-      <c r="B116">
-        <v>4</v>
+      <c r="C116" t="s">
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2550,10 +2686,10 @@
         <v>97</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,48 +2697,51 @@
         <v>97</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>97</v>
       </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
       <c r="D119" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>97</v>
       </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>97</v>
       </c>
-      <c r="C121" t="s">
-        <v>128</v>
+      <c r="B121">
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>97</v>
       </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,48 +2749,45 @@
         <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>97</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>97</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>97</v>
       </c>
-      <c r="C126" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126" t="s">
-        <v>133</v>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>97</v>
       </c>
-      <c r="B127">
-        <v>3</v>
+      <c r="C127" t="s">
+        <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2659,21 +2795,21 @@
         <v>97</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>97</v>
       </c>
-      <c r="C129" t="s">
-        <v>132</v>
+      <c r="B129">
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,43 +2817,43 @@
         <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D130" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>97</v>
       </c>
-      <c r="B131">
-        <v>2</v>
+      <c r="C131" t="s">
+        <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>97</v>
       </c>
-      <c r="C132" t="s">
-        <v>110</v>
+      <c r="B132">
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>97</v>
       </c>
-      <c r="B133">
-        <v>2</v>
+      <c r="C133" t="s">
+        <v>204</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,54 +2861,54 @@
         <v>97</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>97</v>
       </c>
-      <c r="C135" t="s">
-        <v>132</v>
+      <c r="B135">
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>97</v>
       </c>
-      <c r="B136">
-        <v>2</v>
+      <c r="C136" t="s">
+        <v>129</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>97</v>
       </c>
-      <c r="C137" t="s">
-        <v>105</v>
+      <c r="B137">
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>97</v>
       </c>
-      <c r="B138">
-        <v>2</v>
+      <c r="C138" t="s">
+        <v>205</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2780,43 +2916,43 @@
         <v>97</v>
       </c>
       <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>97</v>
+      </c>
+      <c r="B140">
         <v>3</v>
       </c>
-      <c r="D139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>97</v>
-      </c>
-      <c r="C140" t="s">
-        <v>132</v>
-      </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>97</v>
       </c>
       <c r="C141" t="s">
-        <v>102</v>
-      </c>
-      <c r="D141" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>97</v>
       </c>
-      <c r="B142">
-        <v>3</v>
+      <c r="C142" t="s">
+        <v>102</v>
       </c>
       <c r="D142" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2824,43 +2960,43 @@
         <v>97</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>97</v>
       </c>
-      <c r="C144" t="s">
-        <v>132</v>
+      <c r="B144">
+        <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>97</v>
       </c>
-      <c r="B145">
-        <v>4</v>
+      <c r="C145" t="s">
+        <v>129</v>
       </c>
       <c r="D145" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>97</v>
       </c>
-      <c r="C146" t="s">
-        <v>102</v>
+      <c r="B146">
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,21 +3004,21 @@
         <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D147" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>97</v>
       </c>
-      <c r="B148">
-        <v>4</v>
+      <c r="C148" t="s">
+        <v>129</v>
       </c>
       <c r="D148" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2893,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -2912,10 +3048,10 @@
         <v>97</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -2923,10 +3059,10 @@
         <v>97</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -2934,10 +3070,10 @@
         <v>97</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,21 +3081,21 @@
         <v>97</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>97</v>
       </c>
-      <c r="C155" t="s">
-        <v>102</v>
+      <c r="B155">
+        <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -2967,43 +3103,43 @@
         <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D156" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>97</v>
       </c>
-      <c r="B157">
-        <v>2</v>
+      <c r="C157" t="s">
+        <v>129</v>
       </c>
       <c r="D157" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>97</v>
       </c>
-      <c r="C158" t="s">
-        <v>105</v>
+      <c r="B158">
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>97</v>
       </c>
-      <c r="B159">
-        <v>3</v>
+      <c r="C159" t="s">
+        <v>205</v>
       </c>
       <c r="D159" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,62 +3147,62 @@
         <v>97</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>97</v>
       </c>
-      <c r="C161" t="s">
-        <v>132</v>
+      <c r="B161">
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>97</v>
       </c>
-      <c r="B162">
-        <v>4</v>
+      <c r="C162" t="s">
+        <v>129</v>
       </c>
       <c r="D162" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>97</v>
       </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
       <c r="D163" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>97</v>
       </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
       <c r="D164" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>97</v>
       </c>
-      <c r="C165" t="s">
-        <v>111</v>
+      <c r="B165">
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3074,37 +3210,40 @@
         <v>97</v>
       </c>
       <c r="C166" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="D166" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>97</v>
       </c>
-      <c r="B167">
-        <v>4</v>
+      <c r="C167" t="s">
+        <v>203</v>
       </c>
       <c r="D167" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>97</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>97</v>
       </c>
-      <c r="D169" t="s">
-        <v>161</v>
+      <c r="D169" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3112,45 +3251,42 @@
         <v>97</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>97</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>97</v>
       </c>
-      <c r="D172" t="s">
-        <v>164</v>
+      <c r="D172" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>97</v>
       </c>
-      <c r="B173">
-        <v>4</v>
-      </c>
       <c r="D173" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>97</v>
       </c>
-      <c r="C174" t="s">
-        <v>102</v>
+      <c r="B174">
+        <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3158,10 +3294,10 @@
         <v>97</v>
       </c>
       <c r="C175" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,32 +3305,32 @@
         <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="D176" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>97</v>
       </c>
-      <c r="B177">
-        <v>4</v>
+      <c r="C177" t="s">
+        <v>204</v>
       </c>
       <c r="D177" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>97</v>
       </c>
-      <c r="C178" t="s">
-        <v>102</v>
+      <c r="B178">
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3202,10 +3338,10 @@
         <v>97</v>
       </c>
       <c r="C179" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D179" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3213,191 +3349,591 @@
         <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="C181" t="s">
+        <v>102</v>
       </c>
       <c r="D181" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="B182">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>97</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>178</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>178</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189" t="s">
+        <v>203</v>
+      </c>
+      <c r="D189" t="s">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B184">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>178</v>
+      </c>
+      <c r="B190">
         <v>3</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D190" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>178</v>
+      </c>
+      <c r="C191" t="s">
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>178</v>
+      </c>
+      <c r="C193" t="s">
+        <v>203</v>
+      </c>
+      <c r="D193" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>178</v>
+      </c>
+      <c r="C194" t="s">
+        <v>204</v>
+      </c>
+      <c r="D194" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C185" t="s">
-        <v>183</v>
-      </c>
-      <c r="D185" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>96</v>
-      </c>
-      <c r="B195">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="C195" t="s">
+        <v>204</v>
       </c>
       <c r="D195" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>96</v>
-      </c>
-      <c r="C197" t="s">
-        <v>91</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>96</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>96</v>
-      </c>
-      <c r="C199" t="s">
-        <v>91</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>93</v>
+        <v>189</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="C203" t="s">
+        <v>195</v>
+      </c>
+      <c r="D203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="C205" t="s">
+        <v>203</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="C206" t="s">
+        <v>205</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>96</v>
+        <v>189</v>
+      </c>
+      <c r="C207" t="s">
+        <v>195</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>189</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>189</v>
+      </c>
+      <c r="C209" t="s">
+        <v>205</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>189</v>
+      </c>
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>189</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" t="s">
+        <v>195</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>189</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>189</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>189</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>189</v>
+      </c>
+      <c r="D217" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>189</v>
+      </c>
+      <c r="D218" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>189</v>
+      </c>
+      <c r="D219" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>189</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>189</v>
+      </c>
+      <c r="D221" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>189</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>189</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+      <c r="C228" t="s">
+        <v>91</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+      <c r="D229" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+      <c r="C230" t="s">
+        <v>91</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="D231" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>96</v>
+      </c>
+      <c r="D232" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>96</v>
       </c>
     </row>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="454">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,11 +267,6 @@
   </si>
   <si>
     <t>선배 쓰레기네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤에에엑?! 농담이라구!
-가르쳐 줄게 후배쨩!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1421,10 +1416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그, 그렇게 말해도 모른다고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저기, 선배는 알고싶지 않으세요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,14 +1473,6 @@
   </si>
   <si>
     <t>응..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선배도 이런거에 약하신가 보네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐냐고!!! 선배를 이렇게 놀리는 법이 있냐고오!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,11 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그렇게 말하고는 연서는 어색한 웃음을 지어보였다.
-그 모습이 평서와는 사뭇 달라보였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래서 오늘 점심은 뭘까나?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1992,6 +1970,32 @@
   </si>
   <si>
     <t>하지만 난 마지막으로 귀여운 제자에게 져주기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 말하고는 연서는 어색한 웃음을 지어보였다.
+그 모습이 평소와는 사뭇 달라보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤에에엑?! 농담이라구!
+가르쳐 줄게! 가르쳐 줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배님도 이런거에 약하신가 보네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐냐고!!! 하늘같은 선배를 이렇게 놀리는 법이 있냐고오!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설정 (name:키 , Korean:값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고연서레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2198,8 +2202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F546" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F546"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F551" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F551"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -2487,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J546"/>
+  <dimension ref="A1:J551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="J374" sqref="J374"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2525,19 +2529,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2549,13 +2553,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2567,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -2598,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -2616,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2629,13 +2633,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2648,13 +2652,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2668,6 +2672,12 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
@@ -2678,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2690,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2699,7 +2709,7 @@
         <v>고연서1</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -2708,7 +2718,7 @@
         <v>고연서1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2732,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2780,7 +2790,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2882,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3059,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3224,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3293,7 +3303,7 @@
         <v>고연서1</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -3305,7 +3315,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3329,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3341,19 +3351,19 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A131" si="1">A67</f>
+        <f t="shared" ref="A68:A132" si="1">A67</f>
         <v>고연서1</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3365,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3377,7 +3387,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3386,10 +3396,10 @@
         <v>고연서1</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3401,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3413,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3422,38 +3432,40 @@
         <v>고연서1</v>
       </c>
       <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>212</v>
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>고연서2</v>
+      <c r="A75" t="str">
+        <f>A73</f>
+        <v>고연서1</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="8" t="s">
-        <v>68</v>
+      <c r="D76" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
@@ -3461,19 +3473,17 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B78" s="7">
-        <v>4</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8" t="s">
         <v>65</v>
@@ -3481,32 +3491,32 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="7">
+        <v>4</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B80" s="7">
-        <v>6</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>215</v>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3517,11 +3527,11 @@
         <v>고연서2</v>
       </c>
       <c r="B81" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3531,12 +3541,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7" t="s">
-        <v>216</v>
-      </c>
+      <c r="B82" s="7">
+        <v>2</v>
+      </c>
+      <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3546,12 +3556,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B83" s="7">
-        <v>3</v>
-      </c>
-      <c r="C83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="D83" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -3561,10 +3571,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="7">
+        <v>3</v>
+      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -3575,11 +3587,9 @@
         <v>고연서2</v>
       </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -3591,115 +3601,115 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>232</v>
+        <v>215</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>246</v>
+        <v>217</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -3711,10 +3721,10 @@
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -3724,12 +3734,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B95" s="7">
-        <v>4</v>
-      </c>
-      <c r="C95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="D95" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -3740,26 +3750,26 @@
         <v>고연서2</v>
       </c>
       <c r="B96" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>228</v>
+      <c r="B97" s="7">
+        <v>6</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -3771,25 +3781,25 @@
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>234</v>
+        <v>215</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -3799,12 +3809,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B100" s="7">
-        <v>3</v>
-      </c>
-      <c r="C100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="D100" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -3814,10 +3824,10 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
         <v>236</v>
       </c>
@@ -3830,39 +3840,39 @@
         <v>고연서2</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
+      <c r="C102" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="D102" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>239</v>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -3874,10 +3884,10 @@
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -3887,27 +3897,27 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B106" s="7">
-        <v>4</v>
-      </c>
-      <c r="C106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="D106" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>243</v>
+      <c r="B107" s="7">
+        <v>4</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -3919,25 +3929,25 @@
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -3949,10 +3959,10 @@
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
@@ -3962,12 +3972,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B111" s="7">
-        <v>3</v>
-      </c>
-      <c r="C111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="D111" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
@@ -3977,12 +3987,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7" t="s">
-        <v>216</v>
-      </c>
+      <c r="B112" s="7">
+        <v>3</v>
+      </c>
+      <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -3993,9 +4003,11 @@
         <v>고연서2</v>
       </c>
       <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
+      <c r="C113" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="D113" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -4006,11 +4018,9 @@
         <v>고연서2</v>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -4022,40 +4032,40 @@
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>251</v>
+        <v>215</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -4065,42 +4075,42 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B118" s="7">
-        <v>4</v>
-      </c>
-      <c r="C118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="D118" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>253</v>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -4112,10 +4122,10 @@
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -4127,40 +4137,40 @@
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>257</v>
+        <v>215</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B124" s="7">
-        <v>4</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7" t="s">
-        <v>258</v>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -4170,10 +4180,12 @@
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="7">
+        <v>4</v>
+      </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -4184,41 +4196,39 @@
         <v>고연서2</v>
       </c>
       <c r="B126" s="7"/>
-      <c r="C126" s="7" t="s">
-        <v>218</v>
-      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>262</v>
+        <v>217</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="str">
         <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B128" s="7">
-        <v>6</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="9" t="s">
-        <v>265</v>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -4229,11 +4239,11 @@
         <v>고연서2</v>
       </c>
       <c r="B129" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" s="7"/>
-      <c r="D129" s="9">
-        <v>2</v>
+      <c r="D129" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -4244,11 +4254,11 @@
         <v>고연서2</v>
       </c>
       <c r="B130" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="9" t="s">
-        <v>267</v>
+      <c r="D130" s="9">
+        <v>2</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -4259,41 +4269,41 @@
         <v>고연서2</v>
       </c>
       <c r="B131" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="str">
-        <f t="shared" ref="A132:A195" si="2">A131</f>
+        <f t="shared" si="1"/>
         <v>고연서2</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>266</v>
+      <c r="B132" s="7">
+        <v>6</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A133:A197" si="2">A132</f>
         <v>고연서2</v>
       </c>
-      <c r="B133" s="7">
-        <v>4</v>
-      </c>
-      <c r="C133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="D133" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
@@ -4308,7 +4318,7 @@
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -4323,44 +4333,52 @@
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>394</v>
-      </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="D136" t="s">
-        <v>258</v>
-      </c>
+      <c r="A136" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>고연서2</v>
+      </c>
+      <c r="B136" s="7">
+        <v>8</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D136" s="7">
+        <v>3</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>고연서3</v>
-      </c>
-      <c r="B137">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>263</v>
-      </c>
+      <c r="A137" s="7" t="str">
+        <f>A135</f>
+        <v>고연서2</v>
+      </c>
+      <c r="B137" s="7">
+        <v>4</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>고연서3</v>
+      <c r="A138" t="s">
+        <v>389</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4369,10 +4387,10 @@
         <v>고연서3</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4381,10 +4399,10 @@
         <v>고연서3</v>
       </c>
       <c r="B140">
-        <v>7</v>
-      </c>
-      <c r="D140">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4393,10 +4411,10 @@
         <v>고연서3</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4404,8 +4422,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="D142" t="s">
-        <v>273</v>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4414,10 +4435,10 @@
         <v>고연서3</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,11 +4446,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B144">
-        <v>4</v>
-      </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4438,10 +4456,10 @@
         <v>고연서3</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4449,8 +4467,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
       <c r="D146" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,11 +4479,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C147" t="s">
-        <v>218</v>
+      <c r="B147">
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4470,11 +4491,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
       <c r="D148" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4482,11 +4500,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B149">
-        <v>3</v>
+      <c r="C149" t="s">
+        <v>217</v>
       </c>
       <c r="D149" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4494,11 +4512,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C150" t="s">
-        <v>216</v>
+      <c r="B150">
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4506,11 +4524,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C151" t="s">
-        <v>218</v>
+      <c r="B151">
+        <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4518,8 +4536,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C152" t="s">
+        <v>215</v>
+      </c>
       <c r="D152" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,10 +4549,10 @@
         <v>고연서3</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D153" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4539,11 +4560,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
       <c r="D154" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4552,10 +4570,10 @@
         <v>고연서3</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D155" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4564,10 +4582,10 @@
         <v>고연서3</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4575,11 +4593,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B157">
-        <v>6</v>
+      <c r="C157" t="s">
+        <v>215</v>
       </c>
       <c r="D157" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4587,11 +4605,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C158" t="s">
-        <v>218</v>
+      <c r="B158">
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4599,11 +4617,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C159" t="s">
-        <v>216</v>
+      <c r="B159">
+        <v>6</v>
       </c>
       <c r="D159" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,10 +4630,10 @@
         <v>고연서3</v>
       </c>
       <c r="C160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,10 +4642,10 @@
         <v>고연서3</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D161" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4635,11 +4653,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B162">
-        <v>6</v>
+      <c r="C162" t="s">
+        <v>217</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4647,11 +4665,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B163">
-        <v>4</v>
+      <c r="C163" t="s">
+        <v>215</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4660,10 +4678,10 @@
         <v>고연서3</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4671,11 +4689,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C165" t="s">
-        <v>218</v>
+      <c r="B165">
+        <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4683,11 +4701,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C166" t="s">
-        <v>218</v>
+      <c r="B166">
+        <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,10 +4714,10 @@
         <v>고연서3</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D167" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,11 +4725,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B168">
-        <v>4</v>
+      <c r="C168" t="s">
+        <v>217</v>
       </c>
       <c r="D168" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -4719,11 +4737,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B169">
-        <v>4</v>
+      <c r="C169" t="s">
+        <v>215</v>
       </c>
       <c r="D169" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -4731,11 +4749,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C170" t="s">
-        <v>218</v>
+      <c r="B170">
+        <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4743,8 +4761,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C171" t="s">
-        <v>218</v>
+      <c r="B171">
+        <v>4</v>
       </c>
       <c r="D171" t="s">
         <v>291</v>
@@ -4755,8 +4773,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C172" t="s">
+        <v>217</v>
+      </c>
       <c r="D172" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4764,11 +4785,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B173">
-        <v>3</v>
+      <c r="C173" t="s">
+        <v>217</v>
       </c>
       <c r="D173" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4776,11 +4797,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B174">
-        <v>4</v>
-      </c>
       <c r="D174" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4788,11 +4806,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C175" t="s">
-        <v>216</v>
+      <c r="B175">
+        <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,11 +4818,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C176" t="s">
-        <v>218</v>
+      <c r="B176">
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4813,10 +4831,10 @@
         <v>고연서3</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D177" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4824,8 +4842,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C178" t="s">
+        <v>217</v>
+      </c>
       <c r="D178" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4833,8 +4854,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C179" t="s">
+        <v>215</v>
+      </c>
       <c r="D179" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4842,11 +4866,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C180" t="s">
-        <v>216</v>
-      </c>
       <c r="D180" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4854,11 +4875,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C181" t="s">
-        <v>218</v>
-      </c>
       <c r="D181" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4867,10 +4885,10 @@
         <v>고연서3</v>
       </c>
       <c r="C182" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D182" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,8 +4896,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C183" t="s">
+        <v>217</v>
+      </c>
       <c r="D183" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4887,11 +4908,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B184">
-        <v>3</v>
+      <c r="C184" t="s">
+        <v>215</v>
       </c>
       <c r="D184" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4899,11 +4920,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C185" t="s">
-        <v>216</v>
-      </c>
       <c r="D185" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,8 +4929,8 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C186" t="s">
-        <v>218</v>
+      <c r="B186">
+        <v>3</v>
       </c>
       <c r="D186" t="s">
         <v>304</v>
@@ -4924,10 +4942,10 @@
         <v>고연서3</v>
       </c>
       <c r="C187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D187" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4935,11 +4953,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B188">
-        <v>4</v>
+      <c r="C188" t="s">
+        <v>217</v>
       </c>
       <c r="D188" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,10 +4966,10 @@
         <v>고연서3</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D189" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4963,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4971,11 +4989,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B191">
-        <v>6</v>
+      <c r="C191" t="s">
+        <v>217</v>
       </c>
       <c r="D191" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4983,11 +5001,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C192" t="s">
-        <v>216</v>
+      <c r="B192">
+        <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4995,11 +5013,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C193" t="s">
-        <v>218</v>
+      <c r="B193">
+        <v>6</v>
       </c>
       <c r="D193" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5007,11 +5025,11 @@
         <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="B194">
-        <v>3</v>
+      <c r="C194" t="s">
+        <v>215</v>
       </c>
       <c r="D194" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5020,43 +5038,46 @@
         <v>고연서3</v>
       </c>
       <c r="C195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D195" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
-        <f t="shared" ref="A196:A259" si="3">A195</f>
+        <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
-      <c r="C196" t="s">
-        <v>216</v>
+      <c r="B196">
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>고연서3</v>
       </c>
+      <c r="C197" t="s">
+        <v>215</v>
+      </c>
       <c r="D197" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A198:A262" si="3">A197</f>
         <v>고연서3</v>
       </c>
       <c r="C198" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D198" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5064,11 +5085,8 @@
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="C199" t="s">
-        <v>216</v>
-      </c>
       <c r="D199" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5077,10 +5095,10 @@
         <v>고연서3</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D200" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5089,10 +5107,10 @@
         <v>고연서3</v>
       </c>
       <c r="C201" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D201" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5101,10 +5119,10 @@
         <v>고연서3</v>
       </c>
       <c r="C202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D202" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5113,10 +5131,10 @@
         <v>고연서3</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D203" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5125,19 +5143,22 @@
         <v>고연서3</v>
       </c>
       <c r="C204" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D204" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>361</v>
+      <c r="C205" t="s">
+        <v>215</v>
+      </c>
+      <c r="D205" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5146,151 +5167,148 @@
         <v>고연서3</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D206" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="D207" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D207" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
       <c r="C208" t="s">
-        <v>216</v>
-      </c>
-      <c r="D208" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="C209" t="s">
-        <v>218</v>
-      </c>
       <c r="D209" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
       <c r="C210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D210" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="B211">
-        <v>4</v>
+      <c r="C211" t="s">
+        <v>217</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="B212">
-        <v>4</v>
+      <c r="C212" t="s">
+        <v>215</v>
       </c>
       <c r="D212" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
       <c r="B213">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="C214" t="s">
-        <v>218</v>
+      <c r="B214">
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="C215" t="s">
-        <v>216</v>
+      <c r="B215">
+        <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
       <c r="D216" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="B217">
-        <v>4</v>
+      <c r="C217" t="s">
+        <v>215</v>
       </c>
       <c r="D217" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="C218" t="s">
-        <v>218</v>
-      </c>
       <c r="D218" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
@@ -5299,19 +5317,22 @@
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
+      <c r="C220" t="s">
+        <v>217</v>
+      </c>
       <c r="D220" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
@@ -5320,74 +5341,67 @@
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>고연서3</v>
       </c>
-      <c r="B222">
-        <v>4</v>
-      </c>
       <c r="D222" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B223" s="5">
-        <v>4</v>
-      </c>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>고연서4</v>
-      </c>
-      <c r="B224" s="5">
-        <v>5</v>
-      </c>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="str">
+        <f>A222</f>
+        <v>고연서3</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
+        <f>A223</f>
+        <v>고연서3</v>
+      </c>
+      <c r="B224">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>453</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>고연서4</v>
-      </c>
-      <c r="B225" s="5">
-        <v>4</v>
-      </c>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
+      <c r="A225" t="str">
+        <f>A223</f>
+        <v>고연서3</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>고연서4</v>
-      </c>
-      <c r="B226" s="5"/>
+      <c r="A226" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B226" s="5">
+        <v>4</v>
+      </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -5397,10 +5411,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B227" s="5"/>
+      <c r="B227" s="5">
+        <v>5</v>
+      </c>
       <c r="C227" s="5"/>
-      <c r="D227" s="6" t="s">
-        <v>334</v>
+      <c r="D227" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5414,8 +5430,8 @@
         <v>4</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="6" t="s">
-        <v>267</v>
+      <c r="D228" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -5426,11 +5442,9 @@
         <v>고연서4</v>
       </c>
       <c r="B229" s="5"/>
-      <c r="C229" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="C229" s="5"/>
       <c r="D229" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -5440,12 +5454,10 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B230" s="5">
-        <v>2</v>
-      </c>
+      <c r="B230" s="5"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="5" t="s">
-        <v>216</v>
+      <c r="D230" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
@@ -5455,12 +5467,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>336</v>
+      <c r="B231" s="5">
+        <v>4</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -5470,25 +5482,27 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B232" s="5">
-        <v>5</v>
-      </c>
-      <c r="C232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D232" s="5" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B233" s="5"/>
+      <c r="B233" s="5">
+        <v>2</v>
+      </c>
       <c r="C233" s="5"/>
-      <c r="D233" s="6" t="s">
-        <v>338</v>
+      <c r="D233" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -5498,12 +5512,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B234" s="5">
-        <v>4</v>
-      </c>
-      <c r="C234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="D234" s="5" t="s">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -5514,26 +5528,24 @@
         <v>고연서4</v>
       </c>
       <c r="B235" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B236" s="5">
-        <v>6</v>
-      </c>
+      <c r="B236" s="5"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="5" t="s">
-        <v>230</v>
+      <c r="D236" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -5543,12 +5555,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B237" s="5">
+        <v>4</v>
+      </c>
+      <c r="C237" s="5"/>
       <c r="D237" s="5" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -5559,11 +5571,11 @@
         <v>고연서4</v>
       </c>
       <c r="B238" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -5573,27 +5585,27 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B239" s="5">
+        <v>6</v>
+      </c>
+      <c r="C239" s="5"/>
       <c r="D239" s="5" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>340</v>
+        <v>217</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -5603,12 +5615,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B241" s="5">
+        <v>3</v>
+      </c>
+      <c r="C241" s="5"/>
       <c r="D241" s="5" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -5620,92 +5632,94 @@
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
+      <c r="C243" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D243" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="6" t="s">
-        <v>343</v>
+      <c r="C244" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="6" t="s">
-        <v>344</v>
+      <c r="C245" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="5" t="s">
-        <v>346</v>
+      <c r="D246" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B247" s="5">
-        <v>4</v>
-      </c>
+      <c r="B247" s="5"/>
       <c r="C247" s="5"/>
-      <c r="D247" s="5" t="s">
-        <v>258</v>
+      <c r="D247" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B248" s="5">
-        <v>6</v>
-      </c>
+      <c r="B248" s="5"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="5" t="s">
-        <v>347</v>
+      <c r="D248" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -5715,12 +5729,10 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B249" s="5">
-        <v>7</v>
-      </c>
+      <c r="B249" s="5"/>
       <c r="C249" s="5"/>
-      <c r="D249" s="5">
-        <v>2</v>
+      <c r="D249" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -5730,12 +5742,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B250" s="5">
+        <v>4</v>
+      </c>
+      <c r="C250" s="5"/>
       <c r="D250" s="5" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -5745,12 +5757,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B251" s="5">
+        <v>6</v>
+      </c>
+      <c r="C251" s="5"/>
       <c r="D251" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -5761,11 +5773,11 @@
         <v>고연서4</v>
       </c>
       <c r="B252" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C252" s="5"/>
-      <c r="D252" s="5" t="s">
-        <v>237</v>
+      <c r="D252" s="5">
+        <v>2</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -5777,10 +5789,10 @@
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -5790,12 +5802,12 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B254" s="5">
-        <v>4</v>
-      </c>
-      <c r="C254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D254" s="5" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
@@ -5806,11 +5818,11 @@
         <v>고연서4</v>
       </c>
       <c r="B255" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -5822,38 +5834,40 @@
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B257" s="5"/>
+      <c r="B257" s="5">
+        <v>4</v>
+      </c>
       <c r="C257" s="5"/>
-      <c r="D257" s="6" t="s">
-        <v>353</v>
+      <c r="D257" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="str">
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>354</v>
+      <c r="B258" s="5">
+        <v>6</v>
+      </c>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -5863,68 +5877,70 @@
         <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B259" s="5">
-        <v>3</v>
-      </c>
-      <c r="C259" s="5"/>
-      <c r="D259" s="6" t="s">
-        <v>237</v>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="str">
-        <f t="shared" ref="A260:A307" si="4">A259</f>
+        <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
       <c r="B260" s="5"/>
-      <c r="C260" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>355</v>
+      <c r="C260" s="5"/>
+      <c r="D260" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B261" s="5">
-        <v>4</v>
-      </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5" t="s">
-        <v>329</v>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>고연서4</v>
       </c>
-      <c r="B262" s="5"/>
+      <c r="B262" s="5">
+        <v>3</v>
+      </c>
       <c r="C262" s="5"/>
       <c r="D262" s="6" t="s">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A263:A310" si="4">A262</f>
         <v>고연서4</v>
       </c>
       <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
+      <c r="C263" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="D263" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -5934,25 +5950,25 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B264" s="5"/>
+      <c r="B264" s="5">
+        <v>4</v>
+      </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B265" s="5">
-        <v>4</v>
-      </c>
+      <c r="B265" s="5"/>
       <c r="C265" s="5"/>
-      <c r="D265" s="5" t="s">
-        <v>331</v>
+      <c r="D265" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
@@ -5962,12 +5978,10 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B266" s="5">
-        <v>3</v>
-      </c>
+      <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
@@ -5978,11 +5992,9 @@
         <v>고연서4</v>
       </c>
       <c r="B267" s="5"/>
-      <c r="C267" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="C267" s="5"/>
       <c r="D267" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
@@ -5992,12 +6004,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B268" s="5"/>
-      <c r="C268" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B268" s="5">
+        <v>4</v>
+      </c>
+      <c r="C268" s="5"/>
       <c r="D268" s="5" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
@@ -6007,12 +6019,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B269" s="5"/>
-      <c r="C269" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B269" s="5">
+        <v>3</v>
+      </c>
+      <c r="C269" s="5"/>
       <c r="D269" s="5" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
@@ -6024,10 +6036,10 @@
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
@@ -6039,23 +6051,25 @@
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B272" s="5"/>
-      <c r="C272" s="5"/>
-      <c r="D272" s="6" t="s">
-        <v>365</v>
+      <c r="C272" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
@@ -6067,25 +6081,25 @@
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>366</v>
+        <v>217</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
@@ -6096,11 +6110,9 @@
         <v>고연서4</v>
       </c>
       <c r="B275" s="5"/>
-      <c r="C275" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="C275" s="5"/>
       <c r="D275" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
@@ -6112,40 +6124,40 @@
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>369</v>
+        <v>217</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
@@ -6155,12 +6167,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B279" s="5">
-        <v>4</v>
-      </c>
-      <c r="C279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D279" s="5" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -6172,25 +6184,25 @@
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -6200,12 +6212,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B282" s="5"/>
-      <c r="C282" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B282" s="5">
+        <v>4</v>
+      </c>
+      <c r="C282" s="5"/>
       <c r="D282" s="5" t="s">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
@@ -6216,39 +6228,41 @@
         <v>고연서4</v>
       </c>
       <c r="B283" s="5"/>
-      <c r="C283" s="5"/>
+      <c r="C283" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D283" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B284" s="5"/>
       <c r="C284" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>375</v>
+        <v>215</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>376</v>
+        <v>217</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
@@ -6261,7 +6275,7 @@
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
@@ -6273,36 +6287,38 @@
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5" t="s">
-        <v>379</v>
+      <c r="C288" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
-      <c r="D289" s="6" t="s">
-        <v>380</v>
+      <c r="D289" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
@@ -6313,9 +6329,11 @@
         <v>고연서4</v>
       </c>
       <c r="B290" s="5"/>
-      <c r="C290" s="5"/>
+      <c r="C290" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="D290" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
@@ -6325,27 +6343,23 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B291" s="5">
-        <v>3</v>
-      </c>
+      <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B292" s="5">
-        <v>4</v>
-      </c>
+      <c r="B292" s="5"/>
       <c r="C292" s="5"/>
-      <c r="D292" s="5" t="s">
-        <v>229</v>
+      <c r="D292" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
@@ -6355,12 +6369,10 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B293" s="5">
-        <v>4</v>
-      </c>
+      <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
@@ -6371,11 +6383,11 @@
         <v>고연서4</v>
       </c>
       <c r="B294" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -6386,11 +6398,11 @@
         <v>고연서4</v>
       </c>
       <c r="B295" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
@@ -6400,12 +6412,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B296" s="5"/>
-      <c r="C296" s="5" t="s">
-        <v>218</v>
-      </c>
+      <c r="B296" s="5">
+        <v>4</v>
+      </c>
+      <c r="C296" s="5"/>
       <c r="D296" s="5" t="s">
-        <v>383</v>
+        <v>266</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
@@ -6415,25 +6427,27 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B297" s="5"/>
-      <c r="C297" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="B297" s="5">
+        <v>6</v>
+      </c>
+      <c r="C297" s="5"/>
       <c r="D297" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B298" s="5"/>
+      <c r="B298" s="5">
+        <v>5</v>
+      </c>
       <c r="C298" s="5"/>
-      <c r="D298" s="6" t="s">
-        <v>385</v>
+      <c r="D298" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
@@ -6445,10 +6459,10 @@
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
@@ -6458,25 +6472,25 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B300" s="5">
-        <v>4</v>
-      </c>
-      <c r="C300" s="5"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="D300" s="5" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="str">
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
-      <c r="D301" s="5" t="s">
-        <v>387</v>
+      <c r="D301" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -6487,9 +6501,11 @@
         <v>고연서4</v>
       </c>
       <c r="B302" s="5"/>
-      <c r="C302" s="5"/>
+      <c r="C302" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="D302" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
@@ -6499,10 +6515,12 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B303" s="5"/>
+      <c r="B303" s="5">
+        <v>4</v>
+      </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
@@ -6515,7 +6533,7 @@
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
@@ -6528,7 +6546,7 @@
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
@@ -6538,12 +6556,10 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B306" s="5">
-        <v>4</v>
-      </c>
+      <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
@@ -6553,114 +6569,114 @@
         <f t="shared" si="4"/>
         <v>고연서4</v>
       </c>
-      <c r="B307" s="5">
-        <v>4</v>
-      </c>
+      <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5" t="s">
-        <v>271</v>
+        <v>385</v>
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B308" s="10">
-        <v>4</v>
-      </c>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10"/>
+      <c r="A308" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>고연서4</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="10" t="str">
-        <f t="shared" ref="A309:A372" si="5">A308</f>
-        <v>고연서5</v>
-      </c>
-      <c r="B309" s="10">
+      <c r="A309" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>고연서4</v>
+      </c>
+      <c r="B309" s="5">
+        <v>4</v>
+      </c>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>고연서4</v>
+      </c>
+      <c r="B310" s="5">
+        <v>8</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D310" s="5">
         <v>5</v>
       </c>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
-      </c>
-      <c r="B310" s="10">
-        <v>4</v>
-      </c>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10"/>
-    </row>
-    <row r="311" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A311" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
-      </c>
-      <c r="B311" s="10"/>
-      <c r="C311" s="10"/>
-      <c r="D311" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="5" t="str">
+        <f>A309</f>
+        <v>고연서4</v>
+      </c>
+      <c r="B311" s="5">
+        <v>4</v>
+      </c>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
+      <c r="A312" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="B312" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C312" s="10"/>
-      <c r="D312" s="11" t="s">
-        <v>216</v>
+      <c r="D312" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="str">
-        <f>A311</f>
+        <f t="shared" ref="A313:A376" si="5">A312</f>
         <v>고연서5</v>
       </c>
-      <c r="B313" s="10"/>
-      <c r="C313" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="B313" s="10">
+        <v>5</v>
+      </c>
+      <c r="C313" s="10"/>
       <c r="D313" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B314" s="10"/>
-      <c r="C314" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>400</v>
+      <c r="B314" s="10">
+        <v>4</v>
+      </c>
+      <c r="C314" s="10"/>
+      <c r="D314" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
@@ -6671,114 +6687,112 @@
         <v>고연서5</v>
       </c>
       <c r="B315" s="10"/>
-      <c r="C315" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="C315" s="10"/>
       <c r="D315" s="11" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B316" s="10"/>
+      <c r="B316" s="10">
+        <v>2</v>
+      </c>
       <c r="C316" s="10"/>
       <c r="D316" s="11" t="s">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>A315</f>
         <v>고연서5</v>
       </c>
       <c r="B317" s="10"/>
       <c r="C317" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D317" s="11" t="s">
-        <v>403</v>
+        <v>215</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B318" s="10"/>
       <c r="C318" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B319" s="10"/>
       <c r="C319" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B320" s="10"/>
-      <c r="C320" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="C320" s="10"/>
       <c r="D320" s="11" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A321" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B321" s="10"/>
       <c r="C321" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D321" s="11" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B322" s="10"/>
       <c r="C322" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D322" s="11" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
@@ -6790,25 +6804,25 @@
       </c>
       <c r="B323" s="10"/>
       <c r="C323" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D323" s="11" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B324" s="10"/>
       <c r="C324" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D324" s="11" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
@@ -6818,27 +6832,27 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B325" s="10">
-        <v>4</v>
-      </c>
-      <c r="C325" s="10"/>
+      <c r="B325" s="10"/>
+      <c r="C325" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D325" s="11" t="s">
-        <v>267</v>
+        <v>413</v>
       </c>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B326" s="10">
-        <v>4</v>
-      </c>
-      <c r="C326" s="10"/>
+      <c r="B326" s="10"/>
+      <c r="C326" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D326" s="11" t="s">
-        <v>229</v>
+        <v>414</v>
       </c>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
@@ -6848,25 +6862,27 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B327" s="10">
-        <v>6</v>
-      </c>
-      <c r="C327" s="10"/>
+      <c r="B327" s="10"/>
+      <c r="C327" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D327" s="11" t="s">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B328" s="10"/>
-      <c r="C328" s="10"/>
+      <c r="C328" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D328" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
@@ -6877,26 +6893,26 @@
         <v>고연서5</v>
       </c>
       <c r="B329" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C329" s="10"/>
       <c r="D329" s="11" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B330" s="10"/>
-      <c r="C330" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="B330" s="10">
+        <v>4</v>
+      </c>
+      <c r="C330" s="10"/>
       <c r="D330" s="11" t="s">
-        <v>423</v>
+        <v>228</v>
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
@@ -6907,11 +6923,11 @@
         <v>고연서5</v>
       </c>
       <c r="B331" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C331" s="10"/>
       <c r="D331" s="11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
@@ -6921,12 +6937,10 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B332" s="10">
-        <v>4</v>
-      </c>
+      <c r="B332" s="10"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
@@ -6937,26 +6951,26 @@
         <v>고연서5</v>
       </c>
       <c r="B333" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="11" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A334" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B334" s="10"/>
       <c r="C334" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D334" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
@@ -6966,27 +6980,27 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B335" s="10"/>
-      <c r="C335" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="B335" s="10">
+        <v>3</v>
+      </c>
+      <c r="C335" s="10"/>
       <c r="D335" s="11" t="s">
-        <v>425</v>
+        <v>236</v>
       </c>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B336" s="10"/>
-      <c r="C336" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="B336" s="10">
+        <v>4</v>
+      </c>
+      <c r="C336" s="10"/>
       <c r="D336" s="11" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
@@ -6996,27 +7010,27 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B337" s="10"/>
-      <c r="C337" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="B337" s="10">
+        <v>4</v>
+      </c>
+      <c r="C337" s="10"/>
       <c r="D337" s="11" t="s">
-        <v>426</v>
+        <v>229</v>
       </c>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="str">
-        <f>A317</f>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B338" s="10"/>
       <c r="C338" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D338" s="11" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
@@ -7028,55 +7042,55 @@
       </c>
       <c r="B339" s="10"/>
       <c r="C339" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D339" s="10" t="s">
-        <v>404</v>
+        <v>215</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
     </row>
-    <row r="340" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B340" s="10"/>
       <c r="C340" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
     </row>
-    <row r="341" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B341" s="10"/>
       <c r="C341" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D341" s="11" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>A321</f>
         <v>고연서5</v>
       </c>
       <c r="B342" s="10"/>
       <c r="C342" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D342" s="10" t="s">
-        <v>407</v>
+        <v>215</v>
+      </c>
+      <c r="D342" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
@@ -7088,40 +7102,40 @@
       </c>
       <c r="B343" s="10"/>
       <c r="C343" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B344" s="10">
-        <v>3</v>
-      </c>
-      <c r="C344" s="10"/>
-      <c r="D344" s="10" t="s">
-        <v>305</v>
+      <c r="B344" s="10"/>
+      <c r="C344" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D344" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
     </row>
-    <row r="345" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B345" s="10"/>
       <c r="C345" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D345" s="11" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
@@ -7133,23 +7147,25 @@
       </c>
       <c r="B346" s="10"/>
       <c r="C346" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
     </row>
-    <row r="347" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B347" s="10"/>
-      <c r="C347" s="10"/>
-      <c r="D347" s="11" t="s">
-        <v>411</v>
+      <c r="C347" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
@@ -7159,27 +7175,27 @@
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B348" s="10"/>
-      <c r="C348" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="B348" s="10">
+        <v>3</v>
+      </c>
+      <c r="C348" s="10"/>
       <c r="D348" s="10" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B349" s="10"/>
       <c r="C349" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D349" s="10" t="s">
-        <v>256</v>
+        <v>215</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
@@ -7190,24 +7206,24 @@
         <v>고연서5</v>
       </c>
       <c r="B350" s="10"/>
-      <c r="C350" s="10"/>
+      <c r="C350" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D350" s="10" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
     </row>
     <row r="351" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A351" s="10" t="str">
-        <f>A355</f>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B351" s="10"/>
-      <c r="C351" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="C351" s="10"/>
       <c r="D351" s="11" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
@@ -7219,172 +7235,170 @@
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>430</v>
+        <v>217</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="10" t="str">
-        <f>A350</f>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B353" s="10">
-        <v>4</v>
-      </c>
-      <c r="C353" s="10"/>
+      <c r="B353" s="10"/>
+      <c r="C353" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D353" s="10" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="10" t="str">
-        <f>A353</f>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
-      <c r="B354" s="10">
-        <v>4</v>
-      </c>
+      <c r="B354" s="10"/>
       <c r="C354" s="10"/>
       <c r="D354" s="10" t="s">
-        <v>267</v>
+        <v>408</v>
       </c>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A355" s="10" t="str">
+        <f>A359</f>
+        <v>고연서5</v>
+      </c>
+      <c r="B355" s="10"/>
+      <c r="C355" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>고연서5</v>
+      </c>
+      <c r="B356" s="10"/>
+      <c r="C356" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D356" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="10" t="str">
         <f>A354</f>
         <v>고연서5</v>
       </c>
-      <c r="B355" s="10">
-        <v>6</v>
-      </c>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="E355" s="10"/>
-      <c r="F355" s="10"/>
-    </row>
-    <row r="356" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A356" s="10" t="str">
-        <f>A352</f>
-        <v>고연서5</v>
-      </c>
-      <c r="B356" s="10"/>
-      <c r="C356" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D356" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E356" s="10"/>
-      <c r="F356" s="10"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="10"/>
       <c r="B357" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C357" s="10"/>
-      <c r="D357" s="11" t="s">
-        <v>237</v>
+      <c r="D357" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="10" t="str">
+        <f>A357</f>
+        <v>고연서5</v>
+      </c>
+      <c r="B358" s="10">
+        <v>4</v>
+      </c>
+      <c r="C358" s="10"/>
+      <c r="D358" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E358" s="10"/>
+      <c r="F358" s="10"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="10" t="str">
+        <f>A358</f>
+        <v>고연서5</v>
+      </c>
+      <c r="B359" s="10">
+        <v>6</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+    </row>
+    <row r="360" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A360" s="10" t="str">
         <f>A356</f>
         <v>고연서5</v>
       </c>
-      <c r="B358" s="10"/>
-      <c r="C358" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D358" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E358" s="10"/>
-      <c r="F358" s="10"/>
-    </row>
-    <row r="359" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A359" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
-      </c>
-      <c r="B359" s="10"/>
-      <c r="C359" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D359" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
-      </c>
       <c r="B360" s="10"/>
       <c r="C360" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D360" s="10" t="s">
-        <v>433</v>
+        <v>215</v>
+      </c>
+      <c r="D360" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>고연서5</v>
-      </c>
-      <c r="B361" s="10"/>
-      <c r="C361" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D361" s="10" t="s">
-        <v>434</v>
+      <c r="A361" s="10"/>
+      <c r="B361" s="10">
+        <v>3</v>
+      </c>
+      <c r="C361" s="10"/>
+      <c r="D361" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>A360</f>
         <v>고연서5</v>
       </c>
       <c r="B362" s="10"/>
       <c r="C362" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A363" s="10" t="str">
         <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B363" s="10"/>
       <c r="C363" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D363" s="10" t="s">
-        <v>436</v>
+        <v>217</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
@@ -7396,10 +7410,10 @@
       </c>
       <c r="B364" s="10"/>
       <c r="C364" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
@@ -7411,10 +7425,10 @@
       </c>
       <c r="B365" s="10"/>
       <c r="C365" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
@@ -7426,10 +7440,10 @@
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
@@ -7441,10 +7455,10 @@
       </c>
       <c r="B367" s="10"/>
       <c r="C367" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
@@ -7456,10 +7470,10 @@
       </c>
       <c r="B368" s="10"/>
       <c r="C368" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
@@ -7471,10 +7485,10 @@
       </c>
       <c r="B369" s="10"/>
       <c r="C369" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
@@ -7485,9 +7499,11 @@
         <v>고연서5</v>
       </c>
       <c r="B370" s="10"/>
-      <c r="C370" s="10"/>
+      <c r="C370" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D370" s="10" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
@@ -7498,9 +7514,11 @@
         <v>고연서5</v>
       </c>
       <c r="B371" s="10"/>
-      <c r="C371" s="10"/>
+      <c r="C371" s="10" t="s">
+        <v>217</v>
+      </c>
       <c r="D371" s="10" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
@@ -7511,74 +7529,78 @@
         <v>고연서5</v>
       </c>
       <c r="B372" s="10"/>
-      <c r="C372" s="10"/>
+      <c r="C372" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="D372" s="10" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
     </row>
-    <row r="373" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="str">
-        <f t="shared" ref="A373:A382" si="6">A372</f>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B373" s="10"/>
-      <c r="C373" s="10"/>
-      <c r="D373" s="11" t="s">
-        <v>446</v>
+      <c r="C373" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D373" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B374" s="10"/>
       <c r="C374" s="10"/>
-      <c r="D374" s="11" t="s">
-        <v>448</v>
+      <c r="D374" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
     </row>
-    <row r="375" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B375" s="10"/>
       <c r="C375" s="10"/>
-      <c r="D375" s="11" t="s">
-        <v>447</v>
+      <c r="D375" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
     </row>
-    <row r="376" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>고연서5</v>
       </c>
       <c r="B376" s="10"/>
       <c r="C376" s="10"/>
-      <c r="D376" s="11" t="s">
-        <v>449</v>
+      <c r="D376" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
     </row>
     <row r="377" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A377" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A377:A386" si="6">A376</f>
         <v>고연서5</v>
       </c>
       <c r="B377" s="10"/>
       <c r="C377" s="10"/>
       <c r="D377" s="11" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
@@ -7591,444 +7613,461 @@
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
       <c r="D378" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A379" s="10" t="str">
         <f t="shared" si="6"/>
         <v>고연서5</v>
       </c>
       <c r="B379" s="10"/>
       <c r="C379" s="10"/>
-      <c r="D379" s="10" t="s">
-        <v>452</v>
+      <c r="D379" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A380" s="10" t="str">
         <f t="shared" si="6"/>
         <v>고연서5</v>
       </c>
-      <c r="B380" s="10">
-        <v>4</v>
-      </c>
+      <c r="B380" s="10"/>
       <c r="C380" s="10"/>
-      <c r="D380" s="10" t="s">
-        <v>268</v>
+      <c r="D380" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A381" s="10" t="str">
         <f t="shared" si="6"/>
         <v>고연서5</v>
       </c>
-      <c r="B381" s="10">
-        <v>4</v>
-      </c>
+      <c r="B381" s="10"/>
       <c r="C381" s="10"/>
-      <c r="D381" s="10" t="s">
-        <v>263</v>
+      <c r="D381" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" t="str">
+    <row r="382" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A382" s="10" t="str">
         <f t="shared" si="6"/>
         <v>고연서5</v>
       </c>
-      <c r="B382">
-        <v>4</v>
-      </c>
-      <c r="D382" t="s">
-        <v>271</v>
-      </c>
+      <c r="B382" s="10"/>
+      <c r="C382" s="10"/>
+      <c r="D382" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+      <c r="A383" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>고연서5</v>
+      </c>
+      <c r="B383" s="10"/>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>고연서5</v>
+      </c>
+      <c r="B384" s="10">
+        <v>4</v>
+      </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>고연서5</v>
+      </c>
+      <c r="B385" s="10">
+        <v>4</v>
+      </c>
+      <c r="C385" s="10"/>
+      <c r="D385" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>고연서5</v>
+      </c>
+      <c r="B386" s="10">
+        <v>8</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D386" s="10">
+        <v>6</v>
+      </c>
+      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="10" t="str">
+        <f>A385</f>
+        <v>고연서5</v>
+      </c>
+      <c r="B387" s="10">
+        <v>4</v>
+      </c>
+      <c r="C387" s="10"/>
+      <c r="D387" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E387" s="10"/>
+      <c r="F387" s="10"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>161</v>
+      </c>
+      <c r="B388">
+        <v>5</v>
+      </c>
+      <c r="D388" t="s">
         <v>162</v>
       </c>
-      <c r="B383">
-        <v>5</v>
-      </c>
-      <c r="D383" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>89</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="D389" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>89</v>
+      </c>
+      <c r="D390" t="s">
         <v>90</v>
       </c>
-      <c r="B384">
-        <v>4</v>
-      </c>
-      <c r="D384" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>90</v>
-      </c>
-      <c r="D385" t="s">
+    </row>
+    <row r="391" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>89</v>
+      </c>
+      <c r="D391" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>90</v>
-      </c>
-      <c r="D386" s="3" t="s">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>89</v>
+      </c>
+      <c r="D392" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>90</v>
-      </c>
-      <c r="D387" t="s">
+    <row r="393" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>89</v>
+      </c>
+      <c r="D393" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>90</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>90</v>
-      </c>
-      <c r="D389" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>90</v>
-      </c>
-      <c r="B390">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>89</v>
+      </c>
+      <c r="D394" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>89</v>
+      </c>
+      <c r="B395">
         <v>6</v>
       </c>
-      <c r="D390" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>90</v>
-      </c>
-      <c r="B391">
-        <v>4</v>
-      </c>
-      <c r="D391" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>90</v>
-      </c>
-      <c r="B392">
-        <v>4</v>
-      </c>
-      <c r="D392" t="s">
+      <c r="D395" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>90</v>
-      </c>
-      <c r="C393" t="s">
-        <v>95</v>
-      </c>
-      <c r="D393" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>90</v>
-      </c>
-      <c r="B394">
-        <v>2</v>
-      </c>
-      <c r="D394" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>161</v>
-      </c>
-      <c r="B395">
-        <v>3</v>
-      </c>
-      <c r="D395" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>90</v>
-      </c>
-      <c r="C396" t="s">
-        <v>198</v>
+        <v>89</v>
+      </c>
+      <c r="B396">
+        <v>4</v>
       </c>
       <c r="D396" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>90</v>
-      </c>
-      <c r="C397" t="s">
-        <v>197</v>
+        <v>89</v>
+      </c>
+      <c r="B397">
+        <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C398" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D398" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>90</v>
-      </c>
-      <c r="C399" t="s">
-        <v>198</v>
+        <v>89</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
       </c>
       <c r="D399" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>90</v>
-      </c>
-      <c r="C400" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
       </c>
       <c r="D400" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>90</v>
-      </c>
-      <c r="B401">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="C401" t="s">
+        <v>197</v>
       </c>
       <c r="D401" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>90</v>
-      </c>
-      <c r="B402">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C402" t="s">
+        <v>196</v>
       </c>
       <c r="D402" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>90</v>
-      </c>
-      <c r="B403">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C403" t="s">
+        <v>94</v>
       </c>
       <c r="D403" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>90</v>
-      </c>
-      <c r="B404">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C404" t="s">
+        <v>197</v>
       </c>
       <c r="D404" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C405" t="s">
+        <v>195</v>
       </c>
       <c r="D405" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B406">
         <v>6</v>
       </c>
       <c r="D406" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B407">
         <v>4</v>
       </c>
       <c r="D407" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>90</v>
-      </c>
-      <c r="C408" t="s">
-        <v>196</v>
+        <v>89</v>
+      </c>
+      <c r="B408">
+        <v>4</v>
       </c>
       <c r="D408" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>90</v>
-      </c>
-      <c r="C409" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B409">
+        <v>5</v>
       </c>
       <c r="D409" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>90</v>
-      </c>
-      <c r="C410" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="D410" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B411">
+        <v>6</v>
       </c>
       <c r="D411" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B412">
+        <v>4</v>
       </c>
       <c r="D412" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>90</v>
-      </c>
-      <c r="B413">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C413" t="s">
+        <v>195</v>
       </c>
       <c r="D413" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>90</v>
-      </c>
-      <c r="B414">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C414" t="s">
+        <v>94</v>
       </c>
       <c r="D414" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>90</v>
-      </c>
-      <c r="B415">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C415" t="s">
+        <v>197</v>
       </c>
       <c r="D415" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>90</v>
-      </c>
-      <c r="B416">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D416" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>90</v>
-      </c>
-      <c r="C417" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D417" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D418" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B419">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D419" t="s">
         <v>106</v>
@@ -8036,380 +8075,380 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B420">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D420" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
       </c>
       <c r="D421" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>90</v>
-      </c>
-      <c r="B422">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C422" t="s">
+        <v>117</v>
       </c>
       <c r="D422" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>90</v>
-      </c>
-      <c r="C423" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B423">
+        <v>4</v>
       </c>
       <c r="D423" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B424">
+        <v>6</v>
       </c>
       <c r="D424" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
       </c>
       <c r="D425" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>90</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>126</v>
+        <v>89</v>
+      </c>
+      <c r="D426" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B427">
         <v>2</v>
       </c>
-      <c r="D427" s="3" t="s">
-        <v>165</v>
+      <c r="D427" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C428" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="D428" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>90</v>
-      </c>
-      <c r="B429">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D429" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>90</v>
-      </c>
-      <c r="B430">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="D430" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>90</v>
-      </c>
-      <c r="C431" t="s">
-        <v>122</v>
-      </c>
-      <c r="D431" t="s">
-        <v>129</v>
+        <v>89</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>90</v>
-      </c>
-      <c r="C432" t="s">
-        <v>122</v>
-      </c>
-      <c r="D432" t="s">
-        <v>131</v>
+        <v>89</v>
+      </c>
+      <c r="B432">
+        <v>2</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>90</v>
-      </c>
-      <c r="B433">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C433" t="s">
+        <v>195</v>
       </c>
       <c r="D433" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>90</v>
-      </c>
-      <c r="C434" t="s">
-        <v>197</v>
+        <v>89</v>
+      </c>
+      <c r="B434">
+        <v>3</v>
       </c>
       <c r="D434" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B435">
         <v>2</v>
       </c>
       <c r="D435" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>90</v>
-      </c>
-      <c r="B436">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="C436" t="s">
+        <v>121</v>
       </c>
       <c r="D436" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C437" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D437" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B438">
         <v>2</v>
       </c>
       <c r="D438" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C439" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D439" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B440">
         <v>2</v>
       </c>
       <c r="D440" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B441">
         <v>3</v>
       </c>
       <c r="D441" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C442" t="s">
-        <v>122</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="D442" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>90</v>
-      </c>
-      <c r="C443" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B443">
+        <v>2</v>
       </c>
       <c r="D443" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>90</v>
-      </c>
-      <c r="B444">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="C444" t="s">
+        <v>197</v>
       </c>
       <c r="D444" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B445">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D445" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>90</v>
-      </c>
-      <c r="C446" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="B446">
+        <v>3</v>
       </c>
       <c r="D446" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>90</v>
-      </c>
-      <c r="B447">
-        <v>4</v>
-      </c>
-      <c r="D447" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="C447" t="s">
+        <v>121</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C448" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D448" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>90</v>
-      </c>
-      <c r="C449" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="B449">
+        <v>3</v>
       </c>
       <c r="D449" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B450">
         <v>4</v>
       </c>
       <c r="D450" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>90</v>
-      </c>
-      <c r="B451">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C451" t="s">
+        <v>121</v>
       </c>
       <c r="D451" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B452">
         <v>4</v>
       </c>
       <c r="D452" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>90</v>
-      </c>
-      <c r="B453">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="C453" t="s">
+        <v>94</v>
       </c>
       <c r="D453" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>90</v>
-      </c>
-      <c r="B454">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="C454" t="s">
+        <v>121</v>
       </c>
       <c r="D454" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B455">
         <v>4</v>
@@ -8420,852 +8459,907 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B456">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D456" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>90</v>
-      </c>
-      <c r="C457" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B457">
+        <v>4</v>
       </c>
       <c r="D457" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>90</v>
-      </c>
-      <c r="C458" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="B458">
+        <v>3</v>
       </c>
       <c r="D458" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D459" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>90</v>
-      </c>
-      <c r="C460" t="s">
-        <v>198</v>
+        <v>89</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
       </c>
       <c r="D460" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B461">
         <v>3</v>
       </c>
       <c r="D461" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>90</v>
-      </c>
-      <c r="B462">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C462" t="s">
+        <v>94</v>
       </c>
       <c r="D462" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C463" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D463" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B464">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D464" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C465" t="s">
+        <v>197</v>
       </c>
       <c r="D465" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D466" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>90</v>
-      </c>
-      <c r="C467" t="s">
-        <v>196</v>
+        <v>89</v>
+      </c>
+      <c r="B467">
+        <v>2</v>
       </c>
       <c r="D467" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C468" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="D468" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B469">
         <v>4</v>
       </c>
       <c r="D469" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>90</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>150</v>
+        <v>89</v>
+      </c>
+      <c r="D470" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
       </c>
       <c r="D471" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C472" t="s">
+        <v>195</v>
       </c>
       <c r="D472" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>90</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>152</v>
+        <v>89</v>
+      </c>
+      <c r="C473" t="s">
+        <v>195</v>
+      </c>
+      <c r="D473" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
       </c>
       <c r="D474" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>90</v>
-      </c>
-      <c r="B475">
-        <v>4</v>
-      </c>
-      <c r="D475" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>90</v>
-      </c>
-      <c r="C476" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D476" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>90</v>
-      </c>
-      <c r="C477" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="D477" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>90</v>
-      </c>
-      <c r="C478" t="s">
-        <v>197</v>
-      </c>
-      <c r="D478" t="s">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>90</v>
-      </c>
-      <c r="B479">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D479" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>90</v>
-      </c>
-      <c r="C480" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B480">
+        <v>4</v>
       </c>
       <c r="D480" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C481" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="D481" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C482" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="D482" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>168</v>
-      </c>
-      <c r="B483">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C483" t="s">
+        <v>196</v>
       </c>
       <c r="D483" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B484">
         <v>4</v>
       </c>
       <c r="D484" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>171</v>
-      </c>
-      <c r="B485">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="C485" t="s">
+        <v>94</v>
       </c>
       <c r="D485" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>171</v>
-      </c>
-      <c r="B486">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="C486" t="s">
+        <v>195</v>
       </c>
       <c r="D486" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>171</v>
-      </c>
-      <c r="B487">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C487" t="s">
+        <v>94</v>
       </c>
       <c r="D487" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B488">
         <v>4</v>
       </c>
       <c r="D488" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="B489">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D489" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>171</v>
-      </c>
-      <c r="C490" t="s">
-        <v>196</v>
+        <v>170</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
       </c>
       <c r="D490" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D491" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>171</v>
-      </c>
-      <c r="C492" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="B492">
+        <v>4</v>
       </c>
       <c r="D492" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B493">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D493" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
+        <v>170</v>
+      </c>
+      <c r="B494">
+        <v>3</v>
+      </c>
+      <c r="D494" t="s">
         <v>171</v>
-      </c>
-      <c r="C494" t="s">
-        <v>196</v>
-      </c>
-      <c r="D494" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C495" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D495" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>171</v>
-      </c>
-      <c r="C496" t="s">
-        <v>197</v>
+        <v>170</v>
+      </c>
+      <c r="B496">
+        <v>3</v>
       </c>
       <c r="D496" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>171</v>
-      </c>
-      <c r="B497">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="C497" t="s">
+        <v>196</v>
       </c>
       <c r="D497" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D498" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>182</v>
-      </c>
-      <c r="B499">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="C499" t="s">
+        <v>195</v>
       </c>
       <c r="D499" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>182</v>
-      </c>
-      <c r="B500">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="C500" t="s">
+        <v>196</v>
       </c>
       <c r="D500" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>182</v>
-      </c>
-      <c r="B501">
-        <v>6</v>
+        <v>170</v>
+      </c>
+      <c r="C501" t="s">
+        <v>196</v>
       </c>
       <c r="D501" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D502" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>182</v>
-      </c>
-      <c r="C503" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
       </c>
       <c r="D503" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
+        <v>181</v>
+      </c>
+      <c r="B504">
+        <v>4</v>
+      </c>
+      <c r="D504" t="s">
         <v>182</v>
       </c>
-      <c r="C504" t="s">
-        <v>188</v>
-      </c>
-      <c r="D504" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>182</v>
-      </c>
-      <c r="C505" t="s">
-        <v>198</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="B505">
+        <v>4</v>
+      </c>
+      <c r="D505" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>182</v>
-      </c>
-      <c r="C506" t="s">
-        <v>196</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="B506">
+        <v>6</v>
+      </c>
+      <c r="D506" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>182</v>
-      </c>
-      <c r="C507" t="s">
-        <v>198</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="B507">
+        <v>3</v>
+      </c>
+      <c r="D507" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C508" t="s">
-        <v>188</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="D508" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>182</v>
-      </c>
-      <c r="B509">
-        <v>3</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="C509" t="s">
+        <v>187</v>
+      </c>
+      <c r="D509" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C510" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D510" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>181</v>
+      </c>
+      <c r="C511" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
-        <v>182</v>
-      </c>
-      <c r="B511">
-        <v>6</v>
-      </c>
       <c r="D511" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="C512" t="s">
+        <v>197</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C513" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>182</v>
-      </c>
-      <c r="C514" t="s">
-        <v>188</v>
+        <v>181</v>
+      </c>
+      <c r="B514">
+        <v>3</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="C515" t="s">
+        <v>197</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="B516">
+        <v>6</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>182</v>
-      </c>
-      <c r="D518" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="C518" t="s">
+        <v>200</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>182</v>
-      </c>
-      <c r="D519" t="s">
-        <v>207</v>
+        <v>181</v>
+      </c>
+      <c r="C519" t="s">
+        <v>187</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>182</v>
-      </c>
-      <c r="D520" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>182</v>
-      </c>
-      <c r="B521">
-        <v>4</v>
-      </c>
-      <c r="D521" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>182</v>
-      </c>
-      <c r="D522" t="s">
-        <v>211</v>
+        <v>181</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>182</v>
-      </c>
-      <c r="B523">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="D523" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>182</v>
-      </c>
-      <c r="B524">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="D524" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>181</v>
+      </c>
+      <c r="D525" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>181</v>
+      </c>
+      <c r="B526">
+        <v>4</v>
+      </c>
+      <c r="D526" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>89</v>
-      </c>
-      <c r="B527">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="D527" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="B528">
         <v>4</v>
       </c>
       <c r="D528" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>89</v>
-      </c>
-      <c r="C529" t="s">
-        <v>84</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
-        <v>89</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
-        <v>89</v>
-      </c>
-      <c r="C531" t="s">
-        <v>84</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>86</v>
+        <v>181</v>
+      </c>
+      <c r="B529">
+        <v>4</v>
+      </c>
+      <c r="D529" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B532">
+        <v>4</v>
       </c>
       <c r="D532" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B533">
+        <v>4</v>
       </c>
       <c r="D533" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C534" t="s">
+        <v>83</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C536" t="s">
+        <v>83</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D537" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="D538" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -3360,7 +3360,7 @@
   <dimension ref="A1:J856"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A838" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D852" sqref="D851:D852"/>
+      <selection activeCell="F851" sqref="F851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="870">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2862,6 +2862,912 @@
   </si>
   <si>
     <t>서민결피격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허억… 허억…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지야!! 네가 이겼어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아따따따!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응?? 왜 화상이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아… 돼지 이 새X가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭐야… 더, 더 할 거냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하… 됐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 저 녀석이 괜히 불타는 주먹이라 불렸던 게 아니었다는 거지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴우… 랄까?
+더 해도 상관 없지만 이 몸은 '패배자'는 때리지 않는다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 돼지야!
+이제 너가 짱이래!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 졌다 졌어.
+오늘부터 니가 짱 해라~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내, 내가… 짱?
+이 몸이 학교 짱?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕따였던 이 몸이 학교 짱이라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결을 이겼으니까 당연히 네가 짱이지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해냈다!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 과연 그게 좋은 일일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 돼지 짱이 되면 끝일 것 같냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이 패자는 말이 없다는 데 넌 왜 그렇게 말이 많은 거냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 이 새X 골 때리네 ㅋㅋㅋ
+야 기대해라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 내가 괴롭힌 건 아무 것도 아니었다고 느낄 만큼의 지옥이 곧 펼쳐질테니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐래~ 앞으로 나는 꽃길만 걸을 거라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 돼지 최고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 서민결을 물리치고 연소고의 짱이 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 짱이 되었으니 더 이상 나와 우정이를 괴롭히는 녀석들은 없으리라… 그렇게 생각했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그 생각은 그리 오래가지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 서연고의 짱이 되고 일주일이 흘렀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전의 일진들은 모두 조용히 지내고있으며 학대당하던 학생들의 무수한 악수의 요청이 이어졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거이거~ 이러다 인기남 되는 거 아냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으, 응?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 여자애의 이름은 한아리.
+얼마전에 내가 공개적으로 고백했던 애다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결의 협박에 못 이겨 공개적으로 고백해서 창피를 준 점은 미안하다고 생각하지만.
+그 때의 오물을 보는 듯한 아리의 표정은 잊을 수 가 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야! 니 그렇게 한가하게 지내도 되나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니가 우리 학교 짱이라메…
+짱으로서 해야 할 일이 있잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해야 할 일?
+그게 뭔데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 말 해 두지만 나는 서민결 처럼 약한 애들 괴롭히거나 삥뜯는 짓은 안 할 테니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하… 뭔 말을 하나 했더만…
+니 진짜 그러다 큰 일 나도 모른다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 그러니까 도대체 무슨 큰 일?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니 진짜 아무 거도 모르나 보네?
+이거 어카지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리는 계속 손톱을 물어뜯으며 안전부절 못하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리깨짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 아래쪽에서 소란스러운 소리가 들려왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일이냣?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명하고 있을 때가 아니다.
+빨리 내려가서 상황 정리해라!
+설명은 그 다음이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 알겠다고!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단을 내려가 보니 다른 학교 학생들이 우리 학교의 학생들을 무자비하게 폭행하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 된거다…
+배신자 처형이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배신자 처형?
+뭐야 그게?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남의 학교에서 뭐하는 짓이야 너희들?!
+당장 그만두지 못해?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교복을 보니 북구에서 유명한 양아치 공고 팔공공고의 교복이다.</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 뭐냐 저 돼지 땅딸보는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고?!!
+이 몸이 바로 이 학교의 짱이시다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야? ㅋㅋ 저딴게?
+서민결 어디까지 추락한 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 불타는 주먹의 전설도 이제는 퇴물이구만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋ 야 그럼 그냥 우리가 서연고 먹어버리자 ㅋㅋ
+저 돼지가 짱이면 그냥 거저일 듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 너 천재냐? ㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 그럼 돼지 도축을 시작 해 볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생1</t>
+  </si>
+  <si>
+    <t>팔공공고생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 이제 말 해 주실까나?
+왜 남의 학교에서 이런 짓을 벌이는지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜긴! 너네가 우리 연합을 배신했으니까 당연한 거 아냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐?! 연합이라니? 배신은 또 무슨 소리야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 너 서민결에게 인수인계도 안 받은 거야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수인계?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 대구는 전쟁중이라 이 말이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리야 언제 왔어?
+랄까 전쟁중이라니 그건 무슨?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동연합과 북서연합? 이 몸은 처음 듣는 소리라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디까지나 대구의 패권을 다투기 위한 일진들 끼리의 싸움이니까.
+너 같은 찐따는 몰랐을 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이! 찐따라니 말이 심하다고!
+랄까? 이 몸 찐따였나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구의 병동고와 남구의 분지고, 수성구의 국지고가 연합한 남동 연합과 북구의 팔공공고, 서구의 경서고, 그리고 중구의 우리학교가 연합한 북서연합은 최근 2개월간 전쟁중이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지 두 연합은 힘의 균형을 유지하고 있었는데, 돼지 니가 균형을 깨버린 거다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연소고의 세대교체로 혼란한 틈을 타 남동연합이 북서를 친 거지.
+그게 바로 이틀 전이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭣이?! 근데 왜 난 그걸 몰랐던 것이냐앗?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아… 그게 문제라고 안카나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 이틀 전의 싸움에 안 가서 북서는 남동에 완전히 먹혔다.
+이제 북서는 남동의 식민지가 됐다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭐야아앗?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제는 그것 뿐만이 아니다.
+니가 배신 때리고 싸움에 안 나온 것 때문에 팔공공고랑 경서고도 우리를 벼르고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 뭐야… 그 말은 즉?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 이 대구의 모든 학교가 우리의 적이 돼뿌따..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 아무래도 엄청난 일이 시작되어 버린 것 같은 느낌이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 나는 팔공공고에 와 있다.
+왜냐? 팔공공고의 짱 김갑평을 설득하기 위해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고 있다고… 게다가 싸우는 건 무섭다고~!!
+랄까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 그 놈의 랄까는 진짜 죽여버리고 싶네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고생1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 뭐야 너네!
+배신자인 연소고 학생 아냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다! 이 몸이 연소고의 짱 @이름 이다!
+할 말이 있어서 왔다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 말은 무슨 그냥 넌 그냥 쳐 맞는 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으, 응?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아… 이렇게 될 줄 알았다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊지 마라. 우린 여기 싸우러 온 게 아니데이.
+뭐 생각대로 되지는 않겠지만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴우~ 다 정리했군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 니 엄청나게 쎄네…
+그런 몸땡이로 어떻게 그래 싸움을 잘하는 건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후 싸움은 이걸로 하는 거라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 자랑스럽게 도라에몽 주먹을 쥐어보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배신자 놈들이 제 발로 걸어들어왔네?
+각오는 되어 있겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점마가 김갑평이다.
+공구리 워리어라 불리는 만큼 연장을 쓸지도 모른디.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고, 공구리 워리어..?
+정말 별명 하고는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그나저나 나에게도 그 별명이 붙었으려나?
+랄까? 딱히 기대하는 건 아니고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연히 붙었지.
+각 학교의 짱은 다 붙는다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 거는 뭔데?
+가르쳐줘!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비계 파이터 @이름.
+그게 니 별명이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 뭐냐고오오오!!!!
+다시 지어 달라고!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네 뭐하냐?
+뒤지기 전에 둘이서 기도라도 올리냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우린 너거랑 얘기하러 왔다!
+좀 들어 도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리야… 나를 위해…
+이 몸은 다시 한 번 너에게 반할 것 같다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 말을 듣자 아리의 표정이 그 때의 표정으로 변해갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 도저히 못 봐주겠네!
+박살을 내준다 진짜!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공구리 워리어 김갑평…
+싸운다면 서민결 못지 않은 강자임에는 분명하겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸울 생각으로 온 것은 아니지만 싸워야 할 것 같은 예감이 든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민결이 그냥 발린 게 아닌가보네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 용건이 뭔데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화해하자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하~ 화해?
+짱 대결에서 진 순간 우리학교 포함 북구는 너네에게 먹힌거야 임마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개구 통합 짱…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 화해 하는 걸로 알고.
+서구에 있는 경서고도 네가 설득해 줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하! 지금 이 상황에 우리끼리 화해해서 무슨 소용인데?
+지금 북서연합 소속 지역구에 있는 학교들이 어떤 상황인지 모르는 거냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑평에게 전해들은 북서 지역구의 상황은 그야말로 충격적이었다.
+학생의 수준을 벗어난 착취와 농락…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다 김갑평의 말 대로 우리끼리 화해해서는 의미가 없는 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 한 번 북서가 연합해서 남동연합을 몰아내야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구를 통일 할 생각이가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 같은 찐따가 사람답기 살기 위해서는 그 수 밖에 없다면!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔공공고3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 팔공공고가 병동고와 붙고 경서고가 분지고와 붙을테니, 넌 국지고를 맡아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 국지고라면 명문고 아닌가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그날 이후 팔공공고와 경서고, 그리고 우리 연소고는 다시 연합을 맺었고, 남동연합에 선전포고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 지금 이 순간 북서연합과 남동연합의 대구를 건 싸움이 시작되려 하고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국지고는 확실히 명문고인데, 거기있는 일진들은 질이 나쁘기로 유명하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 학교 일진이 시험 망치기라도 하면 그 날은 학교에 곡소리가 울린다나 어쩐다나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔냐 그 안쓰러운 학교는… 랄까?
+더 안쓰러운 것은 시험을 망쳐도 전혀 신경쓰지 않는 나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 그런 한가한 소리를 하고 있을 때야?
+시작했다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국지고생들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오오오오오!!!
+저 돼지가 연소고 짱이다 쳐라!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후~ 끝이 없구만~
+하지만 이 몸은 쓰러지지 않는다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지 이제 시작이다.
+정신 바짝 차리라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 한 뭉탱이 더 온다.
+준비 해이라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤에엥?! 좀 봐 달라고옷!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와아아아아아아아!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후우… 이 정도면 국지고는 정리된 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 아니다. 국지고 짱 정적성이 안보인다 아니가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적성?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩글리쉬킹 정적성 모르나?
+성적도 싸움도 대구에서 최상위권에 드는 얄미운 놈이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 알겠는데 콩글리쉬킹은 도대체 뭔데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유 디드 디스?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 어디서 구수한 영어발음이..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나왔네, 점마가 국지고의 짱 정적성이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 따까리스를 이렇게 엉망진창으로 비트 한 대가를 치루게 해 주마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭐라고 하는 거야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리가 난 곳엔 국지고 교복을 입은 녀석이 단어장을 읽으며 걸어오고 있었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3068,8 +3974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F856" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F856"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1151" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1151"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -3090,7 +3996,7 @@
       <xmlColumnPr mapId="1" xpath="/Root/Unit/Japanese" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3357,15 +4263,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J856"/>
+  <dimension ref="A1:J1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A838" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F851" sqref="F851"/>
+    <sheetView tabSelected="1" topLeftCell="A1134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1151" sqref="D1151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="52.375" customWidth="1"/>
@@ -13309,6 +14215,9 @@
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>655</v>
+      </c>
       <c r="B854">
         <v>4</v>
       </c>
@@ -13317,6 +14226,9 @@
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>655</v>
+      </c>
       <c r="B855">
         <v>4</v>
       </c>
@@ -13325,11 +14237,3190 @@
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>655</v>
+      </c>
       <c r="B856">
         <v>2</v>
       </c>
       <c r="D856" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>655</v>
+      </c>
+      <c r="C857" t="s">
+        <v>658</v>
+      </c>
+      <c r="D857" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>655</v>
+      </c>
+      <c r="C858" t="s">
+        <v>659</v>
+      </c>
+      <c r="D858" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>655</v>
+      </c>
+      <c r="B859">
+        <v>2</v>
+      </c>
+      <c r="D859" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>655</v>
+      </c>
+      <c r="B860">
+        <v>4</v>
+      </c>
+      <c r="D860" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>655</v>
+      </c>
+      <c r="B861">
+        <v>3</v>
+      </c>
+      <c r="D861" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>655</v>
+      </c>
+      <c r="C862" t="s">
+        <v>661</v>
+      </c>
+      <c r="D862" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>655</v>
+      </c>
+      <c r="B863">
+        <v>4</v>
+      </c>
+      <c r="D863" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>655</v>
+      </c>
+      <c r="B864">
+        <v>6</v>
+      </c>
+      <c r="D864" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>655</v>
+      </c>
+      <c r="C865" t="s">
+        <v>659</v>
+      </c>
+      <c r="D865" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>655</v>
+      </c>
+      <c r="C866" t="s">
+        <v>661</v>
+      </c>
+      <c r="D866" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>655</v>
+      </c>
+      <c r="C867" t="s">
+        <v>659</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>655</v>
+      </c>
+      <c r="B868">
+        <v>2</v>
+      </c>
+      <c r="D868" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>655</v>
+      </c>
+      <c r="C869" t="s">
+        <v>658</v>
+      </c>
+      <c r="D869" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>655</v>
+      </c>
+      <c r="C870" t="s">
+        <v>659</v>
+      </c>
+      <c r="D870" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>655</v>
+      </c>
+      <c r="C871" t="s">
+        <v>658</v>
+      </c>
+      <c r="D871" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>655</v>
+      </c>
+      <c r="C872" t="s">
+        <v>659</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>655</v>
+      </c>
+      <c r="C873" t="s">
+        <v>658</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>655</v>
+      </c>
+      <c r="B874">
+        <v>2</v>
+      </c>
+      <c r="D874" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>655</v>
+      </c>
+      <c r="B875">
+        <v>3</v>
+      </c>
+      <c r="D875" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>655</v>
+      </c>
+      <c r="B876">
+        <v>4</v>
+      </c>
+      <c r="D876" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>655</v>
+      </c>
+      <c r="C877" t="s">
+        <v>661</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>655</v>
+      </c>
+      <c r="C878" t="s">
+        <v>659</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>655</v>
+      </c>
+      <c r="C879" t="s">
+        <v>659</v>
+      </c>
+      <c r="D879" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>655</v>
+      </c>
+      <c r="C880" t="s">
+        <v>661</v>
+      </c>
+      <c r="D880" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>655</v>
+      </c>
+      <c r="C881" t="s">
+        <v>659</v>
+      </c>
+      <c r="D881" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>655</v>
+      </c>
+      <c r="B882">
+        <v>2</v>
+      </c>
+      <c r="D882" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>655</v>
+      </c>
+      <c r="C883" t="s">
+        <v>658</v>
+      </c>
+      <c r="D883" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>655</v>
+      </c>
+      <c r="C884" t="s">
+        <v>658</v>
+      </c>
+      <c r="D884" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>655</v>
+      </c>
+      <c r="C885" t="s">
+        <v>659</v>
+      </c>
+      <c r="D885" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>655</v>
+      </c>
+      <c r="C886" t="s">
+        <v>658</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>655</v>
+      </c>
+      <c r="C887" t="s">
+        <v>658</v>
+      </c>
+      <c r="D887" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>655</v>
+      </c>
+      <c r="C888" t="s">
+        <v>659</v>
+      </c>
+      <c r="D888" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>655</v>
+      </c>
+      <c r="B889">
+        <v>3</v>
+      </c>
+      <c r="D889" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>655</v>
+      </c>
+      <c r="C890" t="s">
+        <v>661</v>
+      </c>
+      <c r="D890" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>655</v>
+      </c>
+      <c r="B891">
+        <v>4</v>
+      </c>
+      <c r="D891" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>655</v>
+      </c>
+      <c r="D892" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>655</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>655</v>
+      </c>
+      <c r="D894" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>655</v>
+      </c>
+      <c r="B895">
+        <v>2</v>
+      </c>
+      <c r="D895" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>655</v>
+      </c>
+      <c r="B896">
+        <v>4</v>
+      </c>
+      <c r="D896" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>655</v>
+      </c>
+      <c r="B897">
+        <v>7</v>
+      </c>
+      <c r="D897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>655</v>
+      </c>
+      <c r="C898" t="s">
+        <v>693</v>
+      </c>
+      <c r="D898" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>655</v>
+      </c>
+      <c r="B899">
+        <v>4</v>
+      </c>
+      <c r="D899" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>655</v>
+      </c>
+      <c r="B900">
+        <v>4</v>
+      </c>
+      <c r="D900" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>831</v>
+      </c>
+      <c r="B901">
+        <v>5</v>
+      </c>
+      <c r="D901" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>831</v>
+      </c>
+      <c r="B902">
+        <v>4</v>
+      </c>
+      <c r="D902" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>831</v>
+      </c>
+      <c r="B903">
+        <v>4</v>
+      </c>
+      <c r="D903" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>831</v>
+      </c>
+      <c r="D904" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>831</v>
+      </c>
+      <c r="D905" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>831</v>
+      </c>
+      <c r="C906" t="s">
+        <v>659</v>
+      </c>
+      <c r="D906" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>831</v>
+      </c>
+      <c r="B907">
+        <v>2</v>
+      </c>
+      <c r="D907" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>831</v>
+      </c>
+      <c r="B908">
+        <v>3</v>
+      </c>
+      <c r="D908" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>831</v>
+      </c>
+      <c r="C909" t="s">
+        <v>693</v>
+      </c>
+      <c r="D909" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>831</v>
+      </c>
+      <c r="B910">
+        <v>4</v>
+      </c>
+      <c r="D910" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>831</v>
+      </c>
+      <c r="B911">
+        <v>6</v>
+      </c>
+      <c r="D911" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>831</v>
+      </c>
+      <c r="C912" t="s">
+        <v>659</v>
+      </c>
+      <c r="D912" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>831</v>
+      </c>
+      <c r="D913" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>831</v>
+      </c>
+      <c r="D914" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>831</v>
+      </c>
+      <c r="B915">
+        <v>4</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>831</v>
+      </c>
+      <c r="C916" t="s">
+        <v>693</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>831</v>
+      </c>
+      <c r="C917" t="s">
+        <v>659</v>
+      </c>
+      <c r="D917" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>831</v>
+      </c>
+      <c r="C918" t="s">
+        <v>659</v>
+      </c>
+      <c r="D918" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>831</v>
+      </c>
+      <c r="C919" t="s">
+        <v>693</v>
+      </c>
+      <c r="D919" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>831</v>
+      </c>
+      <c r="C920" t="s">
+        <v>659</v>
+      </c>
+      <c r="D920" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>831</v>
+      </c>
+      <c r="C921" t="s">
+        <v>693</v>
+      </c>
+      <c r="D921" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>831</v>
+      </c>
+      <c r="D922" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>831</v>
+      </c>
+      <c r="B923">
+        <v>3</v>
+      </c>
+      <c r="D923" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>831</v>
+      </c>
+      <c r="B924">
+        <v>4</v>
+      </c>
+      <c r="D924" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>831</v>
+      </c>
+      <c r="B925">
+        <v>6</v>
+      </c>
+      <c r="D925" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>831</v>
+      </c>
+      <c r="B926">
+        <v>7</v>
+      </c>
+      <c r="D926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>831</v>
+      </c>
+      <c r="D927" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>831</v>
+      </c>
+      <c r="B928">
+        <v>4</v>
+      </c>
+      <c r="D928" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>831</v>
+      </c>
+      <c r="B929">
+        <v>6</v>
+      </c>
+      <c r="D929" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>831</v>
+      </c>
+      <c r="C930" t="s">
+        <v>659</v>
+      </c>
+      <c r="D930" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>831</v>
+      </c>
+      <c r="C931" t="s">
+        <v>693</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>831</v>
+      </c>
+      <c r="C932" t="s">
+        <v>659</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>831</v>
+      </c>
+      <c r="B933">
+        <v>4</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>831</v>
+      </c>
+      <c r="B934">
+        <v>6</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>831</v>
+      </c>
+      <c r="C935" t="s">
+        <v>693</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>831</v>
+      </c>
+      <c r="C936" t="s">
+        <v>659</v>
+      </c>
+      <c r="D936" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>831</v>
+      </c>
+      <c r="B937">
+        <v>4</v>
+      </c>
+      <c r="D937" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>831</v>
+      </c>
+      <c r="B938">
+        <v>4</v>
+      </c>
+      <c r="D938" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>831</v>
+      </c>
+      <c r="D939" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>831</v>
+      </c>
+      <c r="D940" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>831</v>
+      </c>
+      <c r="C941" t="s">
+        <v>659</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>831</v>
+      </c>
+      <c r="B942">
+        <v>2</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>831</v>
+      </c>
+      <c r="C943" t="s">
+        <v>744</v>
+      </c>
+      <c r="D943" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>831</v>
+      </c>
+      <c r="B944">
+        <v>6</v>
+      </c>
+      <c r="D944" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>831</v>
+      </c>
+      <c r="B945">
+        <v>4</v>
+      </c>
+      <c r="D945" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>831</v>
+      </c>
+      <c r="C946" t="s">
+        <v>723</v>
+      </c>
+      <c r="D946" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>831</v>
+      </c>
+      <c r="B947">
+        <v>3</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>831</v>
+      </c>
+      <c r="C948" t="s">
+        <v>743</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>831</v>
+      </c>
+      <c r="B949">
+        <v>2</v>
+      </c>
+      <c r="D949" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>831</v>
+      </c>
+      <c r="C950" t="s">
+        <v>745</v>
+      </c>
+      <c r="D950" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>831</v>
+      </c>
+      <c r="B951">
+        <v>1</v>
+      </c>
+      <c r="D951" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>831</v>
+      </c>
+      <c r="C952" t="s">
+        <v>746</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>831</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+      <c r="D953" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>831</v>
+      </c>
+      <c r="C954" t="s">
+        <v>743</v>
+      </c>
+      <c r="D954" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>831</v>
+      </c>
+      <c r="B955">
+        <v>2</v>
+      </c>
+      <c r="D955" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>831</v>
+      </c>
+      <c r="C956" t="s">
+        <v>745</v>
+      </c>
+      <c r="D956" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>831</v>
+      </c>
+      <c r="B957">
+        <v>4</v>
+      </c>
+      <c r="D957" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>831</v>
+      </c>
+      <c r="B958">
+        <v>4</v>
+      </c>
+      <c r="D958" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>832</v>
+      </c>
+      <c r="B959">
+        <v>2</v>
+      </c>
+      <c r="D959" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>832</v>
+      </c>
+      <c r="B960">
+        <v>4</v>
+      </c>
+      <c r="D960" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>832</v>
+      </c>
+      <c r="B961">
+        <v>6</v>
+      </c>
+      <c r="D961" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>832</v>
+      </c>
+      <c r="C962" t="s">
+        <v>750</v>
+      </c>
+      <c r="D962" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>832</v>
+      </c>
+      <c r="C963" t="s">
+        <v>723</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>832</v>
+      </c>
+      <c r="B964">
+        <v>2</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>832</v>
+      </c>
+      <c r="C965" t="s">
+        <v>751</v>
+      </c>
+      <c r="D965" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>832</v>
+      </c>
+      <c r="C966" t="s">
+        <v>723</v>
+      </c>
+      <c r="D966" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>832</v>
+      </c>
+      <c r="B967">
+        <v>2</v>
+      </c>
+      <c r="D967" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>832</v>
+      </c>
+      <c r="C968" t="s">
+        <v>746</v>
+      </c>
+      <c r="D968" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>832</v>
+      </c>
+      <c r="C969" t="s">
+        <v>723</v>
+      </c>
+      <c r="D969" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>832</v>
+      </c>
+      <c r="B970">
+        <v>2</v>
+      </c>
+      <c r="D970" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>832</v>
+      </c>
+      <c r="C971" t="s">
+        <v>758</v>
+      </c>
+      <c r="D971" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>832</v>
+      </c>
+      <c r="C972" t="s">
+        <v>723</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>832</v>
+      </c>
+      <c r="C973" t="s">
+        <v>758</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>832</v>
+      </c>
+      <c r="C974" t="s">
+        <v>723</v>
+      </c>
+      <c r="D974" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>832</v>
+      </c>
+      <c r="C975" t="s">
+        <v>758</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>832</v>
+      </c>
+      <c r="B976">
+        <v>4</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>832</v>
+      </c>
+      <c r="B977">
+        <v>6</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>832</v>
+      </c>
+      <c r="C978" t="s">
+        <v>723</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>832</v>
+      </c>
+      <c r="C979" t="s">
+        <v>758</v>
+      </c>
+      <c r="D979" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>832</v>
+      </c>
+      <c r="C980" t="s">
+        <v>758</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>832</v>
+      </c>
+      <c r="B981">
+        <v>4</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>832</v>
+      </c>
+      <c r="B982">
+        <v>6</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>832</v>
+      </c>
+      <c r="C983" t="s">
+        <v>723</v>
+      </c>
+      <c r="D983" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>832</v>
+      </c>
+      <c r="B984">
+        <v>3</v>
+      </c>
+      <c r="D984" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>832</v>
+      </c>
+      <c r="C985" t="s">
+        <v>758</v>
+      </c>
+      <c r="D985" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>832</v>
+      </c>
+      <c r="B986">
+        <v>3</v>
+      </c>
+      <c r="D986" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>832</v>
+      </c>
+      <c r="C987" t="s">
+        <v>758</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>832</v>
+      </c>
+      <c r="B988">
+        <v>4</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>832</v>
+      </c>
+      <c r="B989">
+        <v>6</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>832</v>
+      </c>
+      <c r="C990" t="s">
+        <v>723</v>
+      </c>
+      <c r="D990" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>832</v>
+      </c>
+      <c r="C991" t="s">
+        <v>758</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>832</v>
+      </c>
+      <c r="C992" t="s">
+        <v>723</v>
+      </c>
+      <c r="D992" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>832</v>
+      </c>
+      <c r="B993">
+        <v>4</v>
+      </c>
+      <c r="D993" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>832</v>
+      </c>
+      <c r="B994">
+        <v>6</v>
+      </c>
+      <c r="D994" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>832</v>
+      </c>
+      <c r="B995">
+        <v>5</v>
+      </c>
+      <c r="D995" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>832</v>
+      </c>
+      <c r="C996" t="s">
+        <v>758</v>
+      </c>
+      <c r="D996" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>832</v>
+      </c>
+      <c r="D997" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>832</v>
+      </c>
+      <c r="B998">
+        <v>4</v>
+      </c>
+      <c r="D998" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>833</v>
+      </c>
+      <c r="B999">
+        <v>5</v>
+      </c>
+      <c r="D999" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1000">
+        <v>4</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1001" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1002">
+        <v>2</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1003">
+        <v>3</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1005">
+        <v>4</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1006">
+        <v>6</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1008">
+        <v>3</v>
+      </c>
+      <c r="D1008" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1010">
+        <v>4</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1011">
+        <v>2</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1014">
+        <v>2</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1015">
+        <v>4</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1018">
+        <v>2</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1019">
+        <v>3</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1021">
+        <v>4</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1022">
+        <v>4</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1023">
+        <v>3</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1025">
+        <v>2</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1026">
+        <v>3</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1027" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1030">
+        <v>2</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1031">
+        <v>3</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1032">
+        <v>4</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1033">
+        <v>6</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1035">
+        <v>2</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1036">
+        <v>3</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1038">
+        <v>4</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>834</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1041">
+        <v>4</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>834</v>
+      </c>
+      <c r="B1042">
+        <v>4</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1048">
+        <v>4</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1049">
+        <v>6</v>
+      </c>
+      <c r="D1049" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1050">
+        <v>3</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1051" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1052">
+        <v>4</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1053">
+        <v>2</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1054">
+        <v>3</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1056">
+        <v>2</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1057">
+        <v>3</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1058" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1059" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1061">
+        <v>4</v>
+      </c>
+      <c r="D1061" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1062">
+        <v>3</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1064">
+        <v>2</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1065">
+        <v>4</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1066">
+        <v>3</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>835</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1067" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1068">
+        <v>4</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1069">
+        <v>4</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1070">
+        <v>4</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1071">
+        <v>3</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1075">
+        <v>4</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1076">
+        <v>6</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1079">
+        <v>2</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1080">
+        <v>3</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1084">
+        <v>4</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>836</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1089">
+        <v>6</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1091">
+        <v>4</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1092">
+        <v>4</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1093">
+        <v>4</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1094">
+        <v>2</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1095">
+        <v>6</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1100">
+        <v>2</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1105">
+        <v>4</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1107">
+        <v>4</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>837</v>
+      </c>
+      <c r="B1108">
+        <v>4</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1109">
+        <v>4</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1110">
+        <v>3</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1112">
+        <v>2</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1114">
+        <v>4</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1115">
+        <v>4</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1116">
+        <v>4</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1117">
+        <v>5</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1118">
+        <v>2</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1119">
+        <v>3</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1122">
+        <v>4</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1124">
+        <v>4</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>852</v>
+      </c>
+      <c r="B1125">
+        <v>4</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1126">
+        <v>3</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1128">
+        <v>2</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1129">
+        <v>3</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1130">
+        <v>4</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1135">
+        <v>2</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1136">
+        <v>3</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1137">
+        <v>4</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1138">
+        <v>6</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1142">
+        <v>2</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1143">
+        <v>3</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1145">
+        <v>2</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1147">
+        <v>4</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1148">
+        <v>6</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>791</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1150">
+        <v>4</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1151">
+        <v>4</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1002">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3391,10 +3391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>팔공공고생1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3768,6 +3764,583 @@
   </si>
   <si>
     <t>소리가 난 곳엔 국지고 교복을 입은 녀석이 단어장을 읽으며 걸어오고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 따까리스를 이렇게 엉망진창으로 비트 한 대가를 치루게 해 주마.
+지금부터 너에게 나이트메어를 선사해주지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해라, 점마 호리호라하게 생겨도 수성구 짱에 그냥 오른게 아니니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난 두뇌와 관찰력을 이용한 공격을 해올거라.
+점마는 그 걸 크리티컬 히트라 부른다 카더라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 히트..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅은 거기까지다 버그들!
+배틀 스타트다! 레디 고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..! 미가 로즈하다니!
+잇 캔트 비 해픈!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적성은 본노의 영어단어 암기를 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후우~ 이제 정말 국지고는 정리가 된 거겠지?
+다른 곳은 어떻게 됐으려나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크큭..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가 웃긴 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄, 누가 이겼든 끝났을 것 같긴 한데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병동고의 마형환, 분지고의 마동환에 대해 모르는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마형환과 마동환… 같은 고아원 출신의 쌍둥이 형제.
+서로 다른 곳에 입양되서 각각 병동고와 분지고를 먹었다는 얘기는 들었지만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이가 나란히 짱?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라잇!! 그 브라더스는 배틀의 DNA가 바디에 흐르고 있다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야말로 내츄럴 본 싸움꾼!
+팔공공고의 김갑평과 경서고의 조재훈이 당해낼 리가 없지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 말 대로다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점마들이 그 쌍둥이가..?
+근데 생긴게 뭐 저러노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마형환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리가 난 쪽을 보니 검은 그림자 두 개가 이쪽을 향해 걸어오고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 물살돼지에게 발린거냐 정적성!
+실망이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형이 나설 필요도 없겠네.
+내가 마무리 하지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 거구의 근육돼지들이 마형환과 마동환…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 고등학생 맞는 거냐?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점마들 깡패 아니가?
+덩치가 뭐 저런…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 고등학생은 아닌 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 소리! 쟤들은 데피니틀리 하이스쿨 스튜던트다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안돼…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야! 돼지!
+째자! 니 혼자서는 쟤들 절대 모이긴다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼! 지금 도망가면 북서에 가해지는 착취가 더 강해질 뿐이야..!
+랄까? 이길 수 있다고오!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하!!! 너 따위가 이 몸을 이길 수 있다고?
+체급 차이를 봐라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 끝내고 집에 가자 동생아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러자고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해, 해보기 전엔 모, 모르는 거다앗!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하!! 찐따들은 그렇게 모두 강자와 싸워 이기는 상상을 하곤 하지!
+하지만 현실을 그렇지 않다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 다르다!
+이 몸은 망상을 현실화 했다곳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전4-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윽!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말도 안돼… 진짜로 이기다니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 흐름을 탔다고!
+무적이랄까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 머슬 브라더스가 지다니!
+언빌리버블! 역시 비계 파이터 @이름!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 별명은 쓰지 말라고옷!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 어떡할 거데?
+남동연합을 해치웠으니 더 이상 우리를 건드리진 않을 것 같긴 한데 말이제…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음… 역시 그 정도로는 안돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 목표는 일진이 없는 대구다앗!
+랄까? 너네 전부 약자를 괴롭히지 마라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화아아아앗?!!!
+그럼 내 입시 스트레스는 어떻게 릴리즈 하냐고!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 거 괴롭히지 않아도 할 수 있잖아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뎃츠 임파시블!!!!!!!!
+네버! 그렇게는 못 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..! 나도 그렇게는 못 한다!!
+그런 건 일진이 아니야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형 말이 맞아..!
+우리에게 이겼다고 해서 뭐든 명령해도 되는 건 아니라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 그런 얘길 하니까 이렇게 됐다 아니가!
+그런 건 천천히 바꿔가야 하는 건데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그, 그런가?!
+하지만 입 밖에 꺼낸 이상 어쩔 수 없다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김갑평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 절대 동의 못한다!
+찐따들 괴롭히는 건 내 인생의 유일한 낙이라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟤는 또 어디서 온 거야!
+싸울땐 코빼기도 안 보이더니!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크큭!! 자..! 이 만한 반대 오피니언이 모였다!
+너도 그 뜻을 강요하지는 못 하겠지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 평화로운 학교 만들기 같은 건 너네 학교만 하라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 아무리 세다고 해도 이 만한 수를 이길 순 없을 거다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 일단 물러서는게 좋을 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼 안돼! 그런 식으로는 아무 것도 안 바뀐다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 나같은 피해자가 생겨서는 안돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 이 자리에서 이 녀석들 모두를 참교육 시켜서라도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 말하지만 우리 모두는 니 말에 안따를 거니까!
+따르게 하려면 우리를 한꺼번에 상대해야 할 거다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 뜻은 바뀌지 않는다!
+이 몸이 이기면 내 평화로운 학교 만들기 계획에 동참하라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크큭!! 피스풀 스쿨 메이킹 플랜?!!
+하하하!!! 정말 이래서 너드는!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 그럴일은 없을테니 그렇게 해 준다고 여기서 약속 하지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덤벼! 오늘 다 이 몸에게 참교육 받는 날이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참교육은 무슨!!
+돼지 두루치기 포식하는 날이다!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구대전5-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 힘을 다해 바닥에 주저 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으… 더 이상은 못해..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 믿을 수 없는데…
+니가 해내뿟네..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸에겐 불가능이란 없다곳!
+랄까, 이 몸을 믿지 않았던 거냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풉!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크큭! 아무리 최강의 비계 파이터라도 각 지역 헤드 4명과 4 대 1을?
+아 유 크레이지?! 하하하하!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으, 응??
+왜 웃는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥~ 신기하잖아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구를 통일 한 통합짱이 되서도 아직도 이렇게 찐따 같다니.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭣?!
+사과하라고옷!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 넌 괜찮은 거냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게… 너도 일진이잖아.
+이제 일진짓 하면 안된다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야! 서민결 패거리와 친하게 지냈잖아!
+게다가 일진이고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 일진일지는 몰라도 일진에 관심 없다.
+그냥 됐을 뿐이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 언제 일진짓을 했다는 거고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이 말이 되냐고!!
+그럼 이 몸의 눈물의 고백은 왜 그렇게 매정하게 거절한 거냣!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그야 니가 몬생기고 뚱뚱하고 찌질한 찐따라 그렇지.
+누군지도 몰랐고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴수가..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 그럼 슬슬 가자.
+시간도 늦었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에고고. 그럴까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 아리야 부축 좀…
+힘이 풀려버려쓰…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하..! 니 무거워서 모한다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬 산다 진짜!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 대구에는 평화가 찾아왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연합 내 다른 고등학교 일진들도 자제하고 있는 듯하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 괴롭힘을 일삼던 일진들도 조금씩 평화에 익숙해져 갈 것이라 믿는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 험난했던 나의 왕따탈출기가 끝났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이 때의 나는 알지 못했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상은 넓고, 학교는 많고, 쓰레기들은 더 많다는 것을..!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3974,8 +4547,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1151" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1369" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1369"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -4263,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1151"/>
+  <dimension ref="A1:J1369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1151" sqref="D1151"/>
+    <sheetView tabSelected="1" topLeftCell="A1296" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1368" sqref="H1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14724,7 +15297,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B901">
         <v>5</v>
@@ -14735,7 +15308,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B902">
         <v>4</v>
@@ -14746,7 +15319,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B903">
         <v>4</v>
@@ -14757,7 +15330,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D904" t="s">
         <v>697</v>
@@ -14765,7 +15338,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D905" t="s">
         <v>698</v>
@@ -14773,7 +15346,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C906" t="s">
         <v>659</v>
@@ -14784,7 +15357,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B907">
         <v>2</v>
@@ -14795,7 +15368,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B908">
         <v>3</v>
@@ -14806,7 +15379,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C909" t="s">
         <v>693</v>
@@ -14817,7 +15390,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B910">
         <v>4</v>
@@ -14828,7 +15401,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B911">
         <v>6</v>
@@ -14839,7 +15412,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C912" t="s">
         <v>659</v>
@@ -14850,7 +15423,7 @@
     </row>
     <row r="913" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D913" s="3" t="s">
         <v>701</v>
@@ -14858,7 +15431,7 @@
     </row>
     <row r="914" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D914" s="3" t="s">
         <v>702</v>
@@ -14866,7 +15439,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B915">
         <v>4</v>
@@ -14877,7 +15450,7 @@
     </row>
     <row r="916" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C916" t="s">
         <v>693</v>
@@ -14888,7 +15461,7 @@
     </row>
     <row r="917" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C917" t="s">
         <v>659</v>
@@ -14899,7 +15472,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C918" t="s">
         <v>659</v>
@@ -14910,7 +15483,7 @@
     </row>
     <row r="919" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C919" t="s">
         <v>693</v>
@@ -14921,7 +15494,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C920" t="s">
         <v>659</v>
@@ -14932,7 +15505,7 @@
     </row>
     <row r="921" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C921" t="s">
         <v>693</v>
@@ -14943,7 +15516,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D922" t="s">
         <v>711</v>
@@ -14951,7 +15524,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B923">
         <v>3</v>
@@ -14962,7 +15535,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B924">
         <v>4</v>
@@ -14973,7 +15546,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B925">
         <v>6</v>
@@ -14984,7 +15557,7 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B926">
         <v>7</v>
@@ -14995,7 +15568,7 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D927" t="s">
         <v>713</v>
@@ -15003,7 +15576,7 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B928">
         <v>4</v>
@@ -15014,7 +15587,7 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B929">
         <v>6</v>
@@ -15025,7 +15598,7 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C930" t="s">
         <v>659</v>
@@ -15036,7 +15609,7 @@
     </row>
     <row r="931" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C931" t="s">
         <v>693</v>
@@ -15047,7 +15620,7 @@
     </row>
     <row r="932" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C932" t="s">
         <v>659</v>
@@ -15058,7 +15631,7 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B933">
         <v>4</v>
@@ -15069,7 +15642,7 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B934">
         <v>6</v>
@@ -15080,7 +15653,7 @@
     </row>
     <row r="935" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C935" t="s">
         <v>693</v>
@@ -15091,7 +15664,7 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C936" t="s">
         <v>659</v>
@@ -15102,7 +15675,7 @@
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B937">
         <v>4</v>
@@ -15113,7 +15686,7 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B938">
         <v>4</v>
@@ -15124,7 +15697,7 @@
     </row>
     <row r="939" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D939" s="3" t="s">
         <v>717</v>
@@ -15132,7 +15705,7 @@
     </row>
     <row r="940" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D940" s="3" t="s">
         <v>721</v>
@@ -15140,7 +15713,7 @@
     </row>
     <row r="941" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C941" t="s">
         <v>659</v>
@@ -15151,7 +15724,7 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B942">
         <v>2</v>
@@ -15162,7 +15735,7 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C943" t="s">
         <v>744</v>
@@ -15173,7 +15746,7 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B944">
         <v>6</v>
@@ -15184,7 +15757,7 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B945">
         <v>4</v>
@@ -15195,7 +15768,7 @@
     </row>
     <row r="946" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C946" t="s">
         <v>723</v>
@@ -15206,7 +15779,7 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B947">
         <v>3</v>
@@ -15217,7 +15790,7 @@
     </row>
     <row r="948" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C948" t="s">
         <v>743</v>
@@ -15228,7 +15801,7 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B949">
         <v>2</v>
@@ -15239,7 +15812,7 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C950" t="s">
         <v>745</v>
@@ -15250,7 +15823,7 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B951">
         <v>1</v>
@@ -15261,7 +15834,7 @@
     </row>
     <row r="952" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C952" t="s">
         <v>746</v>
@@ -15272,7 +15845,7 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B953">
         <v>3</v>
@@ -15283,7 +15856,7 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C954" t="s">
         <v>743</v>
@@ -15294,7 +15867,7 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B955">
         <v>2</v>
@@ -15305,7 +15878,7 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C956" t="s">
         <v>745</v>
@@ -15316,7 +15889,7 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B957">
         <v>4</v>
@@ -15327,7 +15900,7 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B958">
         <v>4</v>
@@ -15338,7 +15911,7 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B959">
         <v>2</v>
@@ -15349,7 +15922,7 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B960">
         <v>4</v>
@@ -15360,7 +15933,7 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B961">
         <v>6</v>
@@ -15371,7 +15944,7 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C962" t="s">
         <v>750</v>
@@ -15382,7 +15955,7 @@
     </row>
     <row r="963" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C963" t="s">
         <v>723</v>
@@ -15393,7 +15966,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B964">
         <v>2</v>
@@ -15404,7 +15977,7 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C965" t="s">
         <v>751</v>
@@ -15415,7 +15988,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C966" t="s">
         <v>723</v>
@@ -15426,7 +15999,7 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B967">
         <v>2</v>
@@ -15437,7 +16010,7 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C968" t="s">
         <v>746</v>
@@ -15448,7 +16021,7 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C969" t="s">
         <v>723</v>
@@ -15459,7 +16032,7 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B970">
         <v>2</v>
@@ -15470,7 +16043,7 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C971" t="s">
         <v>758</v>
@@ -15481,7 +16054,7 @@
     </row>
     <row r="972" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C972" t="s">
         <v>723</v>
@@ -15492,7 +16065,7 @@
     </row>
     <row r="973" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C973" t="s">
         <v>758</v>
@@ -15503,7 +16076,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C974" t="s">
         <v>723</v>
@@ -15514,7 +16087,7 @@
     </row>
     <row r="975" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C975" t="s">
         <v>758</v>
@@ -15525,7 +16098,7 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B976">
         <v>4</v>
@@ -15536,7 +16109,7 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B977">
         <v>6</v>
@@ -15547,7 +16120,7 @@
     </row>
     <row r="978" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C978" t="s">
         <v>723</v>
@@ -15558,7 +16131,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C979" t="s">
         <v>758</v>
@@ -15569,7 +16142,7 @@
     </row>
     <row r="980" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C980" t="s">
         <v>758</v>
@@ -15580,7 +16153,7 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B981">
         <v>4</v>
@@ -15591,7 +16164,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B982">
         <v>6</v>
@@ -15602,7 +16175,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C983" t="s">
         <v>723</v>
@@ -15613,7 +16186,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B984">
         <v>3</v>
@@ -15624,7 +16197,7 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C985" t="s">
         <v>758</v>
@@ -15635,7 +16208,7 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B986">
         <v>3</v>
@@ -15646,7 +16219,7 @@
     </row>
     <row r="987" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C987" t="s">
         <v>758</v>
@@ -15657,7 +16230,7 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B988">
         <v>4</v>
@@ -15668,7 +16241,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B989">
         <v>6</v>
@@ -15679,7 +16252,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C990" t="s">
         <v>723</v>
@@ -15690,7 +16263,7 @@
     </row>
     <row r="991" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C991" t="s">
         <v>758</v>
@@ -15701,7 +16274,7 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C992" t="s">
         <v>723</v>
@@ -15712,7 +16285,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B993">
         <v>4</v>
@@ -15723,7 +16296,7 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B994">
         <v>6</v>
@@ -15734,7 +16307,7 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B995">
         <v>5</v>
@@ -15745,7 +16318,7 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C996" t="s">
         <v>758</v>
@@ -15756,7 +16329,7 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D997" t="s">
         <v>777</v>
@@ -15764,7 +16337,7 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B998">
         <v>4</v>
@@ -15775,7 +16348,7 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B999">
         <v>5</v>
@@ -15786,7 +16359,7 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1000">
         <v>4</v>
@@ -15797,7 +16370,7 @@
     </row>
     <row r="1001" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D1001" s="3" t="s">
         <v>779</v>
@@ -15805,7 +16378,7 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1002">
         <v>2</v>
@@ -15816,7 +16389,7 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1003">
         <v>3</v>
@@ -15827,18 +16400,18 @@
     </row>
     <row r="1004" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1004" t="s">
         <v>758</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1005">
         <v>4</v>
@@ -15849,7 +16422,7 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1006">
         <v>6</v>
@@ -15860,7 +16433,7 @@
     </row>
     <row r="1007" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1007" t="s">
         <v>723</v>
@@ -15871,18 +16444,18 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1008">
         <v>3</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1009" t="s">
         <v>758</v>
@@ -15893,7 +16466,7 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1010">
         <v>4</v>
@@ -15904,7 +16477,7 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1011">
         <v>2</v>
@@ -15915,29 +16488,29 @@
     </row>
     <row r="1012" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1012" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1012" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="D1012" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="1013" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1013" t="s">
         <v>723</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1014">
         <v>2</v>
@@ -15948,7 +16521,7 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1015">
         <v>4</v>
@@ -15959,29 +16532,29 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1016" t="s">
         <v>745</v>
       </c>
       <c r="D1016" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1017" t="s">
         <v>723</v>
       </c>
       <c r="D1017" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1018">
         <v>2</v>
@@ -15992,29 +16565,29 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1019">
         <v>3</v>
       </c>
       <c r="D1019" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C1020" t="s">
         <v>758</v>
       </c>
       <c r="D1020" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1021">
         <v>4</v>
@@ -16025,7 +16598,7 @@
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1022">
         <v>4</v>
@@ -16036,29 +16609,29 @@
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1023">
         <v>3</v>
       </c>
       <c r="D1023" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1024" t="s">
         <v>723</v>
       </c>
       <c r="D1024" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1025">
         <v>2</v>
@@ -16069,7 +16642,7 @@
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1026">
         <v>3</v>
@@ -16080,48 +16653,48 @@
     </row>
     <row r="1027" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1027" t="s">
         <v>758</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1028" t="s">
         <v>723</v>
       </c>
       <c r="D1028" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1029" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1030">
         <v>2</v>
       </c>
       <c r="D1030" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1031">
         <v>3</v>
@@ -16132,7 +16705,7 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1032">
         <v>4</v>
@@ -16143,7 +16716,7 @@
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1033">
         <v>6</v>
@@ -16154,18 +16727,18 @@
     </row>
     <row r="1034" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1034" t="s">
         <v>728</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1035">
         <v>2</v>
@@ -16176,67 +16749,67 @@
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1036">
         <v>3</v>
       </c>
       <c r="D1036" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1037" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C1037" t="s">
         <v>758</v>
       </c>
       <c r="D1037" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1038">
         <v>4</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1039" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1040" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1040" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1041">
         <v>4</v>
       </c>
       <c r="D1041" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1042">
         <v>4</v>
@@ -16247,62 +16820,62 @@
     </row>
     <row r="1043" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1043" t="s">
         <v>723</v>
       </c>
       <c r="D1043" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1044" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1044" t="s">
         <v>723</v>
       </c>
       <c r="D1044" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1045" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1045" t="s">
         <v>758</v>
       </c>
       <c r="D1045" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1046" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1046" t="s">
         <v>723</v>
       </c>
       <c r="D1046" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1047" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1047" t="s">
         <v>758</v>
       </c>
       <c r="D1047" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1048">
         <v>4</v>
@@ -16313,7 +16886,7 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1049">
         <v>6</v>
@@ -16324,7 +16897,7 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1050">
         <v>3</v>
@@ -16335,62 +16908,62 @@
     </row>
     <row r="1051" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1051" t="s">
         <v>723</v>
       </c>
       <c r="D1051" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1052">
         <v>4</v>
       </c>
       <c r="D1052" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1053">
         <v>2</v>
       </c>
       <c r="D1053" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1054">
         <v>3</v>
       </c>
       <c r="D1054" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1055" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1055" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1055" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1056">
         <v>2</v>
@@ -16401,7 +16974,7 @@
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1057">
         <v>3</v>
@@ -16412,37 +16985,37 @@
     </row>
     <row r="1058" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1058" t="s">
         <v>758</v>
       </c>
       <c r="D1058" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1059" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1059" t="s">
         <v>723</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D1060" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1061">
         <v>4</v>
@@ -16453,40 +17026,40 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1062">
         <v>3</v>
       </c>
       <c r="D1062" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1063" t="s">
         <v>758</v>
       </c>
       <c r="D1063" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1064">
         <v>2</v>
       </c>
       <c r="D1064" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1065">
         <v>4</v>
@@ -16497,7 +17070,7 @@
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1066">
         <v>3</v>
@@ -16508,18 +17081,18 @@
     </row>
     <row r="1067" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C1067" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1067" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1068">
         <v>4</v>
@@ -16530,7 +17103,7 @@
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1069">
         <v>4</v>
@@ -16541,7 +17114,7 @@
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1070">
         <v>4</v>
@@ -16552,51 +17125,51 @@
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1071">
         <v>3</v>
       </c>
       <c r="D1071" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1072" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1072" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1073" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1073" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1074" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1074" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1075">
         <v>4</v>
@@ -16607,40 +17180,40 @@
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1076">
         <v>6</v>
       </c>
       <c r="D1076" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1077" t="s">
         <v>723</v>
       </c>
       <c r="D1077" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1078" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1078" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1078" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1079">
         <v>2</v>
@@ -16651,7 +17224,7 @@
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1080">
         <v>3</v>
@@ -16662,119 +17235,119 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1081" t="s">
         <v>758</v>
       </c>
       <c r="D1081" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1082" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1082" t="s">
         <v>723</v>
       </c>
       <c r="D1082" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1083" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1083" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1083" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1084">
         <v>4</v>
       </c>
       <c r="D1084" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1085" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1085" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1086" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1087" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1088" t="s">
         <v>758</v>
       </c>
       <c r="D1088" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1089">
         <v>6</v>
       </c>
       <c r="D1089" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C1090" t="s">
         <v>723</v>
       </c>
       <c r="D1090" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1091">
         <v>4</v>
       </c>
       <c r="D1091" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1092">
         <v>4</v>
@@ -16785,78 +17358,78 @@
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1093">
         <v>4</v>
       </c>
       <c r="D1093" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1094">
         <v>2</v>
       </c>
       <c r="D1094" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1095">
         <v>6</v>
       </c>
       <c r="D1095" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1096" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1096" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1097" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1098" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1099" t="s">
         <v>723</v>
       </c>
       <c r="D1099" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1100">
         <v>2</v>
@@ -16867,51 +17440,51 @@
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1101" t="s">
         <v>758</v>
       </c>
       <c r="D1101" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1102" t="s">
         <v>758</v>
       </c>
       <c r="D1102" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1103" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1103" t="s">
         <v>723</v>
       </c>
       <c r="D1103" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1104" t="s">
         <v>758</v>
       </c>
       <c r="D1104" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1105">
         <v>4</v>
@@ -16922,18 +17495,18 @@
     </row>
     <row r="1106" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C1106" t="s">
+        <v>846</v>
+      </c>
+      <c r="D1106" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="D1106" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1107">
         <v>4</v>
@@ -16944,7 +17517,7 @@
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1108">
         <v>4</v>
@@ -16972,7 +17545,7 @@
         <v>3</v>
       </c>
       <c r="D1110" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1111" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -16983,7 +17556,7 @@
         <v>723</v>
       </c>
       <c r="D1111" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
@@ -17005,7 +17578,7 @@
         <v>758</v>
       </c>
       <c r="D1113" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
@@ -17016,7 +17589,7 @@
         <v>4</v>
       </c>
       <c r="D1114" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
@@ -17032,29 +17605,29 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1116">
         <v>4</v>
       </c>
       <c r="D1116" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1117">
         <v>5</v>
       </c>
       <c r="D1117" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1118">
         <v>2</v>
@@ -17065,7 +17638,7 @@
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1119">
         <v>3</v>
@@ -17076,29 +17649,29 @@
     </row>
     <row r="1120" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1120" t="s">
         <v>758</v>
       </c>
       <c r="D1120" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1121" t="s">
         <v>723</v>
       </c>
       <c r="D1121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1122">
         <v>4</v>
@@ -17109,18 +17682,18 @@
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1123" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D1123" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1124">
         <v>4</v>
@@ -17131,7 +17704,7 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B1125">
         <v>4</v>
@@ -17142,29 +17715,29 @@
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1126">
         <v>3</v>
       </c>
       <c r="D1126" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1127" t="s">
         <v>723</v>
       </c>
       <c r="D1127" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1128">
         <v>2</v>
@@ -17175,7 +17748,7 @@
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1129">
         <v>3</v>
@@ -17186,7 +17759,7 @@
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1130">
         <v>4</v>
@@ -17197,62 +17770,62 @@
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1131" t="s">
         <v>758</v>
       </c>
       <c r="D1131" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1132" t="s">
         <v>723</v>
       </c>
       <c r="D1132" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1133" t="s">
         <v>758</v>
       </c>
       <c r="D1133" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1134" t="s">
         <v>723</v>
       </c>
       <c r="D1134" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1135">
         <v>2</v>
       </c>
       <c r="D1135" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1136">
         <v>3</v>
@@ -17263,7 +17836,7 @@
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1137">
         <v>4</v>
@@ -17274,7 +17847,7 @@
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1138">
         <v>6</v>
@@ -17285,37 +17858,37 @@
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1139" t="s">
         <v>728</v>
       </c>
       <c r="D1139" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1140" t="s">
         <v>723</v>
       </c>
       <c r="D1140" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D1141" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1142">
         <v>2</v>
@@ -17326,62 +17899,62 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1143">
         <v>3</v>
       </c>
       <c r="D1143" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1144" t="s">
         <v>758</v>
       </c>
       <c r="D1144" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1145">
         <v>2</v>
       </c>
       <c r="D1145" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1146" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D1146" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1147">
         <v>4</v>
       </c>
       <c r="D1147" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1148">
         <v>6</v>
@@ -17392,35 +17965,2388 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1149" t="s">
         <v>723</v>
       </c>
       <c r="D1149" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1150">
         <v>4</v>
       </c>
       <c r="D1150" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B1151">
         <v>4</v>
       </c>
       <c r="D1151" t="s">
         <v>775</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1152">
+        <v>4</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1153">
+        <v>2</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1154">
+        <v>6</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1156">
+        <v>2</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1157">
+        <v>3</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1159" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1160">
+        <v>4</v>
+      </c>
+      <c r="D1160" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1162">
+        <v>2</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1163">
+        <v>3</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1164">
+        <v>6</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1165" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1166">
+        <v>4</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1167">
+        <v>4</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1168">
+        <v>4</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1169">
+        <v>6</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1170">
+        <v>3</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1171" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1173" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1174">
+        <v>2</v>
+      </c>
+      <c r="D1174" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1175">
+        <v>3</v>
+      </c>
+      <c r="D1175" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1176" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1177">
+        <v>4</v>
+      </c>
+      <c r="D1177" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1178">
+        <v>2</v>
+      </c>
+      <c r="D1178" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1179">
+        <v>3</v>
+      </c>
+      <c r="D1179" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1183">
+        <v>2</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1184">
+        <v>3</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1185" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1188" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1189">
+        <v>4</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>901</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1191">
+        <v>2</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1192">
+        <v>3</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1194" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1195">
+        <v>2</v>
+      </c>
+      <c r="D1195" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1196">
+        <v>6</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1197">
+        <v>4</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1198" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1199">
+        <v>2</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1200" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1201">
+        <v>4</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1204">
+        <v>4</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1205">
+        <v>4</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1206">
+        <v>4</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1207">
+        <v>2</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1208">
+        <v>3</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1209" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1211">
+        <v>2</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1212">
+        <v>4</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1213">
+        <v>6</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1215">
+        <v>2</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1216">
+        <v>3</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1218">
+        <v>3</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1219">
+        <v>4</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1221">
+        <v>4</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1222">
+        <v>6</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1224">
+        <v>2</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1225">
+        <v>3</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1227">
+        <v>2</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1232">
+        <v>2</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1233">
+        <v>4</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1235">
+        <v>4</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1236">
+        <v>4</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1237">
+        <v>4</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1238">
+        <v>4</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1239">
+        <v>3</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1241">
+        <v>2</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1242">
+        <v>3</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1244" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1245">
+        <v>2</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1246">
+        <v>3</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1247" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1248">
+        <v>4</v>
+      </c>
+      <c r="D1248" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1249">
+        <v>6</v>
+      </c>
+      <c r="D1249" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1251">
+        <v>2</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1252" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1254" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1255">
+        <v>2</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1256">
+        <v>3</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1257">
+        <v>4</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1258">
+        <v>6</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1259" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1261" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1262">
+        <v>2</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1263">
+        <v>3</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1264" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1265">
+        <v>2</v>
+      </c>
+      <c r="D1265" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1266">
+        <v>3</v>
+      </c>
+      <c r="D1266" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1267">
+        <v>4</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1268">
+        <v>6</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1270">
+        <v>2</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1273">
+        <v>2</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1274">
+        <v>4</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1275">
+        <v>6</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1276">
+        <v>4</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1277">
+        <v>3</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1278" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1280">
+        <v>2</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1281" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1282">
+        <v>2</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1283" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1284">
+        <v>2</v>
+      </c>
+      <c r="D1284" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>905</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1286">
+        <v>2</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1288">
+        <v>4</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1289">
+        <v>6</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>929</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1291">
+        <v>4</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>929</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>929</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1294">
+        <v>4</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>929</v>
+      </c>
+      <c r="B1295">
+        <v>4</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1296">
+        <v>4</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1297">
+        <v>6</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1298">
+        <v>2</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1300">
+        <v>2</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1301">
+        <v>4</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1302">
+        <v>3</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1303">
+        <v>6</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1307">
+        <v>2</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>909</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1310">
+        <v>2</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1311">
+        <v>4</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1312">
+        <v>4</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1313">
+        <v>3</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1314">
+        <v>6</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1316">
+        <v>4</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1317">
+        <v>4</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1318">
+        <v>5</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1320">
+        <v>2</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1322">
+        <v>6</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1324">
+        <v>4</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1327" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1328">
+        <v>5</v>
+      </c>
+      <c r="D1328" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1329">
+        <v>6</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1330">
+        <v>4</v>
+      </c>
+      <c r="D1330" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1331">
+        <v>3</v>
+      </c>
+      <c r="D1331" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1333" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1336">
+        <v>4</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1337">
+        <v>6</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1338" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1340">
+        <v>3</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1342" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1344" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1345" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1346" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1347" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1348">
+        <v>4</v>
+      </c>
+      <c r="D1348" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1350">
+        <v>3</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1351" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1353" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1354">
+        <v>3</v>
+      </c>
+      <c r="D1354" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>878</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1357">
+        <v>4</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1358">
+        <v>3</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1359">
+        <v>6</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>964</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>874</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1361">
+        <v>4</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1364" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1365" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1366" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1367" t="s">
+        <v>964</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1368" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1368">
+        <v>4</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1369" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1369">
+        <v>4</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1076">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4341,6 +4341,326 @@
   </si>
   <si>
     <t>세상은 넓고, 학교는 많고, 쓰레기들은 더 많다는 것을..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산가출팸1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 말이냐?
+이 몸은 바쁘다곳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 뭐가 바쁜데?
+가자 가자 가자아~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜 가고 싶은 건데?
+랄까, 가겠다는 건 아니고, 듣기만 할 거니깐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다! 부산! 해운대!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐어어엇?!!
+이 날씨에 무슨 바다얏!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야! 대구 통합 짱 비계 파이터 @이름 이 고작 추위를 두려워 하는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠흠… 그건 아니지만 말이지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 갈까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래야 우리 돼지지!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대라, 좋지~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 아리야!
+너도 갈 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 너 누군데?!
+돼지! 아는 사이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭣?!
+돼지! 진짜야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 라고나 할까… 가짜 라고나 할까…
+그 일 꺼내면 슬프다고나 할까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지! 어떻게 이럴 수가 있어!!!
+그럼 두, 둘이 사귀는 사이인 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가? 이 돼지랑?
+하!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 사람을 벌레처럼 보는 여자는 싫다곳!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 내가 싫다는 거가?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머~ 나 모르나?
+얼마 전에 이 돼지가 나한테 공개적으로 고백했다 아이가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 그건 아니고오…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 나도 해운대 갈 거 데이!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… 우리 아리 하고싶은 거 다해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구 맘 대로!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 해서 나와 우정이, 아리는 셋이서 해운대로 떠나게 됐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 통합짱이 되자 마자 이렇게 인기가 많아도 되는 거냐곳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 해운대다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 그런데 왜 이렇게 사람도 없고 음침하지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대란 곳 원래 이런 느낌이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지! 우리 주말에 놀러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 이상하리마치 인적이 없고 조용했다.
+마치 죽은 도시 처럼 음침한 기운까지 감돌았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 범죄의 냄새가 나는군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴리가 있겠나?
+아무리 비성수기라고 해도 이건 좀 심하데이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">또, 또 찐특 발동하네.
+망상 좀 그만해라 안카나! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망상이 아니라곳!
+주말 대낮에 이렇게 인적이 없는 게 말이 되냐곳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 돼지 말에 동의!
+냄새가 나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큿! 너도 &lt;냄새&gt;를 맡을 수 있는 인간인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗! 뇌절 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 뭐고 느그들은!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋ 우리 눈에 띈 이상 곱게는 못 보내주는 주 알아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈은 두-둑허게 들고 왔제?
+어여 들고 온나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지! 주지마!
+너 우리 돼지가 누군지 알아?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋ 누구신데예~
+누구십니콰 대체ㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 통합짱 비계 파이터 @이름 이라고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸하하하하하하!!! 비계 파이터랜다! ㅋㅋㅋㅋㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마! 직이네! 나도 콜라겐 섭취좀 해 보자 마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘들아 물러나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산가출팸1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으… 대구 통합짱이라는 말이 구라가 아니었노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상하다…
+대낮부터 이런 대로에서 양아치들이 삥을 뜯다니…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게…
+돼지, 무서우니까 그냥 가자…
+뭔가 범죄도시 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 말 했지? 범죄의 냄새가 난다고.
+이 몸의 후각은 뛰어나다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 너 돼지코인거 알았으니까 빨리 가자.
+여기 더 있어서 좋을 거 없을 거 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예이 예이~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 서둘러 대구로 돌아가기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만, 이 부산은 우리를 곱게 보내줄 생각이 없는 듯 곧바로 사건이 일어나버렸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4547,8 +4867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1369" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1369"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1496" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1496"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -4836,16 +5156,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1369"/>
+  <dimension ref="A1:J1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1368" sqref="H1368"/>
+    <sheetView tabSelected="1" topLeftCell="A1475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1496" sqref="A1496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="52.375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -4909,7 +5229,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" si="0">A3</f>
+        <f>A3</f>
         <v>고연서1</v>
       </c>
       <c r="B4">
@@ -4927,7 +5247,7 @@
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A5:A67" si="0">A4</f>
         <v>고연서1</v>
       </c>
       <c r="B5" s="1"/>
@@ -20347,6 +20667,1494 @@
       </c>
       <c r="D1369" t="s">
         <v>914</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1370" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1370">
+        <v>4</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1371" t="str">
+        <f>A1370</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1371">
+        <v>6</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1372" t="str">
+        <f t="shared" ref="A1372:A1435" si="7">A1371</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1372">
+        <v>3</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1373" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1373">
+        <v>2</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1374" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1375" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1375" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1376" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1376" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1377" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1377" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1378" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1378">
+        <v>4</v>
+      </c>
+      <c r="D1378" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1379" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1379">
+        <v>6</v>
+      </c>
+      <c r="D1379" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1380" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1380">
+        <v>3</v>
+      </c>
+      <c r="D1380" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1381" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1382" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1382" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1383" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1383">
+        <v>3</v>
+      </c>
+      <c r="D1383" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1384" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1385" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1386" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1386">
+        <v>4</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1387" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1387">
+        <v>6</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1388" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1389" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1389">
+        <v>3</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1390" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1390">
+        <v>4</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1391" t="str">
+        <f>A1388</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1392" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1392">
+        <v>2</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1393" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1393">
+        <v>3</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1394" t="str">
+        <f>A1392</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1395" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1395" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1396" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1396">
+        <v>2</v>
+      </c>
+      <c r="D1396" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1397" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1397">
+        <v>4</v>
+      </c>
+      <c r="D1397" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1398" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1398">
+        <v>6</v>
+      </c>
+      <c r="D1398" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1399" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1399">
+        <v>3</v>
+      </c>
+      <c r="D1399" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1400" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1400" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1401" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1401">
+        <v>3</v>
+      </c>
+      <c r="D1401" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1402" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1402" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1403" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1403">
+        <v>2</v>
+      </c>
+      <c r="D1403" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1404" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1404">
+        <v>4</v>
+      </c>
+      <c r="D1404" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1405" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1405">
+        <v>4</v>
+      </c>
+      <c r="D1405" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1406" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1406">
+        <v>3</v>
+      </c>
+      <c r="D1406" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1407" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1407" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1408" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1408" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1409" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1409">
+        <v>4</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1410" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1410">
+        <v>4</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1411" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1411" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1412" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1412">
+        <v>2</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1413" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1413">
+        <v>3</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1414" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1414" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1415" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1415">
+        <v>4</v>
+      </c>
+      <c r="D1415" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1416" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1416">
+        <v>6</v>
+      </c>
+      <c r="D1416" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1417" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1418" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1419" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1420" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1421" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1422" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1422">
+        <v>2</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1423" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1423">
+        <v>3</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1424" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1424">
+        <v>6</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1425" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1426" t="str">
+        <f>A1425</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1426">
+        <v>4</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1427" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1427">
+        <v>5</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1428" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1429" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1429">
+        <v>6</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1430" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1431" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1431">
+        <v>2</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1432" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1432">
+        <v>4</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1433" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1434" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1435" t="str">
+        <f t="shared" si="7"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1436" t="str">
+        <f t="shared" ref="A1436:A1474" si="8">A1435</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1436">
+        <v>2</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1437" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1437">
+        <v>4</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1438" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1438" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1439" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="D1439" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1440" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1441" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1441" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1442" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1442" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1443" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1443">
+        <v>2</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1444" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1444" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1445" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1445">
+        <v>4</v>
+      </c>
+      <c r="D1445" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1446" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1446">
+        <v>6</v>
+      </c>
+      <c r="D1446" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1447" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1448" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1449" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1449">
+        <v>4</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1450" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1450">
+        <v>6</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1451" t="str">
+        <f>A1448</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1452" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1452">
+        <v>2</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1453" t="str">
+        <f>A1451</f>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1454" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1455" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1455" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1456" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1456">
+        <v>2</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1457" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1457">
+        <v>4</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1458" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1458">
+        <v>6</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1459" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1459" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1460" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1460">
+        <v>2</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1461" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1461" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1462" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1462">
+        <v>2</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1463" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1463">
+        <v>3</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1464" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1464">
+        <v>6</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1465" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1465">
+        <v>4</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1466" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1466">
+        <v>4</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1467" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1468" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1468">
+        <v>2</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1469" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1470" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1470">
+        <v>4</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1471" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="B1471">
+        <v>6</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1472" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1473" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1474" t="str">
+        <f t="shared" si="8"/>
+        <v>부산가출팸1</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1475" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1476" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1476">
+        <v>2</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1477" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1477">
+        <v>4</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1478" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1478">
+        <v>4</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1479" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1479">
+        <v>6</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1480" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1480" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1481" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1481">
+        <v>2</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1482" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1482">
+        <v>4</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1483" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1483" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1484" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1484" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1485" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1485">
+        <v>2</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1486">
+        <v>3</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1487" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1487" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1488" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1489">
+        <v>4</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1490" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1491" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1491">
+        <v>4</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1492" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1492">
+        <v>7</v>
+      </c>
+      <c r="D1492">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1493" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1493">
+        <v>4</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1494" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1495" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1495">
+        <v>4</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1496" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1496">
+        <v>4</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1138">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4661,6 +4661,269 @@
   </si>
   <si>
     <t>하지만, 이 부산은 우리를 곱게 보내줄 생각이 없는 듯 곧바로 사건이 일어나버렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산가출팸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 서둘러 대구로 돌아가기로 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 그런 일이 있어서 그런가 더 무섭다.
+그치 돼지야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 언제 이렇게 믿음직해 진 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구를 통일시킨 무적의 이 몸이 있는 한 걱정하지 말라구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살려주세요오옷!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 소리는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 엄청나게 많이 오는데..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마치 괴짜가족 오프닝을 보는 것 같군!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진병호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살려달라고요오오옷!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산가출팸2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그런데 보기보다 쎄시네예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그보다 왜 쫓기고 있던 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해, 행님! 구해주셔서 감사합니데이!!
+즈는 진병호라 합니더!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지! 우리 돼지는 대구 통합 짱이거든!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대, 대단하심다!!
+햄으로 모시겠습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거느리긴 누굴 거느려!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으매 이쁜거!!
+햄 처럼 강하면 역시 이렇게 이쁜 아들을 거느리고 다니는 검니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히익! 죄송함다 죄송함다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 왜 쫓기고 있었냐고 물으셨죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유 같은 건 없심더…
+그냥 여기에서는 살려면 준내 튀야합니더…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 여긴 가출하는게 유행처럼 번지고 있심더.
+큰 뜻을 가지고 하는 게 아니고 그자~ 친구따라서, 얕보이지 않을라고, 핵교가기 싫어서 너도나도 가출하고 있심더.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금에 와서는 가출 하지 않은 놈들은 완전히 찐따취급 받고 있심더.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 이렇게 삭막해 진 것도 이해가 가네.
+가출팸이 문제 맞제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누님 말이 맞심더. 다 가출팸들 때문입니더.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들이 다 집을 나가니 가정의 웃음이 끊기고, 집을 나간 애들이 먹고살기 위해 가출팸을 형성해 삥을 뜯고 다니니, 이제는 길 거리에서 사람을 볼 수가 없는 지경에 이르렀습니더.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨…
+가출이 유행이라니…
+그게 얼마나 오래 지속됐길래 이렇게 된 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상태가 된지 벌써 3개월 째 임더.
+사실 지도 얼마 전에 가출했심더.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 행님 아픕니더!
+지 집에 돌아갈겁니더!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 철 없는 자식!
+어디 부모님 가슴에 대못을 박아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭘 도와달라는 거냐?
+이 몸은 바쁘다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 행님, 집에 돌아가도 이대로는 사는게 사는 것이 아님더…
+지는 봤심더… 집나간 애들이 모여서 뭘 하는지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행님 막아야합니더!!
+이대로 두면 부산은 큰일납니데이!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지는 그 걸 보고 이렇게 도망나온 깁니더…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가출팸의 리더인 썬더피스트 전광석을 멈춰주세요 햄!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 않으면 부산에서는 시체가 산더미처럼 쌓일김더!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도무지 현실감이 없는 진병호의 얘기를 곧이 곧대로 믿을 수는 없었지만, 주변의 분위기와 진병호의 절박한 얼굴을 보니 도저히 지나칠 수 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬더피스트 전광석… 도대체 가출한 애들을 데리고 무슨 일을 하려는 거냐!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4867,8 +5130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1496" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1496"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1600" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1600"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -5156,10 +5419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1496"/>
+  <dimension ref="A1:J1600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1475" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1496" sqref="A1496"/>
+    <sheetView tabSelected="1" topLeftCell="A1589" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1600" sqref="D1600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22157,6 +22420,1138 @@
         <v>1006</v>
       </c>
     </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1497" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1497">
+        <v>4</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1498" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1498">
+        <v>4</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1499" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1499">
+        <v>6</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1500" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1501" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1501">
+        <v>2</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1502" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1502">
+        <v>3</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1503" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1505">
+        <v>4</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1506">
+        <v>3</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1507">
+        <v>6</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1509">
+        <v>4</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1510">
+        <v>4</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1511">
+        <v>6</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1513">
+        <v>2</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1514">
+        <v>3</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1516">
+        <v>2</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1517">
+        <v>3</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1519">
+        <v>4</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1520">
+        <v>6</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1522">
+        <v>3</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1524">
+        <v>4</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1525">
+        <v>3</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1526">
+        <v>2</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1527">
+        <v>4</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1528">
+        <v>6</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1531">
+        <v>4</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1532">
+        <v>4</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1533">
+        <v>2</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1534">
+        <v>3</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1535" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1536" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1537">
+        <v>2</v>
+      </c>
+      <c r="D1537" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1538">
+        <v>3</v>
+      </c>
+      <c r="D1538" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1539" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1540">
+        <v>2</v>
+      </c>
+      <c r="D1540" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1541">
+        <v>4</v>
+      </c>
+      <c r="D1541" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1542">
+        <v>3</v>
+      </c>
+      <c r="D1542" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1543">
+        <v>6</v>
+      </c>
+      <c r="D1543" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1544" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1545">
+        <v>2</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1546" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1547" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1547">
+        <v>2</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1548">
+        <v>4</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1549">
+        <v>6</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1550">
+        <v>3</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1551" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1552">
+        <v>2</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1553">
+        <v>4</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1554">
+        <v>4</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1555">
+        <v>6</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1556">
+        <v>3</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1558">
+        <v>2</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1559">
+        <v>4</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1560">
+        <v>6</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1563" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1564" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1566">
+        <v>2</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1567">
+        <v>4</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1568">
+        <v>6</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D1569" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1570">
+        <v>2</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1571">
+        <v>3</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1572" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1573" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1574">
+        <v>2</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1575">
+        <v>4</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1576">
+        <v>6</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D1577" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1578" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1579">
+        <v>4</v>
+      </c>
+      <c r="D1579" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1580">
+        <v>6</v>
+      </c>
+      <c r="D1580" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1581">
+        <v>3</v>
+      </c>
+      <c r="D1581" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1582" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1583" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1584" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1585" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1586">
+        <v>4</v>
+      </c>
+      <c r="D1586" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1587">
+        <v>4</v>
+      </c>
+      <c r="D1587" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1588">
+        <v>6</v>
+      </c>
+      <c r="D1588" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1589" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1590">
+        <v>4</v>
+      </c>
+      <c r="D1590" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D1591" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1592">
+        <v>4</v>
+      </c>
+      <c r="D1592" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1593">
+        <v>6</v>
+      </c>
+      <c r="D1593" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1594" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1595" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1596" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1596">
+        <v>4</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1597" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1598" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1599" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1599">
+        <v>4</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1600" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1600">
+        <v>4</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>1136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1267">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3792,10 +3792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조심해라, 점마 호리호라하게 생겨도 수성구 짱에 그냥 오른게 아니니까.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4344,10 +4340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산가출팸1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이드인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4620,10 +4612,6 @@
   </si>
   <si>
     <t>얘들아 물러나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산가출팸1-엔딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4664,10 +4652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산가출팸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어둠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4785,20 +4769,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산가출팸2-엔딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 그런데 보기보다 쎄시네예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그보다 왜 쫓기고 있던 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해, 행님! 구해주셔서 감사합니데이!!
-즈는 진병호라 합니더!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4824,34 +4795,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아까 왜 쫓기고 있었냐고 물으셨죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이유 같은 건 없심더…
-그냥 여기에서는 살려면 준내 튀야합니더…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 여긴 가출하는게 유행처럼 번지고 있심더.
-큰 뜻을 가지고 하는 게 아니고 그자~ 친구따라서, 얕보이지 않을라고, 핵교가기 싫어서 너도나도 가출하고 있심더.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지금에 와서는 가출 하지 않은 놈들은 완전히 찐따취급 받고 있심더.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여기가 이렇게 삭막해 진 것도 이해가 가네.
 가출팸이 문제 맞제?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누님 말이 맞심더. 다 가출팸들 때문입니더.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이들이 다 집을 나가니 가정의 웃음이 끊기고, 집을 나간 애들이 먹고살기 위해 가출팸을 형성해 삥을 뜯고 다니니, 이제는 길 거리에서 사람을 볼 수가 없는 지경에 이르렀습니더.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4861,17 +4810,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 상태가 된지 벌써 3개월 째 임더.
-사실 지도 얼마 전에 가출했심더.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아! 행님 아픕니더!
-지 집에 돌아갈겁니더!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4885,28 +4824,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 행님, 집에 돌아가도 이대로는 사는게 사는 것이 아님더…
-지는 봤심더… 집나간 애들이 모여서 뭘 하는지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행님 막아야합니더!!
 이대로 두면 부산은 큰일납니데이!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지는 그 걸 보고 이렇게 도망나온 깁니더…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가출팸의 리더인 썬더피스트 전광석을 멈춰주세요 햄!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇지 않으면 부산에서는 시체가 산더미처럼 쌓일김더!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이드아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4924,6 +4846,620 @@
   </si>
   <si>
     <t>썬더피스트 전광석… 도대체 가출한 애들을 데리고 무슨 일을 하려는 거냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진병호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지는 그 걸 보고 이렇게 도망나온 낌니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 행님, 집에 돌아가도 이대로는 사는게 사는 것이 아님다…
+지는 봤심더… 집나간 애들이 모여서 뭘 하는지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 행님 아픕니다!
+지는 집에 돌아갈낍니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들이 다 집을 나가니 가정의 웃음이 끊기고, 집을 나간 애들이 먹고살기 위해 가출팸을 형성해 삥을 뜯고 다니니, 이제는 길 거리에서 사람을 볼 수가 없는 지경에 이르렀습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누님 말이 맞심다. 다 가출팸들 때문임다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 여긴 가출하는게 유행처럼 번지고 있심다.
+큰 뜻을 가지고 하는 게 아니고 그자~ 친구따라서, 얕보이지 않을라고, 핵교가기 싫어서 너도나도 가출하고 있심다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유 같은 건 없심다…
+그냥 여기에서는 살려면 준내 튀야합니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 왜 쫓기고 있었냐고 물으셨지예?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해, 행님! 구해주셔서 감사합니데이!!
+즈는 진병호라 함다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 그런데 보기보다 쎄시네예!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 했지! 내가 범죄의 냄새가 난다곳!!
+아무리 이 몸이라도 살인은 무섭다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삥 뜯어서 연명하던 가출팸들도 이렇게 길거리에 사람이 사라진 이후로는 돈을 벌 수단이 없어서 극단적인 방법을 강구한 겁니데이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도대체 무슨 일을 하려하길래 그렇게 심각한 거야?
+서, 설마 살인?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상황에서 집에 돌아간다 이외의 선택지는 그 거 밖에 없을지도 모르겠네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 강도 짓은…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예… 범죄지예.
+그 것도 아주 심각한 범죄예…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 네 말 대로라면 조만간 돌아올 수 없는 다리를 건너버릴지도 모르겠군…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 이 몸이 정신 못 차리는 일진들을 혼내줘서 집으로 돌려보내 주겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 돼지야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 이게 너 다운 거겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해애애애애애앰!!!!!!!!!!!!!!!!!!!!!!
+감동임다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 바로 아지트로 안내 하겠슴다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 아지트 입니데이.
+그런데 전광석이가 안보이는 거 같은데예?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가출청소년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 진병호의 안내에 따라 가출팸의 아지트로 몰래 들어왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떡해! 들켰어 돼지야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이, 임마들은 새로 가출한 애들인데예…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네 뭐고?
+못 보던 아들인데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구라치지 마라!!
+교복 보니 이 근방 교복이 아닌데!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야들아! 쳐라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 같은게 와이래 쎄노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광석은 어딨냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈을 벌로 갔다니…
+설마?! 아니지예?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거 맞다.
+광석이 금마 말려도 소용없다.
+이미 눈까리 뒤집혔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석이..?
+방금 전에 돈 벌러 나갔는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행님 빨리 가시죠!
+방금 나갔다 하이 아직 얼마 못 갔을 겁니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷! 가자굿!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 전광석을 찾아 해운대 밤 거리를 정신없이 뛰었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행님 여긴 없슴다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기도 없데이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리깨짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비명소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 비명소리가 밤하늘에 울려퍼졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리를 따라 도착한 그 곳에는 이미 돌이킬 수 없는 일이 벌어진 후였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺄아아아아아악!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이, 이건 아닌거 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니긴 뭐가 아니고!
+빨리 돈 될 거나 찾아라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 곳에는 전광석과 가출청소년들, 그리고 머리에 피를 흘리며 쓰러진 여자가 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐정아 저 여자 설마 죽은 건 아니겠지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 해 버렸구마.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 망설이고 있지만 전광석은 그 놈은 강제로라도 시킬 검니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너거는 뭐고?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 부터 너의 담당 일진이 된 @이름 이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찐따가 실성했나.
+야들아 이 것들 정리해라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맡겨달라구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니 문데?
+왜 방해하는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말했잖아, 너의 당담 일진이라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말로 해서는 안 될 놈이네?
+함 맞자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함 맞자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행님 조심하십쇼.
+전광석이는 이 전에 꼴통 학교로 소문난 해운공고에서 짱을 먹었던 놈입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 썬더피스트라는 별명이 붙었겠지.
+별명은 학교 짱에게만 붙는 거니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 학교 짱이라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라 씨부렁 거리고 있노!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우정아 보지말고 경찰에 신고해줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으, 응!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자! 이제 방황은 그만 하고 애들을 집으로 돌아가도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫다!!!
+집에 가면 그 자식이 있으니 절대 안 갈 거다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 자식?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 요란한 사이렌 소리가 울려퍼졌고, 곧 경찰이 들이닥쳤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이지 마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 경찰 중 한 명이 전광석에게 뚜벅뚜벅 걸어왔다.
+그리고는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있는 힘껏 전광석을 때렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청한 놈!!!
+어디서 뭘 하나 했더만… 이게 뭐 하는 짓이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아부지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아부지가 뭔데요?!!!
+아부지가 뭔데요?!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 집에 오지 않은 이유가 뭔냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머니를 죽인 사람이 있는 집에 어떻게 돌아갑니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마를 죽게 한 그 증오스러운 경찰 제복을 입고 있는 한!
+아부지가 어머니를 죽인 거나 다름 없습니다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 그런 일이 있었는데 아직도 경찰을 하고 있는 겁니까?!
+아부지가 사람입니까?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저게 무슨 소리야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광석의 부모님은 두분 다 경찰이셨는데, 어느 날 두 분이 같이 출동했다가, 전광석의 어머님이 순직하셨다고 들었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰에서 오랫동안 쫓았던 범인의 발을 묶기 위해 위험한 걸 알면서도 근처에 있던 비무장 상태의 두 분을 보냈던 거라는 소문이 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 일이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 아부지 얼굴 보고싶지 않습니다!
+잡아서 빵에 넣든 말든 하십쇼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 네 엄마가 마지막에 나에게 말했다.
+너 좀 잘 부탁 한다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너만 이 직업이 미운 게 아니다…
+아빠도 몇 번이나 그만두자고 생각했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠 그만 못 둔다.
+너 대학가고, 번듯한 직장 얻어서 남부럽지 않게 살 때까지 분하고 억울해도 붙어 있을 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 아부지…
+그런 줄도 모르고..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰은 전광석의 머리를 쓰다듬으며 말했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석아 죗값 치르고 나오면 집에 돌아올 거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예… 갈 겁니다.
+꼭 돌아 갈겁니다..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광석은 눈물을 흘리며 대답했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우두머리가 사라져서 였는지, 전광석과 그의 아버지의 모습이 인상에 남았는지, 가출한 애들은 모두 집에 돌아갔다고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 해운대에서의 가출 소동은 마무리가 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어무이, 아부지. 저 왔습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어무이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이눔시키 이거!!
+어딜 갔다가 이제 들어와!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히익!! 죄송합니다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마 됐고! 밥이나 무라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 예~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상태가 된지 벌써 3개월 째 임다.
+사실 저도 얼마 전에 가출했심니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가출팸의 리더인 썬더피스트 전광석을 멈춰주십쇼 햄!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 않으면 해운대는 정말 범죄의 왕국이 되어버릴 검다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광석의 주도 하에 가출팸 애들이 하려는 짓을 막지 못하면 해운대는 범죄의 왕국이 되어버릴 검다!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살인을 계획하고 있는 건 아닌데 그 만큼 지금 해운대의 상황이 좋지 않다는 겁니데이…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 진병호가 생각한 것이 강도 짓 임다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대가출팸1</t>
+  </si>
+  <si>
+    <t>해운대가출팸1-엔딩</t>
+  </si>
+  <si>
+    <t>해운대가출팸2</t>
+  </si>
+  <si>
+    <t>해운대가출팸2-엔딩</t>
+  </si>
+  <si>
+    <t>해운대가출팸3</t>
+  </si>
+  <si>
+    <t>해운대가출팸3-엔딩</t>
+  </si>
+  <si>
+    <t>해운대가출팸4</t>
+  </si>
+  <si>
+    <t>해운대가출팸4-엔딩</t>
+  </si>
+  <si>
+    <t>해운대가출팸5</t>
+  </si>
+  <si>
+    <t>해운대가출팸5-엔딩</t>
+  </si>
+  <si>
+    <t>해운대는 다시 예전의 활기를 되찾아 갈 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱 끈끈해진 부모와 자식간의 연을 바탕으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5130,8 +5666,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1600" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1600"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1836" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1836"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -5419,15 +5955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1600"/>
+  <dimension ref="A1:J1835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1589" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1600" sqref="D1600"/>
+    <sheetView tabSelected="1" topLeftCell="A1829" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1833" sqref="E1833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="52.375" customWidth="1"/>
@@ -17033,7 +17569,7 @@
         <v>3</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
@@ -18639,7 +19175,7 @@
         <v>3</v>
       </c>
       <c r="D1157" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
@@ -18650,7 +19186,7 @@
         <v>874</v>
       </c>
       <c r="D1158" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1159" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -18661,7 +19197,7 @@
         <v>874</v>
       </c>
       <c r="D1159" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
@@ -18672,7 +19208,7 @@
         <v>4</v>
       </c>
       <c r="D1160" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
@@ -18680,10 +19216,10 @@
         <v>869</v>
       </c>
       <c r="C1161" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1161" t="s">
         <v>878</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
@@ -18705,7 +19241,7 @@
         <v>3</v>
       </c>
       <c r="D1163" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
@@ -18716,7 +19252,7 @@
         <v>6</v>
       </c>
       <c r="D1164" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1165" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -18727,7 +19263,7 @@
         <v>871</v>
       </c>
       <c r="D1165" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
@@ -18738,7 +19274,7 @@
         <v>4</v>
       </c>
       <c r="D1166" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
@@ -18749,75 +19285,75 @@
         <v>4</v>
       </c>
       <c r="D1167" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1168">
         <v>4</v>
       </c>
       <c r="D1168" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1169">
         <v>6</v>
       </c>
       <c r="D1169" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1170">
         <v>3</v>
       </c>
       <c r="D1170" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1171" t="s">
         <v>871</v>
       </c>
       <c r="D1171" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1172" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="1173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1173" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1173" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1174">
         <v>2</v>
@@ -18828,40 +19364,40 @@
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1175">
         <v>3</v>
       </c>
       <c r="D1175" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1176" t="s">
         <v>874</v>
       </c>
       <c r="D1176" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1177">
         <v>4</v>
       </c>
       <c r="D1177" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1178">
         <v>2</v>
@@ -18872,51 +19408,51 @@
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1179">
         <v>3</v>
       </c>
       <c r="D1179" s="3" t="s">
-        <v>875</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1180" t="s">
         <v>871</v>
       </c>
       <c r="D1180" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1181" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1181" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1182" t="s">
         <v>871</v>
       </c>
       <c r="D1182" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1183">
         <v>2</v>
@@ -18927,84 +19463,84 @@
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1184">
         <v>3</v>
       </c>
       <c r="D1184" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1185" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1185" t="s">
         <v>874</v>
       </c>
       <c r="D1185" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1186" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1186" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1187" t="s">
         <v>871</v>
       </c>
       <c r="D1187" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1188" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1188" t="s">
         <v>871</v>
       </c>
       <c r="D1188" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1189">
         <v>4</v>
       </c>
       <c r="D1189" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1190" t="s">
+        <v>900</v>
+      </c>
+      <c r="D1190" t="s">
         <v>901</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1191">
         <v>2</v>
@@ -19015,130 +19551,130 @@
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1192">
         <v>3</v>
       </c>
       <c r="D1192" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1193" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="1194" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1194" t="s">
         <v>874</v>
       </c>
       <c r="D1194" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1195">
         <v>2</v>
       </c>
       <c r="D1195" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1196">
         <v>6</v>
       </c>
       <c r="D1196" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1197">
         <v>4</v>
       </c>
       <c r="D1197" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1198" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1198" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1198" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1199">
         <v>2</v>
       </c>
       <c r="D1199" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1200" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C1200" t="s">
+        <v>908</v>
+      </c>
+      <c r="D1200" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="D1200" s="3" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1201">
         <v>4</v>
       </c>
       <c r="D1201" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1202" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1203" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1204">
         <v>4</v>
@@ -19149,18 +19685,18 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1205">
         <v>4</v>
       </c>
       <c r="D1205" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1206">
         <v>4</v>
@@ -19171,7 +19707,7 @@
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1207">
         <v>2</v>
@@ -19182,40 +19718,40 @@
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1208">
         <v>3</v>
       </c>
       <c r="D1208" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1209" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1209" t="s">
         <v>874</v>
       </c>
       <c r="D1209" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1210" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1210" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1211">
         <v>2</v>
@@ -19226,40 +19762,40 @@
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1212">
         <v>4</v>
       </c>
       <c r="D1212" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1213">
         <v>6</v>
       </c>
       <c r="D1213" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1214" t="s">
         <v>871</v>
       </c>
       <c r="D1214" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1215">
         <v>2</v>
@@ -19270,282 +19806,282 @@
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1216">
         <v>3</v>
       </c>
       <c r="D1216" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1217" t="s">
         <v>874</v>
       </c>
       <c r="D1217" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1218">
         <v>3</v>
       </c>
       <c r="D1218" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1219">
         <v>4</v>
       </c>
       <c r="D1219" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1220" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1220" t="s">
         <v>874</v>
       </c>
       <c r="D1220" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1221">
         <v>4</v>
       </c>
       <c r="D1221" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1222">
         <v>6</v>
       </c>
       <c r="D1222" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1223" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1223" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1223" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1224">
         <v>2</v>
       </c>
       <c r="D1224" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1225">
         <v>3</v>
       </c>
       <c r="D1225" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1226" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1226" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1226" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1227">
         <v>2</v>
       </c>
       <c r="D1227" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1228" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1228" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="1229" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1229" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1229" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1230" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1230" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1230" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1231" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1231" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1232">
         <v>2</v>
       </c>
       <c r="D1232" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1233">
         <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C1234" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1234" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1235">
         <v>4</v>
       </c>
       <c r="D1235" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1236">
         <v>4</v>
       </c>
       <c r="D1236" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1237">
         <v>4</v>
       </c>
       <c r="D1237" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1238">
         <v>4</v>
       </c>
       <c r="D1238" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1239">
         <v>3</v>
       </c>
       <c r="D1239" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1240" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1240" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1241">
         <v>2</v>
@@ -19556,40 +20092,40 @@
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1242">
         <v>3</v>
       </c>
       <c r="D1242" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1243" t="s">
         <v>874</v>
       </c>
       <c r="D1243" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1244" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1244" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1244" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1245">
         <v>2</v>
@@ -19600,62 +20136,62 @@
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1246">
         <v>3</v>
       </c>
       <c r="D1246" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1247" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1247" t="s">
         <v>871</v>
       </c>
       <c r="D1247" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1248">
         <v>4</v>
       </c>
       <c r="D1248" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1249">
         <v>6</v>
       </c>
       <c r="D1249" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1250" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1250" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1251">
         <v>2</v>
@@ -19666,40 +20202,40 @@
     </row>
     <row r="1252" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1252" t="s">
         <v>874</v>
       </c>
       <c r="D1252" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1253" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1253" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="1254" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1254" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1254" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1255">
         <v>2</v>
@@ -19710,161 +20246,161 @@
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1256">
         <v>3</v>
       </c>
       <c r="D1256" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1257">
         <v>4</v>
       </c>
       <c r="D1257" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1258">
         <v>6</v>
       </c>
       <c r="D1258" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1259" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1259" t="s">
         <v>871</v>
       </c>
       <c r="D1259" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1260" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1260" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1261" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1261" t="s">
         <v>871</v>
       </c>
       <c r="D1261" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1262">
         <v>2</v>
       </c>
       <c r="D1262" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1263">
         <v>3</v>
       </c>
       <c r="D1263" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1264" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1264" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1264" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1265">
         <v>2</v>
       </c>
       <c r="D1265" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1266">
         <v>3</v>
       </c>
       <c r="D1266" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1267">
         <v>4</v>
       </c>
       <c r="D1267" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1268">
         <v>6</v>
       </c>
       <c r="D1268" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1269" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1269" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1269" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1270">
         <v>2</v>
@@ -19875,106 +20411,106 @@
     </row>
     <row r="1271" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1271" t="s">
         <v>874</v>
       </c>
       <c r="D1271" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="1272" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1272" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1272" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1273">
         <v>2</v>
       </c>
       <c r="D1273" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1274">
         <v>4</v>
       </c>
       <c r="D1274" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1275">
         <v>6</v>
       </c>
       <c r="D1275" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1276">
         <v>4</v>
       </c>
       <c r="D1276" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1277">
         <v>3</v>
       </c>
       <c r="D1277" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1278" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1278" t="s">
+        <v>945</v>
+      </c>
+      <c r="D1278" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="D1278" s="3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="1279" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1279" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1279" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1280">
         <v>2</v>
@@ -19985,62 +20521,62 @@
     </row>
     <row r="1281" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1281" t="s">
         <v>871</v>
       </c>
       <c r="D1281" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1282">
         <v>2</v>
       </c>
       <c r="D1282" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1283" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1283" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1284">
         <v>2</v>
       </c>
       <c r="D1284" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1285" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1285" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1286">
         <v>2</v>
@@ -20051,78 +20587,78 @@
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1287" t="s">
         <v>874</v>
       </c>
       <c r="D1287" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1288">
         <v>4</v>
       </c>
       <c r="D1288" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1289">
         <v>6</v>
       </c>
       <c r="D1289" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1290" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1290" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1291">
         <v>4</v>
       </c>
       <c r="D1291" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D1292" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D1293" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1294">
         <v>4</v>
@@ -20133,18 +20669,18 @@
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1295">
         <v>4</v>
       </c>
       <c r="D1295" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1296">
         <v>4</v>
@@ -20155,40 +20691,40 @@
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1297">
         <v>6</v>
       </c>
       <c r="D1297" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1298">
         <v>2</v>
       </c>
       <c r="D1298" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1299" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1299" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D1299" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1300">
         <v>2</v>
@@ -20199,13 +20735,13 @@
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1301">
         <v>4</v>
       </c>
       <c r="D1301" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
@@ -20213,199 +20749,199 @@
         <v>3</v>
       </c>
       <c r="D1302" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1303">
         <v>6</v>
       </c>
       <c r="D1303" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="1304" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1304" t="s">
         <v>871</v>
       </c>
       <c r="D1304" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1305" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1305" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1305" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1306" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1306" t="s">
         <v>871</v>
       </c>
       <c r="D1306" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1307">
         <v>2</v>
       </c>
       <c r="D1307" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1308" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1308" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1309" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1309" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1310">
         <v>2</v>
       </c>
       <c r="D1310" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1311">
         <v>4</v>
       </c>
       <c r="D1311" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1312">
         <v>4</v>
       </c>
       <c r="D1312" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1313">
         <v>3</v>
       </c>
       <c r="D1313" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1314">
         <v>6</v>
       </c>
       <c r="D1314" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="1315" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C1315" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D1315" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1316">
         <v>4</v>
       </c>
       <c r="D1316" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1317">
         <v>4</v>
       </c>
       <c r="D1317" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1318">
         <v>5</v>
       </c>
       <c r="D1318" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1319" t="s">
         <v>964</v>
-      </c>
-      <c r="C1319" t="s">
-        <v>878</v>
-      </c>
-      <c r="D1319" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1320">
         <v>2</v>
@@ -20416,503 +20952,503 @@
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1321" t="s">
         <v>874</v>
       </c>
       <c r="D1321" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1322">
         <v>6</v>
       </c>
       <c r="D1322" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1323" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1324">
         <v>4</v>
       </c>
       <c r="D1324" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1325" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1325" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1326" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1326" t="s">
         <v>874</v>
       </c>
       <c r="D1326" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1327" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1327" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1327" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1328">
         <v>5</v>
       </c>
       <c r="D1328" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1329">
         <v>6</v>
       </c>
       <c r="D1329" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1330">
         <v>4</v>
       </c>
       <c r="D1330" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1331">
         <v>3</v>
       </c>
       <c r="D1331" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1332" t="s">
         <v>874</v>
       </c>
       <c r="D1332" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1333" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1333" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1333" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1334" t="s">
         <v>874</v>
       </c>
       <c r="D1334" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1335" t="s">
         <v>874</v>
       </c>
       <c r="D1335" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1336">
         <v>4</v>
       </c>
       <c r="D1336" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1337">
         <v>6</v>
       </c>
       <c r="D1337" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1338" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1338" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1338" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1339" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1339" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1340">
         <v>3</v>
       </c>
       <c r="D1340" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1341" t="s">
         <v>874</v>
       </c>
       <c r="D1341" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1342" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1342" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1342" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1343" t="s">
         <v>874</v>
       </c>
       <c r="D1343" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1344" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1344" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1344" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1345" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1345" t="s">
         <v>874</v>
       </c>
       <c r="D1345" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1346" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1346" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1346" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1347" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1347" t="s">
         <v>874</v>
       </c>
       <c r="D1347" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1348">
         <v>4</v>
       </c>
       <c r="D1348" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1349" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1349" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1350">
         <v>3</v>
       </c>
       <c r="D1350" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1351" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1351" t="s">
         <v>874</v>
       </c>
       <c r="D1351" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1352" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1352" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1353" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1353" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1353" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1354">
         <v>3</v>
       </c>
       <c r="D1354" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1355" t="s">
         <v>874</v>
       </c>
       <c r="D1355" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1356" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1356" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1357">
         <v>4</v>
       </c>
       <c r="D1357" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1358">
         <v>3</v>
       </c>
       <c r="D1358" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1359">
         <v>6</v>
       </c>
       <c r="D1359" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C1360" t="s">
         <v>874</v>
       </c>
       <c r="D1360" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1361">
         <v>4</v>
       </c>
       <c r="D1361" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1362" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1363" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1364" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1365" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1366" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1367" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1368">
         <v>4</v>
@@ -20923,1454 +21459,1454 @@
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1369">
         <v>4</v>
       </c>
       <c r="D1369" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1002</v>
+        <v>1255</v>
       </c>
       <c r="B1370">
         <v>4</v>
       </c>
       <c r="D1370" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1371" t="str">
         <f>A1370</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1371">
         <v>6</v>
       </c>
       <c r="D1371" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1372" t="str">
         <f t="shared" ref="A1372:A1435" si="7">A1371</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1372">
         <v>3</v>
       </c>
       <c r="D1372" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1373" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1373">
         <v>2</v>
       </c>
       <c r="D1373" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1374" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1374" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1374" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1375" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1375" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1375" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1375" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1376" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1376" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1376" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1376" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1377" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1377" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1377" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1377" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1378" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1378">
         <v>4</v>
       </c>
       <c r="D1378" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1379" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1379">
         <v>6</v>
       </c>
       <c r="D1379" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1380" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1380">
         <v>3</v>
       </c>
       <c r="D1380" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1381" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1381" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1381" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1382" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1382" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1382" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1382" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1383" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1383">
         <v>3</v>
       </c>
       <c r="D1383" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1384" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1384" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1384" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1385" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1385" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1385" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1386" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1386">
         <v>4</v>
       </c>
       <c r="D1386" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1387" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1387">
         <v>6</v>
       </c>
       <c r="D1387" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1388" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1388" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1388" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1389" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1389">
         <v>3</v>
       </c>
       <c r="D1389" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1390" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1390">
         <v>4</v>
       </c>
       <c r="D1390" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1391" t="str">
         <f>A1388</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1391" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1391" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1392" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1392">
         <v>2</v>
       </c>
       <c r="D1392" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1393" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1393">
         <v>3</v>
       </c>
       <c r="D1393" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1394" t="str">
         <f>A1392</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1394" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1394" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1395" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1395" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1395" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1395" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1396" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1396">
         <v>2</v>
       </c>
       <c r="D1396" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1397" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1397">
         <v>4</v>
       </c>
       <c r="D1397" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1398" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1398">
         <v>6</v>
       </c>
       <c r="D1398" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1399" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1399">
         <v>3</v>
       </c>
       <c r="D1399" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1400" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1400" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1400" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1400" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1401" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1401">
         <v>3</v>
       </c>
       <c r="D1401" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1402" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1402" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1402" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1402" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1403" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1403">
         <v>2</v>
       </c>
       <c r="D1403" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1404" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1404">
         <v>4</v>
       </c>
       <c r="D1404" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1405" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1405">
         <v>4</v>
       </c>
       <c r="D1405" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1406" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1406">
         <v>3</v>
       </c>
       <c r="D1406" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1407" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1407" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1407" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1407" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1408" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1408" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1408" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1408" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1409" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1409">
         <v>4</v>
       </c>
       <c r="D1409" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1410" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1410">
         <v>4</v>
       </c>
       <c r="D1410" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1411" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1411" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1411" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1411" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1412" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1412">
         <v>2</v>
       </c>
       <c r="D1412" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1413" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1413">
         <v>3</v>
       </c>
       <c r="D1413" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1414" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1414" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1414" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1414" s="3" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1415" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1415">
         <v>4</v>
       </c>
       <c r="D1415" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1416" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1416">
         <v>6</v>
       </c>
       <c r="D1416" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1417" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1417" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1417" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1418" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1418" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1418" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1419" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1419" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1419" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1420" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1420" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1420" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1421" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1421" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1421" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1422" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1422">
         <v>2</v>
       </c>
       <c r="D1422" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1423" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1423">
         <v>3</v>
       </c>
       <c r="D1423" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1424" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1424">
         <v>6</v>
       </c>
       <c r="D1424" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1425" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1425" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1425" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1426" t="str">
         <f>A1425</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1426">
         <v>4</v>
       </c>
       <c r="D1426" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1427" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1427">
         <v>5</v>
       </c>
       <c r="D1427" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1428" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="D1428" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1429" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1429">
         <v>6</v>
       </c>
       <c r="D1429" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1430" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1430" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1430" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1431" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1431">
         <v>2</v>
       </c>
       <c r="D1431" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1432" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1432">
         <v>4</v>
       </c>
       <c r="D1432" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1433" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1433" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1433" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1434" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1434" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1434" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1435" t="str">
         <f t="shared" si="7"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1435" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1435" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1436" t="str">
         <f t="shared" ref="A1436:A1474" si="8">A1435</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1436">
         <v>2</v>
       </c>
       <c r="D1436" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1437" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1437">
         <v>4</v>
       </c>
       <c r="D1437" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1438" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1438" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1438" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1438" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1439" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1439" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="D1439" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1440" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1440" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1440" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1441" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1441" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1441" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1441" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1442" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1442" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1442" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1442" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1443" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1443">
         <v>2</v>
       </c>
       <c r="D1443" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1444" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1444" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1444" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1444" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1445" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1445">
         <v>4</v>
       </c>
       <c r="D1445" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1446" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1446">
         <v>6</v>
       </c>
       <c r="D1446" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1447" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1447" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1447" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1448" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1448" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1448" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1449" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1449">
         <v>4</v>
       </c>
       <c r="D1449" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1450" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1450">
         <v>6</v>
       </c>
       <c r="D1450" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1451" t="str">
         <f>A1448</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1451" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1451" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>1002</v>
+        <v>1255</v>
       </c>
       <c r="B1452">
         <v>2</v>
       </c>
       <c r="D1452" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1453" t="str">
         <f>A1451</f>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1453" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1453" t="s">
         <v>1056</v>
-      </c>
-      <c r="D1453" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1454" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1454" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1454" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1455" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1455" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1455" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1455" s="3" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1456" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1456">
         <v>2</v>
       </c>
       <c r="D1456" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1457" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1457">
         <v>4</v>
       </c>
       <c r="D1457" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1458" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1458">
         <v>6</v>
       </c>
       <c r="D1458" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1459" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1459" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1459" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1459" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1460" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1460">
         <v>2</v>
       </c>
       <c r="D1460" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1461" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1461" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1461" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1461" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1462" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1462">
         <v>2</v>
       </c>
       <c r="D1462" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1463" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1463">
         <v>3</v>
       </c>
       <c r="D1463" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1464" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1464">
         <v>6</v>
       </c>
       <c r="D1464" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1465" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1465">
         <v>4</v>
       </c>
       <c r="D1465" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1466" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1466">
         <v>4</v>
       </c>
       <c r="D1466" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1467" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1467" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D1467" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1468" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1468">
         <v>2</v>
       </c>
       <c r="D1468" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1469" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1469" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1469" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1470" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1470">
         <v>4</v>
       </c>
       <c r="D1470" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1471" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="B1471">
         <v>6</v>
       </c>
       <c r="D1471" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1472" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1472" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1472" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1473" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1473" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1473" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1474" t="str">
         <f t="shared" si="8"/>
-        <v>부산가출팸1</v>
+        <v>해운대가출팸1</v>
       </c>
       <c r="C1474" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1474" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="C1475" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D1475" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1476">
         <v>2</v>
       </c>
       <c r="D1476" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1477">
         <v>4</v>
       </c>
       <c r="D1477" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1478">
         <v>4</v>
       </c>
       <c r="D1478" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1479">
         <v>6</v>
       </c>
       <c r="D1479" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1480" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="C1480" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1480" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1481">
         <v>2</v>
       </c>
       <c r="D1481" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1482">
         <v>4</v>
       </c>
       <c r="D1482" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1483" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1483" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="C1483" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D1483" s="3" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="1484" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="C1484" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1484" s="3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1485">
         <v>2</v>
       </c>
       <c r="D1485" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1486">
         <v>3</v>
       </c>
       <c r="D1486" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1487" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="C1487" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D1487" s="3" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="C1488" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D1488" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1489">
         <v>4</v>
       </c>
       <c r="D1489" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="D1490" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1491">
         <v>4</v>
       </c>
       <c r="D1491" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1492">
         <v>7</v>
@@ -22381,994 +22917,994 @@
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1493">
         <v>4</v>
       </c>
       <c r="D1493" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="D1494" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1495">
         <v>4</v>
       </c>
       <c r="D1495" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
-        <v>1067</v>
+        <v>1256</v>
       </c>
       <c r="B1496">
         <v>4</v>
       </c>
       <c r="D1496" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1497">
         <v>4</v>
       </c>
       <c r="D1497" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1498">
         <v>4</v>
       </c>
       <c r="D1498" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1499">
         <v>6</v>
       </c>
       <c r="D1499" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1500" t="s">
         <v>1076</v>
-      </c>
-      <c r="D1500" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1501">
         <v>2</v>
       </c>
       <c r="D1501" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1502">
         <v>3</v>
       </c>
       <c r="D1502" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1503" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1503" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1503" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1504" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D1504" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1505">
         <v>4</v>
       </c>
       <c r="D1505" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1506">
         <v>3</v>
       </c>
       <c r="D1506" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1507">
         <v>6</v>
       </c>
       <c r="D1507" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1508" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1508" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1509">
         <v>4</v>
       </c>
       <c r="D1509" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1510">
         <v>4</v>
       </c>
       <c r="D1510" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1511">
         <v>6</v>
       </c>
       <c r="D1511" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1512" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D1512" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1513">
         <v>2</v>
       </c>
       <c r="D1513" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1514">
         <v>3</v>
       </c>
       <c r="D1514" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1515" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D1515" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1516">
         <v>2</v>
       </c>
       <c r="D1516" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1517">
         <v>3</v>
       </c>
       <c r="D1517" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1518" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1518" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1519">
         <v>4</v>
       </c>
       <c r="D1519" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1520">
         <v>6</v>
       </c>
       <c r="D1520" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1521" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D1521" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1522">
         <v>3</v>
       </c>
       <c r="D1522" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1523" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1523" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1524">
         <v>4</v>
       </c>
       <c r="D1524" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1525">
         <v>3</v>
       </c>
       <c r="D1525" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1526">
         <v>2</v>
       </c>
       <c r="D1526" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1527">
         <v>4</v>
       </c>
       <c r="D1527" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1528">
         <v>6</v>
       </c>
       <c r="D1528" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1529" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D1529" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="C1530" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D1530" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1531">
         <v>4</v>
       </c>
       <c r="D1531" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1076</v>
+        <v>1257</v>
       </c>
       <c r="B1532">
         <v>4</v>
       </c>
       <c r="D1532" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1533">
         <v>2</v>
       </c>
       <c r="D1533" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1534">
         <v>3</v>
       </c>
       <c r="D1534" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1535" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1535" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1535" s="3" t="s">
-        <v>1109</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1536" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1536" s="3" t="s">
-        <v>1107</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1537">
         <v>2</v>
       </c>
       <c r="D1537" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1538">
         <v>3</v>
       </c>
       <c r="D1538" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1539" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1539" s="3" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1540">
         <v>2</v>
       </c>
       <c r="D1540" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1541">
         <v>4</v>
       </c>
       <c r="D1541" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1542">
         <v>3</v>
       </c>
       <c r="D1542" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1543">
         <v>6</v>
       </c>
       <c r="D1543" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1544" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1544" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1544" s="3" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1545">
         <v>2</v>
       </c>
       <c r="D1545" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1546" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D1546" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1547">
         <v>2</v>
       </c>
       <c r="D1547" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1548">
         <v>4</v>
       </c>
       <c r="D1548" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1549">
         <v>6</v>
       </c>
       <c r="D1549" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1550">
         <v>3</v>
       </c>
       <c r="D1550" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1551" s="3" t="s">
         <v>1106</v>
-      </c>
-      <c r="C1551" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D1551" s="3" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1552">
         <v>2</v>
       </c>
       <c r="D1552" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1553">
         <v>4</v>
       </c>
       <c r="D1553" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1554">
         <v>4</v>
       </c>
       <c r="D1554" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1555">
         <v>6</v>
       </c>
       <c r="D1555" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1556">
         <v>3</v>
       </c>
       <c r="D1556" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1557" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D1557" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1558">
         <v>2</v>
       </c>
       <c r="D1558" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1559">
         <v>4</v>
       </c>
       <c r="D1559" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1560">
         <v>6</v>
       </c>
       <c r="D1560" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1561" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1561" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1562" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1562" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1563" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1563" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1563" s="3" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1564" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1564" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1564" s="3" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1565" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1565" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1566">
         <v>2</v>
       </c>
       <c r="D1566" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1567">
         <v>4</v>
       </c>
       <c r="D1567" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1568">
         <v>6</v>
       </c>
       <c r="D1568" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1569" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1569" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D1569" s="3" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1570">
         <v>2</v>
       </c>
       <c r="D1570" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1571">
         <v>3</v>
       </c>
       <c r="D1571" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1572" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1572" s="3" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1573" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1573" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1573" s="3" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1574">
         <v>2</v>
       </c>
       <c r="D1574" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1575">
         <v>4</v>
       </c>
       <c r="D1575" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1576">
         <v>6</v>
       </c>
       <c r="D1576" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1577" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1577" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D1577" s="3" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1578" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1578" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1578" s="3" t="s">
-        <v>1123</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1579">
         <v>4</v>
       </c>
       <c r="D1579" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1580">
         <v>6</v>
       </c>
       <c r="D1580" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1581">
         <v>3</v>
       </c>
       <c r="D1581" s="3" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1582" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1582" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D1582" s="3" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1583" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1583" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1583" s="3" t="s">
         <v>1125</v>
@@ -23376,180 +23912,2723 @@
     </row>
     <row r="1584" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1584" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1584" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1585" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1585" s="3" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1586">
         <v>4</v>
       </c>
       <c r="D1586" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1587">
         <v>4</v>
       </c>
       <c r="D1587" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1588">
         <v>6</v>
       </c>
       <c r="D1588" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1589" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1589" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1589" s="3" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1590">
         <v>4</v>
       </c>
       <c r="D1590" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1591" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1591" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D1591" s="3" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1592">
         <v>4</v>
       </c>
       <c r="D1592" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1593">
         <v>6</v>
       </c>
       <c r="D1593" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="C1594" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D1594" t="s">
-        <v>1131</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="D1595" t="s">
-        <v>1132</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1596">
         <v>4</v>
       </c>
       <c r="D1596" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="D1597" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="D1598" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1599">
         <v>4</v>
       </c>
       <c r="D1599" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
-        <v>1106</v>
+        <v>1258</v>
       </c>
       <c r="B1600">
         <v>4</v>
       </c>
       <c r="D1600" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1601" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1601">
+        <v>4</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1602" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1602">
+        <v>6</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1603" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1603">
+        <v>2</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1604" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1605" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1605">
+        <v>2</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1606" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1606">
+        <v>3</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1607" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1607" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1608" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1608">
+        <v>4</v>
+      </c>
+      <c r="D1608" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1609" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1609">
+        <v>6</v>
+      </c>
+      <c r="D1609" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1610" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1610" t="s">
         <v>1136</v>
+      </c>
+      <c r="D1610" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1611" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1611">
+        <v>2</v>
+      </c>
+      <c r="D1611" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1612" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1612">
+        <v>3</v>
+      </c>
+      <c r="D1612" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1613" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1614" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1615" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1616" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1616">
+        <v>2</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1617" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1618" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1618">
+        <v>2</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1619" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1619">
+        <v>3</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1620" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1620">
+        <v>4</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1621" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1622" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1622">
+        <v>2</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1623" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1623" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1624" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1625" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1626" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1627" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1627">
+        <v>2</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1628" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1628">
+        <v>3</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1629" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1629">
+        <v>4</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1630" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1630">
+        <v>6</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1631" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1632" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1632">
+        <v>2</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1633" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1633">
+        <v>3</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1634" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1635" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1635">
+        <v>2</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1636" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1636">
+        <v>4</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1637" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1637">
+        <v>4</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1638" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1638">
+        <v>6</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1639" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1639">
+        <v>3</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1640" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1640" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1641" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1642" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1642">
+        <v>4</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1643" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1644" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1644">
+        <v>4</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1645" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1645">
+        <v>3</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1646" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1646" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1647" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1647">
+        <v>2</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1648">
+        <v>3</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1649" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1649" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1650" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1650">
+        <v>2</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1651" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1651">
+        <v>3</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1652" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1652">
+        <v>4</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1653" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1653">
+        <v>6</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1654" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1655" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1655">
+        <v>2</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1656" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1656">
+        <v>3</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1657" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1658" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1658">
+        <v>2</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1659" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1659">
+        <v>3</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1660" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1660">
+        <v>4</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1661" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1661">
+        <v>4</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1662" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1662">
+        <v>6</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1663" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1663" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1664" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1665" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1665">
+        <v>4</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1666" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1666">
+        <v>4</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1667" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1667">
+        <v>3</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1668" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1669" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1670" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1670" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1671" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1671">
+        <v>2</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1672" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1672">
+        <v>4</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1673" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1673">
+        <v>3</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1674" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1675" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1676">
+        <v>4</v>
+      </c>
+      <c r="D1676" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1677">
+        <v>6</v>
+      </c>
+      <c r="D1677" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1678" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1679">
+        <v>4</v>
+      </c>
+      <c r="D1679" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1681">
+        <v>4</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1682" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1682">
+        <v>4</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1683" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1683">
+        <v>4</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1684" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1684">
+        <v>4</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1685" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1685">
+        <v>5</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1686" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1687" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1687">
+        <v>6</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1688" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1689" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1689">
+        <v>6</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1690" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1691" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1691">
+        <v>6</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1692" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1693" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1693">
+        <v>6</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1694" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1695" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1696" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1697" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1697">
+        <v>2</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1698" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1698">
+        <v>4</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1699" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1699">
+        <v>3</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1700" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1701" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1701">
+        <v>2</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1702" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1702">
+        <v>3</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1703" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1703">
+        <v>4</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1704" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1704">
+        <v>6</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1705" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1705" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1706" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1707" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1707">
+        <v>2</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1708" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1708">
+        <v>3</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1709" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1710" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1711" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1712" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1712">
+        <v>2</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1713">
+        <v>3</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1714" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1715">
+        <v>2</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1716">
+        <v>4</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1717">
+        <v>6</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1718" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1719" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1719">
+        <v>4</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1720" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1720">
+        <v>4</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1721" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1721">
+        <v>6</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1722" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1723" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1723">
+        <v>4</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1724" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1724">
+        <v>3</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1725" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1725" s="3" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1726">
+        <v>2</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1728">
+        <v>4</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1729">
+        <v>4</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1730">
+        <v>2</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1732">
+        <v>4</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1733">
+        <v>3</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1734" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1735">
+        <v>4</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1736" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1737">
+        <v>4</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1738">
+        <v>4</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1739">
+        <v>4</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1740">
+        <v>6</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1741">
+        <v>2</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1742">
+        <v>4</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1743">
+        <v>3</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1745">
+        <v>2</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1746">
+        <v>3</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1747" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1748">
+        <v>2</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1749">
+        <v>3</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1750" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1751" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1752" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1752">
+        <v>2</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1753" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1753">
+        <v>4</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1754" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1754">
+        <v>4</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1755" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1755">
+        <v>3</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1756" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1756">
+        <v>6</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1757" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1758" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1758">
+        <v>4</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1759" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1759">
+        <v>4</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1760" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1760">
+        <v>3</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1761" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1762" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1763" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1763">
+        <v>4</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1764" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1764">
+        <v>4</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1765" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1765">
+        <v>6</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1766" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1766" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1767" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1768" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1768">
+        <v>5</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1769" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1770" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1770">
+        <v>4</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1771" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1771">
+        <v>6</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1772" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1773" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1773" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1774" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1774">
+        <v>4</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1775" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1775">
+        <v>6</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1776" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1776" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1777" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1778" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1778">
+        <v>4</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1779" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1779">
+        <v>6</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1780" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1780" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1781" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1782" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1783" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1784" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1785" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1785">
+        <v>4</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1786" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1786">
+        <v>6</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1787" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1787" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1788" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1788" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1789" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1790" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1790">
+        <v>2</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1791" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1791">
+        <v>3</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1792" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1793">
+        <v>2</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1794" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1794" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1795" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1795" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1796" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1796">
+        <v>2</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1797" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1797">
+        <v>3</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1798" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1799" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1799">
+        <v>2</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1800" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1800">
+        <v>3</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1801" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1801" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1802" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1802" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1803" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1803" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1804" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1804" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1805" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1805">
+        <v>4</v>
+      </c>
+      <c r="D1805" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1806" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1806">
+        <v>3</v>
+      </c>
+      <c r="D1806" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1807" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1807" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1808" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1811">
+        <v>3</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1812" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1812">
+        <v>4</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1813" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1813" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1814" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1814">
+        <v>4</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1815" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1816" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1816" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1817" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1817">
+        <v>2</v>
+      </c>
+      <c r="D1817" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1818" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1818">
+        <v>4</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1819" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1820" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1820">
+        <v>4</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1821" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1821">
+        <v>4</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1822" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1822">
+        <v>6</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1823" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1823" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1824" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1824">
+        <v>4</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1825" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1825">
+        <v>6</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1826" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1826">
+        <v>3</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1827" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1828" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1829" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1829">
+        <v>3</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1830" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1831" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1831">
+        <v>4</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1832" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1833" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1834" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1834">
+        <v>4</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1835" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1835">
+        <v>4</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -5354,10 +5354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광석아 죗값 치르고 나오면 집에 돌아올 거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예… 갈 겁니다.
 꼭 돌아 갈겁니다..!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5460,6 +5456,10 @@
   </si>
   <si>
     <t>더욱 끈끈해진 부모와 자식간의 연을 바탕으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석아 죗값 치르고 나오면 집에 돌아오는 거다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5957,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1829" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1833" sqref="E1833"/>
+    <sheetView tabSelected="1" topLeftCell="A1796" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1811" sqref="D1811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21470,7 +21470,7 @@
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1370">
         <v>4</v>
@@ -22447,7 +22447,7 @@
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1452">
         <v>2</v>
@@ -22722,7 +22722,7 @@
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1475" t="s">
         <v>1054</v>
@@ -22733,7 +22733,7 @@
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1476">
         <v>2</v>
@@ -22744,7 +22744,7 @@
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1477">
         <v>4</v>
@@ -22755,7 +22755,7 @@
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1478">
         <v>4</v>
@@ -22766,7 +22766,7 @@
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1479">
         <v>6</v>
@@ -22777,7 +22777,7 @@
     </row>
     <row r="1480" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1480" t="s">
         <v>1021</v>
@@ -22788,7 +22788,7 @@
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1481">
         <v>2</v>
@@ -22799,7 +22799,7 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1482">
         <v>4</v>
@@ -22810,7 +22810,7 @@
     </row>
     <row r="1483" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1483" t="s">
         <v>1005</v>
@@ -22821,7 +22821,7 @@
     </row>
     <row r="1484" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1484" t="s">
         <v>1007</v>
@@ -22832,7 +22832,7 @@
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1485">
         <v>2</v>
@@ -22843,7 +22843,7 @@
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1486">
         <v>3</v>
@@ -22854,7 +22854,7 @@
     </row>
     <row r="1487" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1487" t="s">
         <v>1021</v>
@@ -22865,7 +22865,7 @@
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C1488" t="s">
         <v>1007</v>
@@ -22876,7 +22876,7 @@
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1489">
         <v>4</v>
@@ -22887,7 +22887,7 @@
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D1490" t="s">
         <v>1071</v>
@@ -22895,7 +22895,7 @@
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1491">
         <v>4</v>
@@ -22906,7 +22906,7 @@
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1492">
         <v>7</v>
@@ -22917,7 +22917,7 @@
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1493">
         <v>4</v>
@@ -22928,7 +22928,7 @@
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D1494" t="s">
         <v>1072</v>
@@ -22936,7 +22936,7 @@
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1495">
         <v>4</v>
@@ -22947,7 +22947,7 @@
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1496">
         <v>4</v>
@@ -22958,7 +22958,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1497">
         <v>4</v>
@@ -22969,7 +22969,7 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1498">
         <v>4</v>
@@ -22980,7 +22980,7 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1499">
         <v>6</v>
@@ -22991,7 +22991,7 @@
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D1500" t="s">
         <v>1076</v>
@@ -22999,7 +22999,7 @@
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1501">
         <v>2</v>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1502">
         <v>3</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="1503" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1503" t="s">
         <v>1077</v>
@@ -23032,7 +23032,7 @@
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1504" t="s">
         <v>1081</v>
@@ -23043,7 +23043,7 @@
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1505">
         <v>4</v>
@@ -23054,7 +23054,7 @@
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1506">
         <v>3</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1507">
         <v>6</v>
@@ -23076,7 +23076,7 @@
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1508" t="s">
         <v>1077</v>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1509">
         <v>4</v>
@@ -23098,7 +23098,7 @@
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1510">
         <v>4</v>
@@ -23109,7 +23109,7 @@
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1511">
         <v>6</v>
@@ -23120,7 +23120,7 @@
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1512" t="s">
         <v>1089</v>
@@ -23131,7 +23131,7 @@
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1513">
         <v>2</v>
@@ -23142,7 +23142,7 @@
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1514">
         <v>3</v>
@@ -23153,7 +23153,7 @@
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1515" t="s">
         <v>1080</v>
@@ -23164,7 +23164,7 @@
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1516">
         <v>2</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1517">
         <v>3</v>
@@ -23186,7 +23186,7 @@
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1518" t="s">
         <v>1077</v>
@@ -23197,7 +23197,7 @@
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1519">
         <v>4</v>
@@ -23208,7 +23208,7 @@
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1520">
         <v>6</v>
@@ -23219,7 +23219,7 @@
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1521" t="s">
         <v>1081</v>
@@ -23230,7 +23230,7 @@
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1522">
         <v>3</v>
@@ -23241,7 +23241,7 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1523" t="s">
         <v>1077</v>
@@ -23252,7 +23252,7 @@
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1524">
         <v>4</v>
@@ -23263,7 +23263,7 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1525">
         <v>3</v>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1526">
         <v>2</v>
@@ -23285,7 +23285,7 @@
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1527">
         <v>4</v>
@@ -23296,7 +23296,7 @@
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1528">
         <v>6</v>
@@ -23307,7 +23307,7 @@
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1529" t="s">
         <v>1089</v>
@@ -23318,7 +23318,7 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C1530" t="s">
         <v>1081</v>
@@ -23329,7 +23329,7 @@
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1531">
         <v>4</v>
@@ -23340,7 +23340,7 @@
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1532">
         <v>4</v>
@@ -23351,7 +23351,7 @@
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1533">
         <v>2</v>
@@ -23362,7 +23362,7 @@
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1534">
         <v>3</v>
@@ -23373,7 +23373,7 @@
     </row>
     <row r="1535" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1535" t="s">
         <v>1097</v>
@@ -23384,7 +23384,7 @@
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1536" t="s">
         <v>1097</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1537">
         <v>2</v>
@@ -23406,7 +23406,7 @@
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1538">
         <v>3</v>
@@ -23417,7 +23417,7 @@
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1539" t="s">
         <v>1077</v>
@@ -23428,7 +23428,7 @@
     </row>
     <row r="1540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1540">
         <v>2</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="1541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1541">
         <v>4</v>
@@ -23450,7 +23450,7 @@
     </row>
     <row r="1542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1542">
         <v>3</v>
@@ -23461,7 +23461,7 @@
     </row>
     <row r="1543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1543">
         <v>6</v>
@@ -23472,7 +23472,7 @@
     </row>
     <row r="1544" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1544" t="s">
         <v>1097</v>
@@ -23483,7 +23483,7 @@
     </row>
     <row r="1545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1545">
         <v>2</v>
@@ -23494,7 +23494,7 @@
     </row>
     <row r="1546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1546" t="s">
         <v>1080</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="1547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1547">
         <v>2</v>
@@ -23516,7 +23516,7 @@
     </row>
     <row r="1548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1548">
         <v>4</v>
@@ -23527,7 +23527,7 @@
     </row>
     <row r="1549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1549">
         <v>6</v>
@@ -23538,7 +23538,7 @@
     </row>
     <row r="1550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1550">
         <v>3</v>
@@ -23549,7 +23549,7 @@
     </row>
     <row r="1551" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1551" t="s">
         <v>1097</v>
@@ -23560,7 +23560,7 @@
     </row>
     <row r="1552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1552">
         <v>2</v>
@@ -23571,7 +23571,7 @@
     </row>
     <row r="1553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1553">
         <v>4</v>
@@ -23582,7 +23582,7 @@
     </row>
     <row r="1554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1554">
         <v>4</v>
@@ -23593,7 +23593,7 @@
     </row>
     <row r="1555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1555">
         <v>6</v>
@@ -23604,7 +23604,7 @@
     </row>
     <row r="1556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1556">
         <v>3</v>
@@ -23615,7 +23615,7 @@
     </row>
     <row r="1557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1557" t="s">
         <v>1080</v>
@@ -23626,7 +23626,7 @@
     </row>
     <row r="1558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1558">
         <v>2</v>
@@ -23637,7 +23637,7 @@
     </row>
     <row r="1559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1559">
         <v>4</v>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="1560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1560">
         <v>6</v>
@@ -23659,7 +23659,7 @@
     </row>
     <row r="1561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1561" t="s">
         <v>1097</v>
@@ -23670,7 +23670,7 @@
     </row>
     <row r="1562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1562" t="s">
         <v>1097</v>
@@ -23681,7 +23681,7 @@
     </row>
     <row r="1563" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1563" t="s">
         <v>1097</v>
@@ -23692,7 +23692,7 @@
     </row>
     <row r="1564" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1564" t="s">
         <v>1097</v>
@@ -23703,7 +23703,7 @@
     </row>
     <row r="1565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1565" t="s">
         <v>1097</v>
@@ -23714,7 +23714,7 @@
     </row>
     <row r="1566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1566">
         <v>2</v>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="1567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1567">
         <v>4</v>
@@ -23736,7 +23736,7 @@
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1568">
         <v>6</v>
@@ -23747,7 +23747,7 @@
     </row>
     <row r="1569" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1569" t="s">
         <v>1080</v>
@@ -23758,7 +23758,7 @@
     </row>
     <row r="1570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1570">
         <v>2</v>
@@ -23769,7 +23769,7 @@
     </row>
     <row r="1571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1571">
         <v>3</v>
@@ -23780,7 +23780,7 @@
     </row>
     <row r="1572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1572" t="s">
         <v>1097</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="1573" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1573" t="s">
         <v>1097</v>
@@ -23802,7 +23802,7 @@
     </row>
     <row r="1574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1574">
         <v>2</v>
@@ -23813,7 +23813,7 @@
     </row>
     <row r="1575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1575">
         <v>4</v>
@@ -23824,7 +23824,7 @@
     </row>
     <row r="1576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1576">
         <v>6</v>
@@ -23835,7 +23835,7 @@
     </row>
     <row r="1577" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1577" t="s">
         <v>1077</v>
@@ -23846,18 +23846,18 @@
     </row>
     <row r="1578" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1578" t="s">
         <v>1097</v>
       </c>
       <c r="D1578" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1579">
         <v>4</v>
@@ -23868,7 +23868,7 @@
     </row>
     <row r="1580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1580">
         <v>6</v>
@@ -23879,7 +23879,7 @@
     </row>
     <row r="1581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1581">
         <v>3</v>
@@ -23890,7 +23890,7 @@
     </row>
     <row r="1582" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1582" t="s">
         <v>1081</v>
@@ -23901,7 +23901,7 @@
     </row>
     <row r="1583" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1583" t="s">
         <v>1097</v>
@@ -23912,7 +23912,7 @@
     </row>
     <row r="1584" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1584" t="s">
         <v>1097</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="1585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1585" t="s">
         <v>1097</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="1586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1586">
         <v>4</v>
@@ -23945,7 +23945,7 @@
     </row>
     <row r="1587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1587">
         <v>4</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="1588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1588">
         <v>6</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="1589" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1589" t="s">
         <v>1097</v>
@@ -23978,7 +23978,7 @@
     </row>
     <row r="1590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1590">
         <v>4</v>
@@ -23989,7 +23989,7 @@
     </row>
     <row r="1591" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1591" t="s">
         <v>1081</v>
@@ -24000,7 +24000,7 @@
     </row>
     <row r="1592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1592">
         <v>4</v>
@@ -24011,7 +24011,7 @@
     </row>
     <row r="1593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1593">
         <v>6</v>
@@ -24022,26 +24022,26 @@
     </row>
     <row r="1594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C1594" t="s">
         <v>1097</v>
       </c>
       <c r="D1594" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D1595" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1596">
         <v>4</v>
@@ -24052,7 +24052,7 @@
     </row>
     <row r="1597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D1597" t="s">
         <v>1116</v>
@@ -24060,7 +24060,7 @@
     </row>
     <row r="1598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D1598" t="s">
         <v>1119</v>
@@ -24068,7 +24068,7 @@
     </row>
     <row r="1599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1599">
         <v>4</v>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="1600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1600">
         <v>4</v>
@@ -24090,7 +24090,7 @@
     </row>
     <row r="1601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1601">
         <v>4</v>
@@ -24101,7 +24101,7 @@
     </row>
     <row r="1602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1602" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1602">
         <v>6</v>
@@ -24112,7 +24112,7 @@
     </row>
     <row r="1603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1603">
         <v>2</v>
@@ -24123,18 +24123,18 @@
     </row>
     <row r="1604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1604" t="s">
         <v>1122</v>
       </c>
       <c r="D1604" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1605">
         <v>2</v>
@@ -24145,7 +24145,7 @@
     </row>
     <row r="1606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1606">
         <v>3</v>
@@ -24156,7 +24156,7 @@
     </row>
     <row r="1607" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1607" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1607" t="s">
         <v>1135</v>
@@ -24167,7 +24167,7 @@
     </row>
     <row r="1608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1608" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1608">
         <v>4</v>
@@ -24178,7 +24178,7 @@
     </row>
     <row r="1609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1609" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1609">
         <v>6</v>
@@ -24189,7 +24189,7 @@
     </row>
     <row r="1610" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1610" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1610" t="s">
         <v>1136</v>
@@ -24200,7 +24200,7 @@
     </row>
     <row r="1611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1611" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1611">
         <v>2</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="1612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1612" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1612">
         <v>3</v>
@@ -24222,18 +24222,18 @@
     </row>
     <row r="1613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1613" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1613" t="s">
         <v>1122</v>
       </c>
       <c r="D1613" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1614" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1614" t="s">
         <v>1122</v>
@@ -24244,18 +24244,18 @@
     </row>
     <row r="1615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1615" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1615" t="s">
         <v>1122</v>
       </c>
       <c r="D1615" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1616" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1616">
         <v>2</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="1617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1617" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1617" t="s">
         <v>1133</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="1618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1618" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1618">
         <v>2</v>
@@ -24288,7 +24288,7 @@
     </row>
     <row r="1619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1619" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1619">
         <v>3</v>
@@ -24299,7 +24299,7 @@
     </row>
     <row r="1620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1620" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1620">
         <v>4</v>
@@ -24310,7 +24310,7 @@
     </row>
     <row r="1621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1621" t="s">
         <v>1135</v>
@@ -24321,7 +24321,7 @@
     </row>
     <row r="1622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1622">
         <v>2</v>
@@ -24332,7 +24332,7 @@
     </row>
     <row r="1623" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1623" t="s">
         <v>1122</v>
@@ -24343,7 +24343,7 @@
     </row>
     <row r="1624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1624" t="s">
         <v>1122</v>
@@ -24354,7 +24354,7 @@
     </row>
     <row r="1625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1625" t="s">
         <v>1136</v>
@@ -24365,7 +24365,7 @@
     </row>
     <row r="1626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1626" t="s">
         <v>1136</v>
@@ -24376,7 +24376,7 @@
     </row>
     <row r="1627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1627" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1627">
         <v>2</v>
@@ -24387,7 +24387,7 @@
     </row>
     <row r="1628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1628" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1628">
         <v>3</v>
@@ -24398,7 +24398,7 @@
     </row>
     <row r="1629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1629" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1629">
         <v>4</v>
@@ -24409,7 +24409,7 @@
     </row>
     <row r="1630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1630" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1630">
         <v>6</v>
@@ -24420,7 +24420,7 @@
     </row>
     <row r="1631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1631" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1631" t="s">
         <v>1135</v>
@@ -24431,7 +24431,7 @@
     </row>
     <row r="1632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1632" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1632">
         <v>2</v>
@@ -24442,7 +24442,7 @@
     </row>
     <row r="1633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1633" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1633">
         <v>3</v>
@@ -24453,7 +24453,7 @@
     </row>
     <row r="1634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1634" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1634" t="s">
         <v>1133</v>
@@ -24464,7 +24464,7 @@
     </row>
     <row r="1635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1635">
         <v>2</v>
@@ -24475,7 +24475,7 @@
     </row>
     <row r="1636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1636">
         <v>4</v>
@@ -24486,7 +24486,7 @@
     </row>
     <row r="1637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1637">
         <v>4</v>
@@ -24497,7 +24497,7 @@
     </row>
     <row r="1638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1638">
         <v>6</v>
@@ -24508,7 +24508,7 @@
     </row>
     <row r="1639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1639">
         <v>3</v>
@@ -24519,7 +24519,7 @@
     </row>
     <row r="1640" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1640" t="s">
         <v>1122</v>
@@ -24530,7 +24530,7 @@
     </row>
     <row r="1641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1641" t="s">
         <v>1122</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="1642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1642">
         <v>4</v>
@@ -24552,7 +24552,7 @@
     </row>
     <row r="1643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D1643" t="s">
         <v>1160</v>
@@ -24560,7 +24560,7 @@
     </row>
     <row r="1644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1644">
         <v>4</v>
@@ -24571,7 +24571,7 @@
     </row>
     <row r="1645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1645">
         <v>3</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="1646" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1646" t="s">
         <v>1122</v>
@@ -24593,7 +24593,7 @@
     </row>
     <row r="1647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1647" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1647">
         <v>2</v>
@@ -24612,7 +24612,7 @@
     </row>
     <row r="1649" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1649" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1649" t="s">
         <v>1159</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="1650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1650" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1650">
         <v>2</v>
@@ -24634,7 +24634,7 @@
     </row>
     <row r="1651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1651" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1651">
         <v>3</v>
@@ -24645,7 +24645,7 @@
     </row>
     <row r="1652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1652" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1652">
         <v>4</v>
@@ -24656,7 +24656,7 @@
     </row>
     <row r="1653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1653" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1653">
         <v>6</v>
@@ -24667,7 +24667,7 @@
     </row>
     <row r="1654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1654" t="s">
         <v>1135</v>
@@ -24678,7 +24678,7 @@
     </row>
     <row r="1655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1655">
         <v>2</v>
@@ -24689,7 +24689,7 @@
     </row>
     <row r="1656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1656">
         <v>3</v>
@@ -24700,7 +24700,7 @@
     </row>
     <row r="1657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1657" t="s">
         <v>1122</v>
@@ -24711,7 +24711,7 @@
     </row>
     <row r="1658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1658">
         <v>2</v>
@@ -24722,7 +24722,7 @@
     </row>
     <row r="1659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1659">
         <v>3</v>
@@ -24733,7 +24733,7 @@
     </row>
     <row r="1660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1660">
         <v>4</v>
@@ -24744,7 +24744,7 @@
     </row>
     <row r="1661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1661">
         <v>4</v>
@@ -24755,7 +24755,7 @@
     </row>
     <row r="1662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1662">
         <v>6</v>
@@ -24766,7 +24766,7 @@
     </row>
     <row r="1663" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1663" t="s">
         <v>1159</v>
@@ -24777,7 +24777,7 @@
     </row>
     <row r="1664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1664" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C1664" t="s">
         <v>1159</v>
@@ -24788,7 +24788,7 @@
     </row>
     <row r="1665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1665">
         <v>4</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="1666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1666">
         <v>4</v>
@@ -24810,7 +24810,7 @@
     </row>
     <row r="1667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1667">
         <v>3</v>
@@ -24821,7 +24821,7 @@
     </row>
     <row r="1668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1668" t="s">
         <v>1159</v>
@@ -24832,7 +24832,7 @@
     </row>
     <row r="1669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1669" t="s">
         <v>1136</v>
@@ -24843,7 +24843,7 @@
     </row>
     <row r="1670" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1670" t="s">
         <v>1159</v>
@@ -24854,7 +24854,7 @@
     </row>
     <row r="1671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1671">
         <v>2</v>
@@ -24865,7 +24865,7 @@
     </row>
     <row r="1672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1672">
         <v>4</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="1673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1673">
         <v>3</v>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="1674" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1674" t="s">
         <v>1122</v>
@@ -24898,7 +24898,7 @@
     </row>
     <row r="1675" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1675" t="s">
         <v>1159</v>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="1676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1676">
         <v>4</v>
@@ -24920,7 +24920,7 @@
     </row>
     <row r="1677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1677">
         <v>6</v>
@@ -24931,7 +24931,7 @@
     </row>
     <row r="1678" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1678" t="s">
         <v>1122</v>
@@ -24942,7 +24942,7 @@
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1679" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1679">
         <v>4</v>
@@ -24953,7 +24953,7 @@
     </row>
     <row r="1680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1680" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1680" t="s">
         <v>1136</v>
@@ -24964,7 +24964,7 @@
     </row>
     <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1681">
         <v>4</v>
@@ -24975,7 +24975,7 @@
     </row>
     <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1682">
         <v>4</v>
@@ -24986,7 +24986,7 @@
     </row>
     <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1683">
         <v>4</v>
@@ -24997,7 +24997,7 @@
     </row>
     <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1684">
         <v>4</v>
@@ -25008,7 +25008,7 @@
     </row>
     <row r="1685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1685">
         <v>5</v>
@@ -25019,7 +25019,7 @@
     </row>
     <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1686" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D1686" t="s">
         <v>1178</v>
@@ -25027,7 +25027,7 @@
     </row>
     <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1687" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1687">
         <v>6</v>
@@ -25038,7 +25038,7 @@
     </row>
     <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1688" t="s">
         <v>1122</v>
@@ -25049,7 +25049,7 @@
     </row>
     <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1689">
         <v>6</v>
@@ -25060,7 +25060,7 @@
     </row>
     <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1690" t="s">
         <v>1135</v>
@@ -25071,7 +25071,7 @@
     </row>
     <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1691">
         <v>6</v>
@@ -25082,7 +25082,7 @@
     </row>
     <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1692" t="s">
         <v>1133</v>
@@ -25093,7 +25093,7 @@
     </row>
     <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1693">
         <v>6</v>
@@ -25104,7 +25104,7 @@
     </row>
     <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1694" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1694" t="s">
         <v>1183</v>
@@ -25115,7 +25115,7 @@
     </row>
     <row r="1695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1695" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D1695" t="s">
         <v>1184</v>
@@ -25123,7 +25123,7 @@
     </row>
     <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1696" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D1696" t="s">
         <v>1185</v>
@@ -25131,7 +25131,7 @@
     </row>
     <row r="1697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1697" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1697">
         <v>2</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="1698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1698" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1698">
         <v>4</v>
@@ -25153,7 +25153,7 @@
     </row>
     <row r="1699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1699" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1699">
         <v>3</v>
@@ -25164,7 +25164,7 @@
     </row>
     <row r="1700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1700" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1700" t="s">
         <v>1159</v>
@@ -25175,7 +25175,7 @@
     </row>
     <row r="1701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1701" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1701">
         <v>2</v>
@@ -25186,7 +25186,7 @@
     </row>
     <row r="1702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1702" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1702">
         <v>3</v>
@@ -25197,7 +25197,7 @@
     </row>
     <row r="1703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1703" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1703">
         <v>4</v>
@@ -25208,7 +25208,7 @@
     </row>
     <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1704" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1704">
         <v>6</v>
@@ -25219,7 +25219,7 @@
     </row>
     <row r="1705" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1705" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1705" t="s">
         <v>1188</v>
@@ -25230,7 +25230,7 @@
     </row>
     <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1706" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D1706" t="s">
         <v>1190</v>
@@ -25238,7 +25238,7 @@
     </row>
     <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1707" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1707">
         <v>2</v>
@@ -25249,7 +25249,7 @@
     </row>
     <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1708" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1708">
         <v>3</v>
@@ -25260,7 +25260,7 @@
     </row>
     <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1709" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1709" t="s">
         <v>1135</v>
@@ -25271,7 +25271,7 @@
     </row>
     <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1710" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1710" t="s">
         <v>1136</v>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1711" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1711" t="s">
         <v>1135</v>
@@ -25293,7 +25293,7 @@
     </row>
     <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1712" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1712">
         <v>2</v>
@@ -25304,7 +25304,7 @@
     </row>
     <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1713" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1713">
         <v>3</v>
@@ -25315,7 +25315,7 @@
     </row>
     <row r="1714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1714" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1714" t="s">
         <v>1133</v>
@@ -25326,7 +25326,7 @@
     </row>
     <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1715" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1715">
         <v>2</v>
@@ -25337,7 +25337,7 @@
     </row>
     <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1716" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1716">
         <v>4</v>
@@ -25348,7 +25348,7 @@
     </row>
     <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1717" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1717">
         <v>6</v>
@@ -25359,7 +25359,7 @@
     </row>
     <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1718" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1718" t="s">
         <v>1188</v>
@@ -25370,7 +25370,7 @@
     </row>
     <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1719" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1719">
         <v>4</v>
@@ -25381,7 +25381,7 @@
     </row>
     <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1720" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1720">
         <v>4</v>
@@ -25392,7 +25392,7 @@
     </row>
     <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1721" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1721">
         <v>6</v>
@@ -25403,7 +25403,7 @@
     </row>
     <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1722" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1722" t="s">
         <v>1136</v>
@@ -25414,7 +25414,7 @@
     </row>
     <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1723" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1723">
         <v>4</v>
@@ -25425,7 +25425,7 @@
     </row>
     <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1724" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1724">
         <v>3</v>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="1725" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1725" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1725" t="s">
         <v>1188</v>
@@ -25447,7 +25447,7 @@
     </row>
     <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1726" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1726">
         <v>2</v>
@@ -25458,7 +25458,7 @@
     </row>
     <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1727" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C1727" t="s">
         <v>1159</v>
@@ -25469,7 +25469,7 @@
     </row>
     <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1728" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1728">
         <v>4</v>
@@ -25480,7 +25480,7 @@
     </row>
     <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1729">
         <v>4</v>
@@ -25491,7 +25491,7 @@
     </row>
     <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1730">
         <v>2</v>
@@ -25502,7 +25502,7 @@
     </row>
     <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1731" t="s">
         <v>1188</v>
@@ -25513,7 +25513,7 @@
     </row>
     <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1732">
         <v>4</v>
@@ -25524,7 +25524,7 @@
     </row>
     <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1733" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1733">
         <v>3</v>
@@ -25535,7 +25535,7 @@
     </row>
     <row r="1734" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1734" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1734" t="s">
         <v>1188</v>
@@ -25546,7 +25546,7 @@
     </row>
     <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1735">
         <v>4</v>
@@ -25560,7 +25560,7 @@
     </row>
     <row r="1736" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1736" t="s">
         <v>1188</v>
@@ -25571,7 +25571,7 @@
     </row>
     <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1737" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1737">
         <v>4</v>
@@ -25582,7 +25582,7 @@
     </row>
     <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1738" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1738">
         <v>4</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1739" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1739">
         <v>4</v>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1740" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1740">
         <v>6</v>
@@ -25615,7 +25615,7 @@
     </row>
     <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1741" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1741">
         <v>2</v>
@@ -25626,7 +25626,7 @@
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1742">
         <v>4</v>
@@ -25637,7 +25637,7 @@
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1743">
         <v>3</v>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1744" t="s">
         <v>1188</v>
@@ -25659,7 +25659,7 @@
     </row>
     <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1745">
         <v>2</v>
@@ -25670,7 +25670,7 @@
     </row>
     <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1746">
         <v>3</v>
@@ -25681,7 +25681,7 @@
     </row>
     <row r="1747" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1747" t="s">
         <v>1122</v>
@@ -25692,7 +25692,7 @@
     </row>
     <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1748">
         <v>2</v>
@@ -25703,7 +25703,7 @@
     </row>
     <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1749">
         <v>3</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="1750" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1750" t="s">
         <v>1133</v>
@@ -25725,7 +25725,7 @@
     </row>
     <row r="1751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1751" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1751" t="s">
         <v>1136</v>
@@ -25736,7 +25736,7 @@
     </row>
     <row r="1752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1752" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1752">
         <v>2</v>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="1753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1753">
         <v>4</v>
@@ -25758,7 +25758,7 @@
     </row>
     <row r="1754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1754" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1754">
         <v>4</v>
@@ -25769,7 +25769,7 @@
     </row>
     <row r="1755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1755" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1755">
         <v>3</v>
@@ -25780,7 +25780,7 @@
     </row>
     <row r="1756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1756" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1756">
         <v>6</v>
@@ -25791,7 +25791,7 @@
     </row>
     <row r="1757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1757" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1757" t="s">
         <v>1188</v>
@@ -25802,7 +25802,7 @@
     </row>
     <row r="1758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1758" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1758">
         <v>4</v>
@@ -25813,7 +25813,7 @@
     </row>
     <row r="1759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1759" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1759">
         <v>4</v>
@@ -25824,7 +25824,7 @@
     </row>
     <row r="1760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1760" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1760">
         <v>3</v>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1761" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1761" t="s">
         <v>1188</v>
@@ -25846,7 +25846,7 @@
     </row>
     <row r="1762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1762" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1762" t="s">
         <v>1136</v>
@@ -25857,7 +25857,7 @@
     </row>
     <row r="1763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1763" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1763">
         <v>4</v>
@@ -25868,7 +25868,7 @@
     </row>
     <row r="1764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1764" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1764">
         <v>4</v>
@@ -25879,7 +25879,7 @@
     </row>
     <row r="1765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1765" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1765">
         <v>6</v>
@@ -25890,7 +25890,7 @@
     </row>
     <row r="1766" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1766" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1766" t="s">
         <v>1188</v>
@@ -25901,7 +25901,7 @@
     </row>
     <row r="1767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1767" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1767" t="s">
         <v>1136</v>
@@ -25912,7 +25912,7 @@
     </row>
     <row r="1768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1768" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1768">
         <v>5</v>
@@ -25923,7 +25923,7 @@
     </row>
     <row r="1769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1769" t="s">
         <v>1215</v>
@@ -25931,7 +25931,7 @@
     </row>
     <row r="1770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1770">
         <v>4</v>
@@ -25942,7 +25942,7 @@
     </row>
     <row r="1771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1771" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1771">
         <v>6</v>
@@ -25953,7 +25953,7 @@
     </row>
     <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1772" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1772" t="s">
         <v>1214</v>
@@ -25964,7 +25964,7 @@
     </row>
     <row r="1773" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1773" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1773" s="3" t="s">
         <v>1217</v>
@@ -25972,7 +25972,7 @@
     </row>
     <row r="1774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1774" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1774">
         <v>4</v>
@@ -25983,7 +25983,7 @@
     </row>
     <row r="1775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1775" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1775">
         <v>6</v>
@@ -25994,7 +25994,7 @@
     </row>
     <row r="1776" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1776" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1776" t="s">
         <v>1214</v>
@@ -26005,7 +26005,7 @@
     </row>
     <row r="1777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1777" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1777" t="s">
         <v>1219</v>
@@ -26013,7 +26013,7 @@
     </row>
     <row r="1778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1778" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1778">
         <v>4</v>
@@ -26024,7 +26024,7 @@
     </row>
     <row r="1779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1779" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1779">
         <v>6</v>
@@ -26035,7 +26035,7 @@
     </row>
     <row r="1780" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1780" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1780" t="s">
         <v>1188</v>
@@ -26046,7 +26046,7 @@
     </row>
     <row r="1781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1781" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1781" t="s">
         <v>1136</v>
@@ -26057,7 +26057,7 @@
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1782" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1782" t="s">
         <v>1214</v>
@@ -26068,7 +26068,7 @@
     </row>
     <row r="1783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1783" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1783" t="s">
         <v>1188</v>
@@ -26079,7 +26079,7 @@
     </row>
     <row r="1784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1784" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1784" t="s">
         <v>1214</v>
@@ -26090,7 +26090,7 @@
     </row>
     <row r="1785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1785" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1785">
         <v>4</v>
@@ -26101,7 +26101,7 @@
     </row>
     <row r="1786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1786" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1786">
         <v>6</v>
@@ -26112,7 +26112,7 @@
     </row>
     <row r="1787" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1787" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1787" t="s">
         <v>1188</v>
@@ -26123,7 +26123,7 @@
     </row>
     <row r="1788" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1788" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1788" t="s">
         <v>1188</v>
@@ -26134,7 +26134,7 @@
     </row>
     <row r="1789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1789" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1789" t="s">
         <v>1214</v>
@@ -26145,7 +26145,7 @@
     </row>
     <row r="1790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1790" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1790">
         <v>2</v>
@@ -26156,7 +26156,7 @@
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1791" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1791">
         <v>3</v>
@@ -26167,7 +26167,7 @@
     </row>
     <row r="1792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1792" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1792" t="s">
         <v>1135</v>
@@ -26178,7 +26178,7 @@
     </row>
     <row r="1793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1793" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1793">
         <v>2</v>
@@ -26189,7 +26189,7 @@
     </row>
     <row r="1794" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1794" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1794" t="s">
         <v>1122</v>
@@ -26200,7 +26200,7 @@
     </row>
     <row r="1795" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1795" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1795" t="s">
         <v>1122</v>
@@ -26211,7 +26211,7 @@
     </row>
     <row r="1796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1796" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1796">
         <v>2</v>
@@ -26222,7 +26222,7 @@
     </row>
     <row r="1797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1797" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1797">
         <v>3</v>
@@ -26233,7 +26233,7 @@
     </row>
     <row r="1798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1798" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1798" t="s">
         <v>1135</v>
@@ -26244,7 +26244,7 @@
     </row>
     <row r="1799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1799" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1799">
         <v>2</v>
@@ -26255,7 +26255,7 @@
     </row>
     <row r="1800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1800" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1800">
         <v>3</v>
@@ -26266,7 +26266,7 @@
     </row>
     <row r="1801" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1801" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1801" t="s">
         <v>1188</v>
@@ -26277,7 +26277,7 @@
     </row>
     <row r="1802" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1802" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1802" t="s">
         <v>1214</v>
@@ -26288,7 +26288,7 @@
     </row>
     <row r="1803" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1803" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1803" t="s">
         <v>1214</v>
@@ -26299,7 +26299,7 @@
     </row>
     <row r="1804" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1804" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1804" t="s">
         <v>1214</v>
@@ -26310,7 +26310,7 @@
     </row>
     <row r="1805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1805" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1805">
         <v>4</v>
@@ -26321,7 +26321,7 @@
     </row>
     <row r="1806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1806" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1806">
         <v>3</v>
@@ -26332,7 +26332,7 @@
     </row>
     <row r="1807" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1807" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1807" t="s">
         <v>1188</v>
@@ -26343,7 +26343,7 @@
     </row>
     <row r="1808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1808" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1808" t="s">
         <v>1237</v>
@@ -26351,26 +26351,26 @@
     </row>
     <row r="1809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1809" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1809" t="s">
         <v>1214</v>
       </c>
       <c r="D1809" t="s">
-        <v>1238</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1810" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1810" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1811" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1811">
         <v>3</v>
@@ -26381,7 +26381,7 @@
     </row>
     <row r="1812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1812" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1812">
         <v>4</v>
@@ -26392,18 +26392,18 @@
     </row>
     <row r="1813" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1813" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1813" t="s">
         <v>1188</v>
       </c>
       <c r="D1813" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1814" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1814">
         <v>4</v>
@@ -26414,23 +26414,23 @@
     </row>
     <row r="1815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1815" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1815" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1816" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1816" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1816" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1817" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1817">
         <v>2</v>
@@ -26441,7 +26441,7 @@
     </row>
     <row r="1818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1818" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1818">
         <v>4</v>
@@ -26452,18 +26452,18 @@
     </row>
     <row r="1819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1819" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1819" t="s">
         <v>1122</v>
       </c>
       <c r="D1819" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1820" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1820">
         <v>4</v>
@@ -26474,7 +26474,7 @@
     </row>
     <row r="1821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1821" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1821">
         <v>4</v>
@@ -26485,7 +26485,7 @@
     </row>
     <row r="1822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1822" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1822">
         <v>6</v>
@@ -26496,18 +26496,18 @@
     </row>
     <row r="1823" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1823" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1823" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1823" s="3" t="s">
         <v>1244</v>
-      </c>
-      <c r="D1823" s="3" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="1824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1824" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1824">
         <v>4</v>
@@ -26518,7 +26518,7 @@
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1825" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1825">
         <v>6</v>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="1826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1826">
         <v>3</v>
@@ -26540,29 +26540,29 @@
     </row>
     <row r="1827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1827" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1827" t="s">
         <v>1122</v>
       </c>
       <c r="D1827" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1828" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1828" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D1828" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1829" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1829">
         <v>3</v>
@@ -26573,18 +26573,18 @@
     </row>
     <row r="1830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1830" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1830" t="s">
         <v>1122</v>
       </c>
       <c r="D1830" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1831" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1831">
         <v>4</v>
@@ -26595,23 +26595,23 @@
     </row>
     <row r="1832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1832" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D1832" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1833" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1833" t="s">
         <v>1264</v>
-      </c>
-      <c r="D1833" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="1834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1834" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1834">
         <v>4</v>
@@ -26622,7 +26622,7 @@
     </row>
     <row r="1835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1835" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1835">
         <v>4</v>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1285">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5455,11 +5455,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더욱 끈끈해진 부모와 자식간의 연을 바탕으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>광석아 죗값 치르고 나오면 집에 돌아오는 거다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱 단단해진 부모와 자식간의 연을 바탕으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 지금 신안에 와 있다.
+왜냐? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭣 들 하는 거야?
+이런 값진 경험 아무데서나 할 수 있는 게 아니라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 이 곳에 염전노예로 팔려 온 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님! 이건 좀 아닌 것 같습니다만?
+힘들어 죽겠습니다만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어허! 젊은 청춘이 이정도로 힘들다 하면 쓰나?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 나는 간다.
+내 몫까지 열심히 하고 있어라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭣이?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님! 아리가 농땡이 치고 있습니다만!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5666,8 +5742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1836" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1836"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1857" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F1857"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -5955,15 +6031,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1835"/>
+  <dimension ref="A1:J1857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1796" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1811" sqref="D1811"/>
+    <sheetView tabSelected="1" topLeftCell="A1838" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1852" sqref="B1852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="52.375" customWidth="1"/>
@@ -26357,7 +26433,7 @@
         <v>1214</v>
       </c>
       <c r="D1809" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1810" spans="1:4" x14ac:dyDescent="0.3">
@@ -26598,7 +26674,7 @@
         <v>1263</v>
       </c>
       <c r="D1832" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1833" spans="1:4" x14ac:dyDescent="0.3">
@@ -26629,6 +26705,206 @@
       </c>
       <c r="D1835" t="s">
         <v>1175</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1836" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1836">
+        <v>5</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1837" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1837">
+        <v>4</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1838" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1838" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1839" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1840" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1840">
+        <v>2</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1841" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1841">
+        <v>4</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1842" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1842" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1843" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1843" s="3" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1844" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1845" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1845">
+        <v>2</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1846" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1846">
+        <v>3</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1847" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1847" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1848" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1849" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1849">
+        <v>4</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1850" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1850">
+        <v>4</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1851" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1852" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1853" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1854" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1855" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1856" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1857" t="s">
+        <v>1267</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1419">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5464,10 +5464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어둠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5591,6 +5587,533 @@
   </si>
   <si>
     <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 이장님…
+혹시 무슨 일인지 아시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할아버지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어머 그런가요?
+힘드시겠네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 뭐…
+그건 마을 일이니께 신경 쓰지 마시드라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님은 그냥 편히 놀면서 지내랑께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 학생들도 상태가 영 별로인갑다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗 그런가보군…
+이 몸의 손이 닿지 않는 곳은 다 이런 법인 것인가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지자식 도 맛탱이 갔노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남호석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비켜비켜비켜!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히이익!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 학생 한 명이 맹렬한 기세로 이 쪽을 향해 달려왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 학생은 곧장 이장에게 달려들어 덮쳤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히익!!! 이봐요!! 살려줘요!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야… 이러다 무슨 일 나겠다.
+니가 좀 말리봐라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔 수 없구만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 그 학생을 이장에게서 떼어냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 뭐다냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님을 어디에 숨겼어?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어르신에게 무슨 짓이냐?!
+버릇없는 놈!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 @이름 가 언제 저렇게 기특해져서는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골로 가고 싶으냐?
+그럼 그렇게 해 줄테니께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해보시지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후회 하지 마랑께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크으… 이게..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 할 테냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 시작도 안 했당께!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기! 너!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칫!
+너 다음에 보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 말을 남기고 그 녀석은 부리나케 도망쳤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 이장님 저 학생과 아는 사이인가요?
+왜 이장님에게 달려들어서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천일고의 짱 남호석이라고.
+학생들 사이에서는 거시기 싸우전드 원 솔트라고 불린데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나에게 왜 달려들었는지는 잘 모르겠지만…
+저 학생이 누군지는 잘 알지요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시기 싸우전드 원 솔트…
+나보다 심한 별명은 처음이군..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시기는 빼고 그냥 싸우전드 원 솔트랑께!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에휴 쯧…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우전드 원 솔트 남호석.
+무슨 이유로 이장님을 공격한 걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니 녀석은 분명
+&lt;color=#F15F5F&gt;'선생님을 어디에 숨겼어'&lt;/color&gt; 라고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌면 이 곳의 어둠은 생각보다 깊게 뻗어있는지도 모르겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 너무 신경 쓰지 마시여.
+요즘 이짝 고등학생들이 말썽이 심하데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하아… 힘들다…
+내가 왜 이런 일을 해야하는 건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리 넌 공부 못하니까 이런 일을 하게 될 지도 모른다구?
+큭큭큭…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 도란나?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생은 참한게 여기서 일 하면 참- 좋을텐데 말이여~
+낄낄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이장은 그렇게 말하고는 음흉한 미소를 날려보였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 할배 뭔가 음흉한게 좀 싸하노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후우… 얘들아 잠시 쉬었다가 하자.
+선생님은 잠시 마을에 가서 간식 사올게~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅성웅성…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 와이래 안 오시노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌써 대구로 돌아가야할 시간을 아득히 넘어 해가 뉘엿뉘엿 저물고 있었지만.
+마을로 갔던 선생님이 돌아오지 않고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 때 이장님이 의미심장한 미소를 띄며 말했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허허… 아무래도 길을 잃어버렸나 보네.
+아무래도 여기가 촌이다 길이 잘 안 되 있긴 하지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가 함 찾아 볼랑께 학생들은 여서 쉬고 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에는 오덜 말고~
+밤만 되면 불량한 애들이 많이 나타나니께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 아무래도 뭔가 잘 못 돌아가고 있는 거 같다.
+우리도 한 번 가보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치만 이장님이 가지 말랬는 걸?
+이 몸은 약속은 지키는 몸이라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이..!
+됐다! 나 혼자라도 갈 거다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참~ 아리는 오바가 심하다니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시후 저 멀리서 학생 여러명이 걸어왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 놈이다!
+이 놈이 우리를 방해한 다던 그 돼지다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 뭣?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읏..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 우릴 공격하는 거야?!
+어른의 앞잡이라는 건 또 무슨 뜻이고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 우릴 방해하니까 그런 거 아니여?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸이 뭘?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니 너네 선생은 어디갔냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 여선생이여?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에 잠시 내려갔다 길을 일은 것 같은데?
+조금 한심한 선생님이랄까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰일이랑께!!!
+빨리 구해야 한당께!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읏..!
+겁나 쎄구마..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 지나가던 학생 무리가 이 쪽을 향해왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟈들 뭐여?!
+왜 맞고 있는겨?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더러운 어른의 추종자 자식!
+죽어랏!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 놈 잡어!
+저 놈이 호석이가 말했던 그 놈이여!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 돼지가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕보지 말어!
+겁나 쎄부니께!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오케이!
+덥쳐!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5797,8 +6320,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F1884" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F1884"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2087" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2087"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -6086,15 +6609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1884"/>
+  <dimension ref="A1:J2087"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1859" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1878" sqref="G1878"/>
+    <sheetView tabSelected="1" topLeftCell="A2033" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2045" sqref="A2045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="4.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="52.375" customWidth="1"/>
@@ -9478,7 +10001,7 @@
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -26078,7 +26601,7 @@
         <v>2</v>
       </c>
       <c r="D1771" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
@@ -26089,7 +26612,7 @@
         <v>3</v>
       </c>
       <c r="D1772" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1773" spans="1:4" x14ac:dyDescent="0.3">
@@ -26182,7 +26705,7 @@
         <v>2</v>
       </c>
       <c r="D1781" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.3">
@@ -26193,7 +26716,7 @@
         <v>3</v>
       </c>
       <c r="D1782" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1783" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26226,7 +26749,7 @@
         <v>2</v>
       </c>
       <c r="D1785" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1786" spans="1:4" x14ac:dyDescent="0.3">
@@ -26248,7 +26771,7 @@
         <v>2</v>
       </c>
       <c r="D1787" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1788" spans="1:4" x14ac:dyDescent="0.3">
@@ -26270,7 +26793,7 @@
         <v>2</v>
       </c>
       <c r="D1789" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1790" spans="1:4" x14ac:dyDescent="0.3">
@@ -26281,7 +26804,7 @@
         <v>3</v>
       </c>
       <c r="D1790" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1791" spans="1:4" x14ac:dyDescent="0.3">
@@ -26325,7 +26848,7 @@
         <v>2</v>
       </c>
       <c r="D1794" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1795" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26355,7 +26878,7 @@
         <v>2</v>
       </c>
       <c r="D1797" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1798" spans="1:4" x14ac:dyDescent="0.3">
@@ -26388,7 +26911,7 @@
         <v>3</v>
       </c>
       <c r="D1800" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1801" spans="1:4" x14ac:dyDescent="0.3">
@@ -26509,7 +27032,7 @@
         <v>2</v>
       </c>
       <c r="D1811" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1812" spans="1:4" x14ac:dyDescent="0.3">
@@ -26520,7 +27043,7 @@
         <v>3</v>
       </c>
       <c r="D1812" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1813" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26586,7 +27109,7 @@
         <v>2</v>
       </c>
       <c r="D1818" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1819" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26616,7 +27139,7 @@
         <v>2</v>
       </c>
       <c r="D1821" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1822" spans="1:4" x14ac:dyDescent="0.3">
@@ -26646,7 +27169,7 @@
         <v>2</v>
       </c>
       <c r="D1824" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1825" spans="1:4" x14ac:dyDescent="0.3">
@@ -26920,7 +27443,7 @@
         <v>5</v>
       </c>
       <c r="D1850" t="s">
-        <v>1266</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1851" spans="1:4" x14ac:dyDescent="0.3">
@@ -26931,7 +27454,7 @@
         <v>4</v>
       </c>
       <c r="D1851" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1852" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26939,7 +27462,7 @@
         <v>1265</v>
       </c>
       <c r="D1852" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1853" spans="1:4" x14ac:dyDescent="0.3">
@@ -26947,7 +27470,7 @@
         <v>1265</v>
       </c>
       <c r="D1853" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1854" spans="1:4" x14ac:dyDescent="0.3">
@@ -26958,7 +27481,7 @@
         <v>2</v>
       </c>
       <c r="D1854" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1855" spans="1:4" x14ac:dyDescent="0.3">
@@ -26969,7 +27492,7 @@
         <v>4</v>
       </c>
       <c r="D1855" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1856" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26977,10 +27500,10 @@
         <v>1265</v>
       </c>
       <c r="C1856" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1856" s="3" t="s">
         <v>1270</v>
-      </c>
-      <c r="D1856" s="3" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="1857" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -26988,10 +27511,10 @@
         <v>1265</v>
       </c>
       <c r="C1857" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1857" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="D1857" s="3" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="1858" spans="1:4" x14ac:dyDescent="0.3">
@@ -26999,10 +27522,10 @@
         <v>1265</v>
       </c>
       <c r="C1858" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D1858" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1859" spans="1:4" x14ac:dyDescent="0.3">
@@ -27013,7 +27536,7 @@
         <v>2</v>
       </c>
       <c r="D1859" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1860" spans="1:4" x14ac:dyDescent="0.3">
@@ -27024,7 +27547,7 @@
         <v>3</v>
       </c>
       <c r="D1860" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1861" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -27032,10 +27555,10 @@
         <v>1265</v>
       </c>
       <c r="C1861" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D1861" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1862" spans="1:4" x14ac:dyDescent="0.3">
@@ -27043,10 +27566,10 @@
         <v>1265</v>
       </c>
       <c r="C1862" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D1862" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1863" spans="1:4" x14ac:dyDescent="0.3">
@@ -27057,7 +27580,7 @@
         <v>4</v>
       </c>
       <c r="D1863" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1864" spans="1:4" x14ac:dyDescent="0.3">
@@ -27068,7 +27591,7 @@
         <v>4</v>
       </c>
       <c r="D1864" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1865" spans="1:4" x14ac:dyDescent="0.3">
@@ -27076,10 +27599,10 @@
         <v>1265</v>
       </c>
       <c r="C1865" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D1865" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1866" spans="1:4" x14ac:dyDescent="0.3">
@@ -27090,7 +27613,7 @@
         <v>2</v>
       </c>
       <c r="D1866" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1867" spans="1:4" x14ac:dyDescent="0.3">
@@ -27120,10 +27643,10 @@
         <v>1265</v>
       </c>
       <c r="C1869" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D1869" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1870" spans="1:4" x14ac:dyDescent="0.3">
@@ -27156,7 +27679,7 @@
         <v>692</v>
       </c>
       <c r="D1872" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1873" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -27167,7 +27690,7 @@
         <v>8</v>
       </c>
       <c r="D1873" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1874" spans="1:4" x14ac:dyDescent="0.3">
@@ -27178,7 +27701,7 @@
         <v>692</v>
       </c>
       <c r="D1874" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1875" spans="1:4" x14ac:dyDescent="0.3">
@@ -27189,7 +27712,7 @@
         <v>2</v>
       </c>
       <c r="D1875" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1876" spans="1:4" x14ac:dyDescent="0.3">
@@ -27200,7 +27723,7 @@
         <v>4</v>
       </c>
       <c r="D1876" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1877" spans="1:4" x14ac:dyDescent="0.3">
@@ -27211,45 +27734,2242 @@
         <v>6</v>
       </c>
       <c r="D1877" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1878" t="s">
         <v>1265</v>
       </c>
+      <c r="B1878">
+        <v>3</v>
+      </c>
       <c r="D1878" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1879" t="s">
         <v>1265</v>
       </c>
+      <c r="B1879">
+        <v>6</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="1880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1880" t="s">
         <v>1265</v>
       </c>
+      <c r="C1880" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="1881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1881" t="s">
         <v>1265</v>
       </c>
+      <c r="B1881">
+        <v>2</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="1882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1882" t="s">
         <v>1265</v>
       </c>
+      <c r="B1882">
+        <v>3</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="1883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1883" t="s">
         <v>1265</v>
       </c>
+      <c r="B1883">
+        <v>6</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="1884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1884" t="s">
         <v>1265</v>
+      </c>
+      <c r="B1884">
+        <v>4</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1885" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1885" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1886" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1886">
+        <v>2</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1887" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1887" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1888" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1888">
+        <v>2</v>
+      </c>
+      <c r="D1888" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1889">
+        <v>5</v>
+      </c>
+      <c r="D1889" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1890" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1890" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1891" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1891">
+        <v>2</v>
+      </c>
+      <c r="D1891" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1892" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1892">
+        <v>3</v>
+      </c>
+      <c r="D1892" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1893" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1893" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1894" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1895" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1895">
+        <v>2</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1896" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1897" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1897">
+        <v>2</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1898" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1899" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1899" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1900" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1901" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1902" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1902">
+        <v>5</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1903" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1903">
+        <v>2</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1904" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1904">
+        <v>3</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1905" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1905">
+        <v>4</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1906" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1906">
+        <v>4</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1907" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1907">
+        <v>6</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1908" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1909" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1909">
+        <v>2</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1910" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1910">
+        <v>3</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1911" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1911">
+        <v>4</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1912" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1913" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1914" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1914">
+        <v>5</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1915" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1915">
+        <v>2</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1916" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1916">
+        <v>3</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1917" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1917">
+        <v>6</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1918" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1919" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1919">
+        <v>4</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1920" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1920">
+        <v>6</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1921" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1921">
+        <v>3</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1922" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1922">
+        <v>2</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1923" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1924" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1924">
+        <v>2</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1925" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1925" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1926" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1927" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1928" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1928">
+        <v>2</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1929" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1929">
+        <v>3</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1930" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1931" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1931">
+        <v>4</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1932" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1932">
+        <v>6</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1933" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1933" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1934" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1934">
+        <v>2</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1935" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1935">
+        <v>3</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1936" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1937" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1937">
+        <v>2</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1938" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1938" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1939" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1940" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1941" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1941">
+        <v>4</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1942" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1942">
+        <v>4</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1943" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1944" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1945" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1945">
+        <v>4</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1946" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1946">
+        <v>6</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1947" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1948" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1948">
+        <v>2</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1949" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1949">
+        <v>4</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1950" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1950">
+        <v>3</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1951" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1952" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1952">
+        <v>2</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1953" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1953">
+        <v>3</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1954" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1954" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1955" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1956" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1956">
+        <v>2</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1957" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1957" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1958" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1958">
+        <v>2</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1959" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1959" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1960" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1960">
+        <v>4</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1961" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1961">
+        <v>6</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1962" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1962">
+        <v>5</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1963" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1963" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1964" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1964">
+        <v>5</v>
+      </c>
+      <c r="D1964" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1965" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1965" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1966" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1967" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1967">
+        <v>2</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1968" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1969" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1969">
+        <v>4</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1970" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1970" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1971" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1971" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1972" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1973" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1973">
+        <v>4</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1974" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1974">
+        <v>4</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1975" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1975">
+        <v>5</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1976" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1976">
+        <v>2</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1977" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1977">
+        <v>4</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1978" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1978" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1979" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1979">
+        <v>2</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1980" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1980">
+        <v>3</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1981" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1981" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1982" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1982" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1983" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1983">
+        <v>4</v>
+      </c>
+      <c r="D1983" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1984" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1984">
+        <v>6</v>
+      </c>
+      <c r="D1984" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1985" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1986" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1986">
+        <v>4</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1987" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1987">
+        <v>4</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1988" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1988">
+        <v>6</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1989" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1990" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1990">
+        <v>2</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1991" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1991" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1992" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1992" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1993" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1993">
+        <v>2</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1994" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1994">
+        <v>3</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1995" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1996" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1997" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1998" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1998">
+        <v>4</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1999" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1999">
+        <v>4</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2000" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2000">
+        <v>5</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2001" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2001">
+        <v>4</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2002" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2003" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2003">
+        <v>2</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2004" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2005" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2006" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D2006" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2007" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2008" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2008">
+        <v>2</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2009" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2009">
+        <v>3</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2010" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D2010" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2011" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2012" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D2012" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2013" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2014" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2014">
+        <v>2</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2015" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2015">
+        <v>3</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2016" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2016" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2017" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2017" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2018" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2018">
+        <v>3</v>
+      </c>
+      <c r="D2018" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2019" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2019">
+        <v>4</v>
+      </c>
+      <c r="D2019" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2020" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2020">
+        <v>6</v>
+      </c>
+      <c r="D2020" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2021" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2021" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2022" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2022">
+        <v>6</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2023" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2023">
+        <v>4</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2024" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2025" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2026" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2026">
+        <v>2</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2027" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2028" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2028">
+        <v>4</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2029" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2029">
+        <v>3</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2030" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2030">
+        <v>6</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2031" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2031" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2032" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2032">
+        <v>4</v>
+      </c>
+      <c r="D2032" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2033" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2034" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2034" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2035" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2035">
+        <v>4</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2036" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B2036">
+        <v>4</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2037" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2037" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2038" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2039" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2039">
+        <v>2</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2040" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2040" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2041" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2041">
+        <v>2</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2042" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2042" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2043" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2043">
+        <v>4</v>
+      </c>
+      <c r="D2043" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2044" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2044">
+        <v>4</v>
+      </c>
+      <c r="D2044" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2045" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2045">
+        <v>4</v>
+      </c>
+      <c r="D2045" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2046" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2046">
+        <v>2</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2047" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2047">
+        <v>3</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2048" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2048">
+        <v>4</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2049" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2049" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2050" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2050">
+        <v>2</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2051" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2051">
+        <v>4</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2052" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2052">
+        <v>6</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2053" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2053" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2054" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2054">
+        <v>2</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2055" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2055">
+        <v>3</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2056" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2056" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2057" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2057">
+        <v>4</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2058" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2058">
+        <v>4</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2059" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2059">
+        <v>3</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2060" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2061" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2061" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2062" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2062">
+        <v>4</v>
+      </c>
+      <c r="D2062" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2063" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2063">
+        <v>6</v>
+      </c>
+      <c r="D2063" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2064" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2065" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2066" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2067" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2067" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2068" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2068">
+        <v>3</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2069" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2069">
+        <v>4</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2070" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2071" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2072" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2073" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2073">
+        <v>4</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2074" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2074">
+        <v>6</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2075" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2075">
+        <v>3</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2076" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2076">
+        <v>4</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2077" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2077" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2078" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2078">
+        <v>4</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2079" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2079">
+        <v>4</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2080" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B2080">
+        <v>4</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2081" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2082" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2083" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2084" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2085" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2086" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2087" t="s">
+        <v>1408</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="1530">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6114,6 +6114,492 @@
   <si>
     <t>오케이!
 덥쳐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰일이랑께!!!
+빨리 구해야 한당께!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 또 갑자기 오바지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오바하는 게 아니야!
+여기서 여자 혼자 다니면 쥐도새도 모르게 사라지는 건 일도 아니랑께!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 선생도 그런 식으로 사라졌으야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 무슨…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니 남호석이 이장님에게 그랬지…
+선생님 어디에 숨겼냐고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동네 어른들은 다 한패야…
+경찰도 선생도 아무도 믿을 수 없당께..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 그러고 보니 아리도!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리가 누구여?
+설마 여학생이여?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러고 있을 때가 아니다 빨리 쫓아가라!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 녀석이 했던 말을 다 믿을 수는 없었지만 일단 아리가 갔던 곳으로 가보기로 했다.
+확실히 해도 저물고 있고 여자 혼자서는 위험할 수도 있다는 생각이 들었기 때문이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야… 아닐 거야…
+계속 되뇌면서 아리와 선생님을 찾아 다녔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 찾아 해맨지 1시간이 되고 나서야 뭔가가 잘 못 되었다는 것을 알아챌 수 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후욱… 후욱…
+도대체 어디 있는 거냣?!
+정말 실종 되어버린 거냐고옷?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때 멀리서 소란스러운 소리가 들려왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저긴가?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 곳에는 아리가 불량한 학생들에게 끌려가고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이!! 아리에게서 손 떼라구!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 이 것들 좀 어떻게 해봐라.
+막무가내다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐지 저 돼지는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗 호석이가 말했던 그 녀석 아니냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 거 같네!
+공격해라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건4-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큭! 듣던 대로 쎄구마..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네들! 아리를 끌고가서 어쩌려고 한 거냣!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우짜긴 뭘 우째?!
+돌려보내려고 한 건지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓말 하지 마!
+이 몸에겐 느껴진다구?
+'거짓의 냄새'가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟤들 구라치는 거 아니다.
+진짜 나보고 돌아가라 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 선생님 찾는다고 안 간 것 뿐이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 역시 별 일 없었네.
+여기 학생들은 왜 이렇게 오바가 심한 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오바하는게 아니여…
+여기서 벌어지고 있는 일을 생각하면 절대 오바하는 게 아니여!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도대체 무슨 일이 벌어졌다는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 등 뒤에서 인기척이 느껴졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소름끼치는 기척…
+강자의 기척이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호, 호석아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남호석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 무슨 일이냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 너냐?
+결국 넌 역시 우리의 적이었구만…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리야 물러서!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진작에 도망쳤다.
+니나 조심해라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠쿡 정말 자기 몸 하나는 잘 지키는 애라니까?
+랄까 이 몸 걱정이나 해 볼까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도 전에 만났을 때와 분위기 부터가 다르니까.
+이 몸도 전력을 다 할 필요가 있겠군..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방해하는 놈은 용서 못한다.
+죽어줘야 쓰겄다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건5-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..!
+너 정체가 뭐여?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임마는 대구의 통합 짱.
+비계파이터 @이름 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구 통합 짱..!
+그런 놈들이 왜 우릴 방해하는 건데!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방해?
+어르신을 공경하지 못 할 망정 공격을 하면 당연히 말려야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어르신을 공경?
+하! 여기 어른들은 다 쓰레기야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네 전부 왜 그래?
+어른들이 뭘 했다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리반 선생님…
+벌써 한 달째 행방불명이여.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 이 마을 어른들이 뭔 짓을 한 것이여.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무나도 확신에 찬 진지한 녀석의 표정을 보고,
+나는 더 이상 호들갑을 떤다며 무시할 수 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울에서 올라오신 선생님이었는데 정말 좋은 선생님이었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳 선생들과는 전혀 달랐지.
+덕분에 방황하던 나도 생각을 고쳐먹었었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 한 달 전에 갑자기 사라져 버린 거여…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실종됐다 해도 다양한 경우가 있을 수 있는 거 아니냐?
+그런데 왜 어른들이 문제라는 거냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중2병이냣?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜히 이러는게 아니여…
+내가 지나가다 봤당께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님이 사라졌던 그 날 밤 난 봤어.
+이장의 집 앞에 선생님의 구두가 떨어져 있었던 것을.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 바로 경찰에 신고했지만…
+경찰은 아무 것도 해주지 않았어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀림없어.
+경찰과 마을의 어른들 모두… 사건을 은폐하려 한다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 확실히 아까 이장 할배 뭔가 싸한 느낌이 들긴 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리 너 까지…
+요즘 세상에 그렇게 대놓고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳 신안에서는 요즘 세상같은 말은 통하지 않으야.
+폐쇄적인 환경 속에서 어른들의 시각은 전혀 변하지 않았당께…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성을 전혀 인간으로서 존중하지 않는다는 말이가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라제!
+그냥 본능이 시키는 대로 움직이는 짐승이랑께…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도대체 그 천사같은 선생님한테 무슨 짓을 한 것이여!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 그렇다면 우리 선생님도…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 모른다…
+그러니까 더 늦기 전에 찾아서 이 곳 신안에서 나가라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 있었네 양아치덜…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 사고치고 다니는 너네 쓰레기들을 더 이상 눈 감아 줄 수 없당께.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외지인은 어서 가거라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 경찰아저씨…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨에게서 선생님 냄새가 납니다만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 물러나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무래도 곱게 보내주긴 글러부렀네?
+아저씨들이랑 얘기 좀 해야쓰겄어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 우리를 애워싸고 있던 경찰들의 눈빛이 달라졌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6320,8 +6806,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2087" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2087"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2273" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2273"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -6609,10 +7095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2087"/>
+  <dimension ref="A1:J2273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2033" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2045" sqref="A2045"/>
+    <sheetView tabSelected="1" topLeftCell="A2039" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1984" sqref="D1984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28582,8 +29068,11 @@
       <c r="A1955" t="s">
         <v>1339</v>
       </c>
-      <c r="D1955" t="s">
-        <v>1346</v>
+      <c r="B1955">
+        <v>4</v>
+      </c>
+      <c r="D1955" s="3" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.3">
@@ -28591,21 +29080,18 @@
         <v>1339</v>
       </c>
       <c r="B1956">
-        <v>2</v>
-      </c>
-      <c r="D1956" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D1956" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1957" t="s">
         <v>1339</v>
       </c>
-      <c r="C1957" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D1957" s="3" t="s">
-        <v>1347</v>
+      <c r="D1957" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="1958" spans="1:4" x14ac:dyDescent="0.3">
@@ -28616,7 +29102,7 @@
         <v>2</v>
       </c>
       <c r="D1958" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1959" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -28624,10 +29110,10 @@
         <v>1339</v>
       </c>
       <c r="C1959" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D1959" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1960" spans="1:4" x14ac:dyDescent="0.3">
@@ -28635,21 +29121,21 @@
         <v>1339</v>
       </c>
       <c r="B1960">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1960" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
         <v>1339</v>
       </c>
-      <c r="B1961">
-        <v>6</v>
-      </c>
-      <c r="D1961" t="s">
-        <v>1330</v>
+      <c r="C1961" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1961" s="3" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="1962" spans="1:4" x14ac:dyDescent="0.3">
@@ -28657,21 +29143,21 @@
         <v>1339</v>
       </c>
       <c r="B1962">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1962" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1963" t="s">
         <v>1339</v>
       </c>
-      <c r="C1963" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D1963" s="3" t="s">
-        <v>1348</v>
+      <c r="B1963">
+        <v>6</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="1964" spans="1:4" x14ac:dyDescent="0.3">
@@ -28681,8 +29167,8 @@
       <c r="B1964">
         <v>5</v>
       </c>
-      <c r="D1964" s="3" t="s">
-        <v>1361</v>
+      <c r="D1964" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="1965" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -28690,32 +29176,32 @@
         <v>1339</v>
       </c>
       <c r="C1965" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="D1965" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1966" t="s">
         <v>1339</v>
       </c>
-      <c r="C1966" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D1966" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1966">
+        <v>5</v>
+      </c>
+      <c r="D1966" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1967" t="s">
         <v>1339</v>
       </c>
-      <c r="B1967">
-        <v>2</v>
-      </c>
-      <c r="D1967" t="s">
-        <v>1310</v>
+      <c r="C1967" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D1967" s="3" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="1968" spans="1:4" x14ac:dyDescent="0.3">
@@ -28723,10 +29209,10 @@
         <v>1339</v>
       </c>
       <c r="C1968" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="D1968" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1969" spans="1:4" x14ac:dyDescent="0.3">
@@ -28734,78 +29220,78 @@
         <v>1339</v>
       </c>
       <c r="B1969">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1969" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1970" t="s">
         <v>1339</v>
       </c>
-      <c r="D1970" s="3" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C1970" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1971" t="s">
         <v>1339</v>
       </c>
-      <c r="D1971" s="3" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1971">
+        <v>4</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1972" t="s">
         <v>1339</v>
       </c>
-      <c r="D1972" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1972" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1973" t="s">
         <v>1339</v>
       </c>
-      <c r="B1973">
-        <v>4</v>
-      </c>
-      <c r="D1973" t="s">
-        <v>1353</v>
+      <c r="D1973" s="3" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1974" t="s">
         <v>1339</v>
       </c>
-      <c r="B1974">
-        <v>4</v>
-      </c>
       <c r="D1974" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1975" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="B1975">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1975" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1976" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="B1976">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1976" t="s">
-        <v>1298</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.3">
@@ -28813,21 +29299,21 @@
         <v>1358</v>
       </c>
       <c r="B1977">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1977" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1978" t="s">
         <v>1358</v>
       </c>
-      <c r="C1978" t="s">
+      <c r="B1978">
+        <v>2</v>
+      </c>
+      <c r="D1978" t="s">
         <v>1298</v>
-      </c>
-      <c r="D1978" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.3">
@@ -28835,76 +29321,76 @@
         <v>1358</v>
       </c>
       <c r="B1979">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1979" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1980" t="s">
         <v>1358</v>
       </c>
-      <c r="B1980">
-        <v>3</v>
-      </c>
-      <c r="D1980" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C1980" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1980" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1981" t="s">
         <v>1358</v>
       </c>
-      <c r="C1981" t="s">
+      <c r="B1981">
+        <v>2</v>
+      </c>
+      <c r="D1981" t="s">
         <v>1310</v>
       </c>
-      <c r="D1981" s="3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1982" t="s">
         <v>1358</v>
       </c>
-      <c r="C1982" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D1982" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1982">
+        <v>3</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1983" t="s">
         <v>1358</v>
       </c>
-      <c r="B1983">
-        <v>4</v>
+      <c r="C1983" t="s">
+        <v>1310</v>
       </c>
       <c r="D1983" s="3" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1984" t="s">
         <v>1358</v>
       </c>
-      <c r="B1984">
-        <v>6</v>
+      <c r="C1984" t="s">
+        <v>1312</v>
       </c>
       <c r="D1984" s="3" t="s">
-        <v>1318</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1985" t="s">
         <v>1358</v>
       </c>
-      <c r="C1985" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D1985" t="s">
-        <v>1368</v>
+      <c r="B1985">
+        <v>4</v>
+      </c>
+      <c r="D1985" s="3" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.3">
@@ -28912,21 +29398,21 @@
         <v>1358</v>
       </c>
       <c r="B1986">
-        <v>4</v>
-      </c>
-      <c r="D1986" t="s">
-        <v>1316</v>
+        <v>6</v>
+      </c>
+      <c r="D1986" s="3" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1987" t="s">
         <v>1358</v>
       </c>
-      <c r="B1987">
-        <v>4</v>
+      <c r="C1987" t="s">
+        <v>1310</v>
       </c>
       <c r="D1987" t="s">
-        <v>1317</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.3">
@@ -28934,21 +29420,21 @@
         <v>1358</v>
       </c>
       <c r="B1988">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1988" t="s">
-        <v>1369</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1989" t="s">
         <v>1358</v>
       </c>
-      <c r="C1989" t="s">
-        <v>1312</v>
+      <c r="B1989">
+        <v>4</v>
       </c>
       <c r="D1989" t="s">
-        <v>1370</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.3">
@@ -28956,73 +29442,73 @@
         <v>1358</v>
       </c>
       <c r="B1990">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1990" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1991" t="s">
         <v>1358</v>
       </c>
       <c r="C1991" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D1991" s="3" t="s">
-        <v>1371</v>
+        <v>1312</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1992" t="s">
         <v>1358</v>
       </c>
-      <c r="D1992" s="3" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1992">
+        <v>2</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1993" t="s">
         <v>1358</v>
       </c>
-      <c r="B1993">
-        <v>2</v>
-      </c>
-      <c r="D1993" t="s">
-        <v>1310</v>
+      <c r="C1993" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1993" s="3" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1994" t="s">
         <v>1358</v>
       </c>
-      <c r="B1994">
-        <v>3</v>
-      </c>
-      <c r="D1994" t="s">
-        <v>1372</v>
+      <c r="D1994" s="3" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1995" t="s">
         <v>1358</v>
       </c>
-      <c r="C1995" t="s">
+      <c r="B1995">
+        <v>2</v>
+      </c>
+      <c r="D1995" t="s">
         <v>1310</v>
-      </c>
-      <c r="D1995" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1996" t="s">
         <v>1358</v>
       </c>
-      <c r="C1996" t="s">
-        <v>1312</v>
+      <c r="B1996">
+        <v>3</v>
       </c>
       <c r="D1996" t="s">
-        <v>1303</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.3">
@@ -29033,29 +29519,29 @@
         <v>1310</v>
       </c>
       <c r="D1997" t="s">
-        <v>1374</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1998" t="s">
         <v>1358</v>
       </c>
-      <c r="B1998">
-        <v>4</v>
+      <c r="C1998" t="s">
+        <v>1312</v>
       </c>
       <c r="D1998" t="s">
-        <v>1353</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1999" t="s">
         <v>1358</v>
       </c>
-      <c r="B1999">
-        <v>4</v>
+      <c r="C1999" t="s">
+        <v>1310</v>
       </c>
       <c r="D1999" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.3">
@@ -29063,10 +29549,10 @@
         <v>1358</v>
       </c>
       <c r="B2000">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2000" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.3">
@@ -29077,18 +29563,18 @@
         <v>4</v>
       </c>
       <c r="D2001" t="s">
-        <v>1365</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2002" t="s">
         <v>1358</v>
       </c>
-      <c r="C2002" t="s">
-        <v>1378</v>
+      <c r="B2002">
+        <v>5</v>
       </c>
       <c r="D2002" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.3">
@@ -29096,10 +29582,10 @@
         <v>1358</v>
       </c>
       <c r="B2003">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2003" t="s">
-        <v>1310</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.3">
@@ -29107,81 +29593,81 @@
         <v>1358</v>
       </c>
       <c r="C2004" t="s">
-        <v>1310</v>
+        <v>1378</v>
       </c>
       <c r="D2004" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2005" t="s">
         <v>1358</v>
       </c>
-      <c r="C2005" t="s">
-        <v>1312</v>
+      <c r="B2005">
+        <v>2</v>
       </c>
       <c r="D2005" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2006" t="s">
         <v>1358</v>
       </c>
-      <c r="D2006" s="3" t="s">
-        <v>1381</v>
+      <c r="C2006" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2007" t="s">
         <v>1358</v>
       </c>
+      <c r="C2007" t="s">
+        <v>1312</v>
+      </c>
       <c r="D2007" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2008" t="s">
         <v>1358</v>
       </c>
-      <c r="B2008">
-        <v>2</v>
-      </c>
-      <c r="D2008" t="s">
-        <v>1302</v>
+      <c r="D2008" s="3" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2009" t="s">
         <v>1358</v>
       </c>
-      <c r="B2009">
-        <v>3</v>
-      </c>
       <c r="D2009" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2010" t="s">
         <v>1358</v>
       </c>
-      <c r="C2010" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D2010" s="3" t="s">
-        <v>1383</v>
+      <c r="B2010">
+        <v>2</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2011" t="s">
         <v>1358</v>
       </c>
-      <c r="C2011" t="s">
-        <v>1301</v>
+      <c r="B2011">
+        <v>3</v>
       </c>
       <c r="D2011" t="s">
-        <v>1384</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="2012" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -29192,7 +29678,7 @@
         <v>1301</v>
       </c>
       <c r="D2012" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.3">
@@ -29200,76 +29686,76 @@
         <v>1358</v>
       </c>
       <c r="C2013" t="s">
-        <v>1378</v>
+        <v>1301</v>
       </c>
       <c r="D2013" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2014" t="s">
         <v>1358</v>
       </c>
-      <c r="B2014">
-        <v>2</v>
-      </c>
-      <c r="D2014" t="s">
-        <v>1310</v>
+      <c r="C2014" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D2014" s="3" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2015" t="s">
         <v>1358</v>
       </c>
-      <c r="B2015">
-        <v>3</v>
+      <c r="C2015" t="s">
+        <v>1378</v>
       </c>
       <c r="D2015" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2016" t="s">
         <v>1358</v>
       </c>
-      <c r="C2016" t="s">
+      <c r="B2016">
+        <v>2</v>
+      </c>
+      <c r="D2016" t="s">
         <v>1310</v>
       </c>
-      <c r="D2016" s="3" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2017" t="s">
         <v>1358</v>
       </c>
-      <c r="C2017" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D2017" s="3" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2017">
+        <v>3</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2018" t="s">
         <v>1358</v>
       </c>
-      <c r="B2018">
-        <v>3</v>
+      <c r="C2018" t="s">
+        <v>1310</v>
       </c>
       <c r="D2018" s="3" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2019" t="s">
         <v>1358</v>
       </c>
-      <c r="B2019">
-        <v>4</v>
+      <c r="C2019" t="s">
+        <v>1312</v>
       </c>
       <c r="D2019" s="3" t="s">
-        <v>1316</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.3">
@@ -29277,21 +29763,21 @@
         <v>1358</v>
       </c>
       <c r="B2020">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2020" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2021" t="s">
         <v>1358</v>
       </c>
-      <c r="C2021" t="s">
-        <v>1310</v>
+      <c r="B2021">
+        <v>4</v>
       </c>
       <c r="D2021" s="3" t="s">
-        <v>1389</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.3">
@@ -29301,60 +29787,60 @@
       <c r="B2022">
         <v>6</v>
       </c>
-      <c r="D2022" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2022" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2023" t="s">
         <v>1358</v>
       </c>
-      <c r="B2023">
-        <v>4</v>
-      </c>
-      <c r="D2023" t="s">
-        <v>1376</v>
+      <c r="C2023" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2023" s="3" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2024" t="s">
         <v>1358</v>
       </c>
-      <c r="C2024" t="s">
-        <v>1312</v>
+      <c r="B2024">
+        <v>6</v>
       </c>
       <c r="D2024" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2025" t="s">
         <v>1358</v>
       </c>
+      <c r="B2025">
+        <v>4</v>
+      </c>
       <c r="D2025" t="s">
-        <v>1392</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2026" t="s">
         <v>1358</v>
       </c>
-      <c r="B2026">
-        <v>2</v>
+      <c r="C2026" t="s">
+        <v>1312</v>
       </c>
       <c r="D2026" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2027" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2027" t="s">
         <v>1358</v>
       </c>
-      <c r="C2027" t="s">
-        <v>1394</v>
-      </c>
       <c r="D2027" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2028" spans="1:4" x14ac:dyDescent="0.3">
@@ -29362,21 +29848,21 @@
         <v>1358</v>
       </c>
       <c r="B2028">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2028" t="s">
-        <v>1317</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2029" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2029" t="s">
         <v>1358</v>
       </c>
-      <c r="B2029">
-        <v>3</v>
+      <c r="C2029" t="s">
+        <v>1394</v>
       </c>
       <c r="D2029" t="s">
-        <v>1299</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2030" spans="1:4" x14ac:dyDescent="0.3">
@@ -29384,21 +29870,21 @@
         <v>1358</v>
       </c>
       <c r="B2030">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2030" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2031" t="s">
         <v>1358</v>
       </c>
-      <c r="C2031" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2031" s="3" t="s">
-        <v>1396</v>
+      <c r="B2031">
+        <v>3</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="2032" spans="1:4" x14ac:dyDescent="0.3">
@@ -29406,95 +29892,95 @@
         <v>1358</v>
       </c>
       <c r="B2032">
-        <v>4</v>
-      </c>
-      <c r="D2032" s="3" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2033" t="s">
         <v>1358</v>
       </c>
       <c r="C2033" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D2033" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1394</v>
+      </c>
+      <c r="D2033" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2034" t="s">
         <v>1358</v>
       </c>
-      <c r="C2034" t="s">
-        <v>1394</v>
+      <c r="B2034">
+        <v>4</v>
       </c>
       <c r="D2034" s="3" t="s">
-        <v>1413</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2035" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2035" t="s">
         <v>1358</v>
       </c>
-      <c r="B2035">
-        <v>4</v>
+      <c r="C2035" t="s">
+        <v>1312</v>
       </c>
       <c r="D2035" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2036" t="s">
         <v>1358</v>
       </c>
-      <c r="B2036">
-        <v>4</v>
-      </c>
-      <c r="D2036" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2036" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2036" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2037" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C2037" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2037" s="3" t="s">
-        <v>1409</v>
+        <v>1358</v>
+      </c>
+      <c r="B2037">
+        <v>4</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="2038" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2038" t="s">
-        <v>1398</v>
+        <v>1358</v>
+      </c>
+      <c r="B2038">
+        <v>4</v>
       </c>
       <c r="D2038" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2039" t="s">
         <v>1398</v>
       </c>
-      <c r="B2039">
-        <v>2</v>
-      </c>
-      <c r="D2039" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2039" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2039" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2040" t="s">
         <v>1398</v>
       </c>
-      <c r="C2040" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2040" s="3" t="s">
-        <v>1412</v>
+      <c r="D2040" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="2041" spans="1:4" x14ac:dyDescent="0.3">
@@ -29505,7 +29991,7 @@
         <v>2</v>
       </c>
       <c r="D2041" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2042" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -29516,7 +30002,7 @@
         <v>1394</v>
       </c>
       <c r="D2042" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2043" spans="1:4" x14ac:dyDescent="0.3">
@@ -29524,21 +30010,21 @@
         <v>1398</v>
       </c>
       <c r="B2043">
-        <v>4</v>
-      </c>
-      <c r="D2043" s="3" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2044" t="s">
         <v>1398</v>
       </c>
-      <c r="B2044">
-        <v>4</v>
+      <c r="C2044" t="s">
+        <v>1394</v>
       </c>
       <c r="D2044" s="3" t="s">
-        <v>1365</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2045" spans="1:4" x14ac:dyDescent="0.3">
@@ -29549,29 +30035,29 @@
         <v>4</v>
       </c>
       <c r="D2045" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2046" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2046" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
       <c r="B2046">
-        <v>2</v>
-      </c>
-      <c r="D2046" t="s">
-        <v>1411</v>
+        <v>4</v>
+      </c>
+      <c r="D2046" s="3" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="2047" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2047" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
       <c r="B2047">
-        <v>3</v>
-      </c>
-      <c r="D2047" t="s">
-        <v>1299</v>
+        <v>4</v>
+      </c>
+      <c r="D2047" s="3" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="2048" spans="1:4" x14ac:dyDescent="0.3">
@@ -29579,21 +30065,21 @@
         <v>1416</v>
       </c>
       <c r="B2048">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2048" t="s">
-        <v>1316</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2049" t="s">
         <v>1416</v>
       </c>
-      <c r="C2049" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2049" s="3" t="s">
-        <v>1415</v>
+      <c r="B2049">
+        <v>3</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="2050" spans="1:4" x14ac:dyDescent="0.3">
@@ -29601,21 +30087,21 @@
         <v>1416</v>
       </c>
       <c r="B2050">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2050" t="s">
-        <v>1393</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2051" t="s">
         <v>1416</v>
       </c>
-      <c r="B2051">
-        <v>4</v>
-      </c>
-      <c r="D2051" t="s">
-        <v>1316</v>
+      <c r="C2051" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2051" s="3" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="2052" spans="1:4" x14ac:dyDescent="0.3">
@@ -29623,21 +30109,21 @@
         <v>1416</v>
       </c>
       <c r="B2052">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2052" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2053" t="s">
         <v>1416</v>
       </c>
-      <c r="C2053" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2053" s="3" t="s">
-        <v>1417</v>
+      <c r="B2053">
+        <v>4</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="2054" spans="1:4" x14ac:dyDescent="0.3">
@@ -29645,32 +30131,32 @@
         <v>1416</v>
       </c>
       <c r="B2054">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2054" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="2055" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2055" t="s">
         <v>1416</v>
       </c>
-      <c r="B2055">
-        <v>3</v>
-      </c>
-      <c r="D2055" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="2056" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2055" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2055" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2056" t="s">
         <v>1416</v>
       </c>
-      <c r="C2056" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2056" s="3" t="s">
-        <v>1418</v>
+      <c r="B2056">
+        <v>2</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="2057" spans="1:4" x14ac:dyDescent="0.3">
@@ -29678,98 +30164,98 @@
         <v>1416</v>
       </c>
       <c r="B2057">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2057" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="2058" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2058" t="s">
         <v>1416</v>
       </c>
-      <c r="B2058">
-        <v>4</v>
-      </c>
-      <c r="D2058" t="s">
-        <v>1338</v>
+      <c r="C2058" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2058" s="3" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="2059" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2059" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="B2059">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2059" t="s">
-        <v>1308</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2060" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2060" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C2060" t="s">
-        <v>1394</v>
+        <v>1416</v>
+      </c>
+      <c r="B2060">
+        <v>4</v>
       </c>
       <c r="D2060" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2061" t="s">
         <v>1408</v>
       </c>
-      <c r="C2061" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D2061" s="3" t="s">
-        <v>1400</v>
+      <c r="B2061">
+        <v>3</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="2062" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2062" t="s">
         <v>1408</v>
       </c>
-      <c r="B2062">
-        <v>4</v>
-      </c>
-      <c r="D2062" s="3" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2062" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
         <v>1408</v>
       </c>
-      <c r="B2063">
-        <v>6</v>
+      <c r="C2063" t="s">
+        <v>1312</v>
       </c>
       <c r="D2063" s="3" t="s">
-        <v>1318</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
         <v>1408</v>
       </c>
-      <c r="C2064" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2064" t="s">
-        <v>1401</v>
+      <c r="B2064">
+        <v>4</v>
+      </c>
+      <c r="D2064" s="3" t="s">
+        <v>1316</v>
       </c>
     </row>
     <row r="2065" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
         <v>1408</v>
       </c>
-      <c r="C2065" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D2065" t="s">
-        <v>1402</v>
+      <c r="B2065">
+        <v>6</v>
+      </c>
+      <c r="D2065" s="3" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="2066" spans="1:4" x14ac:dyDescent="0.3">
@@ -29780,62 +30266,62 @@
         <v>1394</v>
       </c>
       <c r="D2066" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
         <v>1408</v>
       </c>
       <c r="C2067" t="s">
         <v>1312</v>
       </c>
-      <c r="D2067" s="3" t="s">
-        <v>1406</v>
+      <c r="D2067" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
         <v>1408</v>
       </c>
-      <c r="B2068">
-        <v>3</v>
+      <c r="C2068" t="s">
+        <v>1394</v>
       </c>
       <c r="D2068" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="2069" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
         <v>1408</v>
       </c>
-      <c r="B2069">
-        <v>4</v>
-      </c>
-      <c r="D2069" t="s">
-        <v>1316</v>
+      <c r="C2069" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D2069" s="3" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="2070" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
         <v>1408</v>
       </c>
-      <c r="C2070" t="s">
-        <v>1394</v>
+      <c r="B2070">
+        <v>3</v>
       </c>
       <c r="D2070" t="s">
-        <v>1395</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="2071" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
         <v>1408</v>
       </c>
-      <c r="C2071" t="s">
-        <v>1394</v>
+      <c r="B2071">
+        <v>4</v>
       </c>
       <c r="D2071" t="s">
-        <v>1404</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="2072" spans="1:4" x14ac:dyDescent="0.3">
@@ -29843,32 +30329,32 @@
         <v>1408</v>
       </c>
       <c r="C2072" t="s">
-        <v>1312</v>
+        <v>1394</v>
       </c>
       <c r="D2072" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2073" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
         <v>1408</v>
       </c>
-      <c r="B2073">
-        <v>4</v>
+      <c r="C2073" t="s">
+        <v>1394</v>
       </c>
       <c r="D2073" t="s">
-        <v>1317</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2074" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
         <v>1408</v>
       </c>
-      <c r="B2074">
-        <v>6</v>
+      <c r="C2074" t="s">
+        <v>1312</v>
       </c>
       <c r="D2074" t="s">
-        <v>1330</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2075" spans="1:4" x14ac:dyDescent="0.3">
@@ -29876,10 +30362,10 @@
         <v>1408</v>
       </c>
       <c r="B2075">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2075" t="s">
-        <v>1299</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="2076" spans="1:4" x14ac:dyDescent="0.3">
@@ -29887,21 +30373,21 @@
         <v>1408</v>
       </c>
       <c r="B2076">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2076" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="2077" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
         <v>1408</v>
       </c>
-      <c r="C2077" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2077" s="3" t="s">
-        <v>1407</v>
+      <c r="B2077">
+        <v>3</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="2078" spans="1:4" x14ac:dyDescent="0.3">
@@ -29912,18 +30398,18 @@
         <v>4</v>
       </c>
       <c r="D2078" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="2079" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
         <v>1408</v>
       </c>
-      <c r="B2079">
-        <v>4</v>
-      </c>
-      <c r="D2079" t="s">
-        <v>1365</v>
+      <c r="C2079" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2079" s="3" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="2080" spans="1:4" x14ac:dyDescent="0.3">
@@ -29934,42 +30420,2085 @@
         <v>4</v>
       </c>
       <c r="D2080" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2081">
+        <v>4</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2082">
+        <v>4</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+      <c r="B2083">
+        <v>5</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+      <c r="B2084">
+        <v>2</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+      <c r="B2085">
+        <v>4</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1419</v>
+      </c>
+      <c r="B2086">
+        <v>3</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
-        <v>1408</v>
+        <v>1419</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2087" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2088" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2089" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2089">
+        <v>4</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2090" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2090">
+        <v>6</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2091" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2091">
+        <v>3</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2092" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2092" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2093" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2094" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2095" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2095" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2096" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2096">
+        <v>3</v>
+      </c>
+      <c r="D2096" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2097" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2097">
+        <v>6</v>
+      </c>
+      <c r="D2097" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2098" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2098" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2099" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2099">
+        <v>4</v>
+      </c>
+      <c r="D2099" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2100" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2101" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2101" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2102" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2103" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2104" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2105" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2105">
+        <v>4</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2106" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2106">
+        <v>4</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2107" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2107" s="3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2108" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2108" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2109" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2110" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2110">
+        <v>4</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2111" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2111" s="3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2112" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2113" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2114" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2114">
+        <v>4</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2115" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2115">
+        <v>4</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2116" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2117" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2117">
+        <v>4</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2118" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2118">
+        <v>4</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2119" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2119">
+        <v>6</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2120" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2121" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2121">
+        <v>2</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2122" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2122">
+        <v>3</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2123" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2123" s="3" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2124" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2124">
+        <v>2</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2125" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2125">
+        <v>3</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2126" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2127" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2127">
+        <v>2</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2128" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2128">
+        <v>4</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2129" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2129">
+        <v>3</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2130" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2130">
+        <v>6</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2131" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2132" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2132">
+        <v>2</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2133" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2133" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2134" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2134">
+        <v>4</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2135" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B2135">
+        <v>4</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2136" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2136">
+        <v>4</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2137" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2137">
+        <v>6</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2138" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2139" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2139">
+        <v>4</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2140" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2140">
+        <v>6</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2141" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2142" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2142">
+        <v>4</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2143" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2143">
+        <v>6</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2144" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2144">
+        <v>3</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2145" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2145" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2146" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2146" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2147" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2147">
+        <v>2</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2148" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2148" s="3" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2149" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2150" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2151" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2151" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2152" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2152">
+        <v>2</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2153" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2153">
+        <v>4</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2154" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2154">
+        <v>3</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2155" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2155" s="3" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2156" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2157" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2158" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2159" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D2159" s="3" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2160" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2160">
+        <v>4</v>
+      </c>
+      <c r="D2160" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2161" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2161">
+        <v>4</v>
+      </c>
+      <c r="D2161" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2162" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B2162">
+        <v>4</v>
+      </c>
+      <c r="D2162" s="3" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2163" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2163">
+        <v>5</v>
+      </c>
+      <c r="D2163" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2164" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2164">
+        <v>2</v>
+      </c>
+      <c r="D2164" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2165" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2165">
+        <v>4</v>
+      </c>
+      <c r="D2165" s="3" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2166" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2166">
+        <v>4</v>
+      </c>
+      <c r="D2166" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2167" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2167">
+        <v>3</v>
+      </c>
+      <c r="D2167" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2168" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2168">
+        <v>6</v>
+      </c>
+      <c r="D2168" s="3" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2169" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2170" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2170">
+        <v>2</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2171" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2171" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2172" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2173" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2173">
+        <v>2</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2174" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2174" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2175" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2175" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2176" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2176" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2177" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2177">
+        <v>2</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2178" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2178" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2179" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2179">
+        <v>4</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2180" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B2180">
+        <v>4</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2181" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2181">
+        <v>3</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2182" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2182">
+        <v>5</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2183" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2183" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2184" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2184">
+        <v>2</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2185" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2185">
+        <v>3</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2186" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2186" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2187" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2187" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2188" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2188" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2189" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2189" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2190" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2190" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2191" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2191" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2192" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2192">
+        <v>4</v>
+      </c>
+      <c r="D2192" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2193" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2193">
+        <v>6</v>
+      </c>
+      <c r="D2193" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2194" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2194">
+        <v>5</v>
+      </c>
+      <c r="D2194" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2195" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2196" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2196">
+        <v>4</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2197" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D2197" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2198" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2198">
+        <v>4</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2199" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2199">
+        <v>4</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2200" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2200">
+        <v>5</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2201" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2201">
+        <v>2</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2202" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2202">
+        <v>4</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2203" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2204" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2204">
+        <v>3</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2205" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2205" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2206" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2207" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2207" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2208" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2208" s="3" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2209" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2209" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2210" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2210">
+        <v>4</v>
+      </c>
+      <c r="D2210" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2211" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2211">
+        <v>6</v>
+      </c>
+      <c r="D2211" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2212" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2212" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2213" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2213" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2214" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2214" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2215" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2215">
+        <v>2</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2216" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2216">
+        <v>3</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2217" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2218" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2218" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2219" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2219">
+        <v>2</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2220" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2220">
+        <v>3</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2221" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2221" s="3" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2222" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2222">
+        <v>2</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2223" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2223">
+        <v>3</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2224" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2225" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2225">
+        <v>4</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2226" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2226">
+        <v>2</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2227" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2227">
+        <v>3</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2228" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2228">
+        <v>6</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2229" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2229" s="3" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2230" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2230">
+        <v>4</v>
+      </c>
+      <c r="D2230" s="3" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2231" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2231">
+        <v>6</v>
+      </c>
+      <c r="D2231" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2232" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2232">
+        <v>3</v>
+      </c>
+      <c r="D2232" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2233" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2234" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2235" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2235">
+        <v>3</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2236" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2236">
+        <v>4</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2237" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2237">
+        <v>6</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2238" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2238" s="3" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2239" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2239">
+        <v>2</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2240" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2241" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2242" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2243" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2244" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2245" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2245">
+        <v>4</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2246" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2246">
+        <v>6</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2247" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2248" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2248">
+        <v>4</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2249" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2249">
+        <v>6</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2250" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2250">
+        <v>3</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2251" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2252" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2252">
+        <v>2</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2253" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2253">
+        <v>4</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2254" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2254">
+        <v>6</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2255" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2255">
+        <v>3</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2256" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D2256" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2257" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2257">
+        <v>2</v>
+      </c>
+      <c r="D2257" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2258" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2258">
+        <v>4</v>
+      </c>
+      <c r="D2258" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2259" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2259">
+        <v>6</v>
+      </c>
+      <c r="D2259" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2260" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2260">
+        <v>3</v>
+      </c>
+      <c r="D2260" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2261" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D2261" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2262" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2262">
+        <v>2</v>
+      </c>
+      <c r="D2262" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2263" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2263">
+        <v>3</v>
+      </c>
+      <c r="D2263" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2264" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D2264" s="3" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2265" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D2265" s="3" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2266" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2266">
+        <v>4</v>
+      </c>
+      <c r="D2266" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2267" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2267">
+        <v>6</v>
+      </c>
+      <c r="D2267" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2268" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D2268" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2269" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2269">
+        <v>4</v>
+      </c>
+      <c r="D2269" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2270" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2270">
+        <v>4</v>
+      </c>
+      <c r="D2270" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2271" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2272" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2273" t="s">
+        <v>1501</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="1530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5046" uniqueCount="1586">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6600,6 +6600,238 @@
   </si>
   <si>
     <t>그 순간 우리를 애워싸고 있던 경찰들의 눈빛이 달라졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건6-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학생이 뭔데 이래 쎈기야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님을 어쨌어욧!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌긴 뭘 어째?!
+여자를 양도한 후에는 내 알바 아니여.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도?! 누구에게?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 할 수 있겄냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살려주세요!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잉??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 목소린…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살려주세욧!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 선생님 아이가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 것 같군…
+랄까? 쫓기고 있는 것 아니냣?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘들아?
+이런 곳에서 뭐하고 있어 도망쳐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이즈아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님의 뒤에는 건장한 청년들이 쫓아오고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마동환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거 마형환, 마동환이 왜 저렇게 많은 거야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육돼지들은 다 저렇게 생긴 법이라 안카나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쨌든 빨리 선생님 구해 드리라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오케이!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신안 교사 실종 사건7-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 없는 거 맞제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후! 정말 힘들었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떽!!
+싸움하면 못 써요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 이 몸이 아니었다면 선생님의 목숨은 이 세상의 것이 아니었다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망치면 되잖니?!
+이 선생님은 다리 만큼은 빠르답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오호?
+그래서 선생님의 다리가 그렇게 굵은 것 입니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 선생님에게 뭐라는 거야?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 무슨 일이 있었던 거에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게… 마을에 들어왔다가 길을 잃었었거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 길은 잃었던 겁니까?!(척!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰에게 길을 물어서 안내를 받았는데 점점 으슥한 곳으로 가더라고.
+그래서 자연스럽게 빠져나오려고 했더니 이제는 억지로 끌고 가는 거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 너무 무서워서 울어버렸어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 거 안 궁금합니다만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음 그렇게 계속 끌려갔더니 누군가에게 날 양도하려 하더라고?
+굉장히 음흉하게 생겼었는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구 닮았었던 것 같기도 하고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혹시 이장 영감 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6806,8 +7038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2273" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2273"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2355" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2355"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7095,10 +7327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2273"/>
+  <dimension ref="A1:J2355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2039" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1984" sqref="D1984"/>
+    <sheetView tabSelected="1" topLeftCell="A2342" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2355" sqref="D2355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32488,17 +32720,934 @@
     </row>
     <row r="2271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2271" t="s">
-        <v>1501</v>
+        <v>1530</v>
+      </c>
+      <c r="B2271">
+        <v>3</v>
+      </c>
+      <c r="D2271" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="2272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2272" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1530</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D2272" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2273" t="s">
-        <v>1501</v>
+        <v>1530</v>
+      </c>
+      <c r="B2273">
+        <v>4</v>
+      </c>
+      <c r="D2273" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2274" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2274">
+        <v>4</v>
+      </c>
+      <c r="D2274" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2275" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2275">
+        <v>6</v>
+      </c>
+      <c r="D2275" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2276" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2276" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2277" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D2277" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2278" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2278">
+        <v>4</v>
+      </c>
+      <c r="D2278" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2279" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2279">
+        <v>6</v>
+      </c>
+      <c r="D2279" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2280" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2280" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2281" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2281">
+        <v>3</v>
+      </c>
+      <c r="D2281" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2282" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D2282" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2283" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2283">
+        <v>4</v>
+      </c>
+      <c r="D2283" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2284" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2284">
+        <v>4</v>
+      </c>
+      <c r="D2284" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2285" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2285">
+        <v>6</v>
+      </c>
+      <c r="D2285" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2286" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D2286" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2287" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2287">
+        <v>3</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2288" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D2288" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2289" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2289">
+        <v>2</v>
+      </c>
+      <c r="D2289" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2290" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2290" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2291" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2291">
+        <v>4</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2292" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2292">
+        <v>4</v>
+      </c>
+      <c r="D2292" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2293" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2293">
+        <v>6</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2294" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2294">
+        <v>2</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2295" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2296" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2296">
+        <v>2</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2297" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2297">
+        <v>3</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2298" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2299" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2299" s="3" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2300" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2300">
+        <v>2</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2301" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2301">
+        <v>3</v>
+      </c>
+      <c r="D2301" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2302" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2302" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2303" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2303">
+        <v>4</v>
+      </c>
+      <c r="D2303" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2304" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2304">
+        <v>4</v>
+      </c>
+      <c r="D2304" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2305" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B2305">
+        <v>4</v>
+      </c>
+      <c r="D2305" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2306" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2306">
+        <v>5</v>
+      </c>
+      <c r="D2306" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2307" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2307">
+        <v>2</v>
+      </c>
+      <c r="D2307" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2308" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2308">
+        <v>4</v>
+      </c>
+      <c r="D2308" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2309" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2309">
+        <v>6</v>
+      </c>
+      <c r="D2309" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2310" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2310" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2311" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2311">
+        <v>2</v>
+      </c>
+      <c r="D2311" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2312" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2312">
+        <v>3</v>
+      </c>
+      <c r="D2312" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2313" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D2313" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2314" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2314" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2315" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2315">
+        <v>2</v>
+      </c>
+      <c r="D2315" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2316" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2316" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2317" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2317" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2318" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2318">
+        <v>3</v>
+      </c>
+      <c r="D2318" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2319" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2319" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2320" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2320">
+        <v>4</v>
+      </c>
+      <c r="D2320" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2321" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2321">
+        <v>6</v>
+      </c>
+      <c r="D2321" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2322" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2322" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2323" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2323">
+        <v>4</v>
+      </c>
+      <c r="D2323" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2324" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B2324">
+        <v>4</v>
+      </c>
+      <c r="D2324" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2325" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2325">
+        <v>2</v>
+      </c>
+      <c r="D2325" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2326" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2326" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2327" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2327" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2328" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2328">
+        <v>4</v>
+      </c>
+      <c r="D2328" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2329" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2329">
+        <v>4</v>
+      </c>
+      <c r="D2329" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2330" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2330">
+        <v>6</v>
+      </c>
+      <c r="D2330" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2331" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2331">
+        <v>2</v>
+      </c>
+      <c r="D2331" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2332" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2332">
+        <v>3</v>
+      </c>
+      <c r="D2332" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2333" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2333" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2334" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2334" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2335" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2335">
+        <v>3</v>
+      </c>
+      <c r="D2335" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2336" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2336" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2337" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2337" s="3" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2338" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2338">
+        <v>4</v>
+      </c>
+      <c r="D2338" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2339" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2339">
+        <v>6</v>
+      </c>
+      <c r="D2339" s="3" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2340" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2340" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2341" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2341">
+        <v>2</v>
+      </c>
+      <c r="D2341" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2342" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2342" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2343" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2343">
+        <v>2</v>
+      </c>
+      <c r="D2343" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2344" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2344">
+        <v>3</v>
+      </c>
+      <c r="D2344" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2345" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2345" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2346" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2346" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2347" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2347" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2348" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2348">
+        <v>3</v>
+      </c>
+      <c r="D2348" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2349" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2349" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2350" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2350" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2351" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2351" s="3" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2352" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2352" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2353" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2353">
+        <v>2</v>
+      </c>
+      <c r="D2353" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2354" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2354">
+        <v>3</v>
+      </c>
+      <c r="D2354" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2355" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2355" t="s">
+        <v>1585</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5046" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="1630">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6827,11 +6827,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누구 닮았었던 것 같기도 하고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">혹시 이장 영감 </t>
+    <t>아무튼 빨랑 가요!
+여기 더는 못 있겠어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래.
+돌아가면 혼나겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생을 염전 노예로 부려먹은 죗값을 치르게 되겠군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 시말서 쓰는 거 싫어싫어~!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 곧장 대구로 돌아갔고,
+경찰과 언론에 신안에서 있었던 일을 신고했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님이 겪었던 일을 생각하면 남호석이 말했던 선생님이 실종된 사건의 배후가 그 마을의 사람들이라는 이야기도 납득이 가기 시작했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 후 신안은 어떻게 되었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>며 칠 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마 돼지. 니 이거 봤나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당연하지! 이 몸은 가만히 있어도 이 세상의 모든 정보가 들어온다구?
+랄까? 뭔데 뭔데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 저번에 염전 체험하러 간 곳에서 시체가 발견됐다 카드라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 그 이장집 근처 야산에서 젊은 여자 시체가 발견됐데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 그 시체가 설마…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜! 왜! 무슨 얘기를 그렇게 심각하게 하는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갸우뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닌 좀 너네 반에서 놀아라.
+친구 없나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니거든?!
+그리고 너랑 놀려고 온 거 아니거든?
+돼지랑 놀 거 거든?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치 돼지~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서? 뭐 좀 아는 거 있어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜?
+뭐 아는 거 있나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 랄까?
+사실 뭔가 알고 있는 척을 해 봤달까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하… 뭐야 진짜 닌 찐따인 이유가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 뭔데 뭔데?!
+왜 너네끼리만 얘기하는데?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7038,8 +7224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2355" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2355"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2415" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2415"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7327,10 +7513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2355"/>
+  <dimension ref="A1:J2410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2342" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2355" sqref="D2355"/>
+    <sheetView tabSelected="1" topLeftCell="A2398" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2413" sqref="D2413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33610,11 +33796,11 @@
       <c r="A2352" t="s">
         <v>1569</v>
       </c>
-      <c r="C2352" t="s">
-        <v>1545</v>
+      <c r="B2352">
+        <v>2</v>
       </c>
       <c r="D2352" t="s">
-        <v>1584</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2353" spans="1:4" x14ac:dyDescent="0.3">
@@ -33622,32 +33808,625 @@
         <v>1569</v>
       </c>
       <c r="B2353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2353" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2354" t="s">
         <v>1569</v>
       </c>
-      <c r="B2354">
-        <v>3</v>
-      </c>
-      <c r="D2354" t="s">
-        <v>1543</v>
+      <c r="C2354" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2354" s="3" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="2355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2355" t="s">
         <v>1569</v>
       </c>
-      <c r="C2355" t="s">
-        <v>1549</v>
+      <c r="B2355">
+        <v>2</v>
       </c>
       <c r="D2355" t="s">
         <v>1585</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2356" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2356">
+        <v>3</v>
+      </c>
+      <c r="D2356" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2357" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D2357" s="3" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2358" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D2358" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2359" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2359">
+        <v>2</v>
+      </c>
+      <c r="D2359" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2360" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D2360" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2361" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2361">
+        <v>4</v>
+      </c>
+      <c r="D2361" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2362" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D2362" s="3" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2363" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D2363" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2364" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D2364" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2365" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D2365" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2366" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2366">
+        <v>4</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2367" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2367">
+        <v>2</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2368" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2368">
+        <v>3</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2369" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2370" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D2370" s="3" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2371" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2371">
+        <v>3</v>
+      </c>
+      <c r="D2371" s="3" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2372" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2372" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2373" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2373">
+        <v>4</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2374" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2374">
+        <v>6</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2375" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2376" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2377" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D2377" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2378" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2378">
+        <v>3</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2379" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2379" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2380" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2380">
+        <v>2</v>
+      </c>
+      <c r="D2380" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2381" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2381">
+        <v>3</v>
+      </c>
+      <c r="D2381" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2382" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2383" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2383">
+        <v>2</v>
+      </c>
+      <c r="D2383" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2384" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2384">
+        <v>3</v>
+      </c>
+      <c r="D2384" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2385" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D2385" s="3" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2386" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2386">
+        <v>2</v>
+      </c>
+      <c r="D2386" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2387" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2387">
+        <v>3</v>
+      </c>
+      <c r="D2387" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2388" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2388">
+        <v>4</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2389" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2389">
+        <v>6</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2390" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2390" s="3" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2391" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2391">
+        <v>3</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2392" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2393" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2394" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2394">
+        <v>2</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2395" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2395">
+        <v>3</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2396" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2397" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2397">
+        <v>4</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2398" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2398">
+        <v>6</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2399" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D2399" s="3" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2400" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2400">
+        <v>3</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2401" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2402" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2402">
+        <v>2</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2403" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2403">
+        <v>3</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2404" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2404">
+        <v>4</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2405" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2405">
+        <v>4</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2406" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2406">
+        <v>6</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2407" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2407" s="3" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2408" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2408">
+        <v>4</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2409" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2409">
+        <v>4</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2410" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2410">
+        <v>4</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>1629</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5174" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1631">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7018,6 +7018,10 @@
   </si>
   <si>
     <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운잔잔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7224,8 +7228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2415" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2415"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2417" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2417"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7513,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2410"/>
+  <dimension ref="A1:J2412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2413" sqref="D2413"/>
+    <sheetView tabSelected="1" topLeftCell="A2390" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2401" sqref="D2401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33510,11 +33514,11 @@
       <c r="A2326" t="s">
         <v>1569</v>
       </c>
-      <c r="C2326" t="s">
-        <v>1549</v>
+      <c r="B2326">
+        <v>5</v>
       </c>
       <c r="D2326" t="s">
-        <v>1570</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="2327" spans="1:4" x14ac:dyDescent="0.3">
@@ -33522,21 +33526,21 @@
         <v>1569</v>
       </c>
       <c r="C2327" t="s">
-        <v>1537</v>
+        <v>1549</v>
       </c>
       <c r="D2327" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="2328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2328" t="s">
         <v>1569</v>
       </c>
-      <c r="B2328">
-        <v>4</v>
+      <c r="C2328" t="s">
+        <v>1537</v>
       </c>
       <c r="D2328" t="s">
-        <v>1535</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="2329" spans="1:4" x14ac:dyDescent="0.3">
@@ -33547,7 +33551,7 @@
         <v>4</v>
       </c>
       <c r="D2329" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2330" spans="1:4" x14ac:dyDescent="0.3">
@@ -33555,10 +33559,10 @@
         <v>1569</v>
       </c>
       <c r="B2330">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2330" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2331" spans="1:4" x14ac:dyDescent="0.3">
@@ -33566,10 +33570,10 @@
         <v>1569</v>
       </c>
       <c r="B2331">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2331" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2332" spans="1:4" x14ac:dyDescent="0.3">
@@ -33577,98 +33581,98 @@
         <v>1569</v>
       </c>
       <c r="B2332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2332" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="2333" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2333" t="s">
         <v>1569</v>
       </c>
-      <c r="C2333" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D2333" s="3" t="s">
-        <v>1572</v>
+      <c r="B2333">
+        <v>3</v>
+      </c>
+      <c r="D2333" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="2334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2334" t="s">
         <v>1569</v>
       </c>
-      <c r="C2334" t="s">
-        <v>1537</v>
+      <c r="B2334">
+        <v>5</v>
       </c>
       <c r="D2334" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2335" t="s">
         <v>1569</v>
       </c>
-      <c r="B2335">
-        <v>3</v>
-      </c>
-      <c r="D2335" t="s">
+      <c r="C2335" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="2336" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D2335" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2336" t="s">
         <v>1569</v>
       </c>
       <c r="C2336" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D2336" s="3" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1537</v>
+      </c>
+      <c r="D2336" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2337" t="s">
         <v>1569</v>
       </c>
-      <c r="C2337" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D2337" s="3" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="2338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2337">
+        <v>3</v>
+      </c>
+      <c r="D2337" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2338" t="s">
         <v>1569</v>
       </c>
-      <c r="B2338">
-        <v>4</v>
+      <c r="C2338" t="s">
+        <v>1545</v>
       </c>
       <c r="D2338" s="3" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="2339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2339" t="s">
         <v>1569</v>
       </c>
-      <c r="B2339">
-        <v>6</v>
+      <c r="C2339" t="s">
+        <v>1537</v>
       </c>
       <c r="D2339" s="3" t="s">
-        <v>1542</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="2340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2340" t="s">
         <v>1569</v>
       </c>
-      <c r="C2340" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D2340" t="s">
-        <v>1576</v>
+      <c r="B2340">
+        <v>4</v>
+      </c>
+      <c r="D2340" s="3" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="2341" spans="1:4" x14ac:dyDescent="0.3">
@@ -33676,10 +33680,10 @@
         <v>1569</v>
       </c>
       <c r="B2341">
-        <v>2</v>
-      </c>
-      <c r="D2341" t="s">
-        <v>1549</v>
+        <v>6</v>
+      </c>
+      <c r="D2341" s="3" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="2342" spans="1:4" x14ac:dyDescent="0.3">
@@ -33687,10 +33691,10 @@
         <v>1569</v>
       </c>
       <c r="C2342" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D2342" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2343" spans="1:4" x14ac:dyDescent="0.3">
@@ -33701,128 +33705,128 @@
         <v>2</v>
       </c>
       <c r="D2343" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="2344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2344" t="s">
         <v>1569</v>
       </c>
-      <c r="B2344">
-        <v>3</v>
+      <c r="C2344" t="s">
+        <v>1549</v>
       </c>
       <c r="D2344" t="s">
-        <v>1531</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2345" t="s">
         <v>1569</v>
       </c>
-      <c r="C2345" t="s">
+      <c r="B2345">
+        <v>2</v>
+      </c>
+      <c r="D2345" t="s">
         <v>1545</v>
-      </c>
-      <c r="D2345" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="2346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2346" t="s">
         <v>1569</v>
       </c>
-      <c r="C2346" t="s">
-        <v>1537</v>
+      <c r="B2346">
+        <v>3</v>
       </c>
       <c r="D2346" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2347" t="s">
         <v>1569</v>
       </c>
       <c r="C2347" t="s">
         <v>1545</v>
       </c>
-      <c r="D2347" s="3" t="s">
-        <v>1580</v>
+      <c r="D2347" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="2348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2348" t="s">
         <v>1569</v>
       </c>
-      <c r="B2348">
-        <v>3</v>
-      </c>
-      <c r="D2348" s="3" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2348" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D2348" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2349" t="s">
         <v>1569</v>
       </c>
       <c r="C2349" t="s">
         <v>1545</v>
       </c>
-      <c r="D2349" t="s">
-        <v>1581</v>
+      <c r="D2349" s="3" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="2350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2350" t="s">
         <v>1569</v>
       </c>
-      <c r="C2350" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D2350" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="2351" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B2350">
+        <v>3</v>
+      </c>
+      <c r="D2350" s="3" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2351" t="s">
         <v>1569</v>
       </c>
       <c r="C2351" t="s">
         <v>1545</v>
       </c>
-      <c r="D2351" s="3" t="s">
-        <v>1583</v>
+      <c r="D2351" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="2352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2352" t="s">
         <v>1569</v>
       </c>
-      <c r="B2352">
-        <v>2</v>
+      <c r="C2352" t="s">
+        <v>1537</v>
       </c>
       <c r="D2352" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2353" t="s">
         <v>1569</v>
       </c>
-      <c r="B2353">
-        <v>3</v>
-      </c>
-      <c r="D2353" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="2354" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2353" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2353" s="3" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2354" t="s">
         <v>1569</v>
       </c>
-      <c r="C2354" t="s">
+      <c r="B2354">
+        <v>2</v>
+      </c>
+      <c r="D2354" t="s">
         <v>1549</v>
-      </c>
-      <c r="D2354" s="3" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="2355" spans="1:4" x14ac:dyDescent="0.3">
@@ -33830,54 +33834,54 @@
         <v>1569</v>
       </c>
       <c r="B2355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2355" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="2356" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2356" t="s">
         <v>1569</v>
       </c>
-      <c r="B2356">
-        <v>3</v>
-      </c>
-      <c r="D2356" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="C2356" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D2356" s="3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2357" t="s">
         <v>1569</v>
       </c>
-      <c r="C2357" t="s">
+      <c r="B2357">
+        <v>2</v>
+      </c>
+      <c r="D2357" t="s">
         <v>1585</v>
-      </c>
-      <c r="D2357" s="3" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="2358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2358" t="s">
         <v>1569</v>
       </c>
-      <c r="C2358" t="s">
-        <v>1588</v>
+      <c r="B2358">
+        <v>3</v>
       </c>
       <c r="D2358" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2359" t="s">
         <v>1569</v>
       </c>
-      <c r="B2359">
-        <v>2</v>
-      </c>
-      <c r="D2359" t="s">
+      <c r="C2359" t="s">
         <v>1585</v>
+      </c>
+      <c r="D2359" s="3" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="2360" spans="1:4" x14ac:dyDescent="0.3">
@@ -33885,10 +33889,10 @@
         <v>1569</v>
       </c>
       <c r="C2360" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="D2360" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="2361" spans="1:4" x14ac:dyDescent="0.3">
@@ -33896,34 +33900,40 @@
         <v>1569</v>
       </c>
       <c r="B2361">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2361" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2362" t="s">
         <v>1569</v>
       </c>
-      <c r="D2362" s="3" t="s">
-        <v>1592</v>
+      <c r="C2362" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D2362" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="2363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2363" t="s">
         <v>1569</v>
       </c>
+      <c r="B2363">
+        <v>4</v>
+      </c>
       <c r="D2363" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="2364" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2364" t="s">
         <v>1569</v>
       </c>
-      <c r="D2364" t="s">
-        <v>1594</v>
+      <c r="D2364" s="3" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="2365" spans="1:4" x14ac:dyDescent="0.3">
@@ -33931,29 +33941,23 @@
         <v>1569</v>
       </c>
       <c r="D2365" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2366" t="s">
         <v>1569</v>
       </c>
-      <c r="B2366">
-        <v>4</v>
-      </c>
       <c r="D2366" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="2367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2367" t="s">
         <v>1569</v>
       </c>
-      <c r="B2367">
-        <v>2</v>
-      </c>
       <c r="D2367" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="2368" spans="1:4" x14ac:dyDescent="0.3">
@@ -33961,54 +33965,54 @@
         <v>1569</v>
       </c>
       <c r="B2368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2368" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="2369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2369" t="s">
         <v>1569</v>
       </c>
-      <c r="C2369" t="s">
+      <c r="B2369">
+        <v>2</v>
+      </c>
+      <c r="D2369" t="s">
         <v>1597</v>
       </c>
-      <c r="D2369" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="2370" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2370" t="s">
         <v>1569</v>
       </c>
-      <c r="C2370" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D2370" s="3" t="s">
-        <v>1600</v>
+      <c r="B2370">
+        <v>3</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="2371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2371" t="s">
         <v>1569</v>
       </c>
-      <c r="B2371">
-        <v>3</v>
-      </c>
-      <c r="D2371" s="3" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2371" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2371" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2372" t="s">
         <v>1569</v>
       </c>
       <c r="C2372" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D2372" t="s">
-        <v>1601</v>
+        <v>1588</v>
+      </c>
+      <c r="D2372" s="3" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="2373" spans="1:4" x14ac:dyDescent="0.3">
@@ -34016,43 +34020,43 @@
         <v>1569</v>
       </c>
       <c r="B2373">
-        <v>4</v>
-      </c>
-      <c r="D2373" t="s">
-        <v>1603</v>
+        <v>3</v>
+      </c>
+      <c r="D2373" s="3" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="2374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2374" t="s">
         <v>1569</v>
       </c>
-      <c r="B2374">
-        <v>6</v>
+      <c r="C2374" t="s">
+        <v>1597</v>
       </c>
       <c r="D2374" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2375" t="s">
         <v>1569</v>
       </c>
-      <c r="C2375" t="s">
-        <v>1588</v>
+      <c r="B2375">
+        <v>4</v>
       </c>
       <c r="D2375" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2376" t="s">
         <v>1569</v>
       </c>
-      <c r="C2376" t="s">
-        <v>1597</v>
+      <c r="B2376">
+        <v>6</v>
       </c>
       <c r="D2376" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2377" spans="1:4" x14ac:dyDescent="0.3">
@@ -34063,29 +34067,29 @@
         <v>1588</v>
       </c>
       <c r="D2377" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="2378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2378" t="s">
         <v>1569</v>
       </c>
-      <c r="B2378">
-        <v>3</v>
+      <c r="C2378" t="s">
+        <v>1597</v>
       </c>
       <c r="D2378" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2379" t="s">
         <v>1569</v>
       </c>
       <c r="C2379" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D2379" s="3" t="s">
-        <v>1621</v>
+        <v>1588</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="2380" spans="1:4" x14ac:dyDescent="0.3">
@@ -34093,32 +34097,32 @@
         <v>1569</v>
       </c>
       <c r="B2380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2380" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="2381" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2381" t="s">
         <v>1569</v>
       </c>
-      <c r="B2381">
-        <v>3</v>
-      </c>
-      <c r="D2381" t="s">
-        <v>1609</v>
+      <c r="C2381" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D2381" s="3" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="2382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2382" t="s">
         <v>1569</v>
       </c>
-      <c r="C2382" t="s">
+      <c r="B2382">
+        <v>2</v>
+      </c>
+      <c r="D2382" t="s">
         <v>1608</v>
-      </c>
-      <c r="D2382" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="2383" spans="1:4" x14ac:dyDescent="0.3">
@@ -34126,32 +34130,32 @@
         <v>1569</v>
       </c>
       <c r="B2383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2383" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2384" t="s">
         <v>1569</v>
       </c>
-      <c r="B2384">
-        <v>3</v>
+      <c r="C2384" t="s">
+        <v>1608</v>
       </c>
       <c r="D2384" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="2385" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2385" t="s">
         <v>1569</v>
       </c>
-      <c r="C2385" t="s">
+      <c r="B2385">
+        <v>2</v>
+      </c>
+      <c r="D2385" t="s">
         <v>1611</v>
-      </c>
-      <c r="D2385" s="3" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="2386" spans="1:4" x14ac:dyDescent="0.3">
@@ -34159,21 +34163,21 @@
         <v>1569</v>
       </c>
       <c r="B2386">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2386" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="2387" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2387" t="s">
         <v>1569</v>
       </c>
-      <c r="B2387">
-        <v>3</v>
-      </c>
-      <c r="D2387" t="s">
-        <v>1609</v>
+      <c r="C2387" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D2387" s="3" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="2388" spans="1:4" x14ac:dyDescent="0.3">
@@ -34181,10 +34185,10 @@
         <v>1569</v>
       </c>
       <c r="B2388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2388" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2389" spans="1:4" x14ac:dyDescent="0.3">
@@ -34192,21 +34196,21 @@
         <v>1569</v>
       </c>
       <c r="B2389">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2389" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2390" t="s">
         <v>1569</v>
       </c>
-      <c r="C2390" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D2390" s="3" t="s">
-        <v>1616</v>
+      <c r="B2390">
+        <v>4</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="2391" spans="1:4" x14ac:dyDescent="0.3">
@@ -34214,65 +34218,65 @@
         <v>1569</v>
       </c>
       <c r="B2391">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2391" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2392" t="s">
         <v>1569</v>
       </c>
       <c r="C2392" t="s">
         <v>1608</v>
       </c>
-      <c r="D2392" t="s">
-        <v>1617</v>
+      <c r="D2392" s="3" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="2393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2393" t="s">
         <v>1569</v>
       </c>
-      <c r="C2393" t="s">
-        <v>1618</v>
+      <c r="B2393">
+        <v>3</v>
       </c>
       <c r="D2393" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2394" t="s">
         <v>1569</v>
       </c>
-      <c r="B2394">
-        <v>2</v>
+      <c r="C2394" t="s">
+        <v>1608</v>
       </c>
       <c r="D2394" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="2395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2395" t="s">
         <v>1569</v>
       </c>
-      <c r="B2395">
-        <v>3</v>
+      <c r="C2395" t="s">
+        <v>1618</v>
       </c>
       <c r="D2395" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2396" t="s">
         <v>1569</v>
       </c>
-      <c r="C2396" t="s">
+      <c r="B2396">
+        <v>2</v>
+      </c>
+      <c r="D2396" t="s">
         <v>1611</v>
-      </c>
-      <c r="D2396" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="2397" spans="1:4" x14ac:dyDescent="0.3">
@@ -34280,32 +34284,32 @@
         <v>1569</v>
       </c>
       <c r="B2397">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2397" t="s">
-        <v>1623</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2398" t="s">
         <v>1569</v>
       </c>
-      <c r="B2398">
-        <v>6</v>
+      <c r="C2398" t="s">
+        <v>1611</v>
       </c>
       <c r="D2398" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="2399" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2399" t="s">
         <v>1569</v>
       </c>
-      <c r="C2399" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D2399" s="3" t="s">
-        <v>1622</v>
+      <c r="B2399">
+        <v>4</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="2400" spans="1:4" x14ac:dyDescent="0.3">
@@ -34313,21 +34317,21 @@
         <v>1569</v>
       </c>
       <c r="B2400">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2400" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2401" t="s">
         <v>1569</v>
       </c>
       <c r="C2401" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D2401" t="s">
-        <v>1625</v>
+        <v>1618</v>
+      </c>
+      <c r="D2401" s="3" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="2402" spans="1:4" x14ac:dyDescent="0.3">
@@ -34335,21 +34339,21 @@
         <v>1569</v>
       </c>
       <c r="B2402">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2402" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2403" t="s">
         <v>1569</v>
       </c>
-      <c r="B2403">
-        <v>3</v>
+      <c r="C2403" t="s">
+        <v>1611</v>
       </c>
       <c r="D2403" t="s">
-        <v>1609</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="2404" spans="1:4" x14ac:dyDescent="0.3">
@@ -34357,10 +34361,10 @@
         <v>1569</v>
       </c>
       <c r="B2404">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2404" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2405" spans="1:4" x14ac:dyDescent="0.3">
@@ -34368,10 +34372,10 @@
         <v>1569</v>
       </c>
       <c r="B2405">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2405" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2406" spans="1:4" x14ac:dyDescent="0.3">
@@ -34379,21 +34383,21 @@
         <v>1569</v>
       </c>
       <c r="B2406">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2406" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="2407" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2407" t="s">
         <v>1569</v>
       </c>
-      <c r="C2407" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D2407" s="3" t="s">
-        <v>1626</v>
+      <c r="B2407">
+        <v>4</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="2408" spans="1:4" x14ac:dyDescent="0.3">
@@ -34401,21 +34405,21 @@
         <v>1569</v>
       </c>
       <c r="B2408">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2408" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2409" t="s">
         <v>1569</v>
       </c>
-      <c r="B2409">
-        <v>4</v>
-      </c>
-      <c r="D2409" t="s">
-        <v>1628</v>
+      <c r="C2409" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2409" s="3" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="2410" spans="1:4" x14ac:dyDescent="0.3">
@@ -34426,6 +34430,28 @@
         <v>4</v>
       </c>
       <c r="D2410" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2411" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2411">
+        <v>4</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2412" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B2412">
+        <v>4</v>
+      </c>
+      <c r="D2412" t="s">
         <v>1629</v>
       </c>
     </row>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="1660">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5839,11 +5839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그러고 보니 녀석은 분명
-&lt;color=#F15F5F&gt;'선생님을 어디에 숨겼어'&lt;/color&gt; 라고 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어쩌면 이 곳의 어둠은 생각보다 깊게 뻗어있는지도 모르겠어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7022,6 +7017,131 @@
   </si>
   <si>
     <t>어두운잔잔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러고 보니 녀석은 분명
+&lt;color=#F15F5F&gt;'선생님을 어디에 숨겼어'&lt;/color&gt; 라고 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마 전 있었던 외부강사의 강의, &lt;color=#F15F5F&gt;'믿음이란 어디에서 나오는가?'&lt;/color&gt;에서 &lt;color=#F15F5F&gt;'여러분이 믿는 것은 무엇인가요?'&lt;/color&gt;라는 질문에 &lt;color=#F15F5F&gt;'나 자신뿐 (훗)'&lt;/color&gt;이라는 멋진 대답을 한 탓이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 이 철학을 똥통 양아치 소굴인 자신의 모교에 퍼트려 달라나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 입이 떠억 벌어질 만한 페이를 보고 일을 받아드린 건 아니라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼자 뭐라 씨부리는 거고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 또 망상의 세계에 빠져버린 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 너네는 왜 따라온 거냣?!
+이 몸이 받은 페이는 나눠줄 수 없다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼잔하게!
+누가 돈 달래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더럽게 쪼잔하네 쯥.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 돈 입니다만?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았으니까 차비라도 주라!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우왁!! 멋대로 따라와 놓고 무슨 짓이냐앗!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 지금 대전에 있는 고등학교, 천신 고등학교에 와 있다.
+왜 이 곳에 있느냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 소란을 떨고 있자 교무실에서 누군가 나왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넵!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 이러지 마시고 1학년 1반부터 시작해 주세요.
+자습 시간이니 자유롭게 들어가셔서 하시면 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7228,8 +7348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2417" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2450" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2450"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7517,10 +7637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2412"/>
+  <dimension ref="A1:J2450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2393" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2396" sqref="D2396"/>
+    <sheetView tabSelected="1" topLeftCell="A2433" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2445" sqref="D2445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28351,7 +28471,7 @@
         <v>5</v>
       </c>
       <c r="D1850" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1851" spans="1:4" x14ac:dyDescent="0.3">
@@ -28664,7 +28784,7 @@
         <v>6</v>
       </c>
       <c r="D1879" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1880" spans="1:4" x14ac:dyDescent="0.3">
@@ -28708,7 +28828,7 @@
         <v>6</v>
       </c>
       <c r="D1883" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1884" spans="1:4" x14ac:dyDescent="0.3">
@@ -28752,7 +28872,7 @@
         <v>1301</v>
       </c>
       <c r="D1887" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1888" spans="1:4" x14ac:dyDescent="0.3">
@@ -28774,7 +28894,7 @@
         <v>5</v>
       </c>
       <c r="D1889" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1890" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -28917,7 +29037,7 @@
         <v>5</v>
       </c>
       <c r="D1902" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1903" spans="1:4" x14ac:dyDescent="0.3">
@@ -29046,7 +29166,7 @@
         <v>5</v>
       </c>
       <c r="D1914" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1915" spans="1:4" x14ac:dyDescent="0.3">
@@ -29494,7 +29614,7 @@
         <v>4</v>
       </c>
       <c r="D1955" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1956" spans="1:4" x14ac:dyDescent="0.3">
@@ -29505,7 +29625,7 @@
         <v>6</v>
       </c>
       <c r="D1956" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1957" spans="1:4" x14ac:dyDescent="0.3">
@@ -29590,7 +29710,7 @@
         <v>5</v>
       </c>
       <c r="D1964" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1965" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -29612,7 +29732,7 @@
         <v>5</v>
       </c>
       <c r="D1966" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1967" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -29683,7 +29803,7 @@
         <v>1339</v>
       </c>
       <c r="D1973" s="3" t="s">
-        <v>1355</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1974" spans="1:4" x14ac:dyDescent="0.3">
@@ -29691,7 +29811,7 @@
         <v>1339</v>
       </c>
       <c r="D1974" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1975" spans="1:4" x14ac:dyDescent="0.3">
@@ -29713,23 +29833,23 @@
         <v>4</v>
       </c>
       <c r="D1976" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1977" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1977">
         <v>5</v>
       </c>
       <c r="D1977" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1978" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1978">
         <v>2</v>
@@ -29740,29 +29860,29 @@
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1979" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1979">
         <v>4</v>
       </c>
       <c r="D1979" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1980" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1980" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1980" t="s">
         <v>1298</v>
       </c>
       <c r="D1980" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1981" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1981">
         <v>2</v>
@@ -29773,7 +29893,7 @@
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1982" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1982">
         <v>3</v>
@@ -29784,29 +29904,29 @@
     </row>
     <row r="1983" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1983" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1983" t="s">
         <v>1310</v>
       </c>
       <c r="D1983" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1984" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1984" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1984" t="s">
         <v>1312</v>
       </c>
       <c r="D1984" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1985" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1985">
         <v>4</v>
@@ -29817,7 +29937,7 @@
     </row>
     <row r="1986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1986" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1986">
         <v>6</v>
@@ -29828,18 +29948,18 @@
     </row>
     <row r="1987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1987" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1987" t="s">
         <v>1310</v>
       </c>
       <c r="D1987" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1988" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1988">
         <v>4</v>
@@ -29850,7 +29970,7 @@
     </row>
     <row r="1989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1989" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1989">
         <v>4</v>
@@ -29861,29 +29981,29 @@
     </row>
     <row r="1990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1990" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1990">
         <v>6</v>
       </c>
       <c r="D1990" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1991" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1991" t="s">
         <v>1312</v>
       </c>
       <c r="D1991" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1992" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1992">
         <v>2</v>
@@ -29894,26 +30014,26 @@
     </row>
     <row r="1993" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1993" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1993" t="s">
         <v>1301</v>
       </c>
       <c r="D1993" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1994" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1994" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1995" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1995">
         <v>2</v>
@@ -29924,18 +30044,18 @@
     </row>
     <row r="1996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1996" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1996">
         <v>3</v>
       </c>
       <c r="D1996" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1997" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1997" t="s">
         <v>1310</v>
@@ -29946,7 +30066,7 @@
     </row>
     <row r="1998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1998" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1998" t="s">
         <v>1312</v>
@@ -29957,18 +30077,18 @@
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1999" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1999" t="s">
         <v>1310</v>
       </c>
       <c r="D1999" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="2000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2000" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2000">
         <v>4</v>
@@ -29979,51 +30099,51 @@
     </row>
     <row r="2001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2001" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2001">
         <v>4</v>
       </c>
       <c r="D2001" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2002" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2002">
         <v>5</v>
       </c>
       <c r="D2002" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2003" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2003">
         <v>4</v>
       </c>
       <c r="D2003" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2004" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2004" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2004" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D2004" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2005" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2005">
         <v>2</v>
@@ -30034,45 +30154,45 @@
     </row>
     <row r="2006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2006" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2006" t="s">
         <v>1310</v>
       </c>
       <c r="D2006" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="2007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2007" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2007" t="s">
         <v>1312</v>
       </c>
       <c r="D2007" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2008" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2008" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D2008" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2009" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D2009" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="2010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2010" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2010">
         <v>2</v>
@@ -30083,7 +30203,7 @@
     </row>
     <row r="2011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2011" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2011">
         <v>3</v>
@@ -30094,51 +30214,51 @@
     </row>
     <row r="2012" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2012" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2012" t="s">
         <v>1301</v>
       </c>
       <c r="D2012" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="2013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2013" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2013" t="s">
         <v>1301</v>
       </c>
       <c r="D2013" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2014" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2014" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2014" t="s">
         <v>1301</v>
       </c>
       <c r="D2014" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="2015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2015" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2015" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D2015" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="2016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2016" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2016">
         <v>2</v>
@@ -30149,7 +30269,7 @@
     </row>
     <row r="2017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2017" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2017">
         <v>3</v>
@@ -30160,29 +30280,29 @@
     </row>
     <row r="2018" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2018" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2018" t="s">
         <v>1310</v>
       </c>
       <c r="D2018" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2019" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2019" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2019" t="s">
         <v>1312</v>
       </c>
       <c r="D2019" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2020" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2020">
         <v>3</v>
@@ -30193,7 +30313,7 @@
     </row>
     <row r="2021" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2021" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2021">
         <v>4</v>
@@ -30204,7 +30324,7 @@
     </row>
     <row r="2022" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2022" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2022">
         <v>6</v>
@@ -30215,81 +30335,81 @@
     </row>
     <row r="2023" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2023" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2023" t="s">
         <v>1310</v>
       </c>
       <c r="D2023" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2024" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2024" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2024">
         <v>6</v>
       </c>
       <c r="D2024" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2025" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2025" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2025">
         <v>4</v>
       </c>
       <c r="D2025" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="2026" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2026" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2026" t="s">
         <v>1312</v>
       </c>
       <c r="D2026" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2027" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2027" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D2027" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="2028" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2028" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2028">
         <v>2</v>
       </c>
       <c r="D2028" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2029" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2029" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2029" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2029" t="s">
         <v>1394</v>
-      </c>
-      <c r="D2029" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="2030" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2030" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2030">
         <v>4</v>
@@ -30300,7 +30420,7 @@
     </row>
     <row r="2031" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2031" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2031">
         <v>3</v>
@@ -30311,7 +30431,7 @@
     </row>
     <row r="2032" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2032" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2032">
         <v>6</v>
@@ -30322,18 +30442,18 @@
     </row>
     <row r="2033" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2033" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2033" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2033" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="2034" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2034" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2034">
         <v>4</v>
@@ -30344,29 +30464,29 @@
     </row>
     <row r="2035" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2035" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2035" t="s">
         <v>1312</v>
       </c>
       <c r="D2035" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="2036" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2036" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C2036" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2036" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2037" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2037" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2037">
         <v>4</v>
@@ -30377,7 +30497,7 @@
     </row>
     <row r="2038" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2038" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B2038">
         <v>4</v>
@@ -30388,70 +30508,70 @@
     </row>
     <row r="2039" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2039" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C2039" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2039" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2040" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2040" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D2040" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="2041" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2041" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B2041">
         <v>2</v>
       </c>
       <c r="D2041" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2042" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2042" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C2042" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2042" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2043" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2043" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B2043">
         <v>2</v>
       </c>
       <c r="D2043" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2044" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2044" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C2044" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2044" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="2045" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2045" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B2045">
         <v>4</v>
@@ -30462,40 +30582,40 @@
     </row>
     <row r="2046" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2046" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B2046">
         <v>4</v>
       </c>
       <c r="D2046" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2047" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2047" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B2047">
         <v>4</v>
       </c>
       <c r="D2047" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2048" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2048" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2048">
         <v>2</v>
       </c>
       <c r="D2048" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2049" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2049">
         <v>3</v>
@@ -30506,7 +30626,7 @@
     </row>
     <row r="2050" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2050" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2050">
         <v>4</v>
@@ -30517,29 +30637,29 @@
     </row>
     <row r="2051" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2051" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C2051" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2051" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2052" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2052" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2052">
         <v>2</v>
       </c>
       <c r="D2052" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2053" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2053">
         <v>4</v>
@@ -30550,7 +30670,7 @@
     </row>
     <row r="2054" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2054" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2054">
         <v>6</v>
@@ -30561,29 +30681,29 @@
     </row>
     <row r="2055" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2055" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2055" s="3" t="s">
         <v>1416</v>
-      </c>
-      <c r="C2055" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D2055" s="3" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="2056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2056" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2056">
         <v>2</v>
       </c>
       <c r="D2056" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2057" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2057" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2057">
         <v>3</v>
@@ -30594,18 +30714,18 @@
     </row>
     <row r="2058" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2058" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C2058" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2058" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="2059" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2059" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2059">
         <v>4</v>
@@ -30616,7 +30736,7 @@
     </row>
     <row r="2060" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2060" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B2060">
         <v>4</v>
@@ -30627,7 +30747,7 @@
     </row>
     <row r="2061" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2061" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2061">
         <v>3</v>
@@ -30638,29 +30758,29 @@
     </row>
     <row r="2062" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2062" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2062" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2062" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2063" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2063" t="s">
         <v>1312</v>
       </c>
       <c r="D2063" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2064">
         <v>4</v>
@@ -30671,7 +30791,7 @@
     </row>
     <row r="2065" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2065">
         <v>6</v>
@@ -30682,51 +30802,51 @@
     </row>
     <row r="2066" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2066" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2066" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2066" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2067" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2067" t="s">
         <v>1312</v>
       </c>
       <c r="D2067" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2068" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2068" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2068" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2069" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2069" t="s">
         <v>1312</v>
       </c>
       <c r="D2069" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="2070" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2070">
         <v>3</v>
@@ -30737,7 +30857,7 @@
     </row>
     <row r="2071" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2071">
         <v>4</v>
@@ -30748,40 +30868,40 @@
     </row>
     <row r="2072" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2072" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2072" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2072" t="s">
         <v>1394</v>
-      </c>
-      <c r="D2072" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="2073" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2073" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2073" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2074" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2074" t="s">
         <v>1312</v>
       </c>
       <c r="D2074" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2075" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2075" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2075">
         <v>4</v>
@@ -30792,7 +30912,7 @@
     </row>
     <row r="2076" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2076" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2076">
         <v>6</v>
@@ -30803,7 +30923,7 @@
     </row>
     <row r="2077" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2077">
         <v>3</v>
@@ -30814,7 +30934,7 @@
     </row>
     <row r="2078" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2078" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2078">
         <v>4</v>
@@ -30825,18 +30945,18 @@
     </row>
     <row r="2079" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C2079" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D2079" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2080" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2080" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2080">
         <v>4</v>
@@ -30847,3612 +30967,4003 @@
     </row>
     <row r="2081" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2081">
         <v>4</v>
       </c>
       <c r="D2081" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="2082" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B2082">
         <v>4</v>
       </c>
       <c r="D2082" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="2083" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2083">
         <v>5</v>
       </c>
       <c r="D2083" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2084" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2084">
         <v>2</v>
       </c>
       <c r="D2084" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="2085" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2085">
         <v>4</v>
       </c>
       <c r="D2085" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2086" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2086">
         <v>3</v>
       </c>
       <c r="D2086" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2087" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2087" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2087" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="D2087" s="3" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="2088" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2088" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2088" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2088" t="s">
         <v>1427</v>
-      </c>
-      <c r="D2088" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="2089" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2089" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2089">
         <v>4</v>
       </c>
       <c r="D2089" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2090" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2090" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2090">
         <v>6</v>
       </c>
       <c r="D2090" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2091" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2091" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2091">
         <v>3</v>
       </c>
       <c r="D2091" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2092" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2092" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2092" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2092" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2093" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2093" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2093" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2093" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="2094" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2094" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2094" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2094" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2095" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2095" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2095" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2095" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2096" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2096" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2096">
         <v>3</v>
       </c>
       <c r="D2096" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2097" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2097" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2097">
         <v>6</v>
       </c>
       <c r="D2097" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2098" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2098" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2098" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2098" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="2099" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2099" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2099">
         <v>4</v>
       </c>
       <c r="D2099" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2100" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2100" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2100" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2101" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2101" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2101" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2102" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2102" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2102" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2103" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2103" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2103" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="2104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2104" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2104" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2104" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2105" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2105">
         <v>4</v>
       </c>
       <c r="D2105" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="2106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2106" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2106">
         <v>4</v>
       </c>
       <c r="D2106" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="2107" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2107" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D2107" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="2108" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2108" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D2108" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="2109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2109" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D2109" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="2110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2110" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2110">
         <v>4</v>
       </c>
       <c r="D2110" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2111" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2111" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2111" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="2112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2112" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D2112" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2113" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2113" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2113" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="2114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2114" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2114">
         <v>4</v>
       </c>
       <c r="D2114" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="2115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2115" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2115">
         <v>4</v>
       </c>
       <c r="D2115" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2116" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D2116" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="2117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2117" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2117">
         <v>4</v>
       </c>
       <c r="D2117" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2118" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2118">
         <v>4</v>
       </c>
       <c r="D2118" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2119" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2119">
         <v>6</v>
       </c>
       <c r="D2119" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2120" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2120" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2120" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="2121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2121" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2121">
         <v>2</v>
       </c>
       <c r="D2121" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2122" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2122">
         <v>3</v>
       </c>
       <c r="D2122" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2123" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2123" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D2123" s="3" t="s">
         <v>1454</v>
-      </c>
-      <c r="D2123" s="3" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="2124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2124" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2124">
         <v>2</v>
       </c>
       <c r="D2124" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2125" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2125">
         <v>3</v>
       </c>
       <c r="D2125" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="2126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2126" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2126" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="2127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2127">
         <v>2</v>
       </c>
       <c r="D2127" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="2128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2128">
         <v>4</v>
       </c>
       <c r="D2128" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2129">
         <v>3</v>
       </c>
       <c r="D2129" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2130">
         <v>6</v>
       </c>
       <c r="D2130" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2131" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2131" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="2132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2132">
         <v>2</v>
       </c>
       <c r="D2132" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C2133" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2133" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2134">
         <v>4</v>
       </c>
       <c r="D2134" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="2135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2135" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B2135">
         <v>4</v>
       </c>
       <c r="D2135" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2136" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2136">
         <v>4</v>
       </c>
       <c r="D2136" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2137" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2137">
         <v>6</v>
       </c>
       <c r="D2137" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2138" t="s">
         <v>1464</v>
-      </c>
-      <c r="C2138" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D2138" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="2139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2139">
         <v>4</v>
       </c>
       <c r="D2139" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2140">
         <v>6</v>
       </c>
       <c r="D2140" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2141" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2141" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="2142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2142">
         <v>4</v>
       </c>
       <c r="D2142" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2143">
         <v>6</v>
       </c>
       <c r="D2143" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2144">
         <v>3</v>
       </c>
       <c r="D2144" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2145" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2145" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2145" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2146" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2146" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2146" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="2147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2147">
         <v>2</v>
       </c>
       <c r="D2147" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2148" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2148" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2149" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2149" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2150" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2150" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2151" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2151" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2151" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="2152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2152">
         <v>2</v>
       </c>
       <c r="D2152" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2153">
         <v>4</v>
       </c>
       <c r="D2153" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2154">
         <v>3</v>
       </c>
       <c r="D2154" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2155" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2155" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2155" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="2156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2156" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2156" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D2157" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="2158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C2158" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D2158" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="2159" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D2159" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="2160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2160">
         <v>4</v>
       </c>
       <c r="D2160" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="2161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2161" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2161">
         <v>4</v>
       </c>
       <c r="D2161" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2162" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B2162">
         <v>4</v>
       </c>
       <c r="D2162" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2163" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2163">
         <v>5</v>
       </c>
       <c r="D2163" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="2164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2164" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2164">
         <v>2</v>
       </c>
       <c r="D2164" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2165" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2165">
         <v>4</v>
       </c>
       <c r="D2165" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2166" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2166">
         <v>4</v>
       </c>
       <c r="D2166" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2167" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2167">
         <v>3</v>
       </c>
       <c r="D2167" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2168" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2168">
         <v>6</v>
       </c>
       <c r="D2168" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2169" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2169" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D2169" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="2170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2170" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2170">
         <v>2</v>
       </c>
       <c r="D2170" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2171" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2171" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2171" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="2172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2172" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2172" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2172" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2173" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2173">
         <v>2</v>
       </c>
       <c r="D2173" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2174" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2174" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2174" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2174" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2175" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2175" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2175" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2175" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="2176" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2176" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2176" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2176" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="2177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2177" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2177">
         <v>2</v>
       </c>
       <c r="D2177" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2178" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2178" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C2178" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2178" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2179" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2179">
         <v>4</v>
       </c>
       <c r="D2179" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="2180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2180" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B2180">
         <v>4</v>
       </c>
       <c r="D2180" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2181" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2181">
         <v>3</v>
       </c>
       <c r="D2181" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2182" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2182">
         <v>5</v>
       </c>
       <c r="D2182" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2183" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2183" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D2183" s="3" t="s">
         <v>1490</v>
-      </c>
-      <c r="C2183" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D2183" s="3" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="2184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2184" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2184">
         <v>2</v>
       </c>
       <c r="D2184" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2185" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2185">
         <v>3</v>
       </c>
       <c r="D2185" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2186" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2186" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2186" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2186" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="2187" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2187" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2187" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2187" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2188" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2188" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2188" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2188" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="2189" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2189" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2189" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2189" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="2190" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2190" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2190" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2190" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2191" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2191" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2191" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2191" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="2192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2192" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2192">
         <v>4</v>
       </c>
       <c r="D2192" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2193" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2193">
         <v>6</v>
       </c>
       <c r="D2193" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2194" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2194">
         <v>5</v>
       </c>
       <c r="D2194" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2195" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C2195" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2195" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="2196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2196" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2196">
         <v>4</v>
       </c>
       <c r="D2196" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="2197" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2197" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D2197" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2198" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2198">
         <v>4</v>
       </c>
       <c r="D2198" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2199" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B2199">
         <v>4</v>
       </c>
       <c r="D2199" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2200" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2200">
         <v>5</v>
       </c>
       <c r="D2200" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2201" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2201">
         <v>2</v>
       </c>
       <c r="D2201" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2202" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2202">
         <v>4</v>
       </c>
       <c r="D2202" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="2203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2203" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D2203" t="s">
         <v>1501</v>
-      </c>
-      <c r="C2203" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D2203" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="2204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2204" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2204">
         <v>3</v>
       </c>
       <c r="D2204" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2205" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2205" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2205" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2205" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2206" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2206" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2206" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="2207" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2207" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2207" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2207" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="2208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2208" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2208" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2208" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="2209" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2209" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2209" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2209" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="2210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2210" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2210">
         <v>4</v>
       </c>
       <c r="D2210" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2211" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2211">
         <v>6</v>
       </c>
       <c r="D2211" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2212" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2212" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2212" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2212" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="2213" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2213" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2213" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2213" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="2214" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2214" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2214" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2214" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2215" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2215">
         <v>2</v>
       </c>
       <c r="D2215" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2216" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2216">
         <v>3</v>
       </c>
       <c r="D2216" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2217" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2217" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2217" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="2218" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2218" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2218" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2218" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="2219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2219" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2219">
         <v>2</v>
       </c>
       <c r="D2219" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2220" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2220">
         <v>3</v>
       </c>
       <c r="D2220" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2221" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2221" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2221" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2221" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2222" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2222">
         <v>2</v>
       </c>
       <c r="D2222" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2223" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2223">
         <v>3</v>
       </c>
       <c r="D2223" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2224" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2224" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2224" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="2225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2225" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2225">
         <v>4</v>
       </c>
       <c r="D2225" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2226" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2226">
         <v>2</v>
       </c>
       <c r="D2226" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2227" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2227">
         <v>3</v>
       </c>
       <c r="D2227" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2228" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2228">
         <v>6</v>
       </c>
       <c r="D2228" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2229" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2229" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2229" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2229" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="2230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2230" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2230">
         <v>4</v>
       </c>
       <c r="D2230" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2231" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2231">
         <v>6</v>
       </c>
       <c r="D2231" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2232" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2232">
         <v>3</v>
       </c>
       <c r="D2232" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2233" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2233" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2233" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2234" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2234" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2234" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2235" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2235">
         <v>3</v>
       </c>
       <c r="D2235" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2236" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2236">
         <v>4</v>
       </c>
       <c r="D2236" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2237" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2237">
         <v>6</v>
       </c>
       <c r="D2237" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2238" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2238" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2238" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2238" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="2239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2239" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2239">
         <v>2</v>
       </c>
       <c r="D2239" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2240" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2240" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D2240" t="s">
         <v>1519</v>
-      </c>
-      <c r="D2240" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="2241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2241" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2241" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D2241" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2242" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2242" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D2242" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2243" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2243" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2243" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="2244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2244" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2244" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2244" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2245" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2245">
         <v>4</v>
       </c>
       <c r="D2245" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2246" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2246">
         <v>6</v>
       </c>
       <c r="D2246" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2247" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2247" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2247" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="2248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2248" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2248">
         <v>4</v>
       </c>
       <c r="D2248" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2249" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2249">
         <v>6</v>
       </c>
       <c r="D2249" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2250" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2250">
         <v>3</v>
       </c>
       <c r="D2250" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2251" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2251" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D2251" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2252" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2252">
         <v>2</v>
       </c>
       <c r="D2252" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2253" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2253">
         <v>4</v>
       </c>
       <c r="D2253" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2254" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2254">
         <v>6</v>
       </c>
       <c r="D2254" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2255" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2255">
         <v>3</v>
       </c>
       <c r="D2255" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2256" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2256" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D2256" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2257" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2257">
         <v>2</v>
       </c>
       <c r="D2257" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="2258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2258" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2258">
         <v>4</v>
       </c>
       <c r="D2258" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2259" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2259">
         <v>6</v>
       </c>
       <c r="D2259" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2260" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2260">
         <v>3</v>
       </c>
       <c r="D2260" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2261" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2261" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2261" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="2262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2262" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2262">
         <v>2</v>
       </c>
       <c r="D2262" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2263" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2263">
         <v>3</v>
       </c>
       <c r="D2263" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2264" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2264" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2264" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D2264" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="2265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2265" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D2265" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2266" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2266">
         <v>4</v>
       </c>
       <c r="D2266" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="2267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2267" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2267">
         <v>6</v>
       </c>
       <c r="D2267" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2268" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C2268" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D2268" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="2269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2269" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2269">
         <v>4</v>
       </c>
       <c r="D2269" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="2270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2270" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B2270">
         <v>4</v>
       </c>
       <c r="D2270" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2271" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2271">
         <v>3</v>
       </c>
       <c r="D2271" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2272" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2272" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D2272" t="s">
         <v>1532</v>
-      </c>
-      <c r="D2272" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="2273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2273" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2273">
         <v>4</v>
       </c>
       <c r="D2273" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2274" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2274">
         <v>4</v>
       </c>
       <c r="D2274" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2275" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2275">
         <v>6</v>
       </c>
       <c r="D2275" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="2276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2276" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2276" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D2276" t="s">
         <v>1537</v>
-      </c>
-      <c r="D2276" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="2277" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2277" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2277" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D2277" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="2278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2278" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2278">
         <v>4</v>
       </c>
       <c r="D2278" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2279" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2279">
         <v>6</v>
       </c>
       <c r="D2279" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2280" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2280" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2280" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2281" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2281">
         <v>3</v>
       </c>
       <c r="D2281" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2282" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2282" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D2282" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2283" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2283">
         <v>4</v>
       </c>
       <c r="D2283" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2284" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2284">
         <v>4</v>
       </c>
       <c r="D2284" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2285" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2285">
         <v>6</v>
       </c>
       <c r="D2285" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2286" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2286" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D2286" t="s">
         <v>1546</v>
-      </c>
-      <c r="D2286" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="2287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2287" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2287">
         <v>3</v>
       </c>
       <c r="D2287" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2288" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2288" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D2288" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2289" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2289">
         <v>2</v>
       </c>
       <c r="D2289" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2290" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2290" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D2290" t="s">
         <v>1549</v>
-      </c>
-      <c r="D2290" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="2291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2291" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2291">
         <v>4</v>
       </c>
       <c r="D2291" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2292" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2292">
         <v>4</v>
       </c>
       <c r="D2292" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2293" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2293">
         <v>6</v>
       </c>
       <c r="D2293" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2294" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2294">
         <v>2</v>
       </c>
       <c r="D2294" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2295" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2295" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2295" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2296" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2296">
         <v>2</v>
       </c>
       <c r="D2296" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2297" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2297">
         <v>3</v>
       </c>
       <c r="D2297" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2298" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2298" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2298" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="2299" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2299" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2299" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2299" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="2300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2300" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2300">
         <v>2</v>
       </c>
       <c r="D2300" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2301" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2301">
         <v>3</v>
       </c>
       <c r="D2301" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2302" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2302" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C2302" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2302" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="2303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2303" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2303">
         <v>4</v>
       </c>
       <c r="D2303" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="2304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2304" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2304">
         <v>4</v>
       </c>
       <c r="D2304" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2305" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B2305">
         <v>4</v>
       </c>
       <c r="D2305" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="2306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2306" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2306">
         <v>5</v>
       </c>
       <c r="D2306" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="2307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2307" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2307">
         <v>2</v>
       </c>
       <c r="D2307" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2308" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2308">
         <v>4</v>
       </c>
       <c r="D2308" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2309" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2309">
         <v>6</v>
       </c>
       <c r="D2309" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2310" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2310" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2310" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2310" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="2311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2311" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2311">
         <v>2</v>
       </c>
       <c r="D2311" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="2312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2312" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2312">
         <v>3</v>
       </c>
       <c r="D2312" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2313" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D2313" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="2314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2314" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2314" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2314" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="2315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2315" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2315">
         <v>2</v>
       </c>
       <c r="D2315" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2316" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2316" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2316" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="2317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2317" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2317" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2317" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="2318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2318" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2318">
         <v>3</v>
       </c>
       <c r="D2318" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2319" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2319" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2319" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="2320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2320" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2320">
         <v>4</v>
       </c>
       <c r="D2320" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2321" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2321">
         <v>6</v>
       </c>
       <c r="D2321" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2322" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C2322" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2322" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="2323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2323" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2323">
         <v>4</v>
       </c>
       <c r="D2323" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="2324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2324" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B2324">
         <v>4</v>
       </c>
       <c r="D2324" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2325" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2325">
         <v>2</v>
       </c>
       <c r="D2325" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2326" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2326">
         <v>5</v>
       </c>
       <c r="D2326" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="2327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2327" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D2327" t="s">
         <v>1569</v>
-      </c>
-      <c r="C2327" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D2327" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="2328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2328" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2328" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2328" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="2329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2329" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2329">
         <v>4</v>
       </c>
       <c r="D2329" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="2330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2330" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2330">
         <v>4</v>
       </c>
       <c r="D2330" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2331" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2331">
         <v>6</v>
       </c>
       <c r="D2331" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2332" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2332">
         <v>2</v>
       </c>
       <c r="D2332" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2333" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2333">
         <v>3</v>
       </c>
       <c r="D2333" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2334" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2334">
         <v>5</v>
       </c>
       <c r="D2334" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="2335" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2335" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2335" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2335" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="2336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2336" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2336" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2336" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="2337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2337" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2337">
         <v>3</v>
       </c>
       <c r="D2337" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2338" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2338" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2338" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2338" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="2339" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2339" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2339" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2339" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="2340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2340" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2340">
         <v>4</v>
       </c>
       <c r="D2340" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2341" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2341">
         <v>6</v>
       </c>
       <c r="D2341" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2342" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2342" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2342" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="2343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2343" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2343">
         <v>2</v>
       </c>
       <c r="D2343" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2344" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2344" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2344" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2345" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2345">
         <v>2</v>
       </c>
       <c r="D2345" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2346" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2346">
         <v>3</v>
       </c>
       <c r="D2346" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2347" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2347" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2347" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2348" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2348" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2348" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="2349" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A2349" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2349" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2349" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="2350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2350" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2350">
         <v>3</v>
       </c>
       <c r="D2350" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="2351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2351" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2351" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2351" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="2352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2352" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2352" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D2352" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="2353" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2353" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2353" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2353" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="2354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2354" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2354">
         <v>2</v>
       </c>
       <c r="D2354" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2355" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2355">
         <v>3</v>
       </c>
       <c r="D2355" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="2356" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2356" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2356" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2356" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="2357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2357" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2357">
         <v>2</v>
       </c>
       <c r="D2357" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="2358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2358" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2358">
         <v>3</v>
       </c>
       <c r="D2358" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="2359" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2359" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2359" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D2359" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="2360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2360" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2360" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D2360" t="s">
         <v>1588</v>
-      </c>
-      <c r="D2360" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="2361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2361" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2361">
         <v>2</v>
       </c>
       <c r="D2361" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="2362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2362" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2362" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D2362" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="2363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2363" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2363">
         <v>4</v>
       </c>
       <c r="D2363" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="2364" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2364" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D2364" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="2365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2365" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D2365" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="2366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2366" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D2366" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="2367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2367" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D2367" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="2368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2368" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2368">
         <v>4</v>
       </c>
       <c r="D2368" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="2369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2369" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2369">
         <v>2</v>
       </c>
       <c r="D2369" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="2370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2370" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2370">
         <v>3</v>
       </c>
       <c r="D2370" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="2371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2371" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2371" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2371" t="s">
         <v>1597</v>
-      </c>
-      <c r="D2371" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="2372" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2372" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2372" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D2372" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="2373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2373" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2373">
         <v>3</v>
       </c>
       <c r="D2373" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="2374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2374" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2374" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D2374" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2375" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2375">
         <v>4</v>
       </c>
       <c r="D2375" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="2376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2376" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2376">
         <v>6</v>
       </c>
       <c r="D2376" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="2377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2377" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2377" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D2377" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2378" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2378" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D2378" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="2379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2379" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2379" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D2379" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="2380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2380" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2380">
         <v>3</v>
       </c>
       <c r="D2380" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2381" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2381" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2381" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D2381" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="2382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2382" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2382">
         <v>2</v>
       </c>
       <c r="D2382" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2383" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2383">
         <v>3</v>
       </c>
       <c r="D2383" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2384" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2384" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D2384" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="2385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2385" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2385">
         <v>2</v>
       </c>
       <c r="D2385" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2386" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2386">
         <v>3</v>
       </c>
       <c r="D2386" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2387" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2387" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2387" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D2387" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="2388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2388" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2388">
         <v>2</v>
       </c>
       <c r="D2388" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2389" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2389">
         <v>3</v>
       </c>
       <c r="D2389" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2390" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2390">
         <v>4</v>
       </c>
       <c r="D2390" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="2391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2391" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2391">
         <v>6</v>
       </c>
       <c r="D2391" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2392" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2392" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2392" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D2392" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="2393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2393" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2393">
         <v>3</v>
       </c>
       <c r="D2393" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2394" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2394" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D2394" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="2395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2395" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2395" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D2395" t="s">
         <v>1618</v>
-      </c>
-      <c r="D2395" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="2396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2396" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2396">
         <v>2</v>
       </c>
       <c r="D2396" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="2397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2397" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2397">
         <v>3</v>
       </c>
       <c r="D2397" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2398" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2398" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D2398" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2399" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2399">
         <v>4</v>
       </c>
       <c r="D2399" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="2400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2400" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2400">
         <v>6</v>
       </c>
       <c r="D2400" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="2401" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2401" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2401" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D2401" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="2402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2402" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2402">
         <v>3</v>
       </c>
       <c r="D2402" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2403" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2403" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D2403" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="2404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2404" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2404">
         <v>2</v>
       </c>
       <c r="D2404" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="2405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2405" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2405">
         <v>3</v>
       </c>
       <c r="D2405" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="2406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2406" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2406">
         <v>4</v>
       </c>
       <c r="D2406" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="2407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2407" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2407">
         <v>4</v>
       </c>
       <c r="D2407" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="2408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2408" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2408">
         <v>6</v>
       </c>
       <c r="D2408" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2409" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2409" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C2409" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D2409" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="2410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2410" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2410">
         <v>4</v>
       </c>
       <c r="D2410" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="2411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2411" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2411">
         <v>4</v>
       </c>
       <c r="D2411" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="2412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2412" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B2412">
         <v>4</v>
       </c>
       <c r="D2412" t="s">
-        <v>1629</v>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2413" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2413">
+        <v>5</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2414" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2414">
+        <v>4</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2415" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2415">
+        <v>4</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2416" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2416" s="3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2417" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2417" s="3" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2418" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2419" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2420" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2420">
+        <v>2</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2421" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2421">
+        <v>3</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2422" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2423" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2423">
+        <v>2</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2424" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2424">
+        <v>3</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2425" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2426" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2426" s="3" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2427" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2427">
+        <v>3</v>
+      </c>
+      <c r="D2427" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2428" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2428">
+        <v>4</v>
+      </c>
+      <c r="D2428" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2429" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2429">
+        <v>6</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2430" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2430" s="3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2431" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2431">
+        <v>2</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2432" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2433" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2433" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2434" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2434">
+        <v>2</v>
+      </c>
+      <c r="D2434" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2435" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2435">
+        <v>3</v>
+      </c>
+      <c r="D2435" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2436" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2436">
+        <v>4</v>
+      </c>
+      <c r="D2436" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2437" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2437">
+        <v>6</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2438" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2439" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2439">
+        <v>4</v>
+      </c>
+      <c r="D2439" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2440" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2440">
+        <v>4</v>
+      </c>
+      <c r="D2440" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2441" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2441">
+        <v>6</v>
+      </c>
+      <c r="D2441" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2442" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2442" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2443" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D2443" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2444" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2444">
+        <v>4</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2445" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D2445" s="3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2446" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2447" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2448" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2449" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2450" t="s">
+        <v>1630</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1722">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7142,6 +7142,265 @@
   <si>
     <t>여기서 이러지 마시고 1학년 1반부터 시작해 주세요.
 자습 시간이니 자유롭게 들어가셔서 하시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 그럼 들어간다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 드가라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 1학년 1반 앞에 섰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리의 발길질에 의해 나는 교실로 떠밀려 졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 곳은 마치 야생의 왕국과도 같은 광경이 펼쳐져있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 파이팅!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등 뒤로 우정이의 응원소리가 들려왔지만 별로 힘이 되진 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠흠… 얘들아 조용히 해줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엥 저 돼지는 뭐여?
+관종이냐?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳐맞기 전에 가라~
+ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조요오오옹!!!!
+이 몸은 너희들을 갱생시킬 일일 강사 님이라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 강사는 뭐 개나 소나 돼지나 다 하는 거냐?
+개 웃겨 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사가 아니라 개그하러 온 듯 ㅋㅋㅋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내, 내가 웃기다고?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 기쁠지도…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 됐고 빨리 나가~
+형님한테 쳐맞고 울지 말고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이래봬도 내가 너네 보다 형이라구?
+그러니 반말은…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 뭐래!
+좀 나가!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 슬슬 짜증난다.
+야 그냥 받은 돈 병원비로 쓰게 하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올ㅋ 천재?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런이런이런~ 결국 이렇게 되는 것인가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸의 &lt;color=#F15F5F&gt;'피'&lt;/color&gt;가 싸움을 부르고 마는 것인가..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후훗 돈을 받은 입장으로써 그럴 수는 없다구?
+너네는 어려서 모르겠지만 그것이 &lt;color=#F15F5F&gt;'어른의 사정'&lt;/color&gt;이란 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켁! 돼지주제에 왜 이렇게 세냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형님!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혀, 형님…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아! 자 그럼 분위기도 가라앉았고 하니 강의 시작해 볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 주제는 &lt;color=#F15F5F&gt;'내가 믿는 것은 이 몸 뿐(훗)'&lt;/color&gt;이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 끝났어?
+어땠어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후훗 다들 이 몸의 강의를 경청해 주더군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이대로 가면 이 학교는 우리 학교 처럼 평화로운 학교가 될 거라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 돼지 대단해!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리는 고개를 저으며 한숨을 쉬었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 정말 아까 그 소란을 못 들어서 그런 소리 하는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자! 그럼 다음 반으로 고고고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신님!
+어떤 돼지가 학교를 돌면서 신자들을 공격하고 있다고 하는데요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 진짜 돼지가 아니라 돼지 같이 살 찐 사람입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 정도는 말 안해도 안다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히익!!! 죄송합니닷!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 그래서 그 놈, 어떻게 처리할까요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 천지급 전사들을 보내라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지급 전사를 말입니까?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래… 두 번 말하게 하지 말도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예, 옛!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7348,8 +7607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2450" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2450"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2548" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2548"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7637,10 +7896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2450"/>
+  <dimension ref="A1:J2548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2433" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2445" sqref="D2445"/>
+    <sheetView tabSelected="1" topLeftCell="A2525" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2548" sqref="D2548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34950,20 +35209,1107 @@
       <c r="A2447" t="s">
         <v>1630</v>
       </c>
+      <c r="B2447">
+        <v>6</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="2448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2448" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="2449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2448">
+        <v>4</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2449" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="2450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2449">
+        <v>4</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2450" t="s">
         <v>1630</v>
+      </c>
+      <c r="B2450">
+        <v>4</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2451" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D2451" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2452" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2452" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2453" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2453">
+        <v>2</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2454" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2454">
+        <v>3</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2455" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2455">
+        <v>4</v>
+      </c>
+      <c r="D2455" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2456" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2456">
+        <v>6</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2457" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2457">
+        <v>5</v>
+      </c>
+      <c r="D2457" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2458" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D2458" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2459" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2459">
+        <v>4</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2460" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2461" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2462" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2463" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2464" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2465" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2465">
+        <v>2</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2466" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2466">
+        <v>4</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2467" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2467">
+        <v>3</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2468" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2468">
+        <v>5</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2469" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2469" s="3" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2470" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2470">
+        <v>2</v>
+      </c>
+      <c r="D2470" s="3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2471" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2471" s="3" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2472" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2472">
+        <v>4</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2473" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2473">
+        <v>4</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2474" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2474">
+        <v>6</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2475" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2475">
+        <v>3</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2476" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2476" s="3" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2477" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2477">
+        <v>2</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2478" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2478">
+        <v>3</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2479" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2479" s="3" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2480" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2480">
+        <v>2</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2481" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2482" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2482">
+        <v>4</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2483" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2483">
+        <v>6</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2484" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2485" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2486" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2486">
+        <v>2</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2487" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2487" s="3" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2488" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2488" s="3" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2489" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2489">
+        <v>2</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2490" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2490">
+        <v>3</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2491" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2491">
+        <v>4</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2492" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2492">
+        <v>6</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2493" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2493" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2494" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2494" s="3" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2495" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2495">
+        <v>2</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2496" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2496" s="3" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2497" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2497">
+        <v>2</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2498" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2499" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2499">
+        <v>2</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2500" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2500">
+        <v>4</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2501" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2501">
+        <v>6</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2502" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2503" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2504" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2505" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2505">
+        <v>4</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2506" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B2506">
+        <v>4</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2507" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2507">
+        <v>3</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2508" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2508">
+        <v>5</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2509" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2510" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2510">
+        <v>4</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2511" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2511">
+        <v>4</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2512" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2512">
+        <v>6</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2513" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2514" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2514">
+        <v>3</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2515" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2516" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2517" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2518" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2519" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2519">
+        <v>4</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2520" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2520">
+        <v>4</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2521" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2521">
+        <v>2</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2522" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2522">
+        <v>3</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2523" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2523" s="3" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2524" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2525" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2526" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2526">
+        <v>3</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2527" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2528" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2528">
+        <v>2</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2529" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2530" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2531" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2532" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2532">
+        <v>4</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2533" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2533" s="3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2534" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2535" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2536" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2536">
+        <v>6</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2537" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2538" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2538">
+        <v>6</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2539" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2540" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2540" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2541" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2541" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2542" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2542">
+        <v>6</v>
+      </c>
+      <c r="D2542" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2543" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2543" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2544" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2544" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2545" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2545">
+        <v>6</v>
+      </c>
+      <c r="D2545" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2546" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D2546" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2547" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2547">
+        <v>4</v>
+      </c>
+      <c r="D2547" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2548" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B2548">
+        <v>4</v>
+      </c>
+      <c r="D2548" t="s">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="1775">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7401,6 +7401,230 @@
   </si>
   <si>
     <t>예, 옛!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉뚱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후 이 반만 하면 1학년은 끝인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르침을 준다는 것은 생각보다 쉬운 일이 아니구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금은 선생님에 대한 존경심을 가지는 것도 나쁘지 않을지도 모르겠는걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 니가 반에 드갈 때 마다 싸움부터 하니 그런 거 아니가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 어쩔 수 없이 싸운 거라고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 더 평화적인 방법으로 가르쳐 봐.
+이번엔 내가 도와줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오우! 별 도움은 안 되겠지만 잘 부탁한다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교실에 들어서자 지금 까지 거쳐왔던 다른 반과는 다른 분위기가 맴돌았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적만이 맴도는 교실 안에서 학생들은 이상한 자세로 기도를 하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오우! 이 반은 조용해서 좋은 걸?
+모범생 반인 걸까나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이! 너 뭔데?
+지금 기도 중인거 안 보여?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기도?
+여기 기독교 학교였나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 분위기가 이상해…
+뭔가 소름끼친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 무교지만 너네들의 종교의 자유는 보장해주지!
+빨리 기도를 끝내도록!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양아치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 나가냐?
+뒤져 볼래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 또 하는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 이렇게 되는 거냣?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기도는 중지다!!
+이 돼지놈 부터 조져!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…
+예…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고2-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자~ 그럼 수업을 시작해 볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단! 그 전에 한 가지 물어볼 것이 있다!
+랄까? 이 몸 방금 전에 느껴버렸달까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방금 전에 너네들 나와 싸우는 거 내켜하지 않아 했지만 이 녀석이 시키는 대로 했지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 뭔가 이상해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇네.
+단순한 학교폭력에 의한 건 아닌 거 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐음…
+입을 안 여니 어쩔 수 없나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 1학년에서의 일을 끝내고 2학년 교실로 올라갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7607,8 +7831,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2548" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2548"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2632" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2632"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -7896,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2548"/>
+  <dimension ref="A1:J2632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2525" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2548" sqref="D2548"/>
+    <sheetView tabSelected="1" topLeftCell="A2602" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2488" sqref="D2488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -36312,6 +36536,810 @@
         <v>1715</v>
       </c>
     </row>
+    <row r="2549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2549" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2549">
+        <v>4</v>
+      </c>
+      <c r="D2549" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2550" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2550">
+        <v>5</v>
+      </c>
+      <c r="D2550" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2551" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2551">
+        <v>4</v>
+      </c>
+      <c r="D2551" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2552" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2552" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2553" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2553" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2554" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2554" s="3" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2555" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2555">
+        <v>2</v>
+      </c>
+      <c r="D2555" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2556" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2556">
+        <v>3</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2557" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2558" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2559" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2559">
+        <v>2</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2560" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D2560" s="3" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2561" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2562" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2562">
+        <v>4</v>
+      </c>
+      <c r="D2562" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2563" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2563">
+        <v>4</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2564" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2564">
+        <v>4</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2565" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2566" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2567" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2567" s="3" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2568" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2568">
+        <v>2</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2569" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2569">
+        <v>3</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2570" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2570">
+        <v>4</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2571" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D2571" s="3" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2572" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2572" s="3" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2573" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2573">
+        <v>2</v>
+      </c>
+      <c r="D2573" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2574" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D2574" s="3" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2575" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2575" s="3" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2576" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2576">
+        <v>2</v>
+      </c>
+      <c r="D2576" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2577" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2577">
+        <v>3</v>
+      </c>
+      <c r="D2577" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2578" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2578">
+        <v>4</v>
+      </c>
+      <c r="D2578" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2579" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2579">
+        <v>6</v>
+      </c>
+      <c r="D2579" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2580" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D2580" s="3" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2581" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2581">
+        <v>2</v>
+      </c>
+      <c r="D2581" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2582" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2582">
+        <v>3</v>
+      </c>
+      <c r="D2582" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2583" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D2583" s="3" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2584" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2584" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2585" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2585">
+        <v>2</v>
+      </c>
+      <c r="D2585" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2586" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2586">
+        <v>4</v>
+      </c>
+      <c r="D2586" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2587" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2587">
+        <v>3</v>
+      </c>
+      <c r="D2587" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2588" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2588">
+        <v>6</v>
+      </c>
+      <c r="D2588" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2589" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D2589" s="3" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2590" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2590">
+        <v>2</v>
+      </c>
+      <c r="D2590" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2591" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D2591" s="3" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2592" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2592">
+        <v>4</v>
+      </c>
+      <c r="D2592" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2593" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B2593">
+        <v>4</v>
+      </c>
+      <c r="D2593" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2594" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2594" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2595" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="D2595" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2596" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2596">
+        <v>3</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2597" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2597">
+        <v>4</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2598" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2598">
+        <v>6</v>
+      </c>
+      <c r="D2598" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2599" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D2599" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2600" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2600" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2601" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2601" s="3" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2602" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2602" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2603" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2603">
+        <v>2</v>
+      </c>
+      <c r="D2603" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2604" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2604">
+        <v>3</v>
+      </c>
+      <c r="D2604" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2605" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D2605" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2606" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2606">
+        <v>2</v>
+      </c>
+      <c r="D2606" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2607" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D2607" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2608" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2608">
+        <v>2</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2609" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D2609" s="3" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2610" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D2610" s="3" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2611" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2611">
+        <v>4</v>
+      </c>
+      <c r="D2611" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2612" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D2612" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2613" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2613">
+        <v>4</v>
+      </c>
+      <c r="D2613" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2614" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B2614">
+        <v>4</v>
+      </c>
+      <c r="D2614" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2615" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2616" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2617" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2618" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2619" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2620" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2621" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2622" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2623" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2624" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2625" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2626" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2627" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2628" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2629" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2630" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2631" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2632" t="s">
+        <v>1774</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="1844">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7625,6 +7625,293 @@
   </si>
   <si>
     <t>천신고3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자란적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지오프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 2학년 교실이 있는 층으로 이동했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 이거 정말 3학년 까지 다 해야하는 거야?
+너무 오래 걸리는 것 같은데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최우정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 학교의 학생들이 이 몸을 필요로 하는 한..!
+이 몸은 달려갈거라구!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금까지는 니가 필요해 보이는 학생은 없었지만 말이제~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어어어어어!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔 소리고 이게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 비명 소리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 교실 안에서 들린 거 맞지?
+들어간다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 곧장 소리가 들린 2학년 1반 교실로 들어갔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 곳에서는 정말 상식밖이라고 밖에 할 수 없는 일이 벌어지고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜! 왜 나야!
+다른 여자애들도 많잖아!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그만 질질 짜고 따라와!
+네가 선택됐다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어! 싫어!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 미쳤나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이! 그쯤 해 두시지…
+이 몸의 앞에서 그런 난폭한 행동은 용납되지 않는다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웩…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따까리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐래 이 돼지같은 게!
+저리 안 꺼져?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후… 말로해선 안되겠군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고3-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네… 감사합니다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 저 녀석들은 왜 널 끌고가려 한 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여학생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건… 그건 말 못해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 안하면 아무 것도 해결되지 않는데이.
+차라리 비계 파이터 @이름이 있는 지금 모든 걸 털어놔라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 아나?
+임마가 해결해 줄지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 끌려가게된 이유는…
+제가 제물로 선택됐기 때문이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제물이라니…
+이 학교에서는 도대체 무슨 일이 벌어지고 있는 거냣?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7831,8 +8118,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2632" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2632"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F2683" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F2683"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -8120,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2632"/>
+  <dimension ref="A1:J2683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2602" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2488" sqref="D2488"/>
+    <sheetView tabSelected="1" topLeftCell="A2670" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2684" sqref="D2684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -37254,90 +37541,744 @@
       <c r="A2615" t="s">
         <v>1774</v>
       </c>
+      <c r="B2615">
+        <v>5</v>
+      </c>
+      <c r="D2615" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="2616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2616" t="s">
         <v>1774</v>
       </c>
+      <c r="B2616">
+        <v>4</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>1776</v>
+      </c>
     </row>
     <row r="2617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2617" t="s">
         <v>1774</v>
       </c>
+      <c r="B2617">
+        <v>4</v>
+      </c>
+      <c r="D2617" t="s">
+        <v>1777</v>
+      </c>
     </row>
     <row r="2618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2618" t="s">
         <v>1774</v>
       </c>
+      <c r="D2618" t="s">
+        <v>1778</v>
+      </c>
     </row>
     <row r="2619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2619" t="s">
         <v>1774</v>
       </c>
+      <c r="B2619">
+        <v>4</v>
+      </c>
+      <c r="D2619" t="s">
+        <v>1779</v>
+      </c>
     </row>
     <row r="2620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2620" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2620">
+        <v>2</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2621" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2621" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D2621" s="3" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2622" t="s">
         <v>1774</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D2622" s="3" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="2623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2623" t="s">
         <v>1774</v>
       </c>
+      <c r="B2623">
+        <v>2</v>
+      </c>
+      <c r="D2623" t="s">
+        <v>1780</v>
+      </c>
     </row>
     <row r="2624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2624" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2624">
+        <v>3</v>
+      </c>
+      <c r="D2624" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2625" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2625" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D2625" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2626" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2626">
+        <v>4</v>
+      </c>
+      <c r="D2626" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2627" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2627">
+        <v>4</v>
+      </c>
+      <c r="D2627" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2628" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2628">
+        <v>6</v>
+      </c>
+      <c r="D2628" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2629" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2629">
+        <v>5</v>
+      </c>
+      <c r="D2629" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2630" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C2630" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D2630" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2631" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="2632" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2632" t="s">
+      <c r="B2631">
+        <v>3</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2632">
+        <v>5</v>
+      </c>
+      <c r="D2632" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2633" t="s">
         <v>1774</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D2633" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2634" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2634">
+        <v>2</v>
+      </c>
+      <c r="D2634" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2635" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2635">
+        <v>3</v>
+      </c>
+      <c r="D2635" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2636" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2637" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D2637" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2638" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2638">
+        <v>4</v>
+      </c>
+      <c r="D2638" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2639" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2639">
+        <v>4</v>
+      </c>
+      <c r="D2639" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2640" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D2640" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2641" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D2641" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2642" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2642">
+        <v>4</v>
+      </c>
+      <c r="D2642" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2643" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2643">
+        <v>4</v>
+      </c>
+      <c r="D2643" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2644" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2644">
+        <v>6</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2645" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D2645" s="3" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2646" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2646">
+        <v>2</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2647" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D2647" s="3" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2648" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2648">
+        <v>4</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2649" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2649">
+        <v>4</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2650" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2650">
+        <v>6</v>
+      </c>
+      <c r="D2650" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2651" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2651">
+        <v>3</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2652" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2653" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2653">
+        <v>3</v>
+      </c>
+      <c r="D2653" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2654" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2654">
+        <v>6</v>
+      </c>
+      <c r="D2654" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2655" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2656" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D2656" s="3" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2657" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2657">
+        <v>2</v>
+      </c>
+      <c r="D2657" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2658" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2658">
+        <v>3</v>
+      </c>
+      <c r="D2658" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2659" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D2659" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2660" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2660">
+        <v>2</v>
+      </c>
+      <c r="D2660" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2661" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2661">
+        <v>4</v>
+      </c>
+      <c r="D2661" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2662" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2662">
+        <v>3</v>
+      </c>
+      <c r="D2662" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2663" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2663">
+        <v>6</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2664" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D2664" s="3" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2665" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D2665" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2666" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2666">
+        <v>4</v>
+      </c>
+      <c r="D2666" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2667" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B2667">
+        <v>4</v>
+      </c>
+      <c r="D2667" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2668" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D2668" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2669" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D2669" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2670" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D2670" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2671" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D2671" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2672" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2672">
+        <v>2</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2673" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D2673" s="3" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2674" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D2674" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2675" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2675" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D2675" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2676" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2676">
+        <v>5</v>
+      </c>
+      <c r="D2676" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2677" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2677">
+        <v>6</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2678" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2678">
+        <v>4</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2679" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C2679" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D2679" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2680" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2680">
+        <v>4</v>
+      </c>
+      <c r="D2680" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2681" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D2681" s="3" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2682" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2682">
+        <v>4</v>
+      </c>
+      <c r="D2682" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2683" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B2683">
+        <v>4</v>
+      </c>
+      <c r="D2683" t="s">
+        <v>1838</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinhee/Desktop/UnityProject/nerdgame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58541A61-09FD-EE44-8DBC-4B05B02BED83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4139EE88-3911-934B-8104-E853307B640C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="2020">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7295,10 +7295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>켁! 돼지주제에 왜 이렇게 세냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>형님!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8245,6 +8241,429 @@
   </si>
   <si>
     <t>오이오이 1:1 로 좀 붙자곳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지전사 구천수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지전사 구천수다.
+긴 말 하지 않겠다.
+그 분의 뜻이니 죽어라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이!!! 죽이는 거냐고옷!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 아니 혼내준다는 뜻이다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생은 네가 아니라 나다!
+혼내려면 내가 널 혼내야지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지전사 지학호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오..?
+천지급인 우리를 보고도 저 당당함..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 승부가 되겠군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러지 말고 우리 말로 하자고!
+친구들 사이비는 좋지 않아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽어랏 돼지같은 놈!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고6-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅성웅성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지급 전사가 모두 무너졌다!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴우…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단해 돼지!!!
+저렇게 강해 보이는 사람을 둘이나!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운이 좋았달까?
+이 몸은 너무 강해져버린 게 아닐까나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크큭! 이미 천신님이 의식을 진행 중이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 의식이 뭔데!
+뭘 하는 건데?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 무슨 짓을 한 건 아니겠제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마! 천지전사!
+그 제물인 여자애는 어딨노!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아차..! 크크크크…
+이 몸은 더 이상 말해줄 수 없군!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁금하면 직접 보시지…
+의식의 제단은 강당에 있다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크… 의식은 대단하다고?
+이 몸은 그 것을 본 순간 흥분이 멈추지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 재빨리 강당으로 향했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신… 도대체 무슨 일을 하려는 거냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 그렇고 그런 일..?
+크흥~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강당 내부는 지금이 낮이라고는 생각할 수 없을 정도로 어두웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암막커튼이 내부로 들어오는 빛을 완전히 차단하고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 천신!!!
+어디있는 거냐!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구냐 신성한 의식을 방해하는 것은.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니아니 잠깐…
+이 몸은 모든 걸 알고있지…
+너는 대구에서 온 비계파이터 @이름.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 왕국에 침입한 아기돼지 한 마리…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점마 왠지 니 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의식을 방해한 죄는 무겁지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 기다려라…
+이 몸은 지금 바쁘거든.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의식이 곧 완성된다.
+이 몸에게 있어 최고의 기쁨이..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 날만을 기다렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이 알았으니 일단 불 좀 키자고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 잠..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무슨 기괴한 장면이란 말인가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속옷차림의 천신과 채찍을 들고있는 제물인 여학생.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여학생의 표정은 정말 말로 설명할 수 없는 애매하게 썩은 표정이었다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방해… 한 걸까나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 네놈…
+용서하지 않겠다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신의 이름을 걸고 영원한 안식을 선물해주마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 네가 과연 천신님을 막을 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 분이야 말로 신이 될 만한 그릇이지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무려, 대전 최약체여서 매일 약탈을 당했던 우리 학교를 혼자 힘으로 대전 최고의 강호로 만드신 분이니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신고7-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크… 크윽..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신 마조석, 그 분은 네가 생각하는 것 보다 훨씬 강하다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신 마조석</t>
+  </si>
+  <si>
+    <t>천신 마조석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기돼지가 아니라 멧돼지였던 건가..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이! 이제 그 소름끼치는 사이비 종교 놀이는 그만 두지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이비 종교라고?
+미안하지만 천신교는 종교같은게 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신교는 이 학교를 더 강하게 만들기 위한 도구에 불과했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구라니 뭔 소리고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크큭! 나약했던 이 천신고는 약자로 살아갈 수 밖에 없었던 이유가 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감의 부재..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 타 학교 녀석들에게 약탈을 당하면서도 반항할 수 없었던 거지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 이 몸은 된 것이다.
+자신을 믿을 수 없는 녀석들이 유일하게 믿고 의지할 수 있는 &lt;color=#F15F5F&gt;'신'&lt;/color&gt;이..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 걸로 된 것이다..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데도 네놈은 이 천신교를 없애라는 것이냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀석들은 나를 믿고, 내가 시키는 대로 해서 강해지고, 스스로의 적들을 물리친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켁! 돼지주제에 왜 이렇게 세냐?
+역시 우리로는 이런 돼지 하나 이길 수 없는 건가..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..!
+역시 우리같은 말단은…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 분이 없으면 안되는 건가..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 결과 이 천신고는 더 이상 약체가 아니게 됐지.
+아니! 오히려 대전 최강의 학교가 됐다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감이란 것이 없으면 인간은 성장할 수도 맞서 싸울 수도 없다.
+이 학교의 녀석들은 그 것이 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 아까 그 의식은 뭘 위한 건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 내 은밀한 취미라고나 할까…
+흠! 흠!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 취미에 불쌍하게 놀아난 죄없는 소녀가 불쌍하지도 않냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하, 하지만!
+빅 데이터 분석을 통해 S일 것 같은 사람만 제물로 선정했단 말이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 순간 강당의 문이 활짝 열렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지녀석 어딨냐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처, 천신님이 당했다!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크큭..!
+… 신노름도 이걸로 끝이군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천신은 하늘을 바라보며 두 펄을 펼치며 소리쳤다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자! 완전한 믿음이 무너지는 순간이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 천신고에서의 사건은 일단락되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결코 싫지만은 않았을 것이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약탈당하는 처지의 약체 학교를 바꾸기 위해 극단적인 선택을 했던 천신 마조석.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 욕망을 이용해 뒤틀린 욕망을 해소하기도 했지만 악인이라고 볼 수 만은 없을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최강이라 믿고 의지하던 천신이 어디서 굴러들어온 찐따같은 녀석에게 패한 모습은 분명 천신고에 큰 변화를 불러올 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너네들이 약탈당했던 과거에 대해서도 들었고, 천신교에 의해 구원받았다는 것도 들었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 천신은너네들이 생각하는 만큼 최강의 존재가 아니었지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 날 고용한 강사분이 왜 이 몸을 이 학교로 데려왔는지 알 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타인을, 종교를 믿는 것도 좋지만, 그 전에 가장 믿어야 할 것은 자기 자신 밖에 없다는 것을 명심하라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 강의를 마치자 옆에서 박수소리가 들려왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나를 고용한 강사분이 흐뭇한 미소로 박수를 치고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신에게 한계를 정하지 않는다면 얼마든지 강해질 수 있다는 걸 괴롭힘 받던 약골에서 최강의 남자가 된 이 몸이 보장하지!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8252,7 +8671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8316,8 +8735,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8339,13 +8766,34 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -8363,7 +8811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8399,6 +8847,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8451,8 +8902,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:F2865" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F2865" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:F3064" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F3064" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -8740,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2865"/>
+  <dimension ref="A1:J3064"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2846" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2865" sqref="D2865"/>
+    <sheetView tabSelected="1" topLeftCell="A3043" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3060" sqref="D3060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -36164,7 +36615,7 @@
         <v>5</v>
       </c>
       <c r="D2457" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -36276,7 +36727,7 @@
         <v>5</v>
       </c>
       <c r="D2468" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="2469" spans="1:4" ht="36">
@@ -36716,18 +37167,18 @@
         <v>5</v>
       </c>
       <c r="D2508" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:4">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:4" ht="36">
       <c r="A2509" t="s">
         <v>1693</v>
       </c>
       <c r="C2509" t="s">
         <v>1672</v>
       </c>
-      <c r="D2509" t="s">
-        <v>1695</v>
+      <c r="D2509" s="3" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
@@ -36771,7 +37222,7 @@
         <v>1638</v>
       </c>
       <c r="D2513" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="2514" spans="1:4">
@@ -36793,7 +37244,7 @@
         <v>1672</v>
       </c>
       <c r="D2515" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="2516" spans="1:4">
@@ -36804,7 +37255,7 @@
         <v>1638</v>
       </c>
       <c r="D2516" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="2517" spans="1:4">
@@ -36815,7 +37266,7 @@
         <v>1638</v>
       </c>
       <c r="D2517" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="2518" spans="1:4">
@@ -36826,7 +37277,7 @@
         <v>1672</v>
       </c>
       <c r="D2518" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="2519" spans="1:4">
@@ -36881,7 +37332,7 @@
         <v>1642</v>
       </c>
       <c r="D2523" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="2524" spans="1:4">
@@ -36892,7 +37343,7 @@
         <v>1638</v>
       </c>
       <c r="D2524" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2525" spans="1:4">
@@ -36903,7 +37354,7 @@
         <v>1638</v>
       </c>
       <c r="D2525" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="2526" spans="1:4">
@@ -36925,7 +37376,7 @@
         <v>1642</v>
       </c>
       <c r="D2527" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="2528" spans="1:4">
@@ -36947,7 +37398,7 @@
         <v>1639</v>
       </c>
       <c r="D2529" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="2530" spans="1:4">
@@ -36955,7 +37406,7 @@
         <v>1693</v>
       </c>
       <c r="D2530" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="2531" spans="1:4">
@@ -36966,7 +37417,7 @@
         <v>1638</v>
       </c>
       <c r="D2531" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="2532" spans="1:4">
@@ -36985,10 +37436,10 @@
         <v>1693</v>
       </c>
       <c r="C2533" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D2533" s="3" t="s">
         <v>1708</v>
-      </c>
-      <c r="D2533" s="3" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="2534" spans="1:4">
@@ -36996,10 +37447,10 @@
         <v>1693</v>
       </c>
       <c r="C2534" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2534" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="2535" spans="1:4">
@@ -37007,10 +37458,10 @@
         <v>1693</v>
       </c>
       <c r="C2535" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2535" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="2536" spans="1:4">
@@ -37029,10 +37480,10 @@
         <v>1693</v>
       </c>
       <c r="C2537" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2537" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="2538" spans="1:4">
@@ -37051,10 +37502,10 @@
         <v>1693</v>
       </c>
       <c r="C2539" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2539" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="2540" spans="1:4">
@@ -37062,10 +37513,10 @@
         <v>1693</v>
       </c>
       <c r="C2540" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2540" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="2541" spans="1:4">
@@ -37073,10 +37524,10 @@
         <v>1693</v>
       </c>
       <c r="C2541" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2541" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="2542" spans="1:4">
@@ -37095,10 +37546,10 @@
         <v>1693</v>
       </c>
       <c r="C2543" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2543" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="2544" spans="1:4">
@@ -37106,10 +37557,10 @@
         <v>1693</v>
       </c>
       <c r="C2544" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2544" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="2545" spans="1:4">
@@ -37128,10 +37579,10 @@
         <v>1693</v>
       </c>
       <c r="C2546" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D2546" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="2547" spans="1:4">
@@ -37153,2300 +37604,2303 @@
         <v>4</v>
       </c>
       <c r="D2548" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="2549" spans="1:4">
       <c r="A2549" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B2549">
+        <v>4</v>
+      </c>
+      <c r="D2549" t="s">
         <v>1722</v>
-      </c>
-      <c r="B2549">
-        <v>4</v>
-      </c>
-      <c r="D2549" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="2550" spans="1:4">
       <c r="A2550" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2550">
         <v>5</v>
       </c>
       <c r="D2550" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="2551" spans="1:4">
       <c r="A2551" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2551">
         <v>4</v>
       </c>
       <c r="D2551" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="2552" spans="1:4">
       <c r="A2552" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2552" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2552" t="s">
         <v>1726</v>
-      </c>
-      <c r="D2552" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="2553" spans="1:4">
       <c r="A2553" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2553" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2553" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="2554" spans="1:4" ht="36">
       <c r="A2554" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2554" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2554" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="2555" spans="1:4">
       <c r="A2555" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2555">
         <v>2</v>
       </c>
       <c r="D2555" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="2556" spans="1:4">
       <c r="A2556" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2556">
         <v>3</v>
       </c>
       <c r="D2556" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2557" spans="1:4">
       <c r="A2557" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2557" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D2557" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="2558" spans="1:4">
       <c r="A2558" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2558" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2558" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="2559" spans="1:4">
       <c r="A2559" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2559">
         <v>2</v>
       </c>
       <c r="D2559" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="2560" spans="1:4" ht="36">
       <c r="A2560" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2560" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D2560" s="3" t="s">
         <v>1735</v>
-      </c>
-      <c r="D2560" s="3" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="2561" spans="1:4">
       <c r="A2561" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2561" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2561" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="2562" spans="1:4">
       <c r="A2562" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2562">
         <v>4</v>
       </c>
       <c r="D2562" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="2563" spans="1:4">
       <c r="A2563" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B2563">
+        <v>4</v>
+      </c>
+      <c r="D2563" t="s">
         <v>1722</v>
-      </c>
-      <c r="B2563">
-        <v>4</v>
-      </c>
-      <c r="D2563" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="2564" spans="1:4">
       <c r="A2564" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2564">
         <v>4</v>
       </c>
       <c r="D2564" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="2565" spans="1:4">
       <c r="A2565" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D2565" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="2566" spans="1:4">
       <c r="A2566" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D2566" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2567" spans="1:4" ht="36">
       <c r="A2567" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2567" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2567" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="2568" spans="1:4">
       <c r="A2568" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2568">
         <v>2</v>
       </c>
       <c r="D2568" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2569" spans="1:4">
       <c r="A2569" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2569">
         <v>3</v>
       </c>
       <c r="D2569" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="2570" spans="1:4">
       <c r="A2570" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2570">
         <v>4</v>
       </c>
       <c r="D2570" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="2571" spans="1:4" ht="36">
       <c r="A2571" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2571" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D2571" s="3" t="s">
         <v>1743</v>
-      </c>
-      <c r="D2571" s="3" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="2572" spans="1:4" ht="36">
       <c r="A2572" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2572" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2572" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="2573" spans="1:4">
       <c r="A2573" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2573">
         <v>2</v>
       </c>
       <c r="D2573" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="2574" spans="1:4" ht="36">
       <c r="A2574" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2574" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D2574" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="2575" spans="1:4" ht="36">
       <c r="A2575" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2575" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2575" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="2576" spans="1:4">
       <c r="A2576" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2576">
         <v>2</v>
       </c>
       <c r="D2576" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="2577" spans="1:4">
       <c r="A2577" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2577">
         <v>3</v>
       </c>
       <c r="D2577" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2578" spans="1:4">
       <c r="A2578" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2578">
         <v>4</v>
       </c>
       <c r="D2578" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="2579" spans="1:4">
       <c r="A2579" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2579">
         <v>6</v>
       </c>
       <c r="D2579" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="2580" spans="1:4" ht="36">
       <c r="A2580" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2580" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D2580" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="2581" spans="1:4">
       <c r="A2581" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2581">
         <v>2</v>
       </c>
       <c r="D2581" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="2582" spans="1:4">
       <c r="A2582" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2582">
         <v>3</v>
       </c>
       <c r="D2582" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2583" spans="1:4" ht="18">
       <c r="A2583" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2583" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D2583" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="2584" spans="1:4">
       <c r="A2584" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2584" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D2584" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="2585" spans="1:4">
       <c r="A2585" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2585">
         <v>2</v>
       </c>
       <c r="D2585" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="2586" spans="1:4">
       <c r="A2586" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2586">
         <v>4</v>
       </c>
       <c r="D2586" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="2587" spans="1:4">
       <c r="A2587" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2587">
         <v>3</v>
       </c>
       <c r="D2587" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="2588" spans="1:4">
       <c r="A2588" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2588">
         <v>6</v>
       </c>
       <c r="D2588" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="2589" spans="1:4" ht="36">
       <c r="A2589" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2589" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D2589" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="2590" spans="1:4">
       <c r="A2590" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2590">
         <v>2</v>
       </c>
       <c r="D2590" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="2591" spans="1:4" ht="36">
       <c r="A2591" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C2591" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D2591" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="2592" spans="1:4">
       <c r="A2592" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2592">
         <v>4</v>
       </c>
       <c r="D2592" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="2593" spans="1:4">
       <c r="A2593" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B2593">
         <v>4</v>
       </c>
       <c r="D2593" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="2594" spans="1:4">
       <c r="A2594" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2594" t="s">
         <v>1762</v>
-      </c>
-      <c r="C2594" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D2594" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="2595" spans="1:4">
       <c r="A2595" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2595">
         <v>2</v>
       </c>
       <c r="D2595" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="2596" spans="1:4">
       <c r="A2596" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2596">
         <v>3</v>
       </c>
       <c r="D2596" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2597" spans="1:4">
       <c r="A2597" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2597">
         <v>4</v>
       </c>
       <c r="D2597" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="2598" spans="1:4">
       <c r="A2598" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2598">
         <v>6</v>
       </c>
       <c r="D2598" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="2599" spans="1:4" ht="18">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:4" ht="36">
       <c r="A2599" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C2599" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D2599" s="3" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:4" ht="18">
+      <c r="A2600" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D2600" s="3" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:4">
+      <c r="A2601" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2601" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="2600" spans="1:4">
-      <c r="A2600" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C2600" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D2600" t="s">
+    <row r="2602" spans="1:4" ht="36">
+      <c r="A2602" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2602" s="3" t="s">
         <v>1765</v>
-      </c>
-    </row>
-    <row r="2601" spans="1:4" ht="36">
-      <c r="A2601" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C2601" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D2601" s="3" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="2602" spans="1:4">
-      <c r="A2602" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C2602" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D2602" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="2603" spans="1:4">
       <c r="A2603" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B2603">
-        <v>2</v>
+        <v>1761</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>1725</v>
       </c>
       <c r="D2603" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="2604" spans="1:4">
       <c r="A2604" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2604">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2604" t="s">
-        <v>1732</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="2605" spans="1:4">
       <c r="A2605" t="s">
-        <v>1762</v>
+        <v>1761</v>
+      </c>
+      <c r="B2605">
+        <v>3</v>
       </c>
       <c r="D2605" t="s">
-        <v>1752</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2606" spans="1:4">
       <c r="A2606" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B2606">
-        <v>2</v>
+        <v>1761</v>
       </c>
       <c r="D2606" t="s">
-        <v>1735</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="2607" spans="1:4">
       <c r="A2607" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C2607" t="s">
-        <v>1735</v>
+        <v>1761</v>
+      </c>
+      <c r="B2607">
+        <v>2</v>
       </c>
       <c r="D2607" t="s">
-        <v>1769</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="2608" spans="1:4">
       <c r="A2608" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B2608">
+        <v>1761</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D2608" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:4">
+      <c r="A2609" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B2609">
         <v>2</v>
       </c>
-      <c r="D2608" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="2609" spans="1:4" ht="36">
-      <c r="A2609" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C2609" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D2609" s="3" t="s">
-        <v>1770</v>
+      <c r="D2609" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="2610" spans="1:4" ht="36">
       <c r="A2610" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C2610" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="D2610" s="3" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="2611" spans="1:4">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:4" ht="36">
       <c r="A2611" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B2611">
-        <v>4</v>
-      </c>
-      <c r="D2611" t="s">
-        <v>1738</v>
+        <v>1761</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D2611" s="3" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="2612" spans="1:4">
       <c r="A2612" t="s">
-        <v>1762</v>
+        <v>1761</v>
+      </c>
+      <c r="B2612">
+        <v>4</v>
       </c>
       <c r="D2612" t="s">
-        <v>1772</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="2613" spans="1:4">
       <c r="A2613" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B2613">
-        <v>4</v>
+        <v>1761</v>
       </c>
       <c r="D2613" t="s">
-        <v>1725</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="2614" spans="1:4">
       <c r="A2614" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B2614">
         <v>4</v>
       </c>
       <c r="D2614" t="s">
-        <v>1773</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="2615" spans="1:4">
       <c r="A2615" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
       <c r="B2615">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2615" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="2616" spans="1:4">
       <c r="A2616" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2616">
+        <v>5</v>
+      </c>
+      <c r="D2616" t="s">
         <v>1774</v>
-      </c>
-      <c r="B2616">
-        <v>4</v>
-      </c>
-      <c r="D2616" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="2617" spans="1:4">
       <c r="A2617" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2617">
         <v>4</v>
       </c>
       <c r="D2617" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="2618" spans="1:4">
       <c r="A2618" t="s">
-        <v>1774</v>
+        <v>1773</v>
+      </c>
+      <c r="B2618">
+        <v>4</v>
       </c>
       <c r="D2618" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="2619" spans="1:4">
       <c r="A2619" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2619">
-        <v>4</v>
+        <v>1773</v>
       </c>
       <c r="D2619" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="2620" spans="1:4">
       <c r="A2620" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2620">
+        <v>4</v>
+      </c>
+      <c r="D2620" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:4">
+      <c r="A2621" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2621">
         <v>2</v>
       </c>
-      <c r="D2620" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="2621" spans="1:4" ht="36">
-      <c r="A2621" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2621" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D2621" s="3" t="s">
+      <c r="D2621" t="s">
         <v>1781</v>
       </c>
     </row>
     <row r="2622" spans="1:4" ht="36">
       <c r="A2622" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C2622" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D2622" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:4" ht="36">
+      <c r="A2623" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D2623" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="D2622" s="3" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="2623" spans="1:4">
-      <c r="A2623" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2623">
-        <v>2</v>
-      </c>
-      <c r="D2623" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="2624" spans="1:4">
       <c r="A2624" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2624">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2624" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="2625" spans="1:4">
       <c r="A2625" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2625" t="s">
-        <v>1780</v>
+        <v>1773</v>
+      </c>
+      <c r="B2625">
+        <v>3</v>
       </c>
       <c r="D2625" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="2626" spans="1:4">
       <c r="A2626" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2626">
-        <v>4</v>
+        <v>1773</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>1779</v>
       </c>
       <c r="D2626" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="2627" spans="1:4">
       <c r="A2627" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2627">
         <v>4</v>
       </c>
       <c r="D2627" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="2628" spans="1:4">
       <c r="A2628" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2628">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2628" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="2629" spans="1:4">
       <c r="A2629" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2629">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2629" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="2630" spans="1:4">
       <c r="A2630" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2630" t="s">
-        <v>1790</v>
+        <v>1773</v>
+      </c>
+      <c r="B2630">
+        <v>5</v>
       </c>
       <c r="D2630" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="2631" spans="1:4">
       <c r="A2631" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2631">
+        <v>1773</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D2631" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:4">
+      <c r="A2632" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2632">
         <v>3</v>
       </c>
-      <c r="D2631" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="2632" spans="1:4">
-      <c r="B2632">
+      <c r="D2632" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:4">
+      <c r="B2633">
         <v>5</v>
       </c>
-      <c r="D2632" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="2633" spans="1:4">
-      <c r="A2633" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2633" t="s">
-        <v>1780</v>
-      </c>
       <c r="D2633" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="2634" spans="1:4">
       <c r="A2634" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2634">
-        <v>2</v>
+        <v>1773</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>1779</v>
       </c>
       <c r="D2634" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="2635" spans="1:4">
       <c r="A2635" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2635">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2635" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="2636" spans="1:4">
       <c r="A2636" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2636" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2636">
+        <v>3</v>
+      </c>
+      <c r="D2636" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:4">
+      <c r="A2637" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D2637" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:4" ht="36">
+      <c r="A2638" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2638" t="s">
         <v>1782</v>
       </c>
-      <c r="D2636" t="s">
+      <c r="D2638" s="3" t="s">
         <v>1793</v>
-      </c>
-    </row>
-    <row r="2637" spans="1:4" ht="36">
-      <c r="A2637" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2637" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D2637" s="3" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="2638" spans="1:4">
-      <c r="A2638" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2638">
-        <v>4</v>
-      </c>
-      <c r="D2638" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="2639" spans="1:4">
       <c r="A2639" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2639">
         <v>4</v>
       </c>
       <c r="D2639" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="2640" spans="1:4">
       <c r="A2640" t="s">
-        <v>1774</v>
+        <v>1773</v>
+      </c>
+      <c r="B2640">
+        <v>4</v>
       </c>
       <c r="D2640" t="s">
-        <v>1798</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="2641" spans="1:4">
       <c r="A2641" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D2641" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="2642" spans="1:4">
       <c r="A2642" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2642">
-        <v>4</v>
+        <v>1773</v>
       </c>
       <c r="D2642" t="s">
-        <v>1779</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="2643" spans="1:4">
       <c r="A2643" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2643">
         <v>4</v>
       </c>
       <c r="D2643" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="2644" spans="1:4">
       <c r="A2644" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2644">
+        <v>4</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:4">
+      <c r="A2645" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2645">
         <v>6</v>
       </c>
-      <c r="D2644" t="s">
+      <c r="D2645" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:4" ht="36">
+      <c r="A2646" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2646" s="3" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:4">
+      <c r="A2647" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2647">
+        <v>2</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:4" ht="36">
+      <c r="A2648" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2648" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="2645" spans="1:4" ht="36">
-      <c r="A2645" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2645" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2645" s="3" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="2646" spans="1:4">
-      <c r="A2646" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2646">
-        <v>2</v>
-      </c>
-      <c r="D2646" t="s">
+      <c r="D2648" s="3" t="s">
         <v>1804</v>
-      </c>
-    </row>
-    <row r="2647" spans="1:4" ht="36">
-      <c r="A2647" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2647" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D2647" s="3" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="2648" spans="1:4">
-      <c r="A2648" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2648">
-        <v>4</v>
-      </c>
-      <c r="D2648" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="2649" spans="1:4">
       <c r="A2649" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2649">
         <v>4</v>
       </c>
       <c r="D2649" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="2650" spans="1:4">
       <c r="A2650" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2650">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2650" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="2651" spans="1:4">
       <c r="A2651" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2651">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2651" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="2652" spans="1:4">
       <c r="A2652" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2652" t="s">
-        <v>1810</v>
+        <v>1773</v>
+      </c>
+      <c r="B2652">
+        <v>3</v>
       </c>
       <c r="D2652" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="2653" spans="1:4">
       <c r="A2653" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2653">
-        <v>3</v>
+        <v>1773</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>1809</v>
       </c>
       <c r="D2653" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="2654" spans="1:4">
       <c r="A2654" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2654">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2654" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="2655" spans="1:4">
       <c r="A2655" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2655" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2655">
+        <v>6</v>
+      </c>
+      <c r="D2655" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:4">
+      <c r="A2656" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D2656" t="s">
         <v>1814</v>
       </c>
-      <c r="D2655" t="s">
+    </row>
+    <row r="2657" spans="1:4" ht="36">
+      <c r="A2657" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2657" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="2656" spans="1:4" ht="36">
-      <c r="A2656" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2656" t="s">
+      <c r="D2657" s="3" t="s">
         <v>1816</v>
-      </c>
-      <c r="D2656" s="3" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="2657" spans="1:4">
-      <c r="A2657" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2657">
-        <v>2</v>
-      </c>
-      <c r="D2657" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="2658" spans="1:4">
       <c r="A2658" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2658">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2658" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="2659" spans="1:4">
       <c r="A2659" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2659" t="s">
-        <v>1818</v>
+        <v>1773</v>
+      </c>
+      <c r="B2659">
+        <v>3</v>
       </c>
       <c r="D2659" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="2660" spans="1:4">
       <c r="A2660" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2660">
-        <v>2</v>
+        <v>1773</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>1817</v>
       </c>
       <c r="D2660" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="2661" spans="1:4">
       <c r="A2661" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2661">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2661" t="s">
-        <v>1807</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="2662" spans="1:4">
       <c r="A2662" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2662">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2662" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="2663" spans="1:4">
       <c r="A2663" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2663">
+        <v>3</v>
+      </c>
+      <c r="D2663" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:4">
+      <c r="A2664" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2664">
         <v>6</v>
       </c>
-      <c r="D2663" t="s">
+      <c r="D2664" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:4" ht="36">
+      <c r="A2665" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C2665" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="2664" spans="1:4" ht="36">
-      <c r="A2664" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2664" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D2664" s="3" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="2665" spans="1:4">
-      <c r="A2665" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C2665" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D2665" t="s">
-        <v>1822</v>
+      <c r="D2665" s="3" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="2666" spans="1:4">
       <c r="A2666" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B2666">
-        <v>4</v>
+        <v>1773</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>1815</v>
       </c>
       <c r="D2666" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="2667" spans="1:4">
       <c r="A2667" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B2667">
         <v>4</v>
       </c>
       <c r="D2667" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="2668" spans="1:4">
       <c r="A2668" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C2668" t="s">
-        <v>1826</v>
+        <v>1773</v>
+      </c>
+      <c r="B2668">
+        <v>4</v>
       </c>
       <c r="D2668" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="2669" spans="1:4">
       <c r="A2669" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C2669" t="s">
         <v>1825</v>
       </c>
-      <c r="C2669" t="s">
-        <v>1828</v>
-      </c>
       <c r="D2669" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="2670" spans="1:4">
       <c r="A2670" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C2670" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D2670" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="2671" spans="1:4">
       <c r="A2671" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C2671" t="s">
         <v>1825</v>
       </c>
-      <c r="C2671" t="s">
-        <v>1831</v>
-      </c>
       <c r="D2671" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="2672" spans="1:4">
       <c r="A2672" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B2672">
+        <v>1824</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D2672" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:4">
+      <c r="A2673" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B2673">
         <v>2</v>
       </c>
-      <c r="D2672" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="2673" spans="1:4" ht="36">
-      <c r="A2673" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C2673" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D2673" s="3" t="s">
-        <v>1834</v>
+      <c r="D2673" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="2674" spans="1:4" ht="36">
       <c r="A2674" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C2674" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D2674" s="3" t="s">
         <v>1833</v>
       </c>
-      <c r="D2674" s="3" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="2675" spans="1:4">
+    </row>
+    <row r="2675" spans="1:4" ht="36">
       <c r="A2675" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C2675" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D2675" t="s">
-        <v>1836</v>
+        <v>1832</v>
+      </c>
+      <c r="D2675" s="3" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="2676" spans="1:4">
       <c r="A2676" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B2676">
-        <v>5</v>
+        <v>1824</v>
+      </c>
+      <c r="C2676" t="s">
+        <v>1830</v>
       </c>
       <c r="D2676" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="2677" spans="1:4">
       <c r="A2677" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B2677">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2677" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="2678" spans="1:4">
       <c r="A2678" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B2678">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2678" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:4">
+      <c r="A2679" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B2679">
+        <v>4</v>
+      </c>
+      <c r="D2679" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:4" ht="36">
+      <c r="A2680" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C2680" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D2680" s="3" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:4">
+      <c r="A2681" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B2681">
+        <v>4</v>
+      </c>
+      <c r="D2681" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="2679" spans="1:4" ht="36">
-      <c r="A2679" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C2679" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D2679" s="3" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="2680" spans="1:4">
-      <c r="A2680" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B2680">
-        <v>4</v>
-      </c>
-      <c r="D2680" t="s">
+    <row r="2682" spans="1:4" ht="36">
+      <c r="A2682" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D2682" s="3" t="s">
         <v>1841</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:4" ht="36">
-      <c r="A2681" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D2681" s="3" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="2682" spans="1:4">
-      <c r="A2682" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B2682">
-        <v>4</v>
-      </c>
-      <c r="D2682" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="2683" spans="1:4">
       <c r="A2683" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B2683">
         <v>4</v>
       </c>
       <c r="D2683" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="2684" spans="1:4">
       <c r="A2684" t="s">
-        <v>1844</v>
+        <v>1824</v>
       </c>
       <c r="B2684">
         <v>4</v>
       </c>
       <c r="D2684" t="s">
-        <v>45</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="2685" spans="1:4">
       <c r="A2685" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2685">
         <v>4</v>
       </c>
       <c r="D2685" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2686" spans="1:4">
       <c r="A2686" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2686">
+        <v>4</v>
+      </c>
+      <c r="D2686" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:4">
+      <c r="A2687" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2687">
+        <v>5</v>
+      </c>
+      <c r="D2687" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:4" ht="36">
+      <c r="A2688" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2688" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2688" s="3" t="s">
         <v>1844</v>
-      </c>
-      <c r="B2686">
-        <v>5</v>
-      </c>
-      <c r="D2686" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="2687" spans="1:4" ht="36">
-      <c r="A2687" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2687" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2687" s="3" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="2688" spans="1:4">
-      <c r="A2688" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2688" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2688" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="2689" spans="1:4">
       <c r="A2689" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2689">
-        <v>2</v>
+        <v>1843</v>
+      </c>
+      <c r="C2689" t="s">
+        <v>1799</v>
       </c>
       <c r="D2689" t="s">
-        <v>692</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="2690" spans="1:4">
       <c r="A2690" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2690" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2690">
+        <v>2</v>
+      </c>
+      <c r="D2690" t="s">
         <v>692</v>
-      </c>
-      <c r="D2690" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="2691" spans="1:4">
       <c r="A2691" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2691">
-        <v>2</v>
+        <v>1843</v>
+      </c>
+      <c r="C2691" t="s">
+        <v>692</v>
       </c>
       <c r="D2691" t="s">
-        <v>120</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="2692" spans="1:4">
       <c r="A2692" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2692">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2692" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2693" spans="1:4">
       <c r="A2693" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2693">
+        <v>4</v>
+      </c>
+      <c r="D2693" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:4">
+      <c r="A2694" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2694">
         <v>3</v>
       </c>
-      <c r="D2693" t="s">
+      <c r="D2694" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2694" spans="1:4" ht="36">
-      <c r="A2694" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2694" t="s">
+    <row r="2695" spans="1:4" ht="36">
+      <c r="A2695" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2695" t="s">
         <v>120</v>
       </c>
-      <c r="D2694" s="3" t="s">
+      <c r="D2695" s="3" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:4">
+      <c r="A2696" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2696" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2696" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="2695" spans="1:4">
-      <c r="A2695" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2695" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2695" t="s">
+    <row r="2697" spans="1:4" ht="36">
+      <c r="A2697" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2697" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2697" s="3" t="s">
         <v>1849</v>
-      </c>
-    </row>
-    <row r="2696" spans="1:4" ht="36">
-      <c r="A2696" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2696" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2696" s="3" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="2697" spans="1:4">
-      <c r="A2697" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2697">
-        <v>3</v>
-      </c>
-      <c r="D2697" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2698" spans="1:4">
       <c r="A2698" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2698" t="s">
-        <v>120</v>
+        <v>1843</v>
+      </c>
+      <c r="B2698">
+        <v>3</v>
       </c>
       <c r="D2698" t="s">
-        <v>1851</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2699" spans="1:4">
       <c r="A2699" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2699">
-        <v>4</v>
+        <v>1843</v>
+      </c>
+      <c r="C2699" t="s">
+        <v>120</v>
       </c>
       <c r="D2699" t="s">
-        <v>24</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="2700" spans="1:4">
       <c r="A2700" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2700">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2700" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2701" spans="1:4">
       <c r="A2701" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2701" t="s">
-        <v>1800</v>
+        <v>1843</v>
+      </c>
+      <c r="B2701">
+        <v>6</v>
       </c>
       <c r="D2701" t="s">
-        <v>1852</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2702" spans="1:4">
       <c r="A2702" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2702">
-        <v>3</v>
+        <v>1843</v>
+      </c>
+      <c r="C2702" t="s">
+        <v>1799</v>
       </c>
       <c r="D2702" t="s">
-        <v>136</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="2703" spans="1:4">
       <c r="A2703" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2703" t="s">
-        <v>120</v>
+        <v>1843</v>
+      </c>
+      <c r="B2703">
+        <v>3</v>
       </c>
       <c r="D2703" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2704" spans="1:4">
       <c r="A2704" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2704" t="s">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="D2704" t="s">
-        <v>1854</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2705" spans="1:4">
       <c r="A2705" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2705">
+        <v>1843</v>
+      </c>
+      <c r="C2705" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:4">
+      <c r="A2706" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2706">
         <v>2</v>
       </c>
-      <c r="D2705" t="s">
+      <c r="D2706" t="s">
         <v>692</v>
-      </c>
-    </row>
-    <row r="2706" spans="1:4" ht="36">
-      <c r="A2706" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2706" t="s">
-        <v>692</v>
-      </c>
-      <c r="D2706" s="3" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="2707" spans="1:4" ht="36">
       <c r="A2707" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2707" t="s">
-        <v>1800</v>
+        <v>692</v>
       </c>
       <c r="D2707" s="3" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:4" ht="36">
+      <c r="A2708" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2708" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2708" s="3" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:4" ht="18">
+      <c r="A2709" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2709">
+        <v>3</v>
+      </c>
+      <c r="D2709" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:4" ht="36">
+      <c r="A2710" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2710" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2710" s="3" t="s">
         <v>1855</v>
-      </c>
-    </row>
-    <row r="2708" spans="1:4" ht="18">
-      <c r="A2708" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2708">
-        <v>3</v>
-      </c>
-      <c r="D2708" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2709" spans="1:4" ht="36">
-      <c r="A2709" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2709" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2709" s="3" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="2710" spans="1:4">
-      <c r="A2710" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2710" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2710" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="2711" spans="1:4">
       <c r="A2711" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2711" t="s">
         <v>8</v>
       </c>
       <c r="D2711" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:4">
+      <c r="A2712" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2712" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2712" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:4" ht="36">
+      <c r="A2713" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2713" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2713" s="3" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="2712" spans="1:4" ht="36">
-      <c r="A2712" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2712" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D2712" s="3" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:4" ht="18">
-      <c r="B2713">
+    <row r="2714" spans="1:4" ht="18">
+      <c r="B2714">
         <v>2</v>
       </c>
-      <c r="D2713" s="3" t="s">
+      <c r="D2714" s="3" t="s">
         <v>903</v>
-      </c>
-    </row>
-    <row r="2714" spans="1:4">
-      <c r="A2714" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2714">
-        <v>4</v>
-      </c>
-      <c r="D2714" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2715" spans="1:4">
       <c r="A2715" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2715">
         <v>4</v>
       </c>
       <c r="D2715" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2716" spans="1:4">
       <c r="A2716" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2716">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2716" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2717" spans="1:4">
       <c r="A2717" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2717" t="s">
-        <v>13</v>
+        <v>1843</v>
+      </c>
+      <c r="B2717">
+        <v>6</v>
       </c>
       <c r="D2717" t="s">
-        <v>1860</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2718" spans="1:4">
       <c r="A2718" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2718" t="s">
-        <v>1800</v>
+        <v>13</v>
       </c>
       <c r="D2718" t="s">
-        <v>21</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="2719" spans="1:4">
       <c r="A2719" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2719" t="s">
-        <v>8</v>
+        <v>1799</v>
       </c>
       <c r="D2719" t="s">
-        <v>1861</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2720" spans="1:4">
       <c r="A2720" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C2720" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2720" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="2721" spans="1:4">
       <c r="A2721" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2721">
-        <v>4</v>
+        <v>1843</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>13</v>
       </c>
       <c r="D2721" t="s">
-        <v>15</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="2722" spans="1:4">
       <c r="A2722" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2722">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2722" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2723" spans="1:4">
       <c r="A2723" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2723" t="s">
-        <v>1800</v>
+        <v>1843</v>
+      </c>
+      <c r="B2723">
+        <v>3</v>
       </c>
       <c r="D2723" t="s">
-        <v>1868</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2724" spans="1:4">
       <c r="A2724" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2724">
-        <v>6</v>
+        <v>1843</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>1799</v>
       </c>
       <c r="D2724" t="s">
-        <v>49</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="2725" spans="1:4">
       <c r="A2725" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2725">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2725" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2726" spans="1:4">
       <c r="A2726" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2726">
         <v>4</v>
       </c>
       <c r="D2726" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:4">
+      <c r="A2727" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2727">
+        <v>4</v>
+      </c>
+      <c r="D2727" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2727" spans="1:4" ht="36">
-      <c r="A2727" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2727" t="s">
+    <row r="2728" spans="1:4" ht="36">
+      <c r="A2728" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D2728" s="3" t="s">
         <v>1863</v>
-      </c>
-      <c r="D2727" s="3" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="2728" spans="1:4" ht="18">
-      <c r="A2728" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2728" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2728" s="3" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="2729" spans="1:4" ht="18">
       <c r="A2729" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2729">
-        <v>4</v>
+        <v>1843</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>8</v>
       </c>
       <c r="D2729" s="3" t="s">
-        <v>24</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="2730" spans="1:4" ht="18">
       <c r="A2730" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2730">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2730" s="3" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2731" spans="1:4" ht="18">
       <c r="A2731" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2731">
+        <v>3</v>
+      </c>
+      <c r="D2731" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:4" ht="18">
+      <c r="A2732" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B2732">
         <v>6</v>
       </c>
-      <c r="D2731" s="3" t="s">
+      <c r="D2732" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2732" spans="1:4">
-      <c r="A2732" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C2732" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D2732" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="2733" spans="1:4">
       <c r="A2733" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B2733">
-        <v>4</v>
+        <v>1843</v>
+      </c>
+      <c r="C2733" t="s">
+        <v>1862</v>
       </c>
       <c r="D2733" t="s">
-        <v>622</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="2734" spans="1:4">
       <c r="A2734" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B2734">
         <v>4</v>
       </c>
       <c r="D2734" t="s">
-        <v>158</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2735" spans="1:4">
       <c r="A2735" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2735" t="s">
-        <v>8</v>
+        <v>1843</v>
+      </c>
+      <c r="B2735">
+        <v>4</v>
       </c>
       <c r="D2735" t="s">
-        <v>1869</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2736" spans="1:4">
       <c r="A2736" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C2736" t="s">
         <v>8</v>
       </c>
       <c r="D2736" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="2737" spans="1:4">
       <c r="A2737" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2737">
-        <v>3</v>
+        <v>1866</v>
+      </c>
+      <c r="C2737" t="s">
+        <v>8</v>
       </c>
       <c r="D2737" t="s">
-        <v>136</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="2738" spans="1:4">
       <c r="A2738" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2738" t="s">
-        <v>1863</v>
+        <v>1866</v>
+      </c>
+      <c r="B2738">
+        <v>3</v>
       </c>
       <c r="D2738" t="s">
-        <v>1764</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2739" spans="1:4">
       <c r="A2739" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2739">
-        <v>4</v>
+        <v>1866</v>
+      </c>
+      <c r="C2739" t="s">
+        <v>1862</v>
       </c>
       <c r="D2739" t="s">
-        <v>24</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="2740" spans="1:4">
       <c r="A2740" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2740">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2740" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2741" spans="1:4">
       <c r="A2741" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2741" t="s">
-        <v>1800</v>
+        <v>1866</v>
+      </c>
+      <c r="B2741">
+        <v>3</v>
       </c>
       <c r="D2741" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:4">
+      <c r="A2742" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C2742" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D2742" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:4" ht="36">
+      <c r="A2743" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C2743" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D2743" s="3" t="s">
         <v>1871</v>
-      </c>
-    </row>
-    <row r="2742" spans="1:4" ht="36">
-      <c r="A2742" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2742" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D2742" s="3" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="2743" spans="1:4" ht="18">
-      <c r="A2743" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2743">
-        <v>6</v>
-      </c>
-      <c r="D2743" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2744" spans="1:4" ht="18">
       <c r="A2744" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2744">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2744" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:4" ht="18">
+      <c r="A2745" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B2745">
+        <v>4</v>
+      </c>
+      <c r="D2745" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2745" spans="1:4">
-      <c r="A2745" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2745" t="s">
+    <row r="2746" spans="1:4">
+      <c r="A2746" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C2746" t="s">
         <v>8</v>
       </c>
-      <c r="D2745" t="s">
+      <c r="D2746" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:4" ht="36">
+      <c r="A2747" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C2747" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D2747" s="3" t="s">
         <v>1873</v>
-      </c>
-    </row>
-    <row r="2746" spans="1:4" ht="36">
-      <c r="A2746" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2746" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D2746" s="3" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="2747" spans="1:4">
-      <c r="A2747" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2747" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D2747" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="2748" spans="1:4">
       <c r="A2748" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C2748" t="s">
-        <v>8</v>
+        <v>1862</v>
       </c>
       <c r="D2748" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="2749" spans="1:4">
       <c r="A2749" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2749">
-        <v>2</v>
+        <v>1866</v>
+      </c>
+      <c r="C2749" t="s">
+        <v>8</v>
       </c>
       <c r="D2749" t="s">
-        <v>692</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="2750" spans="1:4">
       <c r="A2750" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2750">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2750" t="s">
-        <v>70</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2751" spans="1:4">
       <c r="A2751" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2751" t="s">
-        <v>692</v>
+        <v>1866</v>
+      </c>
+      <c r="B2751">
+        <v>3</v>
       </c>
       <c r="D2751" t="s">
-        <v>1877</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2752" spans="1:4">
       <c r="A2752" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2752">
-        <v>2</v>
+        <v>1866</v>
+      </c>
+      <c r="C2752" t="s">
+        <v>692</v>
       </c>
       <c r="D2752" t="s">
-        <v>903</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="2753" spans="1:4">
       <c r="A2753" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2753">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2753" t="s">
-        <v>15</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2754" spans="1:4">
       <c r="A2754" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2754">
         <v>4</v>
       </c>
       <c r="D2754" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2755" spans="1:4">
       <c r="A2755" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2755">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2755" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2756" spans="1:4">
       <c r="A2756" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2756">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2756" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2757" spans="1:4">
       <c r="A2757" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C2757" t="s">
-        <v>1863</v>
+        <v>1866</v>
+      </c>
+      <c r="B2757">
+        <v>6</v>
       </c>
       <c r="D2757" t="s">
-        <v>1878</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2758" spans="1:4">
       <c r="A2758" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2758">
-        <v>4</v>
+        <v>1866</v>
+      </c>
+      <c r="C2758" t="s">
+        <v>1862</v>
       </c>
       <c r="D2758" t="s">
-        <v>147</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="2759" spans="1:4">
       <c r="A2759" t="s">
-        <v>1867</v>
+        <v>1866</v>
+      </c>
+      <c r="B2759">
+        <v>4</v>
       </c>
       <c r="D2759" t="s">
-        <v>1880</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2760" spans="1:4">
       <c r="A2760" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D2760" t="s">
         <v>1879</v>
@@ -39454,900 +39908,897 @@
     </row>
     <row r="2761" spans="1:4">
       <c r="A2761" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D2761" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="2762" spans="1:4">
       <c r="A2762" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D2762" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B2763">
-        <v>4</v>
+        <v>1866</v>
       </c>
       <c r="D2763" t="s">
-        <v>210</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
       <c r="A2764" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B2764">
         <v>4</v>
       </c>
       <c r="D2764" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
       <c r="A2765" t="s">
-        <v>1883</v>
+        <v>1866</v>
       </c>
       <c r="B2765">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2765" t="s">
-        <v>1775</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
       <c r="A2766" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2766">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2766" t="s">
-        <v>45</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
       <c r="A2767" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2767">
+        <v>4</v>
+      </c>
+      <c r="D2767" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:4">
+      <c r="A2768" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2768">
+        <v>4</v>
+      </c>
+      <c r="D2768" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:4" ht="36">
+      <c r="A2769" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2769" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2769" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="B2767">
-        <v>4</v>
-      </c>
-      <c r="D2767" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2768" spans="1:4" ht="36">
-      <c r="A2768" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2768" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2768" s="3" t="s">
+    </row>
+    <row r="2770" spans="1:4">
+      <c r="A2770" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2770">
+        <v>2</v>
+      </c>
+      <c r="D2770" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:4" ht="36">
+      <c r="A2771" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2771" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2771" s="3" t="s">
         <v>1884</v>
-      </c>
-    </row>
-    <row r="2769" spans="1:4">
-      <c r="A2769" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2769">
-        <v>2</v>
-      </c>
-      <c r="D2769" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2770" spans="1:4" ht="36">
-      <c r="A2770" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2770" t="s">
-        <v>692</v>
-      </c>
-      <c r="D2770" s="3" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="2771" spans="1:4">
-      <c r="A2771" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2771" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2771" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="2772" spans="1:4">
       <c r="A2772" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2772">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2772" t="s">
+        <v>8</v>
       </c>
       <c r="D2772" t="s">
-        <v>120</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="2773" spans="1:4">
       <c r="A2773" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2773">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2773" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2774" spans="1:4">
       <c r="A2774" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2774" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2774">
+        <v>3</v>
+      </c>
+      <c r="D2774" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:4">
+      <c r="A2775" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2775" t="s">
         <v>120</v>
       </c>
-      <c r="D2774" t="s">
+      <c r="D2775" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:4" ht="36">
+      <c r="A2776" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2776" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2776" s="3" t="s">
         <v>1887</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:4" ht="36">
-      <c r="A2775" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2775" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2775" s="3" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:4">
-      <c r="A2776" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2776">
-        <v>2</v>
-      </c>
-      <c r="D2776" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2777" spans="1:4">
       <c r="A2777" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2777">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2777" t="s">
-        <v>136</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2778" spans="1:4">
       <c r="A2778" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2778" t="s">
-        <v>692</v>
+        <v>1882</v>
+      </c>
+      <c r="B2778">
+        <v>3</v>
       </c>
       <c r="D2778" t="s">
-        <v>1892</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2779" spans="1:4">
       <c r="A2779" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2779">
-        <v>6</v>
+        <v>1882</v>
+      </c>
+      <c r="C2779" t="s">
+        <v>692</v>
       </c>
       <c r="D2779" t="s">
-        <v>23</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="2780" spans="1:4">
       <c r="A2780" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2780">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2780" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2781" spans="1:4">
       <c r="A2781" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2781" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2781">
+        <v>4</v>
       </c>
       <c r="D2781" t="s">
-        <v>1893</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2782" spans="1:4">
       <c r="A2782" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2782">
-        <v>3</v>
+        <v>1882</v>
+      </c>
+      <c r="C2782" t="s">
+        <v>8</v>
       </c>
       <c r="D2782" t="s">
-        <v>70</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="2783" spans="1:4">
       <c r="A2783" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2783">
+        <v>3</v>
+      </c>
+      <c r="D2783" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:4">
+      <c r="A2784" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2784">
         <v>6</v>
       </c>
-      <c r="D2783" t="s">
+      <c r="D2784" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2784" spans="1:4" ht="36">
-      <c r="A2784" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2784" t="s">
+    <row r="2785" spans="1:4" ht="36">
+      <c r="A2785" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2785" t="s">
         <v>692</v>
       </c>
-      <c r="D2784" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="2785" spans="1:4">
-      <c r="A2785" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2785" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2785" t="s">
-        <v>1889</v>
+      <c r="D2785" s="3" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="2786" spans="1:4">
       <c r="A2786" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2786">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2786" t="s">
+        <v>8</v>
       </c>
       <c r="D2786" t="s">
-        <v>120</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="2787" spans="1:4">
       <c r="A2787" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2787">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2787" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2788" spans="1:4">
       <c r="A2788" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2788" t="s">
-        <v>120</v>
+        <v>1882</v>
+      </c>
+      <c r="B2788">
+        <v>3</v>
       </c>
       <c r="D2788" t="s">
-        <v>1890</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2789" spans="1:4">
       <c r="A2789" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2789">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2789" t="s">
+        <v>120</v>
       </c>
       <c r="D2789" t="s">
-        <v>692</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="2790" spans="1:4">
       <c r="A2790" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2790">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2790" t="s">
-        <v>15</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2791" spans="1:4">
       <c r="A2791" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2791">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2791" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2792" spans="1:4">
       <c r="A2792" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2792" t="s">
-        <v>692</v>
+        <v>1882</v>
+      </c>
+      <c r="B2792">
+        <v>6</v>
       </c>
       <c r="D2792" t="s">
-        <v>1891</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2793" spans="1:4">
       <c r="A2793" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2793">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2793" t="s">
+        <v>692</v>
       </c>
       <c r="D2793" t="s">
-        <v>120</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="2794" spans="1:4">
       <c r="A2794" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2794">
+        <v>2</v>
+      </c>
+      <c r="D2794" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:4">
+      <c r="A2795" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2795">
         <v>3</v>
       </c>
-      <c r="D2794" t="s">
+      <c r="D2795" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2795" spans="1:4" ht="36">
-      <c r="A2795" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2795" t="s">
+    <row r="2796" spans="1:4" ht="36">
+      <c r="A2796" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2796" t="s">
         <v>120</v>
       </c>
-      <c r="D2795" s="3" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="2796" spans="1:4">
-      <c r="A2796" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2796">
-        <v>4</v>
-      </c>
-      <c r="D2796" t="s">
-        <v>24</v>
+      <c r="D2796" s="3" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="2797" spans="1:4">
       <c r="A2797" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2797">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2797" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2798" spans="1:4">
       <c r="A2798" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2798" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2798">
+        <v>6</v>
       </c>
       <c r="D2798" t="s">
-        <v>1896</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2799" spans="1:4">
       <c r="A2799" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2799">
-        <v>3</v>
+        <v>1882</v>
+      </c>
+      <c r="C2799" t="s">
+        <v>8</v>
       </c>
       <c r="D2799" t="s">
-        <v>70</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="2800" spans="1:4">
       <c r="A2800" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2800">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2800" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:4">
+      <c r="A2801" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2801">
+        <v>4</v>
+      </c>
+      <c r="D2801" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2801" spans="1:4" ht="18">
-      <c r="A2801" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2801" t="s">
+    <row r="2802" spans="1:4" ht="18">
+      <c r="A2802" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2802" t="s">
         <v>120</v>
       </c>
-      <c r="D2801" s="3" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="2802" spans="1:4">
-      <c r="A2802" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2802">
-        <v>4</v>
-      </c>
-      <c r="D2802" t="s">
-        <v>24</v>
+      <c r="D2802" s="3" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="2803" spans="1:4">
       <c r="A2803" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2803">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2803" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2804" spans="1:4">
       <c r="A2804" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2804" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2804">
+        <v>6</v>
       </c>
       <c r="D2804" t="s">
-        <v>1898</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2805" spans="1:4">
       <c r="A2805" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2805">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2805" t="s">
+        <v>8</v>
       </c>
       <c r="D2805" t="s">
-        <v>692</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2806" spans="1:4">
       <c r="A2806" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2806">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2806" t="s">
-        <v>24</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2807" spans="1:4">
       <c r="A2807" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2807">
         <v>4</v>
       </c>
       <c r="D2807" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2808" spans="1:4">
       <c r="A2808" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2808">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2808" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2809" spans="1:4">
       <c r="A2809" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2809">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2809" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2810" spans="1:4">
       <c r="A2810" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2810" t="s">
-        <v>692</v>
+        <v>1882</v>
+      </c>
+      <c r="B2810">
+        <v>3</v>
       </c>
       <c r="D2810" t="s">
-        <v>1899</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2811" spans="1:4">
       <c r="A2811" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2811">
-        <v>4</v>
+        <v>1882</v>
+      </c>
+      <c r="C2811" t="s">
+        <v>692</v>
       </c>
       <c r="D2811" t="s">
-        <v>15</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2812" spans="1:4">
       <c r="A2812" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2812">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2812" t="s">
-        <v>1216</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2813" spans="1:4">
       <c r="A2813" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2813" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2813">
+        <v>6</v>
       </c>
       <c r="D2813" t="s">
-        <v>1900</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2814" spans="1:4">
       <c r="A2814" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2814">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2814" t="s">
+        <v>8</v>
       </c>
       <c r="D2814" t="s">
-        <v>692</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2815" spans="1:4">
       <c r="A2815" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2815">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2815" t="s">
-        <v>136</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2816" spans="1:4">
       <c r="A2816" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2816">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2816" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2817" spans="1:4">
       <c r="A2817" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2817" t="s">
-        <v>692</v>
+        <v>1882</v>
+      </c>
+      <c r="B2817">
+        <v>5</v>
       </c>
       <c r="D2817" t="s">
-        <v>1901</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2818" spans="1:4">
       <c r="A2818" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2818">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2818" t="s">
+        <v>692</v>
       </c>
       <c r="D2818" t="s">
-        <v>120</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2819" spans="1:4">
       <c r="A2819" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2819">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2819" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2820" spans="1:4">
       <c r="A2820" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2820">
         <v>4</v>
       </c>
       <c r="D2820" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2821" spans="1:4">
       <c r="A2821" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2821">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2821" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2822" spans="1:4">
       <c r="A2822" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2822">
+        <v>6</v>
+      </c>
+      <c r="D2822" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:4">
+      <c r="A2823" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2823">
         <v>5</v>
       </c>
-      <c r="D2822" t="s">
+      <c r="D2823" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="2823" spans="1:4" ht="36">
-      <c r="A2823" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2823" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2823" s="3" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="2824" spans="1:4">
+    <row r="2824" spans="1:4" ht="36">
       <c r="A2824" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C2824" t="s">
         <v>120</v>
       </c>
-      <c r="D2824" t="s">
+      <c r="D2824" s="3" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:4">
+      <c r="A2825" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2825" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2825" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:4" ht="54">
+      <c r="A2826" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2826" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2826" s="3" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="2825" spans="1:4" ht="54">
-      <c r="A2825" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2825" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2825" s="3" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="2826" spans="1:4">
-      <c r="A2826" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2826">
-        <v>2</v>
-      </c>
-      <c r="D2826" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2827" spans="1:4">
       <c r="A2827" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2827">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2827" t="s">
-        <v>15</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2828" spans="1:4">
       <c r="A2828" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2828">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2828" t="s">
-        <v>1216</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2829" spans="1:4">
       <c r="A2829" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2829">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2829" t="s">
-        <v>70</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2830" spans="1:4">
       <c r="A2830" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2830" t="s">
-        <v>692</v>
+        <v>1882</v>
+      </c>
+      <c r="B2830">
+        <v>3</v>
       </c>
       <c r="D2830" t="s">
-        <v>1905</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2831" spans="1:4">
       <c r="A2831" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2831">
-        <v>6</v>
+        <v>1882</v>
+      </c>
+      <c r="C2831" t="s">
+        <v>692</v>
       </c>
       <c r="D2831" t="s">
-        <v>49</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="2832" spans="1:4">
       <c r="A2832" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2832">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2832" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2833" spans="1:4">
       <c r="A2833" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2833">
         <v>4</v>
       </c>
       <c r="D2833" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2834" spans="1:4">
       <c r="A2834" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2834" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2834">
+        <v>4</v>
       </c>
       <c r="D2834" t="s">
-        <v>1906</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2835" spans="1:4">
       <c r="A2835" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2835">
-        <v>4</v>
+        <v>1882</v>
+      </c>
+      <c r="C2835" t="s">
+        <v>8</v>
       </c>
       <c r="D2835" t="s">
-        <v>147</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="2836" spans="1:4">
       <c r="A2836" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2836">
         <v>4</v>
       </c>
       <c r="D2836" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2837" spans="1:4">
       <c r="A2837" t="s">
-        <v>1883</v>
+        <v>1882</v>
+      </c>
+      <c r="B2837">
+        <v>4</v>
       </c>
       <c r="D2837" t="s">
-        <v>1907</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2838" spans="1:4">
       <c r="A2838" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2838">
-        <v>4</v>
+        <v>1882</v>
       </c>
       <c r="D2838" t="s">
-        <v>210</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="2839" spans="1:4">
       <c r="A2839" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2839">
-        <v>7</v>
-      </c>
-      <c r="D2839">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D2839" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2840" spans="1:4">
       <c r="A2840" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2840">
+        <v>7</v>
+      </c>
+      <c r="D2840">
         <v>2</v>
-      </c>
-      <c r="D2840" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="2841" spans="1:4">
       <c r="A2841" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2841">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2841" t="s">
-        <v>136</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2842" spans="1:4">
       <c r="A2842" t="s">
-        <v>1883</v>
+        <v>1882</v>
+      </c>
+      <c r="B2842">
+        <v>3</v>
       </c>
       <c r="D2842" t="s">
-        <v>1909</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2843" spans="1:4">
       <c r="A2843" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2843" t="s">
-        <v>692</v>
+        <v>1882</v>
       </c>
       <c r="D2843" t="s">
         <v>1908</v>
@@ -40355,226 +40806,2371 @@
     </row>
     <row r="2844" spans="1:4">
       <c r="A2844" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2844">
-        <v>2</v>
+        <v>1882</v>
+      </c>
+      <c r="C2844" t="s">
+        <v>692</v>
       </c>
       <c r="D2844" t="s">
-        <v>163</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="2845" spans="1:4">
       <c r="A2845" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2845">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2845" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2846" spans="1:4">
       <c r="A2846" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2846">
+        <v>4</v>
+      </c>
+      <c r="D2846" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:4">
+      <c r="A2847" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2847">
         <v>6</v>
       </c>
-      <c r="D2846" t="s">
+      <c r="D2847" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2847" spans="1:4" ht="36">
-      <c r="A2847" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C2847" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D2847" s="3" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="2848" spans="1:4">
+    <row r="2848" spans="1:4" ht="36">
       <c r="A2848" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C2848" t="s">
         <v>1393</v>
       </c>
-      <c r="D2848" t="s">
-        <v>1911</v>
+      <c r="D2848" s="3" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="2849" spans="1:4">
       <c r="A2849" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C2849" t="s">
-        <v>8</v>
+        <v>1393</v>
       </c>
       <c r="D2849" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="2850" spans="1:4">
       <c r="A2850" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B2850">
-        <v>4</v>
+        <v>1882</v>
+      </c>
+      <c r="C2850" t="s">
+        <v>8</v>
       </c>
       <c r="D2850" t="s">
-        <v>622</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="2851" spans="1:4">
       <c r="A2851" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B2851">
         <v>4</v>
       </c>
       <c r="D2851" t="s">
-        <v>158</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2852" spans="1:4">
       <c r="A2852" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C2852" t="s">
-        <v>8</v>
+        <v>1882</v>
+      </c>
+      <c r="B2852">
+        <v>4</v>
       </c>
       <c r="D2852" t="s">
-        <v>1914</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2853" spans="1:4">
       <c r="A2853" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C2853" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2853" t="s">
         <v>1913</v>
-      </c>
-      <c r="B2853">
-        <v>2</v>
-      </c>
-      <c r="D2853" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="2854" spans="1:4">
       <c r="A2854" t="s">
-        <v>1913</v>
-      </c>
-      <c r="C2854" t="s">
-        <v>13</v>
+        <v>1912</v>
+      </c>
+      <c r="B2854">
+        <v>5</v>
       </c>
       <c r="D2854" t="s">
-        <v>1915</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2855" spans="1:4">
       <c r="A2855" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B2855">
         <v>2</v>
       </c>
       <c r="D2855" t="s">
-        <v>163</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2856" spans="1:4">
       <c r="A2856" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C2856" t="s">
-        <v>1393</v>
+        <v>13</v>
       </c>
       <c r="D2856" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="2857" spans="1:4">
       <c r="A2857" t="s">
-        <v>1913</v>
+        <v>1912</v>
+      </c>
+      <c r="B2857">
+        <v>2</v>
       </c>
       <c r="D2857" t="s">
-        <v>1917</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2858" spans="1:4">
       <c r="A2858" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C2858" t="s">
-        <v>8</v>
+        <v>1393</v>
       </c>
       <c r="D2858" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="2859" spans="1:4" ht="36">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:4">
       <c r="A2859" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D2859" s="3" t="s">
-        <v>1919</v>
+        <v>1912</v>
+      </c>
+      <c r="D2859" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="2860" spans="1:4">
       <c r="A2860" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B2860">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2860" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2861" spans="1:4" ht="36">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:4">
       <c r="A2861" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D2861" s="3" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:4">
+        <v>1912</v>
+      </c>
+      <c r="C2861" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2861" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:4" ht="36">
       <c r="A2862" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D2862" t="s">
-        <v>1921</v>
+        <v>1912</v>
+      </c>
+      <c r="D2862" s="3" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="2863" spans="1:4">
       <c r="A2863" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B2863">
         <v>4</v>
       </c>
       <c r="D2863" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:4" ht="36">
+      <c r="A2864" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D2864" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:4">
+      <c r="A2865" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D2865" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:4">
+      <c r="A2866" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B2866">
+        <v>4</v>
+      </c>
+      <c r="D2866" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2864" spans="1:4">
-      <c r="A2864" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B2864">
-        <v>4</v>
-      </c>
-      <c r="D2864" t="s">
+    <row r="2867" spans="1:4">
+      <c r="A2867" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B2867">
+        <v>4</v>
+      </c>
+      <c r="D2867" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2865" spans="1:1">
-      <c r="A2865" t="s">
-        <v>1913</v>
+    <row r="2868" spans="1:4">
+      <c r="A2868" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2868">
+        <v>5</v>
+      </c>
+      <c r="D2868" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:4">
+      <c r="A2869" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2869">
+        <v>2</v>
+      </c>
+      <c r="D2869" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:4">
+      <c r="A2870" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2870">
+        <v>4</v>
+      </c>
+      <c r="D2870" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:4">
+      <c r="A2871" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2871">
+        <v>7</v>
+      </c>
+      <c r="D2871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:4" ht="54">
+      <c r="A2872" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2872" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D2872" s="3" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:4">
+      <c r="A2873" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2873">
+        <v>4</v>
+      </c>
+      <c r="D2873" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:4">
+      <c r="A2874" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2874">
+        <v>4</v>
+      </c>
+      <c r="D2874" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:4">
+      <c r="A2875" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2875">
+        <v>6</v>
+      </c>
+      <c r="D2875" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:4">
+      <c r="A2876" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2876" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2876" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:4">
+      <c r="A2877" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2877">
+        <v>3</v>
+      </c>
+      <c r="D2877" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:4">
+      <c r="A2878" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2878" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D2878" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:4">
+      <c r="A2879" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2879">
+        <v>4</v>
+      </c>
+      <c r="D2879" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:4">
+      <c r="A2880" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2880">
+        <v>6</v>
+      </c>
+      <c r="D2880" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:4" ht="36">
+      <c r="A2881" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2881" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2881" s="3" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:4" ht="18">
+      <c r="A2882" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2882">
+        <v>2</v>
+      </c>
+      <c r="D2882" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:4" ht="36">
+      <c r="A2883" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2883" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2883" s="3" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:4">
+      <c r="A2884" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2884" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2884" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:4" ht="36">
+      <c r="A2885" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2885" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2885" s="3" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:4" ht="18">
+      <c r="A2886" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2886">
+        <v>4</v>
+      </c>
+      <c r="D2886" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:4" ht="18">
+      <c r="A2887" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2887">
+        <v>4</v>
+      </c>
+      <c r="D2887" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:4" ht="18">
+      <c r="A2888" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2888">
+        <v>3</v>
+      </c>
+      <c r="D2888" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:4" ht="18">
+      <c r="A2889" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2889">
+        <v>6</v>
+      </c>
+      <c r="D2889" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:4">
+      <c r="A2890" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C2890" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2890" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4">
+      <c r="A2891" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2891">
+        <v>4</v>
+      </c>
+      <c r="D2891" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4">
+      <c r="A2892" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2892">
+        <v>4</v>
+      </c>
+      <c r="D2892" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4">
+      <c r="A2893" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D2893" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4">
+      <c r="A2894" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2894">
+        <v>2</v>
+      </c>
+      <c r="D2894" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4">
+      <c r="A2895" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2895" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4">
+      <c r="A2896" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2896">
+        <v>4</v>
+      </c>
+      <c r="D2896" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4">
+      <c r="A2897" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2897">
+        <v>4</v>
+      </c>
+      <c r="D2897" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4">
+      <c r="A2898" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2898">
+        <v>3</v>
+      </c>
+      <c r="D2898" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4">
+      <c r="A2899" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2899">
+        <v>6</v>
+      </c>
+      <c r="D2899" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4">
+      <c r="A2900" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2900" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4">
+      <c r="A2901" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2901" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4">
+      <c r="A2902" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2902">
+        <v>2</v>
+      </c>
+      <c r="D2902" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4">
+      <c r="A2903" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2903">
+        <v>3</v>
+      </c>
+      <c r="D2903" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4" ht="36">
+      <c r="A2904" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2904" s="3" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4" ht="36">
+      <c r="A2905" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2905" s="3" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4">
+      <c r="A2906" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2906">
+        <v>2</v>
+      </c>
+      <c r="D2906" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4">
+      <c r="A2907" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2907">
+        <v>3</v>
+      </c>
+      <c r="D2907" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4" ht="36">
+      <c r="A2908" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2908" s="3" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4">
+      <c r="A2909" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2909" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4">
+      <c r="A2910" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2910">
+        <v>2</v>
+      </c>
+      <c r="D2910" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4">
+      <c r="A2911" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2911">
+        <v>5</v>
+      </c>
+      <c r="D2911" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4">
+      <c r="A2912" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2912">
+        <v>6</v>
+      </c>
+      <c r="D2912" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4" ht="18">
+      <c r="A2913" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2913" s="3" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4" ht="18">
+      <c r="A2914" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2914">
+        <v>2</v>
+      </c>
+      <c r="D2914" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4" ht="18">
+      <c r="A2915" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2915">
+        <v>4</v>
+      </c>
+      <c r="D2915" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4" ht="18">
+      <c r="A2916" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2916">
+        <v>6</v>
+      </c>
+      <c r="D2916" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4" ht="18">
+      <c r="A2917" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2917">
+        <v>3</v>
+      </c>
+      <c r="D2917" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4" ht="18">
+      <c r="A2918" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2918">
+        <v>5</v>
+      </c>
+      <c r="D2918" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4" ht="36">
+      <c r="A2919" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2919" s="3" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4" ht="36">
+      <c r="A2920" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2920" s="3" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4">
+      <c r="A2921" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2921">
+        <v>3</v>
+      </c>
+      <c r="D2921" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4" ht="36">
+      <c r="A2922" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2922" s="3" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4" ht="18">
+      <c r="A2923" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2923">
+        <v>4</v>
+      </c>
+      <c r="D2923" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4" ht="18">
+      <c r="A2924" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2924">
+        <v>6</v>
+      </c>
+      <c r="D2924" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4" ht="36">
+      <c r="A2925" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2925" s="3" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4" ht="18">
+      <c r="A2926" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2926" s="3" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4" ht="18">
+      <c r="A2927" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2927" s="3" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4" ht="36">
+      <c r="A2928" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2928" s="3" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4" ht="18">
+      <c r="A2929" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2929" s="3" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4">
+      <c r="A2930" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2930">
+        <v>4</v>
+      </c>
+      <c r="D2930" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4">
+      <c r="A2931" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D2931" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4">
+      <c r="A2932" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D2932" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4" ht="36">
+      <c r="A2933" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D2933" s="3" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4">
+      <c r="A2934" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2934">
+        <v>4</v>
+      </c>
+      <c r="D2934" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4">
+      <c r="A2935" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2935">
+        <v>4</v>
+      </c>
+      <c r="D2935" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4">
+      <c r="A2936" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2936">
+        <v>5</v>
+      </c>
+      <c r="D2936" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4">
+      <c r="A2937" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2937">
+        <v>4</v>
+      </c>
+      <c r="D2937" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4">
+      <c r="A2938" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2938">
+        <v>4</v>
+      </c>
+      <c r="D2938" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4">
+      <c r="A2939" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2939">
+        <v>7</v>
+      </c>
+      <c r="D2939">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4">
+      <c r="A2940" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D2940" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4">
+      <c r="A2941" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D2941" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4" ht="36">
+      <c r="A2942" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2942" s="3" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4">
+      <c r="A2943" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2943" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4" ht="54">
+      <c r="A2944" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2944" s="3" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4">
+      <c r="A2945" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2945" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4">
+      <c r="A2946" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2946" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4">
+      <c r="A2947" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2947" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4" ht="36">
+      <c r="A2948" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2948" s="3" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4" ht="36">
+      <c r="A2949" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2949" s="3" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4">
+      <c r="A2950" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2950" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4">
+      <c r="A2951" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2951" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4">
+      <c r="A2952" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2952" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4">
+      <c r="A2953" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2953">
+        <v>2</v>
+      </c>
+      <c r="D2953" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4">
+      <c r="A2954" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2954">
+        <v>5</v>
+      </c>
+      <c r="D2954" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4">
+      <c r="A2955" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2955">
+        <v>4</v>
+      </c>
+      <c r="D2955" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4">
+      <c r="A2956" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2956">
+        <v>7</v>
+      </c>
+      <c r="D2956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4">
+      <c r="A2957" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2957" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4">
+      <c r="A2958" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2958" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4">
+      <c r="A2959" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D2959" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4">
+      <c r="A2960" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2962">
+        <v>2</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2964">
+        <v>2</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2967">
+        <v>4</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2968">
+        <v>6</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2970">
+        <v>2</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2971">
+        <v>3</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2972">
+        <v>4</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2973">
+        <v>6</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2974">
+        <v>5</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4" ht="36">
+      <c r="A2975" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2975" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2975" s="3" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4" ht="18">
+      <c r="A2976" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2976">
+        <v>4</v>
+      </c>
+      <c r="D2976" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4" ht="18">
+      <c r="A2977" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2977">
+        <v>4</v>
+      </c>
+      <c r="D2977" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4" ht="18">
+      <c r="A2978" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2978">
+        <v>6</v>
+      </c>
+      <c r="D2978" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4">
+      <c r="A2979" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C2979" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4">
+      <c r="A2980" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2980">
+        <v>4</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4">
+      <c r="A2981" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2981">
+        <v>4</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4">
+      <c r="A2982" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2982">
+        <v>5</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4">
+      <c r="A2983" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2983">
+        <v>3</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4">
+      <c r="A2984" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2984" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4">
+      <c r="A2985" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2985" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4">
+      <c r="A2986" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2986">
+        <v>4</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4">
+      <c r="A2987" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2987">
+        <v>6</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4">
+      <c r="A2988" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4" ht="36">
+      <c r="A2989" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2989" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2989" s="3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4" ht="18">
+      <c r="A2990" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2990">
+        <v>5</v>
+      </c>
+      <c r="C2990" s="12"/>
+      <c r="D2990" s="3" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4">
+      <c r="A2991" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2991" s="12" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4">
+      <c r="A2992" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2992">
+        <v>2</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:4">
+      <c r="A2993" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2993">
+        <v>3</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:4">
+      <c r="A2994" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:4">
+      <c r="A2995" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:4">
+      <c r="A2996" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2996">
+        <v>4</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:4">
+      <c r="A2997" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2997">
+        <v>6</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:4">
+      <c r="A2998" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2998">
+        <v>3</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:4">
+      <c r="A2999" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:4" ht="54">
+      <c r="A3000" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3000" s="3" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:4" ht="18">
+      <c r="A3001" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3001">
+        <v>3</v>
+      </c>
+      <c r="D3001" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:4">
+      <c r="A3002" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:4">
+      <c r="A3003" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3003">
+        <v>4</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:4">
+      <c r="A3004" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3004">
+        <v>6</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:4" ht="54">
+      <c r="A3005" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3005" s="3" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:4">
+      <c r="A3006" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:4">
+      <c r="A3007" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:4" ht="36">
+      <c r="A3008" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3008" s="3" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:4">
+      <c r="A3009" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:4">
+      <c r="A3010" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3010">
+        <v>2</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:4">
+      <c r="A3011" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3011">
+        <v>3</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:4">
+      <c r="A3012" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:4">
+      <c r="A3013" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3013">
+        <v>2</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:4">
+      <c r="A3014" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3014">
+        <v>2</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:4">
+      <c r="A3015" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:4" ht="36">
+      <c r="A3016" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3016" s="3" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:4">
+      <c r="A3017" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:4">
+      <c r="A3018" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3018">
+        <v>3</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:4">
+      <c r="A3019" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3019">
+        <v>4</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:4">
+      <c r="A3020" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3020">
+        <v>4</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:4">
+      <c r="A3021" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3021">
+        <v>6</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:4" ht="54">
+      <c r="A3022" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3022" s="3" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:4" ht="18">
+      <c r="A3023" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3023" s="3" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:4">
+      <c r="A3024" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:4">
+      <c r="A3025" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3025">
+        <v>4</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:4">
+      <c r="A3026" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3026">
+        <v>6</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:4">
+      <c r="A3027" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:4">
+      <c r="A3028" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3028">
+        <v>2</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:4">
+      <c r="A3029" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:4">
+      <c r="A3030" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3030">
+        <v>4</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:4">
+      <c r="A3031" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3031">
+        <v>6</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:4">
+      <c r="A3032" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3032">
+        <v>3</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:4">
+      <c r="A3033" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:4">
+      <c r="A3034" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3034">
+        <v>4</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:4">
+      <c r="A3035" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3035">
+        <v>4</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:4">
+      <c r="A3036" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3036">
+        <v>6</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:4">
+      <c r="A3037" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3037">
+        <v>3</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:4">
+      <c r="A3038" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:4">
+      <c r="A3039" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3039">
+        <v>4</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:4">
+      <c r="A3040" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3040">
+        <v>3</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:4" ht="36">
+      <c r="A3041" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3041" s="3" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:4">
+      <c r="A3042" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:4">
+      <c r="A3043" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3043">
+        <v>4</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:4">
+      <c r="A3044" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3044">
+        <v>6</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:4">
+      <c r="A3045" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3045">
+        <v>5</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:4">
+      <c r="A3046" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:4">
+      <c r="A3047" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3047">
+        <v>4</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:4">
+      <c r="A3048" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:4">
+      <c r="A3049" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:4">
+      <c r="A3050" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:4">
+      <c r="A3051" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:4">
+      <c r="A3052" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3052">
+        <v>4</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:4">
+      <c r="A3053" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3053">
+        <v>4</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:4">
+      <c r="A3054" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3054">
+        <v>5</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:4">
+      <c r="A3055" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3055">
+        <v>7</v>
+      </c>
+      <c r="D3055">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:4">
+      <c r="A3056" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:4">
+      <c r="A3057" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:4">
+      <c r="A3058" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:4">
+      <c r="A3059" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:4">
+      <c r="A3060" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:4">
+      <c r="A3061" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:4">
+      <c r="A3062" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:4">
+      <c r="A3063" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3063">
+        <v>4</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:4">
+      <c r="A3064" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B3064">
+        <v>4</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinhee/Desktop/UnityProject/nerdgame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4139EE88-3911-934B-8104-E853307B640C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4779408B-973C-7743-95C4-5E389F718258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6721" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7005" uniqueCount="2081">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8643,10 +8643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 천신은너네들이 생각하는 만큼 최강의 존재가 아니었지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이제 날 고용한 강사분이 왜 이 몸을 이 학교로 데려왔는지 알 것 같아.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8664,6 +8660,278 @@
   </si>
   <si>
     <t>자신에게 한계를 정하지 않는다면 얼마든지 강해질 수 있다는 걸 괴롭힘 받던 약골에서 최강의 남자가 된 이 몸이 보장하지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 얘기 들었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 비계 파이터에 관한 얘기인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠속에서 의문의 존재들이 밀담을 나누고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 서울을 제외한 대부분의 학교가 녀석에게 당했다더군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀석의 목적이 도대체 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도장깨기다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아하!
+그렇다면 녀석은 머지않아 서울로 오겠구나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키킥! 온다고 해서 달라질 건 없겠지만..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔성회에 의해 전문적으로 육성된 우리는 타 지역 짱들과는 질적으로 다르니까 말이지..!
+케케케켁!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녀석은 이미 이 곳에 와있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 도장깨기 목적이 아닌, 수학여행 차원에서지만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이대로 편하게 놀다가라고 할 수는 없지.
+녀석은 너무 나댔다.
+분에 넘치게 말이야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 역시 정보력 하나는 짱이라니까!
+그래서 어떻게 할 건데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키키킥! 말해 뭐해?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 전체를 박살낸다.
+다시는 재기할 수 없을 정도로 말이지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 대한민국의 수도 서울에 와있다.
+학교생활 중 단 한 번!
+기억에 오래 남을 빅 이벤트!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작년의 나였다면 친구가 없어 정말 참담한 마음으로 참가했겠지만, 올해는 다르다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해는 무려 아리와 친해졌기 때문에 같이 다닐 친구가 있는 것이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학여행1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 천신은 너네들이 생각하는 만큼 최강의 존재가 아니었지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이! 아리! 이 몸과 같이 다닐 거지?
+우리 친구 맞지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 왜 니랑 다니노?
+친구들이랑 같이 다닐란다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매정한 말을 남긴 채 자신의 그룹으로 가는 아리를 어떻게 원망할 수 있을까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원망해야 할 것은 반에 친한 친구 한 명 없는 자기 자신.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이, 이 몸은 설마 아직도 왕따..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다.
+나는 학교 짱이면서도 반에 친구 하나 없는 찐따였던 것이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이오이! 말도 안된다고!
+이 몸은 아리와 알콩달콩 좋은 시간을 보내는 것을 기대하고 왔다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발쇨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 쓸쓸하게 혼자 다녀야 하는 거냐고옷!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자 그럼 얘들아 저녁시간 까지는 숙소로 돌아와야 해!
+그럼 해산!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유시간.
+모두들 신이 나있지만 친구가 없는 이 몸에겐 지옥과도 같은 시간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크윽..! 이 몸은 짱인데 왜 친구가 없는 거냐고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱이되면 자연스럽게 인싸가 되는 것이 아니었던 거냐곳!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 수학여행으로 에바랜드에 온 것이다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임방에나 죽치고 있자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 쓸쓸히 게임방으로 향했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 몸은 게임은 다 잘하지만 격투게임 만큼은 통달했다고 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 나에게 승부를 걸어온 의문의 상대여.
+봐주지 않을 거라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술같은 건 외우지 못했지만, 시리즈 불문 어디에서나 통용되는 격투게임 최강의 기술.
+얍삽이만 사용한다면 못 이길 상대가 없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아놔… 치사하게 하네?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크큭..!
+오이오이… 진검승부에 치사고 뭐고 없다고?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술만 화려해서 이 몸의 실전 압축 얍삽이에 대항할 수 없지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 진짜 제대로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크크큭..!
+오이오이 겉 모습의 화려함에 너무 집중했잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정성 있는 승부를 하라고 하하하!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 개짜증나네!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야 너 나와!!!
+게임 거지같이 하네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 나와?
+그럼 여기서 맞자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이! 잠깐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학여행1-엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으헤에…
+정말 게임 좀 졌다고 너무하네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으으…
+이 자식 찐따처럼 생겨서 왜 이렇게 쎄…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서, 설마?!
+네가 비계파이터?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이 이 몸은 그 별명 좋아하지 않는다구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗! 더 강해져서 돌아오라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제법 자신있는 모양이지만…
+그런 플레이스타일로는 진정한 고수를 이길 수는 없지.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8902,8 +9170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:F3064" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F3064" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A1:F3195" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F3195" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -9191,10 +9459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3064"/>
+  <dimension ref="A1:J3195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3043" zoomScale="105" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3060" sqref="D3060"/>
+    <sheetView tabSelected="1" topLeftCell="A3179" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3196" sqref="C3196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -43099,7 +43367,7 @@
         <v>8</v>
       </c>
       <c r="D3057" t="s">
-        <v>2014</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="3058" spans="1:4">
@@ -43110,7 +43378,7 @@
         <v>8</v>
       </c>
       <c r="D3058" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="3059" spans="1:4">
@@ -43121,7 +43389,7 @@
         <v>8</v>
       </c>
       <c r="D3059" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="3060" spans="1:4">
@@ -43132,7 +43400,7 @@
         <v>8</v>
       </c>
       <c r="D3060" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="3061" spans="1:4">
@@ -43140,7 +43408,7 @@
         <v>1975</v>
       </c>
       <c r="D3061" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="3062" spans="1:4">
@@ -43148,7 +43416,7 @@
         <v>1975</v>
       </c>
       <c r="D3062" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="3063" spans="1:4">
@@ -43171,6 +43439,1393 @@
       </c>
       <c r="D3064" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:4">
+      <c r="A3065" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3065">
+        <v>5</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:4">
+      <c r="A3066" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3066">
+        <v>4</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:4">
+      <c r="A3067" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3067">
+        <v>4</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:4">
+      <c r="A3068" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:4">
+      <c r="A3069" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:4">
+      <c r="A3070" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:4">
+      <c r="A3071" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:4">
+      <c r="A3072" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:4">
+      <c r="A3073" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:4">
+      <c r="A3074" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3074">
+        <v>6</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:4">
+      <c r="A3075" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:4" ht="36">
+      <c r="A3076" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3076" s="3" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:4">
+      <c r="A3077" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:4" ht="54">
+      <c r="A3078" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3078" s="3" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:4">
+      <c r="A3079" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:4">
+      <c r="A3080" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:4" ht="54">
+      <c r="A3081" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3081" s="3" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:4" ht="36">
+      <c r="A3082" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3082" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:4">
+      <c r="A3083" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:4">
+      <c r="A3084" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3084">
+        <v>6</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:4">
+      <c r="A3085" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3085">
+        <v>5</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:4" ht="36">
+      <c r="A3086" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3086" s="3" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:4">
+      <c r="A3087" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3087">
+        <v>4</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:4">
+      <c r="A3088" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3088">
+        <v>7</v>
+      </c>
+      <c r="D3088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:4" ht="54">
+      <c r="A3089" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3089" s="3" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:4">
+      <c r="A3090" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:4">
+      <c r="A3091" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:4">
+      <c r="A3092" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:4" ht="36">
+      <c r="A3093" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3093" s="3" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:4">
+      <c r="A3094" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3094">
+        <v>2</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:4">
+      <c r="A3095" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3095">
+        <v>4</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:4">
+      <c r="A3096" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3096">
+        <v>6</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:4">
+      <c r="A3097" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3097">
+        <v>3</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:4">
+      <c r="A3098" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:4" ht="36">
+      <c r="A3099" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>692</v>
+      </c>
+      <c r="D3099" s="3" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:4" ht="18">
+      <c r="A3100" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3100">
+        <v>4</v>
+      </c>
+      <c r="D3100" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:4" ht="18">
+      <c r="A3101" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3101">
+        <v>6</v>
+      </c>
+      <c r="D3101" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:4">
+      <c r="A3102" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:4">
+      <c r="A3103" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3103">
+        <v>6</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:4">
+      <c r="A3104" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3104">
+        <v>4</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:4">
+      <c r="A3105" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:4">
+      <c r="A3106" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:4">
+      <c r="A3107" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:4" ht="36">
+      <c r="A3108" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3108" s="3" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:4" ht="18">
+      <c r="A3109" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3109">
+        <v>4</v>
+      </c>
+      <c r="D3109" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:4" ht="18">
+      <c r="A3110" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3110">
+        <v>6</v>
+      </c>
+      <c r="D3110" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:4" ht="54">
+      <c r="A3111" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3111" s="3" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:4">
+      <c r="A3112" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:4">
+      <c r="A3113" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3113">
+        <v>2</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:4">
+      <c r="A3114" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3114">
+        <v>3</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:4" ht="36">
+      <c r="A3115" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D3115" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:4">
+      <c r="A3116" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3116">
+        <v>4</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:4" ht="54">
+      <c r="A3117" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3117" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:4">
+      <c r="A3118" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:4">
+      <c r="A3119" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3119">
+        <v>4</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:4">
+      <c r="A3120" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3120">
+        <v>6</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:4">
+      <c r="A3121" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:4">
+      <c r="A3122" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:4">
+      <c r="A3123" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:4">
+      <c r="A3124" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3124">
+        <v>6</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:4">
+      <c r="A3125" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:4">
+      <c r="A3126" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3126">
+        <v>4</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:4">
+      <c r="A3127" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3127">
+        <v>4</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:4">
+      <c r="A3128" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3128">
+        <v>7</v>
+      </c>
+      <c r="D3128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:4">
+      <c r="A3129" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:4" ht="54">
+      <c r="A3130" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3130" s="3" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:4" ht="36">
+      <c r="A3131" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3131" s="3" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:4">
+      <c r="A3132" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3132">
+        <v>6</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:4">
+      <c r="A3133" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3133">
+        <v>7</v>
+      </c>
+      <c r="D3133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:4">
+      <c r="A3134" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3134">
+        <v>6</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:4">
+      <c r="A3135" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3135">
+        <v>7</v>
+      </c>
+      <c r="D3135">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:4">
+      <c r="A3136" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3136">
+        <v>6</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:4">
+      <c r="A3137" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3137">
+        <v>7</v>
+      </c>
+      <c r="D3137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:4">
+      <c r="A3138" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3138">
+        <v>7</v>
+      </c>
+      <c r="D3138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:4">
+      <c r="A3139" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3139">
+        <v>6</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:4">
+      <c r="A3140" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3140">
+        <v>7</v>
+      </c>
+      <c r="D3140">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:4">
+      <c r="A3141" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3141">
+        <v>6</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:4">
+      <c r="A3142" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3142">
+        <v>7</v>
+      </c>
+      <c r="D3142">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:4">
+      <c r="A3143" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3143">
+        <v>6</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:4">
+      <c r="A3144" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3144">
+        <v>7</v>
+      </c>
+      <c r="D3144">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:4">
+      <c r="A3145" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3145">
+        <v>4</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:4">
+      <c r="A3146" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3146">
+        <v>6</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:4">
+      <c r="A3147" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3147">
+        <v>7</v>
+      </c>
+      <c r="D3147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:4">
+      <c r="A3148" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:4" ht="36">
+      <c r="A3149" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3149" s="3" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:4">
+      <c r="A3150" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:4">
+      <c r="A3151" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:4">
+      <c r="A3152" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3152">
+        <v>6</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:4">
+      <c r="A3153" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3153">
+        <v>7</v>
+      </c>
+      <c r="D3153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:4">
+      <c r="A3154" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3154">
+        <v>6</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:4">
+      <c r="A3155" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3155">
+        <v>7</v>
+      </c>
+      <c r="D3155">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:4">
+      <c r="A3156" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3156">
+        <v>6</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:4">
+      <c r="A3157" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3157">
+        <v>7</v>
+      </c>
+      <c r="D3157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:4">
+      <c r="A3158" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3158">
+        <v>7</v>
+      </c>
+      <c r="D3158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:4">
+      <c r="A3159" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3159">
+        <v>6</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:4">
+      <c r="A3160" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3160">
+        <v>7</v>
+      </c>
+      <c r="D3160">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:4">
+      <c r="A3161" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3161">
+        <v>6</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:4">
+      <c r="A3162" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3162">
+        <v>7</v>
+      </c>
+      <c r="D3162">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:4">
+      <c r="A3163" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3163">
+        <v>6</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:4">
+      <c r="A3164" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3164">
+        <v>7</v>
+      </c>
+      <c r="D3164">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:4">
+      <c r="A3165" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3165">
+        <v>4</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:4">
+      <c r="A3166" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3166">
+        <v>6</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:4">
+      <c r="A3167" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3167">
+        <v>7</v>
+      </c>
+      <c r="D3167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:4" ht="36">
+      <c r="A3168" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3168" s="3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:4">
+      <c r="A3169" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:4">
+      <c r="A3170" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3170">
+        <v>2</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:4">
+      <c r="A3171" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3171">
+        <v>4</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:4">
+      <c r="A3172" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3172">
+        <v>4</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:4">
+      <c r="A3173" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3173">
+        <v>6</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:4">
+      <c r="A3174" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:4" ht="36">
+      <c r="A3175" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3175" s="3" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:4">
+      <c r="A3176" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:4">
+      <c r="B3177">
+        <v>3</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:4" ht="36">
+      <c r="A3178" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3178" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:4">
+      <c r="A3179" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:4">
+      <c r="A3180" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3180">
+        <v>4</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:4">
+      <c r="A3181" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3181">
+        <v>4</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:4" ht="36">
+      <c r="A3182" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3182" s="3" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:4">
+      <c r="A3183" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3183">
+        <v>3</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:4" ht="36">
+      <c r="A3184" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3184" s="3" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:4" ht="18">
+      <c r="A3185" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3185">
+        <v>4</v>
+      </c>
+      <c r="D3185" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:4" ht="18">
+      <c r="A3186" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3186">
+        <v>4</v>
+      </c>
+      <c r="D3186" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:4" ht="18">
+      <c r="A3187" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3187">
+        <v>6</v>
+      </c>
+      <c r="D3187" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:4" ht="36">
+      <c r="A3188" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3188" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:4">
+      <c r="A3189" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:4">
+      <c r="A3190" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:4">
+      <c r="A3191" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3191">
+        <v>4</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:4">
+      <c r="A3192" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3192">
+        <v>6</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:4">
+      <c r="A3193" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:4">
+      <c r="A3194" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B3194">
+        <v>2</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:4" ht="36">
+      <c r="A3195" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3195" s="3" t="s">
+        <v>2080</v>
       </c>
     </row>
   </sheetData>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7695" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7755" uniqueCount="2274">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9732,6 +9732,34 @@
   </si>
   <si>
     <t>수학여행5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은비를 응급실에 데려간 후 얼마 안가서 은비를 만날 수 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바운스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운잔잔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9970,8 +9998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F3483" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F3483"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F3535" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F3535"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -10259,10 +10287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3483"/>
+  <dimension ref="A1:J3535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3473" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3492" sqref="D3492"/>
+    <sheetView tabSelected="1" topLeftCell="A3467" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3489" sqref="D3489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -48711,6 +48739,311 @@
       <c r="A3483" t="s">
         <v>2266</v>
       </c>
+      <c r="B3483">
+        <v>5</v>
+      </c>
+      <c r="D3483" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3484" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B3484">
+        <v>4</v>
+      </c>
+      <c r="D3484" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3485" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D3485" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3486" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B3486">
+        <v>4</v>
+      </c>
+      <c r="D3486" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3487" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B3487">
+        <v>7</v>
+      </c>
+      <c r="D3487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3488" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B3488">
+        <v>2</v>
+      </c>
+      <c r="D3488" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3489" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B3489">
+        <v>3</v>
+      </c>
+      <c r="D3489" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3490" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C3490" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D3490" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3491" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3492" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3493" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3494" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3495" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3496" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3497" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3498" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3499" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3500" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3501" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3502" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3503" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3504" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3505" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3506" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3507" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3508" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3509" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3510" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3511" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3512" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3513" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3514" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3515" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3516" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3517" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3518" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3519" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3520" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3521" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3522" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3523" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3524" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3525" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3526" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3527" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3528" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3529" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3530" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3531" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3532" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3533" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3534" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3535" t="s">
+        <v>2266</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/이벤트대사스크립트.xlsx
+++ b/이벤트대사스크립트.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8409" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8428" uniqueCount="2464">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10544,6 +10544,26 @@
   </si>
   <si>
     <t>그 소름돋는 웃음 소리를 마지막으로 나의 의식은 사라졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼마나 정신을 잃은 걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지끈 거리는 통증에 나는 조심스럽게 두 눈을 떴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10782,8 +10802,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F3783" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:F3783"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:F3797" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:F3797"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/Root/Unit/@key" xmlDataType="string"/>
@@ -11071,10 +11091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3783"/>
+  <dimension ref="A1:J3797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3760" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3777" sqref="D3777"/>
+    <sheetView tabSelected="1" topLeftCell="A3770" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3779" sqref="D3779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -52716,9 +52736,109 @@
       <c r="A3782" t="s">
         <v>2456</v>
       </c>
+      <c r="B3782">
+        <v>5</v>
+      </c>
+      <c r="D3782" t="s">
+        <v>2459</v>
+      </c>
     </row>
     <row r="3783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3783" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B3783">
+        <v>4</v>
+      </c>
+      <c r="D3783" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3784" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D3784" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3785" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D3785" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3786" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B3786">
+        <v>4</v>
+      </c>
+      <c r="D3786" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3787" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B3787">
+        <v>7</v>
+      </c>
+      <c r="D3787" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3788" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3789" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3790" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3791" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3792" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3793" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3794" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3795" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3796" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3797" t="s">
         <v>2456</v>
       </c>
     </row>
